--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="199">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="209">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -106,57 +106,93 @@
     <ns0:t xml:space="preserve">Create React TypeScript app with Material UI and routing (React Router).</ns0:t>
   </ns0:si>
   <ns0:si>
+    <ns0:t xml:space="preserve">Used Vite react-ts template with a dark MUI theme.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">React+TS app scaffolded with basic app shell.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G02_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement base layout with top bar and sidebar navigation placeholders.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implemented a drawer-based layout with MUI AppBar and sidebar.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Top bar + side nav with placeholder pages (Dashboard, Queue, Orders, Analytics, Settings).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G02_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Wire basic API call from frontend to backend /health endpoint and display connection status.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Health check uses a simple fetch hook against /health and shows status in a Chip.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">API status indicator wired to backend /health endpoint.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">G03</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Tooling, Git workflow, and initial documentation</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G03_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Configure linting/formatting (black/isort/ruff) and pre-commit hooks for backend.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Configured Black, isort, Ruff, and pre-commit in backend with a shared pyproject.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend codebase can be auto-formatted and linted; hooks available via pre-commit.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G03_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Configure linting/formatting (ESLint/Prettier) for frontend.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Used Vite flat ESLint config with eslint-config-prettier and a simple Prettier setup.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Frontend has ESLint + Prettier with npm scripts for linting and formatting.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G03_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create initial README with project overview and setup steps.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Expanded existing README instead of creating a separate doc.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">README now documents backend/frontend run, test, and lint/format commands.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Design core SQLite schema for alerts, orders, strategies, risk settings</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Design database schema for alerts, orders, strategies, risk_settings, positions, analytics_trades tables.</ns0:t>
+  </ns0:si>
+  <ns0:si>
     <ns0:t xml:space="preserve">pending</ns0:t>
   </ns0:si>
   <ns0:si>
-    <ns0:t xml:space="preserve">S01_G02_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement base layout with top bar and sidebar navigation placeholders.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G02_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Wire basic API call from frontend to backend /health endpoint and display connection status.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">G03</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Tooling, Git workflow, and initial documentation</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G03_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Configure linting/formatting (black/isort/ruff) and pre-commit hooks for backend.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G03_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Configure linting/formatting (ESLint/Prettier) for frontend.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G03_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create initial README with project overview and setup steps.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Design core SQLite schema for alerts, orders, strategies, risk settings</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Design database schema for alerts, orders, strategies, risk_settings, positions, analytics_trades tables.</ns0:t>
-  </ns0:si>
-  <ns0:si>
     <ns0:t xml:space="preserve">S02_G01_TB002</ns0:t>
   </ns0:si>
   <ns0:si>
@@ -601,22 +637,16 @@
     <ns0:t xml:space="preserve">Update README with final architecture, sprint summary, and how to operate the app.</ns0:t>
   </ns0:si>
   <ns0:si>
-    <ns0:t xml:space="preserve">Used Vite react-ts template with a dark MUI theme.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">React+TS app scaffolded with basic app shell.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implemented a drawer-based layout with MUI AppBar and sidebar.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Top bar + side nav with placeholder pages (Dashboard, Queue, Orders, Analytics, Settings).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Health check uses a simple fetch hook against /health and shows status in a Chip.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">API status indicator wired to backend /health endpoint.</ns0:t>
+    <ns0:t xml:space="preserve">Captured schema as a Markdown document with SQLite-focused CREATE TABLE statements and indexes instead of direct migrations.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are designed with keys, checks, and indexes.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Included explicit notes on AUTO/MANUAL modes, manual queue, risk engine, and analytics alignment inside the schema doc.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Schema reviewed for extensibility and alignment with PRD, including risk scopes and simulation support.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -988,8 +1018,8 @@
   </ns0:sheetPr>
   <ns0:dimension ref="A1:H71"/>
   <ns0:sheetViews>
-    <ns0:sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <ns0:selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
+    <ns0:sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <ns0:selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </ns0:sheetView>
   </ns0:sheetViews>
   <ns0:sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1000,7 +1030,7 @@
     <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="84.3"/>
     <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="53.84"/>
     <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.71"/>
-    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="61.21"/>
+    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="61.21"/>
     <ns0:col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="2" width="8.68"/>
   </ns0:cols>
   <ns0:sheetData>
@@ -1026,7 +1056,7 @@
       <ns0:c r="G1" s="4" t="s">
         <ns0:v>6</ns0:v>
       </ns0:c>
-      <ns0:c r="H1" s="4" t="s">
+      <ns0:c r="H1" s="3" t="s">
         <ns0:v>7</ns0:v>
       </ns0:c>
     </ns0:row>
@@ -1052,7 +1082,7 @@
       <ns0:c r="G2" s="2" t="s">
         <ns0:v>14</ns0:v>
       </ns0:c>
-      <ns0:c r="H2" s="2" t="s">
+      <ns0:c r="H2" s="1" t="s">
         <ns0:v>15</ns0:v>
       </ns0:c>
     </ns0:row>
@@ -1078,7 +1108,7 @@
       <ns0:c r="G3" s="2" t="s">
         <ns0:v>14</ns0:v>
       </ns0:c>
-      <ns0:c r="H3" s="2" t="s">
+      <ns0:c r="H3" s="1" t="s">
         <ns0:v>19</ns0:v>
       </ns0:c>
     </ns0:row>
@@ -1104,7 +1134,7 @@
       <ns0:c r="G4" s="2" t="s">
         <ns0:v>14</ns0:v>
       </ns0:c>
-      <ns0:c r="H4" s="2" t="s">
+      <ns0:c r="H4" s="1" t="s">
         <ns0:v>23</ns0:v>
       </ns0:c>
     </ns0:row>
@@ -1124,14 +1154,14 @@
       <ns0:c r="E5" s="1" t="s">
         <ns0:v>27</ns0:v>
       </ns0:c>
+      <ns0:c r="F5" s="1" t="s">
+        <ns0:v>28</ns0:v>
+      </ns0:c>
       <ns0:c r="G5" s="2" t="s">
         <ns0:v>14</ns0:v>
       </ns0:c>
-      <ns0:c r="F5" t="s">
-        <ns0:v>193</ns0:v>
-      </ns0:c>
-      <ns0:c r="H5" t="s">
-        <ns0:v>194</ns0:v>
+      <ns0:c r="H5" s="1" t="s">
+        <ns0:v>29</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,19 +1175,19 @@
         <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="D6" s="1" t="s">
-        <ns0:v>29</ns0:v>
+        <ns0:v>30</ns0:v>
       </ns0:c>
       <ns0:c r="E6" s="1" t="s">
-        <ns0:v>30</ns0:v>
+        <ns0:v>31</ns0:v>
+      </ns0:c>
+      <ns0:c r="F6" s="1" t="s">
+        <ns0:v>32</ns0:v>
       </ns0:c>
       <ns0:c r="G6" s="2" t="s">
         <ns0:v>14</ns0:v>
       </ns0:c>
-      <ns0:c r="F6" t="s">
-        <ns0:v>195</ns0:v>
-      </ns0:c>
-      <ns0:c r="H6" t="s">
-        <ns0:v>196</ns0:v>
+      <ns0:c r="H6" s="1" t="s">
+        <ns0:v>33</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,1299 +1201,1329 @@
         <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="D7" s="1" t="s">
-        <ns0:v>31</ns0:v>
+        <ns0:v>34</ns0:v>
       </ns0:c>
       <ns0:c r="E7" s="1" t="s">
-        <ns0:v>32</ns0:v>
+        <ns0:v>35</ns0:v>
+      </ns0:c>
+      <ns0:c r="F7" s="1" t="s">
+        <ns0:v>36</ns0:v>
       </ns0:c>
       <ns0:c r="G7" s="2" t="s">
         <ns0:v>14</ns0:v>
       </ns0:c>
-      <ns0:c r="F7" t="s">
-        <ns0:v>197</ns0:v>
-      </ns0:c>
-      <ns0:c r="H7" t="s">
-        <ns0:v>198</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="H7" s="1" t="s">
+        <ns0:v>37</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A8" s="1" t="s">
         <ns0:v>8</ns0:v>
       </ns0:c>
       <ns0:c r="B8" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C8" s="1" t="s">
-        <ns0:v>34</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="D8" s="1" t="s">
-        <ns0:v>35</ns0:v>
+        <ns0:v>40</ns0:v>
       </ns0:c>
       <ns0:c r="E8" s="1" t="s">
-        <ns0:v>36</ns0:v>
+        <ns0:v>41</ns0:v>
+      </ns0:c>
+      <ns0:c r="F8" s="1" t="s">
+        <ns0:v>42</ns0:v>
       </ns0:c>
       <ns0:c r="G8" s="2" t="s">
-        <ns0:v>28</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="H8" s="1" t="s">
+        <ns0:v>43</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A9" s="1" t="s">
         <ns0:v>8</ns0:v>
       </ns0:c>
       <ns0:c r="B9" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C9" s="1" t="s">
-        <ns0:v>34</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="D9" s="1" t="s">
-        <ns0:v>37</ns0:v>
+        <ns0:v>44</ns0:v>
       </ns0:c>
       <ns0:c r="E9" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>45</ns0:v>
+      </ns0:c>
+      <ns0:c r="F9" s="1" t="s">
+        <ns0:v>46</ns0:v>
       </ns0:c>
       <ns0:c r="G9" s="2" t="s">
-        <ns0:v>28</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="H9" s="1" t="s">
+        <ns0:v>47</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A10" s="1" t="s">
         <ns0:v>8</ns0:v>
       </ns0:c>
       <ns0:c r="B10" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C10" s="1" t="s">
-        <ns0:v>34</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="D10" s="1" t="s">
-        <ns0:v>39</ns0:v>
+        <ns0:v>48</ns0:v>
       </ns0:c>
       <ns0:c r="E10" s="1" t="s">
-        <ns0:v>40</ns0:v>
+        <ns0:v>49</ns0:v>
+      </ns0:c>
+      <ns0:c r="F10" s="1" t="s">
+        <ns0:v>50</ns0:v>
       </ns0:c>
       <ns0:c r="G10" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="H10" s="1" t="s">
+        <ns0:v>51</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A11" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>52</ns0:v>
       </ns0:c>
       <ns0:c r="B11" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C11" s="1" t="s">
-        <ns0:v>42</ns0:v>
+        <ns0:v>53</ns0:v>
       </ns0:c>
       <ns0:c r="D11" s="1" t="s">
-        <ns0:v>43</ns0:v>
+        <ns0:v>54</ns0:v>
       </ns0:c>
       <ns0:c r="E11" s="1" t="s">
-        <ns0:v>44</ns0:v>
+        <ns0:v>55</ns0:v>
       </ns0:c>
       <ns0:c r="G11" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="F11" t="s">
+        <ns0:v>205</ns0:v>
+      </ns0:c>
+      <ns0:c r="H11" t="s">
+        <ns0:v>206</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A12" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>52</ns0:v>
       </ns0:c>
       <ns0:c r="B12" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C12" s="1" t="s">
-        <ns0:v>42</ns0:v>
+        <ns0:v>53</ns0:v>
       </ns0:c>
       <ns0:c r="D12" s="1" t="s">
-        <ns0:v>45</ns0:v>
+        <ns0:v>57</ns0:v>
       </ns0:c>
       <ns0:c r="E12" s="1" t="s">
-        <ns0:v>46</ns0:v>
+        <ns0:v>58</ns0:v>
       </ns0:c>
       <ns0:c r="G12" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="F12" t="s">
+        <ns0:v>207</ns0:v>
+      </ns0:c>
+      <ns0:c r="H12" t="s">
+        <ns0:v>208</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A13" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>52</ns0:v>
       </ns0:c>
       <ns0:c r="B13" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C13" s="1" t="s">
-        <ns0:v>47</ns0:v>
+        <ns0:v>59</ns0:v>
       </ns0:c>
       <ns0:c r="D13" s="1" t="s">
-        <ns0:v>48</ns0:v>
+        <ns0:v>60</ns0:v>
       </ns0:c>
       <ns0:c r="E13" s="1" t="s">
-        <ns0:v>49</ns0:v>
+        <ns0:v>61</ns0:v>
       </ns0:c>
       <ns0:c r="G13" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A14" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>52</ns0:v>
       </ns0:c>
       <ns0:c r="B14" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C14" s="1" t="s">
-        <ns0:v>47</ns0:v>
+        <ns0:v>59</ns0:v>
       </ns0:c>
       <ns0:c r="D14" s="1" t="s">
-        <ns0:v>50</ns0:v>
+        <ns0:v>62</ns0:v>
       </ns0:c>
       <ns0:c r="E14" s="1" t="s">
-        <ns0:v>51</ns0:v>
+        <ns0:v>63</ns0:v>
       </ns0:c>
       <ns0:c r="G14" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A15" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>52</ns0:v>
       </ns0:c>
       <ns0:c r="B15" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C15" s="1" t="s">
-        <ns0:v>47</ns0:v>
+        <ns0:v>59</ns0:v>
       </ns0:c>
       <ns0:c r="D15" s="1" t="s">
-        <ns0:v>52</ns0:v>
+        <ns0:v>64</ns0:v>
       </ns0:c>
       <ns0:c r="E15" s="1" t="s">
-        <ns0:v>53</ns0:v>
+        <ns0:v>65</ns0:v>
       </ns0:c>
       <ns0:c r="G15" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A16" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>52</ns0:v>
       </ns0:c>
       <ns0:c r="B16" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C16" s="1" t="s">
-        <ns0:v>54</ns0:v>
+        <ns0:v>66</ns0:v>
       </ns0:c>
       <ns0:c r="D16" s="1" t="s">
-        <ns0:v>55</ns0:v>
+        <ns0:v>67</ns0:v>
       </ns0:c>
       <ns0:c r="E16" s="1" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>68</ns0:v>
       </ns0:c>
       <ns0:c r="G16" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A17" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>52</ns0:v>
       </ns0:c>
       <ns0:c r="B17" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C17" s="1" t="s">
-        <ns0:v>54</ns0:v>
+        <ns0:v>66</ns0:v>
       </ns0:c>
       <ns0:c r="D17" s="1" t="s">
-        <ns0:v>57</ns0:v>
+        <ns0:v>69</ns0:v>
       </ns0:c>
       <ns0:c r="E17" s="1" t="s">
-        <ns0:v>58</ns0:v>
+        <ns0:v>70</ns0:v>
       </ns0:c>
       <ns0:c r="G17" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A18" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>52</ns0:v>
       </ns0:c>
       <ns0:c r="B18" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C18" s="1" t="s">
-        <ns0:v>54</ns0:v>
+        <ns0:v>66</ns0:v>
       </ns0:c>
       <ns0:c r="D18" s="1" t="s">
-        <ns0:v>59</ns0:v>
+        <ns0:v>71</ns0:v>
       </ns0:c>
       <ns0:c r="E18" s="1" t="s">
-        <ns0:v>60</ns0:v>
+        <ns0:v>72</ns0:v>
       </ns0:c>
       <ns0:c r="G18" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A19" s="1" t="s">
-        <ns0:v>61</ns0:v>
+        <ns0:v>73</ns0:v>
       </ns0:c>
       <ns0:c r="B19" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C19" s="1" t="s">
-        <ns0:v>62</ns0:v>
+        <ns0:v>74</ns0:v>
       </ns0:c>
       <ns0:c r="D19" s="1" t="s">
-        <ns0:v>63</ns0:v>
+        <ns0:v>75</ns0:v>
       </ns0:c>
       <ns0:c r="E19" s="1" t="s">
-        <ns0:v>64</ns0:v>
+        <ns0:v>76</ns0:v>
       </ns0:c>
       <ns0:c r="G19" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A20" s="1" t="s">
-        <ns0:v>61</ns0:v>
+        <ns0:v>73</ns0:v>
       </ns0:c>
       <ns0:c r="B20" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C20" s="1" t="s">
-        <ns0:v>62</ns0:v>
+        <ns0:v>74</ns0:v>
       </ns0:c>
       <ns0:c r="D20" s="1" t="s">
-        <ns0:v>65</ns0:v>
+        <ns0:v>77</ns0:v>
       </ns0:c>
       <ns0:c r="E20" s="1" t="s">
-        <ns0:v>66</ns0:v>
+        <ns0:v>78</ns0:v>
       </ns0:c>
       <ns0:c r="G20" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A21" s="1" t="s">
-        <ns0:v>61</ns0:v>
+        <ns0:v>73</ns0:v>
       </ns0:c>
       <ns0:c r="B21" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C21" s="1" t="s">
-        <ns0:v>62</ns0:v>
+        <ns0:v>74</ns0:v>
       </ns0:c>
       <ns0:c r="D21" s="1" t="s">
-        <ns0:v>67</ns0:v>
+        <ns0:v>79</ns0:v>
       </ns0:c>
       <ns0:c r="E21" s="1" t="s">
-        <ns0:v>68</ns0:v>
+        <ns0:v>80</ns0:v>
       </ns0:c>
       <ns0:c r="G21" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A22" s="1" t="s">
-        <ns0:v>61</ns0:v>
+        <ns0:v>73</ns0:v>
       </ns0:c>
       <ns0:c r="B22" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C22" s="1" t="s">
-        <ns0:v>69</ns0:v>
+        <ns0:v>81</ns0:v>
       </ns0:c>
       <ns0:c r="D22" s="1" t="s">
-        <ns0:v>70</ns0:v>
+        <ns0:v>82</ns0:v>
       </ns0:c>
       <ns0:c r="E22" s="1" t="s">
-        <ns0:v>71</ns0:v>
+        <ns0:v>83</ns0:v>
       </ns0:c>
       <ns0:c r="G22" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A23" s="1" t="s">
-        <ns0:v>61</ns0:v>
+        <ns0:v>73</ns0:v>
       </ns0:c>
       <ns0:c r="B23" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C23" s="1" t="s">
-        <ns0:v>69</ns0:v>
+        <ns0:v>81</ns0:v>
       </ns0:c>
       <ns0:c r="D23" s="1" t="s">
-        <ns0:v>72</ns0:v>
+        <ns0:v>84</ns0:v>
       </ns0:c>
       <ns0:c r="E23" s="1" t="s">
-        <ns0:v>73</ns0:v>
+        <ns0:v>85</ns0:v>
       </ns0:c>
       <ns0:c r="G23" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A24" s="1" t="s">
-        <ns0:v>61</ns0:v>
+        <ns0:v>73</ns0:v>
       </ns0:c>
       <ns0:c r="B24" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C24" s="1" t="s">
-        <ns0:v>69</ns0:v>
+        <ns0:v>81</ns0:v>
       </ns0:c>
       <ns0:c r="D24" s="1" t="s">
-        <ns0:v>74</ns0:v>
+        <ns0:v>86</ns0:v>
       </ns0:c>
       <ns0:c r="E24" s="1" t="s">
-        <ns0:v>75</ns0:v>
+        <ns0:v>87</ns0:v>
       </ns0:c>
       <ns0:c r="G24" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A25" s="1" t="s">
-        <ns0:v>61</ns0:v>
+        <ns0:v>73</ns0:v>
       </ns0:c>
       <ns0:c r="B25" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C25" s="1" t="s">
-        <ns0:v>76</ns0:v>
+        <ns0:v>88</ns0:v>
       </ns0:c>
       <ns0:c r="D25" s="1" t="s">
-        <ns0:v>77</ns0:v>
+        <ns0:v>89</ns0:v>
       </ns0:c>
       <ns0:c r="E25" s="1" t="s">
-        <ns0:v>78</ns0:v>
+        <ns0:v>90</ns0:v>
       </ns0:c>
       <ns0:c r="G25" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A26" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="B26" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C26" s="1" t="s">
-        <ns0:v>80</ns0:v>
+        <ns0:v>92</ns0:v>
       </ns0:c>
       <ns0:c r="D26" s="1" t="s">
-        <ns0:v>81</ns0:v>
+        <ns0:v>93</ns0:v>
       </ns0:c>
       <ns0:c r="E26" s="1" t="s">
-        <ns0:v>82</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
       <ns0:c r="G26" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A27" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="B27" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C27" s="1" t="s">
-        <ns0:v>80</ns0:v>
+        <ns0:v>92</ns0:v>
       </ns0:c>
       <ns0:c r="D27" s="1" t="s">
-        <ns0:v>83</ns0:v>
+        <ns0:v>95</ns0:v>
       </ns0:c>
       <ns0:c r="E27" s="1" t="s">
-        <ns0:v>84</ns0:v>
+        <ns0:v>96</ns0:v>
       </ns0:c>
       <ns0:c r="G27" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A28" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="B28" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C28" s="1" t="s">
-        <ns0:v>85</ns0:v>
+        <ns0:v>97</ns0:v>
       </ns0:c>
       <ns0:c r="D28" s="1" t="s">
-        <ns0:v>86</ns0:v>
+        <ns0:v>98</ns0:v>
       </ns0:c>
       <ns0:c r="E28" s="1" t="s">
-        <ns0:v>87</ns0:v>
+        <ns0:v>99</ns0:v>
       </ns0:c>
       <ns0:c r="G28" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A29" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="B29" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C29" s="1" t="s">
-        <ns0:v>85</ns0:v>
+        <ns0:v>97</ns0:v>
       </ns0:c>
       <ns0:c r="D29" s="1" t="s">
-        <ns0:v>88</ns0:v>
+        <ns0:v>100</ns0:v>
       </ns0:c>
       <ns0:c r="E29" s="1" t="s">
-        <ns0:v>89</ns0:v>
+        <ns0:v>101</ns0:v>
       </ns0:c>
       <ns0:c r="G29" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A30" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="B30" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C30" s="1" t="s">
-        <ns0:v>85</ns0:v>
+        <ns0:v>97</ns0:v>
       </ns0:c>
       <ns0:c r="D30" s="1" t="s">
-        <ns0:v>90</ns0:v>
+        <ns0:v>102</ns0:v>
       </ns0:c>
       <ns0:c r="E30" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>103</ns0:v>
       </ns0:c>
       <ns0:c r="G30" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A31" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="B31" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C31" s="1" t="s">
-        <ns0:v>85</ns0:v>
+        <ns0:v>97</ns0:v>
       </ns0:c>
       <ns0:c r="D31" s="1" t="s">
-        <ns0:v>92</ns0:v>
+        <ns0:v>104</ns0:v>
       </ns0:c>
       <ns0:c r="E31" s="1" t="s">
-        <ns0:v>93</ns0:v>
+        <ns0:v>105</ns0:v>
       </ns0:c>
       <ns0:c r="G31" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A32" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="B32" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C32" s="1" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>106</ns0:v>
       </ns0:c>
       <ns0:c r="D32" s="1" t="s">
-        <ns0:v>95</ns0:v>
+        <ns0:v>107</ns0:v>
       </ns0:c>
       <ns0:c r="E32" s="1" t="s">
-        <ns0:v>96</ns0:v>
+        <ns0:v>108</ns0:v>
       </ns0:c>
       <ns0:c r="G32" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A33" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="B33" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C33" s="1" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>106</ns0:v>
       </ns0:c>
       <ns0:c r="D33" s="1" t="s">
-        <ns0:v>97</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="E33" s="1" t="s">
-        <ns0:v>98</ns0:v>
+        <ns0:v>110</ns0:v>
       </ns0:c>
       <ns0:c r="G33" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A34" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B34" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C34" s="1" t="s">
-        <ns0:v>100</ns0:v>
+        <ns0:v>112</ns0:v>
       </ns0:c>
       <ns0:c r="D34" s="1" t="s">
-        <ns0:v>101</ns0:v>
+        <ns0:v>113</ns0:v>
       </ns0:c>
       <ns0:c r="E34" s="1" t="s">
-        <ns0:v>102</ns0:v>
+        <ns0:v>114</ns0:v>
       </ns0:c>
       <ns0:c r="G34" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A35" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B35" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C35" s="1" t="s">
-        <ns0:v>100</ns0:v>
+        <ns0:v>112</ns0:v>
       </ns0:c>
       <ns0:c r="D35" s="1" t="s">
-        <ns0:v>103</ns0:v>
+        <ns0:v>115</ns0:v>
       </ns0:c>
       <ns0:c r="E35" s="1" t="s">
-        <ns0:v>104</ns0:v>
+        <ns0:v>116</ns0:v>
       </ns0:c>
       <ns0:c r="G35" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A36" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B36" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C36" s="1" t="s">
-        <ns0:v>100</ns0:v>
+        <ns0:v>112</ns0:v>
       </ns0:c>
       <ns0:c r="D36" s="1" t="s">
-        <ns0:v>105</ns0:v>
+        <ns0:v>117</ns0:v>
       </ns0:c>
       <ns0:c r="E36" s="1" t="s">
-        <ns0:v>106</ns0:v>
+        <ns0:v>118</ns0:v>
       </ns0:c>
       <ns0:c r="G36" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A37" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B37" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C37" s="1" t="s">
-        <ns0:v>107</ns0:v>
+        <ns0:v>119</ns0:v>
       </ns0:c>
       <ns0:c r="D37" s="1" t="s">
-        <ns0:v>108</ns0:v>
+        <ns0:v>120</ns0:v>
       </ns0:c>
       <ns0:c r="E37" s="1" t="s">
-        <ns0:v>109</ns0:v>
+        <ns0:v>121</ns0:v>
       </ns0:c>
       <ns0:c r="G37" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A38" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B38" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C38" s="1" t="s">
-        <ns0:v>107</ns0:v>
+        <ns0:v>119</ns0:v>
       </ns0:c>
       <ns0:c r="D38" s="1" t="s">
-        <ns0:v>110</ns0:v>
+        <ns0:v>122</ns0:v>
       </ns0:c>
       <ns0:c r="E38" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>123</ns0:v>
       </ns0:c>
       <ns0:c r="G38" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A39" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B39" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C39" s="1" t="s">
-        <ns0:v>107</ns0:v>
+        <ns0:v>119</ns0:v>
       </ns0:c>
       <ns0:c r="D39" s="1" t="s">
-        <ns0:v>112</ns0:v>
+        <ns0:v>124</ns0:v>
       </ns0:c>
       <ns0:c r="E39" s="1" t="s">
-        <ns0:v>113</ns0:v>
+        <ns0:v>125</ns0:v>
       </ns0:c>
       <ns0:c r="G39" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A40" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B40" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C40" s="1" t="s">
-        <ns0:v>114</ns0:v>
+        <ns0:v>126</ns0:v>
       </ns0:c>
       <ns0:c r="D40" s="1" t="s">
-        <ns0:v>115</ns0:v>
+        <ns0:v>127</ns0:v>
       </ns0:c>
       <ns0:c r="E40" s="1" t="s">
-        <ns0:v>116</ns0:v>
+        <ns0:v>128</ns0:v>
       </ns0:c>
       <ns0:c r="G40" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A41" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B41" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C41" s="1" t="s">
-        <ns0:v>114</ns0:v>
+        <ns0:v>126</ns0:v>
       </ns0:c>
       <ns0:c r="D41" s="1" t="s">
-        <ns0:v>117</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="E41" s="1" t="s">
-        <ns0:v>118</ns0:v>
+        <ns0:v>130</ns0:v>
       </ns0:c>
       <ns0:c r="G41" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A42" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="B42" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C42" s="1" t="s">
-        <ns0:v>114</ns0:v>
+        <ns0:v>126</ns0:v>
       </ns0:c>
       <ns0:c r="D42" s="1" t="s">
-        <ns0:v>119</ns0:v>
+        <ns0:v>131</ns0:v>
       </ns0:c>
       <ns0:c r="E42" s="1" t="s">
-        <ns0:v>120</ns0:v>
+        <ns0:v>132</ns0:v>
       </ns0:c>
       <ns0:c r="G42" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A43" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B43" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C43" s="1" t="s">
-        <ns0:v>122</ns0:v>
+        <ns0:v>134</ns0:v>
       </ns0:c>
       <ns0:c r="D43" s="1" t="s">
-        <ns0:v>123</ns0:v>
+        <ns0:v>135</ns0:v>
       </ns0:c>
       <ns0:c r="E43" s="1" t="s">
-        <ns0:v>124</ns0:v>
+        <ns0:v>136</ns0:v>
       </ns0:c>
       <ns0:c r="G43" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A44" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B44" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C44" s="1" t="s">
-        <ns0:v>122</ns0:v>
+        <ns0:v>134</ns0:v>
       </ns0:c>
       <ns0:c r="D44" s="1" t="s">
-        <ns0:v>125</ns0:v>
+        <ns0:v>137</ns0:v>
       </ns0:c>
       <ns0:c r="E44" s="1" t="s">
-        <ns0:v>126</ns0:v>
+        <ns0:v>138</ns0:v>
       </ns0:c>
       <ns0:c r="G44" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A45" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B45" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C45" s="1" t="s">
-        <ns0:v>122</ns0:v>
+        <ns0:v>134</ns0:v>
       </ns0:c>
       <ns0:c r="D45" s="1" t="s">
-        <ns0:v>127</ns0:v>
+        <ns0:v>139</ns0:v>
       </ns0:c>
       <ns0:c r="E45" s="1" t="s">
-        <ns0:v>128</ns0:v>
+        <ns0:v>140</ns0:v>
       </ns0:c>
       <ns0:c r="G45" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A46" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B46" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C46" s="1" t="s">
-        <ns0:v>129</ns0:v>
+        <ns0:v>141</ns0:v>
       </ns0:c>
       <ns0:c r="D46" s="1" t="s">
-        <ns0:v>130</ns0:v>
+        <ns0:v>142</ns0:v>
       </ns0:c>
       <ns0:c r="E46" s="1" t="s">
-        <ns0:v>131</ns0:v>
+        <ns0:v>143</ns0:v>
       </ns0:c>
       <ns0:c r="G46" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A47" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B47" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C47" s="1" t="s">
-        <ns0:v>129</ns0:v>
+        <ns0:v>141</ns0:v>
       </ns0:c>
       <ns0:c r="D47" s="1" t="s">
-        <ns0:v>132</ns0:v>
+        <ns0:v>144</ns0:v>
       </ns0:c>
       <ns0:c r="E47" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>145</ns0:v>
       </ns0:c>
       <ns0:c r="G47" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A48" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B48" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C48" s="1" t="s">
-        <ns0:v>129</ns0:v>
+        <ns0:v>141</ns0:v>
       </ns0:c>
       <ns0:c r="D48" s="1" t="s">
-        <ns0:v>134</ns0:v>
+        <ns0:v>146</ns0:v>
       </ns0:c>
       <ns0:c r="E48" s="1" t="s">
-        <ns0:v>135</ns0:v>
+        <ns0:v>147</ns0:v>
       </ns0:c>
       <ns0:c r="G48" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A49" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B49" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C49" s="1" t="s">
-        <ns0:v>129</ns0:v>
+        <ns0:v>141</ns0:v>
       </ns0:c>
       <ns0:c r="D49" s="1" t="s">
-        <ns0:v>136</ns0:v>
+        <ns0:v>148</ns0:v>
       </ns0:c>
       <ns0:c r="E49" s="1" t="s">
-        <ns0:v>137</ns0:v>
+        <ns0:v>149</ns0:v>
       </ns0:c>
       <ns0:c r="G49" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A50" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B50" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C50" s="1" t="s">
-        <ns0:v>138</ns0:v>
+        <ns0:v>150</ns0:v>
       </ns0:c>
       <ns0:c r="D50" s="1" t="s">
-        <ns0:v>139</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="E50" s="1" t="s">
-        <ns0:v>140</ns0:v>
+        <ns0:v>152</ns0:v>
       </ns0:c>
       <ns0:c r="G50" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A51" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="B51" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C51" s="1" t="s">
-        <ns0:v>138</ns0:v>
+        <ns0:v>150</ns0:v>
       </ns0:c>
       <ns0:c r="D51" s="1" t="s">
-        <ns0:v>141</ns0:v>
+        <ns0:v>153</ns0:v>
       </ns0:c>
       <ns0:c r="E51" s="1" t="s">
-        <ns0:v>142</ns0:v>
+        <ns0:v>154</ns0:v>
       </ns0:c>
       <ns0:c r="G51" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A52" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B52" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C52" s="1" t="s">
-        <ns0:v>144</ns0:v>
+        <ns0:v>156</ns0:v>
       </ns0:c>
       <ns0:c r="D52" s="1" t="s">
-        <ns0:v>145</ns0:v>
+        <ns0:v>157</ns0:v>
       </ns0:c>
       <ns0:c r="E52" s="1" t="s">
-        <ns0:v>146</ns0:v>
+        <ns0:v>158</ns0:v>
       </ns0:c>
       <ns0:c r="G52" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A53" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B53" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C53" s="1" t="s">
-        <ns0:v>144</ns0:v>
+        <ns0:v>156</ns0:v>
       </ns0:c>
       <ns0:c r="D53" s="1" t="s">
-        <ns0:v>147</ns0:v>
+        <ns0:v>159</ns0:v>
       </ns0:c>
       <ns0:c r="E53" s="1" t="s">
-        <ns0:v>148</ns0:v>
+        <ns0:v>160</ns0:v>
       </ns0:c>
       <ns0:c r="G53" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A54" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B54" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C54" s="1" t="s">
-        <ns0:v>144</ns0:v>
+        <ns0:v>156</ns0:v>
       </ns0:c>
       <ns0:c r="D54" s="1" t="s">
-        <ns0:v>149</ns0:v>
+        <ns0:v>161</ns0:v>
       </ns0:c>
       <ns0:c r="E54" s="1" t="s">
-        <ns0:v>150</ns0:v>
+        <ns0:v>162</ns0:v>
       </ns0:c>
       <ns0:c r="G54" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A55" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B55" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C55" s="1" t="s">
-        <ns0:v>151</ns0:v>
+        <ns0:v>163</ns0:v>
       </ns0:c>
       <ns0:c r="D55" s="1" t="s">
-        <ns0:v>152</ns0:v>
+        <ns0:v>164</ns0:v>
       </ns0:c>
       <ns0:c r="E55" s="1" t="s">
-        <ns0:v>153</ns0:v>
+        <ns0:v>165</ns0:v>
       </ns0:c>
       <ns0:c r="G55" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A56" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B56" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C56" s="1" t="s">
-        <ns0:v>151</ns0:v>
+        <ns0:v>163</ns0:v>
       </ns0:c>
       <ns0:c r="D56" s="1" t="s">
-        <ns0:v>154</ns0:v>
+        <ns0:v>166</ns0:v>
       </ns0:c>
       <ns0:c r="E56" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>167</ns0:v>
       </ns0:c>
       <ns0:c r="G56" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A57" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B57" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C57" s="1" t="s">
-        <ns0:v>151</ns0:v>
+        <ns0:v>163</ns0:v>
       </ns0:c>
       <ns0:c r="D57" s="1" t="s">
-        <ns0:v>156</ns0:v>
+        <ns0:v>168</ns0:v>
       </ns0:c>
       <ns0:c r="E57" s="1" t="s">
-        <ns0:v>157</ns0:v>
+        <ns0:v>169</ns0:v>
       </ns0:c>
       <ns0:c r="G57" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A58" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B58" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C58" s="1" t="s">
-        <ns0:v>158</ns0:v>
+        <ns0:v>170</ns0:v>
       </ns0:c>
       <ns0:c r="D58" s="1" t="s">
-        <ns0:v>159</ns0:v>
+        <ns0:v>171</ns0:v>
       </ns0:c>
       <ns0:c r="E58" s="1" t="s">
-        <ns0:v>160</ns0:v>
+        <ns0:v>172</ns0:v>
       </ns0:c>
       <ns0:c r="G58" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A59" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B59" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C59" s="1" t="s">
-        <ns0:v>158</ns0:v>
+        <ns0:v>170</ns0:v>
       </ns0:c>
       <ns0:c r="D59" s="1" t="s">
-        <ns0:v>161</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="E59" s="1" t="s">
-        <ns0:v>162</ns0:v>
+        <ns0:v>174</ns0:v>
       </ns0:c>
       <ns0:c r="G59" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A60" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B60" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C60" s="1" t="s">
-        <ns0:v>158</ns0:v>
+        <ns0:v>170</ns0:v>
       </ns0:c>
       <ns0:c r="D60" s="1" t="s">
-        <ns0:v>163</ns0:v>
+        <ns0:v>175</ns0:v>
       </ns0:c>
       <ns0:c r="E60" s="1" t="s">
-        <ns0:v>164</ns0:v>
+        <ns0:v>176</ns0:v>
       </ns0:c>
       <ns0:c r="G60" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A61" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B61" s="1" t="s">
-        <ns0:v>165</ns0:v>
+        <ns0:v>177</ns0:v>
       </ns0:c>
       <ns0:c r="C61" s="1" t="s">
-        <ns0:v>166</ns0:v>
+        <ns0:v>178</ns0:v>
       </ns0:c>
       <ns0:c r="D61" s="1" t="s">
-        <ns0:v>167</ns0:v>
+        <ns0:v>179</ns0:v>
       </ns0:c>
       <ns0:c r="E61" s="1" t="s">
-        <ns0:v>168</ns0:v>
+        <ns0:v>180</ns0:v>
       </ns0:c>
       <ns0:c r="G61" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A62" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B62" s="1" t="s">
-        <ns0:v>165</ns0:v>
+        <ns0:v>177</ns0:v>
       </ns0:c>
       <ns0:c r="C62" s="1" t="s">
-        <ns0:v>166</ns0:v>
+        <ns0:v>178</ns0:v>
       </ns0:c>
       <ns0:c r="D62" s="1" t="s">
-        <ns0:v>169</ns0:v>
+        <ns0:v>181</ns0:v>
       </ns0:c>
       <ns0:c r="E62" s="1" t="s">
-        <ns0:v>170</ns0:v>
+        <ns0:v>182</ns0:v>
       </ns0:c>
       <ns0:c r="G62" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A63" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="B63" s="1" t="s">
-        <ns0:v>165</ns0:v>
+        <ns0:v>177</ns0:v>
       </ns0:c>
       <ns0:c r="C63" s="1" t="s">
-        <ns0:v>166</ns0:v>
+        <ns0:v>178</ns0:v>
       </ns0:c>
       <ns0:c r="D63" s="1" t="s">
-        <ns0:v>171</ns0:v>
+        <ns0:v>183</ns0:v>
       </ns0:c>
       <ns0:c r="E63" s="1" t="s">
-        <ns0:v>172</ns0:v>
+        <ns0:v>184</ns0:v>
       </ns0:c>
       <ns0:c r="G63" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A64" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="B64" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C64" s="1" t="s">
-        <ns0:v>174</ns0:v>
+        <ns0:v>186</ns0:v>
       </ns0:c>
       <ns0:c r="D64" s="1" t="s">
-        <ns0:v>175</ns0:v>
+        <ns0:v>187</ns0:v>
       </ns0:c>
       <ns0:c r="E64" s="1" t="s">
-        <ns0:v>176</ns0:v>
+        <ns0:v>188</ns0:v>
       </ns0:c>
       <ns0:c r="G64" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A65" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="B65" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C65" s="1" t="s">
-        <ns0:v>174</ns0:v>
+        <ns0:v>186</ns0:v>
       </ns0:c>
       <ns0:c r="D65" s="1" t="s">
-        <ns0:v>177</ns0:v>
+        <ns0:v>189</ns0:v>
       </ns0:c>
       <ns0:c r="E65" s="1" t="s">
-        <ns0:v>178</ns0:v>
+        <ns0:v>190</ns0:v>
       </ns0:c>
       <ns0:c r="G65" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A66" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="B66" s="1" t="s">
         <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="C66" s="1" t="s">
-        <ns0:v>174</ns0:v>
+        <ns0:v>186</ns0:v>
       </ns0:c>
       <ns0:c r="D66" s="1" t="s">
-        <ns0:v>179</ns0:v>
+        <ns0:v>191</ns0:v>
       </ns0:c>
       <ns0:c r="E66" s="1" t="s">
-        <ns0:v>180</ns0:v>
+        <ns0:v>192</ns0:v>
       </ns0:c>
       <ns0:c r="G66" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A67" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="B67" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C67" s="1" t="s">
-        <ns0:v>181</ns0:v>
+        <ns0:v>193</ns0:v>
       </ns0:c>
       <ns0:c r="D67" s="1" t="s">
-        <ns0:v>182</ns0:v>
+        <ns0:v>194</ns0:v>
       </ns0:c>
       <ns0:c r="E67" s="1" t="s">
-        <ns0:v>183</ns0:v>
+        <ns0:v>195</ns0:v>
       </ns0:c>
       <ns0:c r="G67" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A68" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="B68" s="1" t="s">
         <ns0:v>24</ns0:v>
       </ns0:c>
       <ns0:c r="C68" s="1" t="s">
-        <ns0:v>181</ns0:v>
+        <ns0:v>193</ns0:v>
       </ns0:c>
       <ns0:c r="D68" s="1" t="s">
-        <ns0:v>184</ns0:v>
+        <ns0:v>196</ns0:v>
       </ns0:c>
       <ns0:c r="E68" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>197</ns0:v>
       </ns0:c>
       <ns0:c r="G68" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A69" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="B69" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C69" s="1" t="s">
-        <ns0:v>186</ns0:v>
+        <ns0:v>198</ns0:v>
       </ns0:c>
       <ns0:c r="D69" s="1" t="s">
-        <ns0:v>187</ns0:v>
+        <ns0:v>199</ns0:v>
       </ns0:c>
       <ns0:c r="E69" s="1" t="s">
-        <ns0:v>188</ns0:v>
+        <ns0:v>200</ns0:v>
       </ns0:c>
       <ns0:c r="G69" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A70" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="B70" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C70" s="1" t="s">
-        <ns0:v>186</ns0:v>
+        <ns0:v>198</ns0:v>
       </ns0:c>
       <ns0:c r="D70" s="1" t="s">
-        <ns0:v>189</ns0:v>
+        <ns0:v>201</ns0:v>
       </ns0:c>
       <ns0:c r="E70" s="1" t="s">
-        <ns0:v>190</ns0:v>
+        <ns0:v>202</ns0:v>
       </ns0:c>
       <ns0:c r="G70" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A71" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="B71" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
       <ns0:c r="C71" s="1" t="s">
-        <ns0:v>186</ns0:v>
+        <ns0:v>198</ns0:v>
       </ns0:c>
       <ns0:c r="D71" s="1" t="s">
-        <ns0:v>191</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="E71" s="1" t="s">
-        <ns0:v>192</ns0:v>
+        <ns0:v>204</ns0:v>
       </ns0:c>
       <ns0:c r="G71" s="2" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>56</ns0:v>
       </ns0:c>
     </ns0:row>
   </ns0:sheetData>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="209">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="215">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -647,6 +647,24 @@
   </ns0:si>
   <ns0:si>
     <ns0:t xml:space="preserve">Schema reviewed for extensibility and alignment with PRD, including risk scopes and simulation support.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Used SQLAlchemy 2.0 typed ORM models grouped under app.models.trading.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are mapped as ORM entities.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Initialized Alembic in backend/ with env.py wired to Settings and an initial migration creating the core tables.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Alembic upgrade head creates the SQLite schema from ORM metadata.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Configured a synchronous SessionLocal and get_db FastAPI dependency; tests use the same engine.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">DB session management is in app.db.session, and README documents Alembic + testing commands.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -1363,7 +1381,13 @@
         <ns0:v>61</ns0:v>
       </ns0:c>
       <ns0:c r="G13" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="F13" t="s">
+        <ns0:v>209</ns0:v>
+      </ns0:c>
+      <ns0:c r="H13" t="s">
+        <ns0:v>210</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,7 +1407,13 @@
         <ns0:v>63</ns0:v>
       </ns0:c>
       <ns0:c r="G14" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="F14" t="s">
+        <ns0:v>211</ns0:v>
+      </ns0:c>
+      <ns0:c r="H14" t="s">
+        <ns0:v>212</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1433,13 @@
         <ns0:v>65</ns0:v>
       </ns0:c>
       <ns0:c r="G15" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="F15" t="s">
+        <ns0:v>213</ns0:v>
+      </ns0:c>
+      <ns0:c r="H15" t="s">
+        <ns0:v>214</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="215">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="222">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -665,6 +665,27 @@
   </ns0:si>
   <ns0:si>
     <ns0:t xml:space="preserve">DB session management is in app.db.session, and README documents Alembic + testing commands.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Exposed REST APIs under /api/strategies for list/create/update operations.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategies can be created and updated via FastAPI endpoints with tests covering basic flows.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Exposed REST APIs under /api/risk-settings with filters for scope and strategy.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Global and per-strategy risk_settings can be created and queried; uniqueness and scope rules enforced.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Added a read-only admin view on the Settings page backed by /api/strategies and /api/risk-settings.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Frontend Settings screen now lists strategies and risk_settings using the new APIs.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Frontend Settings screen now lists strategies and risk_settings using the new APIs. Note: backend tests create example strategies and risk_settings in sigma_trader.db; these will appear here when using the same DB. Delete sigma_trader.db and run 'alembic upgrade head' to reset.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -1459,7 +1480,13 @@
         <ns0:v>68</ns0:v>
       </ns0:c>
       <ns0:c r="G16" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="F16" t="s">
+        <ns0:v>215</ns0:v>
+      </ns0:c>
+      <ns0:c r="H16" t="s">
+        <ns0:v>216</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,7 +1506,13 @@
         <ns0:v>70</ns0:v>
       </ns0:c>
       <ns0:c r="G17" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="F17" t="s">
+        <ns0:v>217</ns0:v>
+      </ns0:c>
+      <ns0:c r="H17" t="s">
+        <ns0:v>218</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1532,13 @@
         <ns0:v>72</ns0:v>
       </ns0:c>
       <ns0:c r="G18" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="F18" t="s">
+        <ns0:v>219</ns0:v>
+      </ns0:c>
+      <ns0:c r="H18" t="s">
+        <ns0:v>221</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="222">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="232">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -46,6 +46,9 @@
     <ns0:t xml:space="preserve">remarks</ns0:t>
   </ns0:si>
   <ns0:si>
+    <ns0:t xml:space="preserve">pending work</ns0:t>
+  </ns0:si>
+  <ns0:si>
     <ns0:t xml:space="preserve">S01</ns0:t>
   </ns0:si>
   <ns0:si>
@@ -190,69 +193,120 @@
     <ns0:t xml:space="preserve">Design database schema for alerts, orders, strategies, risk_settings, positions, analytics_trades tables.</ns0:t>
   </ns0:si>
   <ns0:si>
+    <ns0:t xml:space="preserve">Captured schema as a Markdown document with SQLite-focused CREATE TABLE statements and indexes instead of direct migrations.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are designed with keys, checks, and indexes.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G01_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Review schema for extensibility and alignment with PRD (manual queue, risk, analytics).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Included explicit notes on AUTO/MANUAL modes, manual queue, risk engine, and analytics alignment inside the schema doc.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Schema reviewed for extensibility and alignment with PRD, including risk scopes and simulation support.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement ORM models and migrations</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G02_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement SQLAlchemy ORM models for core tables (alerts, orders, strategies, risk_settings).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Used SQLAlchemy 2.0 typed ORM models grouped under app.models.trading.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are mapped as ORM entities.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G02_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Set up Alembic (or equivalent migration tool) for managing schema migrations.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Initialized Alembic in backend/ with env.py wired to Settings and an initial migration creating the core tables.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Alembic upgrade head creates the SQLite schema from ORM metadata.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G02_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement DB session management and dependency injection in FastAPI.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Configured a synchronous SessionLocal and get_db FastAPI dependency; tests use the same engine.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">DB session management is in app.db.session, and README documents Alembic + testing commands.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend admin APIs for strategies and risk settings</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G03_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create CRUD APIs to manage strategies (list/create/update).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Exposed REST APIs under /api/strategies for list/create/update operations.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategies can be created and updated via FastAPI endpoints with tests covering basic flows.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G03_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create CRUD APIs to manage global and per-strategy risk_settings.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Exposed REST APIs under /api/risk-settings with filters for scope and strategy.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Global and per-strategy risk_settings can be created and queried; uniqueness and scope rules enforced.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G03_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create simple admin UI to view strategies and risk_settings (read-only).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Added a read-only admin view on the Settings page backed by /api/strategies and /api/risk-settings.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Frontend Settings screen now lists strategies and risk_settings using the new APIs. Note: backend tests create example strategies and risk_settings in sigma_trader.db; these will appear here when using the same DB. Delete sigma_trader.db and run 'alembic upgrade head' to reset.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Refine admin APIs and UI later: add DELETE endpoints, richer validation and user-facing error handling once we build full admin flows.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">TradingView webhook endpoint and alert validation</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement /webhook/tradingview endpoint that receives and validates JSON payload with secret.</ns0:t>
+  </ns0:si>
+  <ns0:si>
     <ns0:t xml:space="preserve">pending</ns0:t>
   </ns0:si>
   <ns0:si>
-    <ns0:t xml:space="preserve">S02_G01_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Review schema for extensibility and alignment with PRD (manual queue, risk, analytics).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement ORM models and migrations</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G02_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement SQLAlchemy ORM models for core tables (alerts, orders, strategies, risk_settings).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G02_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Set up Alembic (or equivalent migration tool) for managing schema migrations.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G02_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement DB session management and dependency injection in FastAPI.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Backend admin APIs for strategies and risk settings</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G03_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create CRUD APIs to manage strategies (list/create/update).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G03_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create CRUD APIs to manage global and per-strategy risk_settings.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G03_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create simple admin UI to view strategies and risk_settings (read-only).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">TradingView webhook endpoint and alert validation</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement /webhook/tradingview endpoint that receives and validates JSON payload with secret.</ns0:t>
-  </ns0:si>
-  <ns0:si>
     <ns0:t xml:space="preserve">S03_G01_TB002</ns0:t>
   </ns0:si>
   <ns0:si>
@@ -637,55 +691,31 @@
     <ns0:t xml:space="preserve">Update README with final architecture, sprint summary, and how to operate the app.</ns0:t>
   </ns0:si>
   <ns0:si>
-    <ns0:t xml:space="preserve">Captured schema as a Markdown document with SQLite-focused CREATE TABLE statements and indexes instead of direct migrations.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are designed with keys, checks, and indexes.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Included explicit notes on AUTO/MANUAL modes, manual queue, risk engine, and analytics alignment inside the schema doc.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Schema reviewed for extensibility and alignment with PRD, including risk scopes and simulation support.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Used SQLAlchemy 2.0 typed ORM models grouped under app.models.trading.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are mapped as ORM entities.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Initialized Alembic in backend/ with env.py wired to Settings and an initial migration creating the core tables.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Alembic upgrade head creates the SQLite schema from ORM metadata.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Configured a synchronous SessionLocal and get_db FastAPI dependency; tests use the same engine.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">DB session management is in app.db.session, and README documents Alembic + testing commands.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Exposed REST APIs under /api/strategies for list/create/update operations.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Strategies can be created and updated via FastAPI endpoints with tests covering basic flows.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Exposed REST APIs under /api/risk-settings with filters for scope and strategy.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Global and per-strategy risk_settings can be created and queried; uniqueness and scope rules enforced.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Added a read-only admin view on the Settings page backed by /api/strategies and /api/risk-settings.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Frontend Settings screen now lists strategies and risk_settings using the new APIs.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Frontend Settings screen now lists strategies and risk_settings using the new APIs. Note: backend tests create example strategies and risk_settings in sigma_trader.db; these will appear here when using the same DB. Delete sigma_trader.db and run 'alembic upgrade head' to reset.</ns0:t>
+    <ns0:t xml:space="preserve">Implemented POST /webhook/tradingview with Pydantic payload model rather than a raw dict.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Endpoint validates the secret and accepts structured TradingView payloads.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Extend payload schema as real-world TradingView alert format stabilizes.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Alerts are persisted via the Alert ORM model, linking to Strategy when a matching name exists.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Webhook creates Alert rows with normalized fields and stores the raw payload JSON.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Later sprints will connect alerts to order creation and risk evaluation.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Added pytest tests for secret validation and alert persistence using FastAPI TestClient.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Tests cover valid/invalid secret flows and DB insertion of Alerts.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add more edge-case tests once the payload contract is finalized.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -1055,10 +1085,10 @@
   <ns0:sheetPr filterMode="false">
     <ns0:pageSetUpPr fitToPage="false"/>
   </ns0:sheetPr>
-  <ns0:dimension ref="A1:H71"/>
+  <ns0:dimension ref="A1:I71"/>
   <ns0:sheetViews>
-    <ns0:sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <ns0:selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <ns0:sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <ns0:selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </ns0:sheetView>
   </ns0:sheetViews>
   <ns0:sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1070,7 +1100,8 @@
     <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="53.84"/>
     <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.71"/>
     <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="61.21"/>
-    <ns0:col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="2" width="8.68"/>
+    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="60.79"/>
+    <ns0:col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="2" width="8.68"/>
   </ns0:cols>
   <ns0:sheetData>
     <ns0:row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,1507 +1129,1540 @@
       <ns0:c r="H1" s="3" t="s">
         <ns0:v>7</ns0:v>
       </ns0:c>
+      <ns0:c r="I1" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
     </ns0:row>
     <ns0:row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A2" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B2" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C2" s="1" t="s">
-        <ns0:v>10</ns0:v>
+        <ns0:v>11</ns0:v>
       </ns0:c>
       <ns0:c r="D2" s="1" t="s">
-        <ns0:v>11</ns0:v>
+        <ns0:v>12</ns0:v>
       </ns0:c>
       <ns0:c r="E2" s="1" t="s">
-        <ns0:v>12</ns0:v>
+        <ns0:v>13</ns0:v>
       </ns0:c>
       <ns0:c r="F2" s="1" t="s">
-        <ns0:v>13</ns0:v>
+        <ns0:v>14</ns0:v>
       </ns0:c>
       <ns0:c r="G2" s="2" t="s">
-        <ns0:v>14</ns0:v>
+        <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="H2" s="1" t="s">
-        <ns0:v>15</ns0:v>
+        <ns0:v>16</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A3" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B3" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C3" s="1" t="s">
-        <ns0:v>10</ns0:v>
+        <ns0:v>11</ns0:v>
       </ns0:c>
       <ns0:c r="D3" s="1" t="s">
-        <ns0:v>16</ns0:v>
+        <ns0:v>17</ns0:v>
       </ns0:c>
       <ns0:c r="E3" s="1" t="s">
-        <ns0:v>17</ns0:v>
+        <ns0:v>18</ns0:v>
       </ns0:c>
       <ns0:c r="F3" s="1" t="s">
-        <ns0:v>18</ns0:v>
+        <ns0:v>19</ns0:v>
       </ns0:c>
       <ns0:c r="G3" s="2" t="s">
-        <ns0:v>14</ns0:v>
+        <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="H3" s="1" t="s">
-        <ns0:v>19</ns0:v>
+        <ns0:v>20</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A4" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B4" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C4" s="1" t="s">
-        <ns0:v>10</ns0:v>
+        <ns0:v>11</ns0:v>
       </ns0:c>
       <ns0:c r="D4" s="1" t="s">
-        <ns0:v>20</ns0:v>
+        <ns0:v>21</ns0:v>
       </ns0:c>
       <ns0:c r="E4" s="1" t="s">
-        <ns0:v>21</ns0:v>
+        <ns0:v>22</ns0:v>
       </ns0:c>
       <ns0:c r="F4" s="1" t="s">
-        <ns0:v>22</ns0:v>
+        <ns0:v>23</ns0:v>
       </ns0:c>
       <ns0:c r="G4" s="2" t="s">
-        <ns0:v>14</ns0:v>
+        <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="H4" s="1" t="s">
-        <ns0:v>23</ns0:v>
+        <ns0:v>24</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A5" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B5" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C5" s="1" t="s">
-        <ns0:v>25</ns0:v>
+        <ns0:v>26</ns0:v>
       </ns0:c>
       <ns0:c r="D5" s="1" t="s">
-        <ns0:v>26</ns0:v>
+        <ns0:v>27</ns0:v>
       </ns0:c>
       <ns0:c r="E5" s="1" t="s">
-        <ns0:v>27</ns0:v>
+        <ns0:v>28</ns0:v>
       </ns0:c>
       <ns0:c r="F5" s="1" t="s">
-        <ns0:v>28</ns0:v>
+        <ns0:v>29</ns0:v>
       </ns0:c>
       <ns0:c r="G5" s="2" t="s">
-        <ns0:v>14</ns0:v>
+        <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="H5" s="1" t="s">
-        <ns0:v>29</ns0:v>
+        <ns0:v>30</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A6" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B6" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C6" s="1" t="s">
-        <ns0:v>25</ns0:v>
+        <ns0:v>26</ns0:v>
       </ns0:c>
       <ns0:c r="D6" s="1" t="s">
-        <ns0:v>30</ns0:v>
+        <ns0:v>31</ns0:v>
       </ns0:c>
       <ns0:c r="E6" s="1" t="s">
-        <ns0:v>31</ns0:v>
+        <ns0:v>32</ns0:v>
       </ns0:c>
       <ns0:c r="F6" s="1" t="s">
-        <ns0:v>32</ns0:v>
+        <ns0:v>33</ns0:v>
       </ns0:c>
       <ns0:c r="G6" s="2" t="s">
-        <ns0:v>14</ns0:v>
+        <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="H6" s="1" t="s">
-        <ns0:v>33</ns0:v>
+        <ns0:v>34</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A7" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B7" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C7" s="1" t="s">
-        <ns0:v>25</ns0:v>
+        <ns0:v>26</ns0:v>
       </ns0:c>
       <ns0:c r="D7" s="1" t="s">
-        <ns0:v>34</ns0:v>
+        <ns0:v>35</ns0:v>
       </ns0:c>
       <ns0:c r="E7" s="1" t="s">
-        <ns0:v>35</ns0:v>
+        <ns0:v>36</ns0:v>
       </ns0:c>
       <ns0:c r="F7" s="1" t="s">
-        <ns0:v>36</ns0:v>
+        <ns0:v>37</ns0:v>
       </ns0:c>
       <ns0:c r="G7" s="2" t="s">
-        <ns0:v>14</ns0:v>
+        <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="H7" s="1" t="s">
-        <ns0:v>37</ns0:v>
+        <ns0:v>38</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A8" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B8" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C8" s="1" t="s">
-        <ns0:v>39</ns0:v>
+        <ns0:v>40</ns0:v>
       </ns0:c>
       <ns0:c r="D8" s="1" t="s">
-        <ns0:v>40</ns0:v>
+        <ns0:v>41</ns0:v>
       </ns0:c>
       <ns0:c r="E8" s="1" t="s">
-        <ns0:v>41</ns0:v>
+        <ns0:v>42</ns0:v>
       </ns0:c>
       <ns0:c r="F8" s="1" t="s">
-        <ns0:v>42</ns0:v>
+        <ns0:v>43</ns0:v>
       </ns0:c>
       <ns0:c r="G8" s="2" t="s">
-        <ns0:v>14</ns0:v>
+        <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="H8" s="1" t="s">
-        <ns0:v>43</ns0:v>
+        <ns0:v>44</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A9" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B9" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C9" s="1" t="s">
-        <ns0:v>39</ns0:v>
+        <ns0:v>40</ns0:v>
       </ns0:c>
       <ns0:c r="D9" s="1" t="s">
-        <ns0:v>44</ns0:v>
+        <ns0:v>45</ns0:v>
       </ns0:c>
       <ns0:c r="E9" s="1" t="s">
-        <ns0:v>45</ns0:v>
+        <ns0:v>46</ns0:v>
       </ns0:c>
       <ns0:c r="F9" s="1" t="s">
-        <ns0:v>46</ns0:v>
+        <ns0:v>47</ns0:v>
       </ns0:c>
       <ns0:c r="G9" s="2" t="s">
-        <ns0:v>14</ns0:v>
+        <ns0:v>15</ns0:v>
       </ns0:c>
       <ns0:c r="H9" s="1" t="s">
-        <ns0:v>47</ns0:v>
+        <ns0:v>48</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A10" s="1" t="s">
-        <ns0:v>8</ns0:v>
+        <ns0:v>9</ns0:v>
       </ns0:c>
       <ns0:c r="B10" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C10" s="1" t="s">
+        <ns0:v>40</ns0:v>
+      </ns0:c>
+      <ns0:c r="D10" s="1" t="s">
+        <ns0:v>49</ns0:v>
+      </ns0:c>
+      <ns0:c r="E10" s="1" t="s">
+        <ns0:v>50</ns0:v>
+      </ns0:c>
+      <ns0:c r="F10" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+      <ns0:c r="G10" s="2" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H10" s="1" t="s">
+        <ns0:v>52</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A11" s="1" t="s">
+        <ns0:v>53</ns0:v>
+      </ns0:c>
+      <ns0:c r="B11" s="1" t="s">
+        <ns0:v>10</ns0:v>
+      </ns0:c>
+      <ns0:c r="C11" s="1" t="s">
+        <ns0:v>54</ns0:v>
+      </ns0:c>
+      <ns0:c r="D11" s="1" t="s">
+        <ns0:v>55</ns0:v>
+      </ns0:c>
+      <ns0:c r="E11" s="1" t="s">
+        <ns0:v>56</ns0:v>
+      </ns0:c>
+      <ns0:c r="F11" s="1" t="s">
+        <ns0:v>57</ns0:v>
+      </ns0:c>
+      <ns0:c r="G11" s="2" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H11" s="1" t="s">
+        <ns0:v>58</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A12" s="1" t="s">
+        <ns0:v>53</ns0:v>
+      </ns0:c>
+      <ns0:c r="B12" s="1" t="s">
+        <ns0:v>10</ns0:v>
+      </ns0:c>
+      <ns0:c r="C12" s="1" t="s">
+        <ns0:v>54</ns0:v>
+      </ns0:c>
+      <ns0:c r="D12" s="1" t="s">
+        <ns0:v>59</ns0:v>
+      </ns0:c>
+      <ns0:c r="E12" s="1" t="s">
+        <ns0:v>60</ns0:v>
+      </ns0:c>
+      <ns0:c r="F12" s="1" t="s">
+        <ns0:v>61</ns0:v>
+      </ns0:c>
+      <ns0:c r="G12" s="2" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H12" s="1" t="s">
+        <ns0:v>62</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A13" s="1" t="s">
+        <ns0:v>53</ns0:v>
+      </ns0:c>
+      <ns0:c r="B13" s="1" t="s">
+        <ns0:v>25</ns0:v>
+      </ns0:c>
+      <ns0:c r="C13" s="1" t="s">
+        <ns0:v>63</ns0:v>
+      </ns0:c>
+      <ns0:c r="D13" s="1" t="s">
+        <ns0:v>64</ns0:v>
+      </ns0:c>
+      <ns0:c r="E13" s="1" t="s">
+        <ns0:v>65</ns0:v>
+      </ns0:c>
+      <ns0:c r="F13" s="1" t="s">
+        <ns0:v>66</ns0:v>
+      </ns0:c>
+      <ns0:c r="G13" s="2" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H13" s="1" t="s">
+        <ns0:v>67</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A14" s="1" t="s">
+        <ns0:v>53</ns0:v>
+      </ns0:c>
+      <ns0:c r="B14" s="1" t="s">
+        <ns0:v>25</ns0:v>
+      </ns0:c>
+      <ns0:c r="C14" s="1" t="s">
+        <ns0:v>63</ns0:v>
+      </ns0:c>
+      <ns0:c r="D14" s="1" t="s">
+        <ns0:v>68</ns0:v>
+      </ns0:c>
+      <ns0:c r="E14" s="1" t="s">
+        <ns0:v>69</ns0:v>
+      </ns0:c>
+      <ns0:c r="F14" s="1" t="s">
+        <ns0:v>70</ns0:v>
+      </ns0:c>
+      <ns0:c r="G14" s="2" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H14" s="1" t="s">
+        <ns0:v>71</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A15" s="1" t="s">
+        <ns0:v>53</ns0:v>
+      </ns0:c>
+      <ns0:c r="B15" s="1" t="s">
+        <ns0:v>25</ns0:v>
+      </ns0:c>
+      <ns0:c r="C15" s="1" t="s">
+        <ns0:v>63</ns0:v>
+      </ns0:c>
+      <ns0:c r="D15" s="1" t="s">
+        <ns0:v>72</ns0:v>
+      </ns0:c>
+      <ns0:c r="E15" s="1" t="s">
+        <ns0:v>73</ns0:v>
+      </ns0:c>
+      <ns0:c r="F15" s="1" t="s">
+        <ns0:v>74</ns0:v>
+      </ns0:c>
+      <ns0:c r="G15" s="2" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H15" s="1" t="s">
+        <ns0:v>75</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A16" s="1" t="s">
+        <ns0:v>53</ns0:v>
+      </ns0:c>
+      <ns0:c r="B16" s="1" t="s">
         <ns0:v>39</ns0:v>
       </ns0:c>
-      <ns0:c r="D10" s="1" t="s">
-        <ns0:v>48</ns0:v>
-      </ns0:c>
-      <ns0:c r="E10" s="1" t="s">
-        <ns0:v>49</ns0:v>
-      </ns0:c>
-      <ns0:c r="F10" s="1" t="s">
-        <ns0:v>50</ns0:v>
-      </ns0:c>
-      <ns0:c r="G10" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="H10" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A11" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
-      <ns0:c r="B11" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C11" s="1" t="s">
+      <ns0:c r="C16" s="1" t="s">
+        <ns0:v>76</ns0:v>
+      </ns0:c>
+      <ns0:c r="D16" s="1" t="s">
+        <ns0:v>77</ns0:v>
+      </ns0:c>
+      <ns0:c r="E16" s="1" t="s">
+        <ns0:v>78</ns0:v>
+      </ns0:c>
+      <ns0:c r="F16" s="1" t="s">
+        <ns0:v>79</ns0:v>
+      </ns0:c>
+      <ns0:c r="G16" s="2" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H16" s="1" t="s">
+        <ns0:v>80</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A17" s="1" t="s">
         <ns0:v>53</ns0:v>
       </ns0:c>
-      <ns0:c r="D11" s="1" t="s">
-        <ns0:v>54</ns0:v>
-      </ns0:c>
-      <ns0:c r="E11" s="1" t="s">
-        <ns0:v>55</ns0:v>
-      </ns0:c>
-      <ns0:c r="G11" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="F11" t="s">
-        <ns0:v>205</ns0:v>
-      </ns0:c>
-      <ns0:c r="H11" t="s">
-        <ns0:v>206</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A12" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
-      <ns0:c r="B12" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C12" s="1" t="s">
+      <ns0:c r="B17" s="1" t="s">
+        <ns0:v>39</ns0:v>
+      </ns0:c>
+      <ns0:c r="C17" s="1" t="s">
+        <ns0:v>76</ns0:v>
+      </ns0:c>
+      <ns0:c r="D17" s="1" t="s">
+        <ns0:v>81</ns0:v>
+      </ns0:c>
+      <ns0:c r="E17" s="1" t="s">
+        <ns0:v>82</ns0:v>
+      </ns0:c>
+      <ns0:c r="F17" s="1" t="s">
+        <ns0:v>83</ns0:v>
+      </ns0:c>
+      <ns0:c r="G17" s="2" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H17" s="1" t="s">
+        <ns0:v>84</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A18" s="1" t="s">
         <ns0:v>53</ns0:v>
       </ns0:c>
-      <ns0:c r="D12" s="1" t="s">
-        <ns0:v>57</ns0:v>
-      </ns0:c>
-      <ns0:c r="E12" s="1" t="s">
-        <ns0:v>58</ns0:v>
-      </ns0:c>
-      <ns0:c r="G12" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="F12" t="s">
-        <ns0:v>207</ns0:v>
-      </ns0:c>
-      <ns0:c r="H12" t="s">
-        <ns0:v>208</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A13" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
-      <ns0:c r="B13" s="1" t="s">
-        <ns0:v>24</ns0:v>
-      </ns0:c>
-      <ns0:c r="C13" s="1" t="s">
-        <ns0:v>59</ns0:v>
-      </ns0:c>
-      <ns0:c r="D13" s="1" t="s">
-        <ns0:v>60</ns0:v>
-      </ns0:c>
-      <ns0:c r="E13" s="1" t="s">
-        <ns0:v>61</ns0:v>
-      </ns0:c>
-      <ns0:c r="G13" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="F13" t="s">
-        <ns0:v>209</ns0:v>
-      </ns0:c>
-      <ns0:c r="H13" t="s">
-        <ns0:v>210</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A14" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
-      <ns0:c r="B14" s="1" t="s">
-        <ns0:v>24</ns0:v>
-      </ns0:c>
-      <ns0:c r="C14" s="1" t="s">
-        <ns0:v>59</ns0:v>
-      </ns0:c>
-      <ns0:c r="D14" s="1" t="s">
-        <ns0:v>62</ns0:v>
-      </ns0:c>
-      <ns0:c r="E14" s="1" t="s">
-        <ns0:v>63</ns0:v>
-      </ns0:c>
-      <ns0:c r="G14" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="F14" t="s">
-        <ns0:v>211</ns0:v>
-      </ns0:c>
-      <ns0:c r="H14" t="s">
-        <ns0:v>212</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A15" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
-      <ns0:c r="B15" s="1" t="s">
-        <ns0:v>24</ns0:v>
-      </ns0:c>
-      <ns0:c r="C15" s="1" t="s">
-        <ns0:v>59</ns0:v>
-      </ns0:c>
-      <ns0:c r="D15" s="1" t="s">
-        <ns0:v>64</ns0:v>
-      </ns0:c>
-      <ns0:c r="E15" s="1" t="s">
-        <ns0:v>65</ns0:v>
-      </ns0:c>
-      <ns0:c r="G15" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="F15" t="s">
-        <ns0:v>213</ns0:v>
-      </ns0:c>
-      <ns0:c r="H15" t="s">
-        <ns0:v>214</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A16" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
-      <ns0:c r="B16" s="1" t="s">
-        <ns0:v>38</ns0:v>
-      </ns0:c>
-      <ns0:c r="C16" s="1" t="s">
-        <ns0:v>66</ns0:v>
-      </ns0:c>
-      <ns0:c r="D16" s="1" t="s">
-        <ns0:v>67</ns0:v>
-      </ns0:c>
-      <ns0:c r="E16" s="1" t="s">
-        <ns0:v>68</ns0:v>
-      </ns0:c>
-      <ns0:c r="G16" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="F16" t="s">
-        <ns0:v>215</ns0:v>
-      </ns0:c>
-      <ns0:c r="H16" t="s">
-        <ns0:v>216</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A17" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
-      <ns0:c r="B17" s="1" t="s">
-        <ns0:v>38</ns0:v>
-      </ns0:c>
-      <ns0:c r="C17" s="1" t="s">
-        <ns0:v>66</ns0:v>
-      </ns0:c>
-      <ns0:c r="D17" s="1" t="s">
-        <ns0:v>69</ns0:v>
-      </ns0:c>
-      <ns0:c r="E17" s="1" t="s">
-        <ns0:v>70</ns0:v>
-      </ns0:c>
-      <ns0:c r="G17" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="F17" t="s">
-        <ns0:v>217</ns0:v>
-      </ns0:c>
-      <ns0:c r="H17" t="s">
-        <ns0:v>218</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A18" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
       <ns0:c r="B18" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C18" s="1" t="s">
-        <ns0:v>66</ns0:v>
+        <ns0:v>76</ns0:v>
       </ns0:c>
       <ns0:c r="D18" s="1" t="s">
-        <ns0:v>71</ns0:v>
+        <ns0:v>85</ns0:v>
       </ns0:c>
       <ns0:c r="E18" s="1" t="s">
-        <ns0:v>72</ns0:v>
+        <ns0:v>86</ns0:v>
+      </ns0:c>
+      <ns0:c r="F18" s="1" t="s">
+        <ns0:v>87</ns0:v>
       </ns0:c>
       <ns0:c r="G18" s="2" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="F18" t="s">
-        <ns0:v>219</ns0:v>
-      </ns0:c>
-      <ns0:c r="H18" t="s">
-        <ns0:v>221</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="H18" s="1" t="s">
+        <ns0:v>88</ns0:v>
+      </ns0:c>
+      <ns0:c r="I18" s="1" t="s">
+        <ns0:v>89</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A19" s="1" t="s">
-        <ns0:v>73</ns0:v>
+        <ns0:v>90</ns0:v>
       </ns0:c>
       <ns0:c r="B19" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C19" s="1" t="s">
-        <ns0:v>74</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="D19" s="1" t="s">
-        <ns0:v>75</ns0:v>
+        <ns0:v>92</ns0:v>
       </ns0:c>
       <ns0:c r="E19" s="1" t="s">
-        <ns0:v>76</ns0:v>
+        <ns0:v>93</ns0:v>
       </ns0:c>
       <ns0:c r="G19" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F19" t="s">
+        <ns0:v>223</ns0:v>
+      </ns0:c>
+      <ns0:c r="H19" t="s">
+        <ns0:v>224</ns0:v>
+      </ns0:c>
+      <ns0:c r="I19" t="s">
+        <ns0:v>225</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A20" s="1" t="s">
-        <ns0:v>73</ns0:v>
+        <ns0:v>90</ns0:v>
       </ns0:c>
       <ns0:c r="B20" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C20" s="1" t="s">
-        <ns0:v>74</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="D20" s="1" t="s">
-        <ns0:v>77</ns0:v>
+        <ns0:v>95</ns0:v>
       </ns0:c>
       <ns0:c r="E20" s="1" t="s">
-        <ns0:v>78</ns0:v>
+        <ns0:v>96</ns0:v>
       </ns0:c>
       <ns0:c r="G20" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F20" t="s">
+        <ns0:v>226</ns0:v>
+      </ns0:c>
+      <ns0:c r="H20" t="s">
+        <ns0:v>227</ns0:v>
+      </ns0:c>
+      <ns0:c r="I20" t="s">
+        <ns0:v>228</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A21" s="1" t="s">
-        <ns0:v>73</ns0:v>
+        <ns0:v>90</ns0:v>
       </ns0:c>
       <ns0:c r="B21" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C21" s="1" t="s">
-        <ns0:v>74</ns0:v>
+        <ns0:v>91</ns0:v>
       </ns0:c>
       <ns0:c r="D21" s="1" t="s">
-        <ns0:v>79</ns0:v>
+        <ns0:v>97</ns0:v>
       </ns0:c>
       <ns0:c r="E21" s="1" t="s">
-        <ns0:v>80</ns0:v>
+        <ns0:v>98</ns0:v>
       </ns0:c>
       <ns0:c r="G21" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F21" t="s">
+        <ns0:v>229</ns0:v>
+      </ns0:c>
+      <ns0:c r="H21" t="s">
+        <ns0:v>230</ns0:v>
+      </ns0:c>
+      <ns0:c r="I21" t="s">
+        <ns0:v>231</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A22" s="1" t="s">
-        <ns0:v>73</ns0:v>
+        <ns0:v>90</ns0:v>
       </ns0:c>
       <ns0:c r="B22" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C22" s="1" t="s">
-        <ns0:v>81</ns0:v>
+        <ns0:v>99</ns0:v>
       </ns0:c>
       <ns0:c r="D22" s="1" t="s">
-        <ns0:v>82</ns0:v>
+        <ns0:v>100</ns0:v>
       </ns0:c>
       <ns0:c r="E22" s="1" t="s">
-        <ns0:v>83</ns0:v>
+        <ns0:v>101</ns0:v>
       </ns0:c>
       <ns0:c r="G22" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A23" s="1" t="s">
-        <ns0:v>73</ns0:v>
+        <ns0:v>90</ns0:v>
       </ns0:c>
       <ns0:c r="B23" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C23" s="1" t="s">
-        <ns0:v>81</ns0:v>
+        <ns0:v>99</ns0:v>
       </ns0:c>
       <ns0:c r="D23" s="1" t="s">
-        <ns0:v>84</ns0:v>
+        <ns0:v>102</ns0:v>
       </ns0:c>
       <ns0:c r="E23" s="1" t="s">
-        <ns0:v>85</ns0:v>
+        <ns0:v>103</ns0:v>
       </ns0:c>
       <ns0:c r="G23" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A24" s="1" t="s">
-        <ns0:v>73</ns0:v>
+        <ns0:v>90</ns0:v>
       </ns0:c>
       <ns0:c r="B24" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C24" s="1" t="s">
-        <ns0:v>81</ns0:v>
+        <ns0:v>99</ns0:v>
       </ns0:c>
       <ns0:c r="D24" s="1" t="s">
-        <ns0:v>86</ns0:v>
+        <ns0:v>104</ns0:v>
       </ns0:c>
       <ns0:c r="E24" s="1" t="s">
-        <ns0:v>87</ns0:v>
+        <ns0:v>105</ns0:v>
       </ns0:c>
       <ns0:c r="G24" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A25" s="1" t="s">
-        <ns0:v>73</ns0:v>
+        <ns0:v>90</ns0:v>
       </ns0:c>
       <ns0:c r="B25" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C25" s="1" t="s">
-        <ns0:v>88</ns0:v>
+        <ns0:v>106</ns0:v>
       </ns0:c>
       <ns0:c r="D25" s="1" t="s">
-        <ns0:v>89</ns0:v>
+        <ns0:v>107</ns0:v>
       </ns0:c>
       <ns0:c r="E25" s="1" t="s">
-        <ns0:v>90</ns0:v>
+        <ns0:v>108</ns0:v>
       </ns0:c>
       <ns0:c r="G25" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A26" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="B26" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C26" s="1" t="s">
-        <ns0:v>92</ns0:v>
+        <ns0:v>110</ns0:v>
       </ns0:c>
       <ns0:c r="D26" s="1" t="s">
-        <ns0:v>93</ns0:v>
+        <ns0:v>111</ns0:v>
       </ns0:c>
       <ns0:c r="E26" s="1" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>112</ns0:v>
       </ns0:c>
       <ns0:c r="G26" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A27" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="B27" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C27" s="1" t="s">
-        <ns0:v>92</ns0:v>
+        <ns0:v>110</ns0:v>
       </ns0:c>
       <ns0:c r="D27" s="1" t="s">
-        <ns0:v>95</ns0:v>
+        <ns0:v>113</ns0:v>
       </ns0:c>
       <ns0:c r="E27" s="1" t="s">
-        <ns0:v>96</ns0:v>
+        <ns0:v>114</ns0:v>
       </ns0:c>
       <ns0:c r="G27" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A28" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="B28" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C28" s="1" t="s">
-        <ns0:v>97</ns0:v>
+        <ns0:v>115</ns0:v>
       </ns0:c>
       <ns0:c r="D28" s="1" t="s">
-        <ns0:v>98</ns0:v>
+        <ns0:v>116</ns0:v>
       </ns0:c>
       <ns0:c r="E28" s="1" t="s">
-        <ns0:v>99</ns0:v>
+        <ns0:v>117</ns0:v>
       </ns0:c>
       <ns0:c r="G28" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A29" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="B29" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C29" s="1" t="s">
-        <ns0:v>97</ns0:v>
+        <ns0:v>115</ns0:v>
       </ns0:c>
       <ns0:c r="D29" s="1" t="s">
-        <ns0:v>100</ns0:v>
+        <ns0:v>118</ns0:v>
       </ns0:c>
       <ns0:c r="E29" s="1" t="s">
-        <ns0:v>101</ns0:v>
+        <ns0:v>119</ns0:v>
       </ns0:c>
       <ns0:c r="G29" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A30" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="B30" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C30" s="1" t="s">
-        <ns0:v>97</ns0:v>
+        <ns0:v>115</ns0:v>
       </ns0:c>
       <ns0:c r="D30" s="1" t="s">
-        <ns0:v>102</ns0:v>
+        <ns0:v>120</ns0:v>
       </ns0:c>
       <ns0:c r="E30" s="1" t="s">
-        <ns0:v>103</ns0:v>
+        <ns0:v>121</ns0:v>
       </ns0:c>
       <ns0:c r="G30" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A31" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="B31" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C31" s="1" t="s">
-        <ns0:v>97</ns0:v>
+        <ns0:v>115</ns0:v>
       </ns0:c>
       <ns0:c r="D31" s="1" t="s">
-        <ns0:v>104</ns0:v>
+        <ns0:v>122</ns0:v>
       </ns0:c>
       <ns0:c r="E31" s="1" t="s">
-        <ns0:v>105</ns0:v>
+        <ns0:v>123</ns0:v>
       </ns0:c>
       <ns0:c r="G31" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A32" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="B32" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C32" s="1" t="s">
-        <ns0:v>106</ns0:v>
+        <ns0:v>124</ns0:v>
       </ns0:c>
       <ns0:c r="D32" s="1" t="s">
-        <ns0:v>107</ns0:v>
+        <ns0:v>125</ns0:v>
       </ns0:c>
       <ns0:c r="E32" s="1" t="s">
-        <ns0:v>108</ns0:v>
+        <ns0:v>126</ns0:v>
       </ns0:c>
       <ns0:c r="G32" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A33" s="1" t="s">
-        <ns0:v>91</ns0:v>
+        <ns0:v>109</ns0:v>
       </ns0:c>
       <ns0:c r="B33" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C33" s="1" t="s">
-        <ns0:v>106</ns0:v>
+        <ns0:v>124</ns0:v>
       </ns0:c>
       <ns0:c r="D33" s="1" t="s">
-        <ns0:v>109</ns0:v>
+        <ns0:v>127</ns0:v>
       </ns0:c>
       <ns0:c r="E33" s="1" t="s">
-        <ns0:v>110</ns0:v>
+        <ns0:v>128</ns0:v>
       </ns0:c>
       <ns0:c r="G33" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A34" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B34" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C34" s="1" t="s">
-        <ns0:v>112</ns0:v>
+        <ns0:v>130</ns0:v>
       </ns0:c>
       <ns0:c r="D34" s="1" t="s">
-        <ns0:v>113</ns0:v>
+        <ns0:v>131</ns0:v>
       </ns0:c>
       <ns0:c r="E34" s="1" t="s">
-        <ns0:v>114</ns0:v>
+        <ns0:v>132</ns0:v>
       </ns0:c>
       <ns0:c r="G34" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A35" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B35" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C35" s="1" t="s">
-        <ns0:v>112</ns0:v>
+        <ns0:v>130</ns0:v>
       </ns0:c>
       <ns0:c r="D35" s="1" t="s">
-        <ns0:v>115</ns0:v>
+        <ns0:v>133</ns0:v>
       </ns0:c>
       <ns0:c r="E35" s="1" t="s">
-        <ns0:v>116</ns0:v>
+        <ns0:v>134</ns0:v>
       </ns0:c>
       <ns0:c r="G35" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A36" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B36" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C36" s="1" t="s">
-        <ns0:v>112</ns0:v>
+        <ns0:v>130</ns0:v>
       </ns0:c>
       <ns0:c r="D36" s="1" t="s">
-        <ns0:v>117</ns0:v>
+        <ns0:v>135</ns0:v>
       </ns0:c>
       <ns0:c r="E36" s="1" t="s">
-        <ns0:v>118</ns0:v>
+        <ns0:v>136</ns0:v>
       </ns0:c>
       <ns0:c r="G36" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A37" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B37" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C37" s="1" t="s">
-        <ns0:v>119</ns0:v>
+        <ns0:v>137</ns0:v>
       </ns0:c>
       <ns0:c r="D37" s="1" t="s">
-        <ns0:v>120</ns0:v>
+        <ns0:v>138</ns0:v>
       </ns0:c>
       <ns0:c r="E37" s="1" t="s">
-        <ns0:v>121</ns0:v>
+        <ns0:v>139</ns0:v>
       </ns0:c>
       <ns0:c r="G37" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A38" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B38" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C38" s="1" t="s">
-        <ns0:v>119</ns0:v>
+        <ns0:v>137</ns0:v>
       </ns0:c>
       <ns0:c r="D38" s="1" t="s">
-        <ns0:v>122</ns0:v>
+        <ns0:v>140</ns0:v>
       </ns0:c>
       <ns0:c r="E38" s="1" t="s">
-        <ns0:v>123</ns0:v>
+        <ns0:v>141</ns0:v>
       </ns0:c>
       <ns0:c r="G38" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A39" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B39" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C39" s="1" t="s">
-        <ns0:v>119</ns0:v>
+        <ns0:v>137</ns0:v>
       </ns0:c>
       <ns0:c r="D39" s="1" t="s">
-        <ns0:v>124</ns0:v>
+        <ns0:v>142</ns0:v>
       </ns0:c>
       <ns0:c r="E39" s="1" t="s">
-        <ns0:v>125</ns0:v>
+        <ns0:v>143</ns0:v>
       </ns0:c>
       <ns0:c r="G39" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A40" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B40" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C40" s="1" t="s">
-        <ns0:v>126</ns0:v>
+        <ns0:v>144</ns0:v>
       </ns0:c>
       <ns0:c r="D40" s="1" t="s">
-        <ns0:v>127</ns0:v>
+        <ns0:v>145</ns0:v>
       </ns0:c>
       <ns0:c r="E40" s="1" t="s">
-        <ns0:v>128</ns0:v>
+        <ns0:v>146</ns0:v>
       </ns0:c>
       <ns0:c r="G40" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A41" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B41" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C41" s="1" t="s">
-        <ns0:v>126</ns0:v>
+        <ns0:v>144</ns0:v>
       </ns0:c>
       <ns0:c r="D41" s="1" t="s">
-        <ns0:v>129</ns0:v>
+        <ns0:v>147</ns0:v>
       </ns0:c>
       <ns0:c r="E41" s="1" t="s">
-        <ns0:v>130</ns0:v>
+        <ns0:v>148</ns0:v>
       </ns0:c>
       <ns0:c r="G41" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A42" s="1" t="s">
-        <ns0:v>111</ns0:v>
+        <ns0:v>129</ns0:v>
       </ns0:c>
       <ns0:c r="B42" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C42" s="1" t="s">
-        <ns0:v>126</ns0:v>
+        <ns0:v>144</ns0:v>
       </ns0:c>
       <ns0:c r="D42" s="1" t="s">
-        <ns0:v>131</ns0:v>
+        <ns0:v>149</ns0:v>
       </ns0:c>
       <ns0:c r="E42" s="1" t="s">
-        <ns0:v>132</ns0:v>
+        <ns0:v>150</ns0:v>
       </ns0:c>
       <ns0:c r="G42" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A43" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B43" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C43" s="1" t="s">
-        <ns0:v>134</ns0:v>
+        <ns0:v>152</ns0:v>
       </ns0:c>
       <ns0:c r="D43" s="1" t="s">
-        <ns0:v>135</ns0:v>
+        <ns0:v>153</ns0:v>
       </ns0:c>
       <ns0:c r="E43" s="1" t="s">
-        <ns0:v>136</ns0:v>
+        <ns0:v>154</ns0:v>
       </ns0:c>
       <ns0:c r="G43" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A44" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B44" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C44" s="1" t="s">
-        <ns0:v>134</ns0:v>
+        <ns0:v>152</ns0:v>
       </ns0:c>
       <ns0:c r="D44" s="1" t="s">
-        <ns0:v>137</ns0:v>
+        <ns0:v>155</ns0:v>
       </ns0:c>
       <ns0:c r="E44" s="1" t="s">
-        <ns0:v>138</ns0:v>
+        <ns0:v>156</ns0:v>
       </ns0:c>
       <ns0:c r="G44" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A45" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B45" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C45" s="1" t="s">
-        <ns0:v>134</ns0:v>
+        <ns0:v>152</ns0:v>
       </ns0:c>
       <ns0:c r="D45" s="1" t="s">
-        <ns0:v>139</ns0:v>
+        <ns0:v>157</ns0:v>
       </ns0:c>
       <ns0:c r="E45" s="1" t="s">
-        <ns0:v>140</ns0:v>
+        <ns0:v>158</ns0:v>
       </ns0:c>
       <ns0:c r="G45" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A46" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B46" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C46" s="1" t="s">
-        <ns0:v>141</ns0:v>
+        <ns0:v>159</ns0:v>
       </ns0:c>
       <ns0:c r="D46" s="1" t="s">
-        <ns0:v>142</ns0:v>
+        <ns0:v>160</ns0:v>
       </ns0:c>
       <ns0:c r="E46" s="1" t="s">
-        <ns0:v>143</ns0:v>
+        <ns0:v>161</ns0:v>
       </ns0:c>
       <ns0:c r="G46" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A47" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B47" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C47" s="1" t="s">
-        <ns0:v>141</ns0:v>
+        <ns0:v>159</ns0:v>
       </ns0:c>
       <ns0:c r="D47" s="1" t="s">
-        <ns0:v>144</ns0:v>
+        <ns0:v>162</ns0:v>
       </ns0:c>
       <ns0:c r="E47" s="1" t="s">
-        <ns0:v>145</ns0:v>
+        <ns0:v>163</ns0:v>
       </ns0:c>
       <ns0:c r="G47" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A48" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B48" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C48" s="1" t="s">
-        <ns0:v>141</ns0:v>
+        <ns0:v>159</ns0:v>
       </ns0:c>
       <ns0:c r="D48" s="1" t="s">
-        <ns0:v>146</ns0:v>
+        <ns0:v>164</ns0:v>
       </ns0:c>
       <ns0:c r="E48" s="1" t="s">
-        <ns0:v>147</ns0:v>
+        <ns0:v>165</ns0:v>
       </ns0:c>
       <ns0:c r="G48" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A49" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B49" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C49" s="1" t="s">
-        <ns0:v>141</ns0:v>
+        <ns0:v>159</ns0:v>
       </ns0:c>
       <ns0:c r="D49" s="1" t="s">
-        <ns0:v>148</ns0:v>
+        <ns0:v>166</ns0:v>
       </ns0:c>
       <ns0:c r="E49" s="1" t="s">
-        <ns0:v>149</ns0:v>
+        <ns0:v>167</ns0:v>
       </ns0:c>
       <ns0:c r="G49" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A50" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B50" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C50" s="1" t="s">
-        <ns0:v>150</ns0:v>
+        <ns0:v>168</ns0:v>
       </ns0:c>
       <ns0:c r="D50" s="1" t="s">
-        <ns0:v>151</ns0:v>
+        <ns0:v>169</ns0:v>
       </ns0:c>
       <ns0:c r="E50" s="1" t="s">
-        <ns0:v>152</ns0:v>
+        <ns0:v>170</ns0:v>
       </ns0:c>
       <ns0:c r="G50" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A51" s="1" t="s">
-        <ns0:v>133</ns0:v>
+        <ns0:v>151</ns0:v>
       </ns0:c>
       <ns0:c r="B51" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C51" s="1" t="s">
-        <ns0:v>150</ns0:v>
+        <ns0:v>168</ns0:v>
       </ns0:c>
       <ns0:c r="D51" s="1" t="s">
-        <ns0:v>153</ns0:v>
+        <ns0:v>171</ns0:v>
       </ns0:c>
       <ns0:c r="E51" s="1" t="s">
-        <ns0:v>154</ns0:v>
+        <ns0:v>172</ns0:v>
       </ns0:c>
       <ns0:c r="G51" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A52" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B52" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C52" s="1" t="s">
-        <ns0:v>156</ns0:v>
+        <ns0:v>174</ns0:v>
       </ns0:c>
       <ns0:c r="D52" s="1" t="s">
-        <ns0:v>157</ns0:v>
+        <ns0:v>175</ns0:v>
       </ns0:c>
       <ns0:c r="E52" s="1" t="s">
-        <ns0:v>158</ns0:v>
+        <ns0:v>176</ns0:v>
       </ns0:c>
       <ns0:c r="G52" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A53" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B53" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C53" s="1" t="s">
-        <ns0:v>156</ns0:v>
+        <ns0:v>174</ns0:v>
       </ns0:c>
       <ns0:c r="D53" s="1" t="s">
-        <ns0:v>159</ns0:v>
+        <ns0:v>177</ns0:v>
       </ns0:c>
       <ns0:c r="E53" s="1" t="s">
-        <ns0:v>160</ns0:v>
+        <ns0:v>178</ns0:v>
       </ns0:c>
       <ns0:c r="G53" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A54" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B54" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C54" s="1" t="s">
-        <ns0:v>156</ns0:v>
+        <ns0:v>174</ns0:v>
       </ns0:c>
       <ns0:c r="D54" s="1" t="s">
-        <ns0:v>161</ns0:v>
+        <ns0:v>179</ns0:v>
       </ns0:c>
       <ns0:c r="E54" s="1" t="s">
-        <ns0:v>162</ns0:v>
+        <ns0:v>180</ns0:v>
       </ns0:c>
       <ns0:c r="G54" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A55" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B55" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C55" s="1" t="s">
-        <ns0:v>163</ns0:v>
+        <ns0:v>181</ns0:v>
       </ns0:c>
       <ns0:c r="D55" s="1" t="s">
-        <ns0:v>164</ns0:v>
+        <ns0:v>182</ns0:v>
       </ns0:c>
       <ns0:c r="E55" s="1" t="s">
-        <ns0:v>165</ns0:v>
+        <ns0:v>183</ns0:v>
       </ns0:c>
       <ns0:c r="G55" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A56" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B56" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C56" s="1" t="s">
-        <ns0:v>163</ns0:v>
+        <ns0:v>181</ns0:v>
       </ns0:c>
       <ns0:c r="D56" s="1" t="s">
-        <ns0:v>166</ns0:v>
+        <ns0:v>184</ns0:v>
       </ns0:c>
       <ns0:c r="E56" s="1" t="s">
-        <ns0:v>167</ns0:v>
+        <ns0:v>185</ns0:v>
       </ns0:c>
       <ns0:c r="G56" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A57" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B57" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C57" s="1" t="s">
-        <ns0:v>163</ns0:v>
+        <ns0:v>181</ns0:v>
       </ns0:c>
       <ns0:c r="D57" s="1" t="s">
-        <ns0:v>168</ns0:v>
+        <ns0:v>186</ns0:v>
       </ns0:c>
       <ns0:c r="E57" s="1" t="s">
-        <ns0:v>169</ns0:v>
+        <ns0:v>187</ns0:v>
       </ns0:c>
       <ns0:c r="G57" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A58" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B58" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C58" s="1" t="s">
-        <ns0:v>170</ns0:v>
+        <ns0:v>188</ns0:v>
       </ns0:c>
       <ns0:c r="D58" s="1" t="s">
-        <ns0:v>171</ns0:v>
+        <ns0:v>189</ns0:v>
       </ns0:c>
       <ns0:c r="E58" s="1" t="s">
-        <ns0:v>172</ns0:v>
+        <ns0:v>190</ns0:v>
       </ns0:c>
       <ns0:c r="G58" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A59" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B59" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C59" s="1" t="s">
-        <ns0:v>170</ns0:v>
+        <ns0:v>188</ns0:v>
       </ns0:c>
       <ns0:c r="D59" s="1" t="s">
-        <ns0:v>173</ns0:v>
+        <ns0:v>191</ns0:v>
       </ns0:c>
       <ns0:c r="E59" s="1" t="s">
-        <ns0:v>174</ns0:v>
+        <ns0:v>192</ns0:v>
       </ns0:c>
       <ns0:c r="G59" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A60" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B60" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C60" s="1" t="s">
-        <ns0:v>170</ns0:v>
+        <ns0:v>188</ns0:v>
       </ns0:c>
       <ns0:c r="D60" s="1" t="s">
-        <ns0:v>175</ns0:v>
+        <ns0:v>193</ns0:v>
       </ns0:c>
       <ns0:c r="E60" s="1" t="s">
-        <ns0:v>176</ns0:v>
+        <ns0:v>194</ns0:v>
       </ns0:c>
       <ns0:c r="G60" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A61" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B61" s="1" t="s">
-        <ns0:v>177</ns0:v>
+        <ns0:v>195</ns0:v>
       </ns0:c>
       <ns0:c r="C61" s="1" t="s">
-        <ns0:v>178</ns0:v>
+        <ns0:v>196</ns0:v>
       </ns0:c>
       <ns0:c r="D61" s="1" t="s">
-        <ns0:v>179</ns0:v>
+        <ns0:v>197</ns0:v>
       </ns0:c>
       <ns0:c r="E61" s="1" t="s">
-        <ns0:v>180</ns0:v>
+        <ns0:v>198</ns0:v>
       </ns0:c>
       <ns0:c r="G61" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A62" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B62" s="1" t="s">
-        <ns0:v>177</ns0:v>
+        <ns0:v>195</ns0:v>
       </ns0:c>
       <ns0:c r="C62" s="1" t="s">
-        <ns0:v>178</ns0:v>
+        <ns0:v>196</ns0:v>
       </ns0:c>
       <ns0:c r="D62" s="1" t="s">
-        <ns0:v>181</ns0:v>
+        <ns0:v>199</ns0:v>
       </ns0:c>
       <ns0:c r="E62" s="1" t="s">
-        <ns0:v>182</ns0:v>
+        <ns0:v>200</ns0:v>
       </ns0:c>
       <ns0:c r="G62" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A63" s="1" t="s">
-        <ns0:v>155</ns0:v>
+        <ns0:v>173</ns0:v>
       </ns0:c>
       <ns0:c r="B63" s="1" t="s">
-        <ns0:v>177</ns0:v>
+        <ns0:v>195</ns0:v>
       </ns0:c>
       <ns0:c r="C63" s="1" t="s">
-        <ns0:v>178</ns0:v>
+        <ns0:v>196</ns0:v>
       </ns0:c>
       <ns0:c r="D63" s="1" t="s">
-        <ns0:v>183</ns0:v>
+        <ns0:v>201</ns0:v>
       </ns0:c>
       <ns0:c r="E63" s="1" t="s">
-        <ns0:v>184</ns0:v>
+        <ns0:v>202</ns0:v>
       </ns0:c>
       <ns0:c r="G63" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A64" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="B64" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C64" s="1" t="s">
-        <ns0:v>186</ns0:v>
+        <ns0:v>204</ns0:v>
       </ns0:c>
       <ns0:c r="D64" s="1" t="s">
-        <ns0:v>187</ns0:v>
+        <ns0:v>205</ns0:v>
       </ns0:c>
       <ns0:c r="E64" s="1" t="s">
-        <ns0:v>188</ns0:v>
+        <ns0:v>206</ns0:v>
       </ns0:c>
       <ns0:c r="G64" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A65" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="B65" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C65" s="1" t="s">
-        <ns0:v>186</ns0:v>
+        <ns0:v>204</ns0:v>
       </ns0:c>
       <ns0:c r="D65" s="1" t="s">
-        <ns0:v>189</ns0:v>
+        <ns0:v>207</ns0:v>
       </ns0:c>
       <ns0:c r="E65" s="1" t="s">
-        <ns0:v>190</ns0:v>
+        <ns0:v>208</ns0:v>
       </ns0:c>
       <ns0:c r="G65" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A66" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="B66" s="1" t="s">
-        <ns0:v>9</ns0:v>
+        <ns0:v>10</ns0:v>
       </ns0:c>
       <ns0:c r="C66" s="1" t="s">
-        <ns0:v>186</ns0:v>
+        <ns0:v>204</ns0:v>
       </ns0:c>
       <ns0:c r="D66" s="1" t="s">
-        <ns0:v>191</ns0:v>
+        <ns0:v>209</ns0:v>
       </ns0:c>
       <ns0:c r="E66" s="1" t="s">
-        <ns0:v>192</ns0:v>
+        <ns0:v>210</ns0:v>
       </ns0:c>
       <ns0:c r="G66" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A67" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="B67" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C67" s="1" t="s">
-        <ns0:v>193</ns0:v>
+        <ns0:v>211</ns0:v>
       </ns0:c>
       <ns0:c r="D67" s="1" t="s">
-        <ns0:v>194</ns0:v>
+        <ns0:v>212</ns0:v>
       </ns0:c>
       <ns0:c r="E67" s="1" t="s">
-        <ns0:v>195</ns0:v>
+        <ns0:v>213</ns0:v>
       </ns0:c>
       <ns0:c r="G67" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A68" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="B68" s="1" t="s">
-        <ns0:v>24</ns0:v>
+        <ns0:v>25</ns0:v>
       </ns0:c>
       <ns0:c r="C68" s="1" t="s">
-        <ns0:v>193</ns0:v>
+        <ns0:v>211</ns0:v>
       </ns0:c>
       <ns0:c r="D68" s="1" t="s">
-        <ns0:v>196</ns0:v>
+        <ns0:v>214</ns0:v>
       </ns0:c>
       <ns0:c r="E68" s="1" t="s">
-        <ns0:v>197</ns0:v>
+        <ns0:v>215</ns0:v>
       </ns0:c>
       <ns0:c r="G68" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A69" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="B69" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C69" s="1" t="s">
-        <ns0:v>198</ns0:v>
+        <ns0:v>216</ns0:v>
       </ns0:c>
       <ns0:c r="D69" s="1" t="s">
-        <ns0:v>199</ns0:v>
+        <ns0:v>217</ns0:v>
       </ns0:c>
       <ns0:c r="E69" s="1" t="s">
-        <ns0:v>200</ns0:v>
+        <ns0:v>218</ns0:v>
       </ns0:c>
       <ns0:c r="G69" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A70" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="B70" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C70" s="1" t="s">
-        <ns0:v>198</ns0:v>
+        <ns0:v>216</ns0:v>
       </ns0:c>
       <ns0:c r="D70" s="1" t="s">
-        <ns0:v>201</ns0:v>
+        <ns0:v>219</ns0:v>
       </ns0:c>
       <ns0:c r="E70" s="1" t="s">
-        <ns0:v>202</ns0:v>
+        <ns0:v>220</ns0:v>
       </ns0:c>
       <ns0:c r="G70" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <ns0:c r="A71" s="1" t="s">
-        <ns0:v>185</ns0:v>
+        <ns0:v>203</ns0:v>
       </ns0:c>
       <ns0:c r="B71" s="1" t="s">
-        <ns0:v>38</ns0:v>
+        <ns0:v>39</ns0:v>
       </ns0:c>
       <ns0:c r="C71" s="1" t="s">
-        <ns0:v>198</ns0:v>
+        <ns0:v>216</ns0:v>
       </ns0:c>
       <ns0:c r="D71" s="1" t="s">
-        <ns0:v>203</ns0:v>
+        <ns0:v>221</ns0:v>
       </ns0:c>
       <ns0:c r="E71" s="1" t="s">
-        <ns0:v>204</ns0:v>
+        <ns0:v>222</ns0:v>
       </ns0:c>
       <ns0:c r="G71" s="2" t="s">
-        <ns0:v>56</ns0:v>
+        <ns0:v>94</ns0:v>
       </ns0:c>
     </ns0:row>
   </ns0:sheetData>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="232">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="241">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -716,6 +716,33 @@
   </ns0:si>
   <ns0:si>
     <ns0:t xml:space="preserve">Add more edge-case tests once the payload contract is finalized.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Introduced an order creation service that maps Alert fields into an Order in WAITING state.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Alert-to-order mapping uses symbol/action/qty/price, defaults to MARKET/MIS and MANUAL mode.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Later, incorporate strategy config and risk checks into the transformation.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Webhook now creates a corresponding Order row for each accepted Alert.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Orders are stored with status=WAITING and mode=MANUAL, ready for the manual queue.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Expose dedicated queue APIs and link to the frontend queue view in Sprint S04.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Extended webhook tests to assert that Orders are created alongside Alerts.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Tests verify the order is linked to the alert and in WAITING/MANUAL state.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add additional tests around failure modes and idempotency if required.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -1682,7 +1709,16 @@
         <ns0:v>101</ns0:v>
       </ns0:c>
       <ns0:c r="G22" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F22" t="s">
+        <ns0:v>232</ns0:v>
+      </ns0:c>
+      <ns0:c r="H22" t="s">
+        <ns0:v>233</ns0:v>
+      </ns0:c>
+      <ns0:c r="I22" t="s">
+        <ns0:v>234</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,7 +1738,16 @@
         <ns0:v>103</ns0:v>
       </ns0:c>
       <ns0:c r="G23" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F23" t="s">
+        <ns0:v>235</ns0:v>
+      </ns0:c>
+      <ns0:c r="H23" t="s">
+        <ns0:v>236</ns0:v>
+      </ns0:c>
+      <ns0:c r="I23" t="s">
+        <ns0:v>237</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,7 +1767,16 @@
         <ns0:v>105</ns0:v>
       </ns0:c>
       <ns0:c r="G24" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F24" t="s">
+        <ns0:v>238</ns0:v>
+      </ns0:c>
+      <ns0:c r="H24" t="s">
+        <ns0:v>239</ns0:v>
+      </ns0:c>
+      <ns0:c r="I24" t="s">
+        <ns0:v>240</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="241">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="245">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -743,6 +743,18 @@
   </ns0:si>
   <ns0:si>
     <ns0:t xml:space="preserve">Add additional tests around failure modes and idempotency if required.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Created read-only queue listing API for WAITING manual orders.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">GET /api/orders/queue returns WAITING, MANUAL, non-simulated orders with optional strategy filter.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Extend filters (e.g., by symbol, date) once queue UI requirements are clearer.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Queue APIs are in place; full background status sync with Zerodha and automatic status updates will be implemented in Sprint S07. S03 focuses only on local WAITING/CANCELLED state for manual queue.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -1796,7 +1808,16 @@
         <ns0:v>108</ns0:v>
       </ns0:c>
       <ns0:c r="G25" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F25" t="s">
+        <ns0:v>241</ns0:v>
+      </ns0:c>
+      <ns0:c r="H25" t="s">
+        <ns0:v>242</ns0:v>
+      </ns0:c>
+      <ns0:c r="I25" t="s">
+        <ns0:v>244</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="245">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="269">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -755,6 +755,78 @@
   </ns0:si>
   <ns0:si>
     <ns0:t xml:space="preserve">Queue APIs are in place; full background status sync with Zerodha and automatic status updates will be implemented in Sprint S07. S03 focuses only on local WAITING/CANCELLED state for manual queue.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Top-level navigation and layout were implemented earlier in S01/G02 using MainLayout and routing.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Navigation items (Dashboard, Queue, Orders, Analytics, Settings) are present and wired.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add richer Dashboard widgets once analytics and broker integration are available.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Dashboard page is currently a skeleton with heading and placeholder text.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Dashboard is ready to host P&amp;L and connection status widgets in later sprints.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Populate Dashboard with real metrics after S05–S07.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Queue page shows a read-only table with Cancel actions; inline editing and Execute are deferred.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Waiting Queue UI lists WAITING manual orders using /api/orders/queue.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add inline editing and execute flows when backend supports them.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Inline editing not yet implemented; page currently focuses on listing and cancelling.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">UI structure (table and layout) is ready for inline editing controls.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement editable cells for qty/price/order_type/product in a future sprint.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Only Cancel is wired to backend via PATCH /api/orders/{id}/status; Execute is deferred.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Cancel button updates status to CANCELLED and removes orders from the visible queue.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add Execute handling once backend execution endpoints are defined.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend status update endpoint supports WAITING/CANCELLED transitions for manual queue.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">PATCH /api/orders/{id}/status enables cancelling WAITING orders.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Extend backend to handle additional transitions (e.g., READY_TO_SEND, EXECUTED_LOCAL).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implemented a simple GET /api/orders/ endpoint with basic status/strategy filters.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Provides a basic orders history feed for the Orders page.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add richer filters (date range, symbol) as requirements solidify.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Orders History page shows a simple table without interactive filters yet.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Orders page lists historical orders using /api/orders/.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add filter controls and more detailed status views in later sprints.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -1837,7 +1909,16 @@
         <ns0:v>112</ns0:v>
       </ns0:c>
       <ns0:c r="G26" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F26" t="s">
+        <ns0:v>245</ns0:v>
+      </ns0:c>
+      <ns0:c r="H26" t="s">
+        <ns0:v>246</ns0:v>
+      </ns0:c>
+      <ns0:c r="I26" t="s">
+        <ns0:v>247</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,7 +1938,16 @@
         <ns0:v>114</ns0:v>
       </ns0:c>
       <ns0:c r="G27" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F27" t="s">
+        <ns0:v>248</ns0:v>
+      </ns0:c>
+      <ns0:c r="H27" t="s">
+        <ns0:v>249</ns0:v>
+      </ns0:c>
+      <ns0:c r="I27" t="s">
+        <ns0:v>250</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,7 +1967,16 @@
         <ns0:v>117</ns0:v>
       </ns0:c>
       <ns0:c r="G28" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F28" t="s">
+        <ns0:v>251</ns0:v>
+      </ns0:c>
+      <ns0:c r="H28" t="s">
+        <ns0:v>252</ns0:v>
+      </ns0:c>
+      <ns0:c r="I28" t="s">
+        <ns0:v>253</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,7 +1996,16 @@
         <ns0:v>119</ns0:v>
       </ns0:c>
       <ns0:c r="G29" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F29" t="s">
+        <ns0:v>254</ns0:v>
+      </ns0:c>
+      <ns0:c r="H29" t="s">
+        <ns0:v>255</ns0:v>
+      </ns0:c>
+      <ns0:c r="I29" t="s">
+        <ns0:v>256</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +2025,16 @@
         <ns0:v>121</ns0:v>
       </ns0:c>
       <ns0:c r="G30" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F30" t="s">
+        <ns0:v>257</ns0:v>
+      </ns0:c>
+      <ns0:c r="H30" t="s">
+        <ns0:v>258</ns0:v>
+      </ns0:c>
+      <ns0:c r="I30" t="s">
+        <ns0:v>259</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +2054,16 @@
         <ns0:v>123</ns0:v>
       </ns0:c>
       <ns0:c r="G31" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F31" t="s">
+        <ns0:v>260</ns0:v>
+      </ns0:c>
+      <ns0:c r="H31" t="s">
+        <ns0:v>261</ns0:v>
+      </ns0:c>
+      <ns0:c r="I31" t="s">
+        <ns0:v>262</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,7 +2083,16 @@
         <ns0:v>126</ns0:v>
       </ns0:c>
       <ns0:c r="G32" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F32" t="s">
+        <ns0:v>263</ns0:v>
+      </ns0:c>
+      <ns0:c r="H32" t="s">
+        <ns0:v>264</ns0:v>
+      </ns0:c>
+      <ns0:c r="I32" t="s">
+        <ns0:v>265</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,7 +2112,16 @@
         <ns0:v>128</ns0:v>
       </ns0:c>
       <ns0:c r="G33" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F33" t="s">
+        <ns0:v>266</ns0:v>
+      </ns0:c>
+      <ns0:c r="H33" t="s">
+        <ns0:v>267</ns0:v>
+      </ns0:c>
+      <ns0:c r="I33" t="s">
+        <ns0:v>268</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="269">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="278">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -827,6 +827,33 @@
   </ns0:si>
   <ns0:si>
     <ns0:t xml:space="preserve">Add filter controls and more detailed status views in later sprints.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Introduced ZerodhaClient wrapper reading API key from Settings and lazily instantiating KiteConnect.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend can now construct a Zerodha client once an access token is available.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Hook this client into OAuth/token storage and execution flows in S05/G02–G03.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implemented ZerodhaClient.place_order that composes KiteConnect place_order parameters.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Order placement service is tested against a fake Kite client (no real network calls).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Wire real order placement into manual queue execution once broker connection is ready.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Exposed ZerodhaClient.list_orders and get_order_history as thin wrappers over KiteConnect APIs.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend has basic services to retrieve Zerodha order book and order history.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Use these services for status sync and richer order views in S07.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -2141,7 +2168,16 @@
         <ns0:v>132</ns0:v>
       </ns0:c>
       <ns0:c r="G34" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F34" t="s">
+        <ns0:v>269</ns0:v>
+      </ns0:c>
+      <ns0:c r="H34" t="s">
+        <ns0:v>270</ns0:v>
+      </ns0:c>
+      <ns0:c r="I34" t="s">
+        <ns0:v>271</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,7 +2197,16 @@
         <ns0:v>134</ns0:v>
       </ns0:c>
       <ns0:c r="G35" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F35" t="s">
+        <ns0:v>272</ns0:v>
+      </ns0:c>
+      <ns0:c r="H35" t="s">
+        <ns0:v>273</ns0:v>
+      </ns0:c>
+      <ns0:c r="I35" t="s">
+        <ns0:v>274</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,7 +2226,16 @@
         <ns0:v>136</ns0:v>
       </ns0:c>
       <ns0:c r="G36" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F36" t="s">
+        <ns0:v>275</ns0:v>
+      </ns0:c>
+      <ns0:c r="H36" t="s">
+        <ns0:v>276</ns0:v>
+      </ns0:c>
+      <ns0:c r="I36" t="s">
+        <ns0:v>277</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="278">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="289">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -854,6 +854,39 @@
   </ns0:si>
   <ns0:si>
     <ns0:t xml:space="preserve">Use these services for status sync and richer order views in S07.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implemented backend Zerodha OAuth-like flow using JSON config (kite_config.json) and KiteConnect.generate_session.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend exposes login-url and connect endpoints for Zerodha and stores an encrypted access token.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Refine error reporting and add retries or token refresh handling as needed.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Access token is encrypted with an env-provided crypto key and stored in broker_connections table.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">BrokerConnection model holds one encrypted access token per broker (currently zerodha).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Consider stronger encryption (e.g., cryptography.fernet) for multi-user or hosted deployments.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Added Zerodha connection section on Settings page with login button, request_token input, and status chip.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Frontend uses /api/zerodha/login-url, /api/zerodha/connect, and /api/zerodha/status to drive the UI.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Improve UX (e.g., integrating redirect/callback instead of manual token paste) when feasible.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend exposes login-url, connect, and status endpoints that also call Kite profile to verify the connection.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Settings page shows Zerodha connection status, last-updated time in IST, and user name/id when available.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -2255,7 +2288,16 @@
         <ns0:v>139</ns0:v>
       </ns0:c>
       <ns0:c r="G37" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F37" t="s">
+        <ns0:v>278</ns0:v>
+      </ns0:c>
+      <ns0:c r="H37" t="s">
+        <ns0:v>287</ns0:v>
+      </ns0:c>
+      <ns0:c r="I37" t="s">
+        <ns0:v>280</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,7 +2317,16 @@
         <ns0:v>141</ns0:v>
       </ns0:c>
       <ns0:c r="G38" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F38" t="s">
+        <ns0:v>281</ns0:v>
+      </ns0:c>
+      <ns0:c r="H38" t="s">
+        <ns0:v>282</ns0:v>
+      </ns0:c>
+      <ns0:c r="I38" t="s">
+        <ns0:v>283</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,7 +2346,16 @@
         <ns0:v>143</ns0:v>
       </ns0:c>
       <ns0:c r="G39" s="2" t="s">
-        <ns0:v>94</ns0:v>
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="F39" t="s">
+        <ns0:v>284</ns0:v>
+      </ns0:c>
+      <ns0:c r="H39" t="s">
+        <ns0:v>288</ns0:v>
+      </ns0:c>
+      <ns0:c r="I39" t="s">
+        <ns0:v>286</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -2313,9 +2313,24 @@
           <t>Extend strategies to include execution_mode (AUTO/MANUAL) in DB and APIs.</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Strategy execution_mode (AUTO/MANUAL) was already present in the model; we ensured it is consistently exposed through Pydantic schemas and strategy APIs, with MANUAL as the default.</t>
+        </is>
+      </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Strategies now carry an execution_mode flag that downstream routing logic and the frontend Settings UI can rely on.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Later risk-engine work may add additional per-strategy flags that interact with execution_mode (e.g., risk profiles for AUTO).</t>
         </is>
       </c>
     </row>
@@ -2345,9 +2360,24 @@
           <t>Implement alert routing logic based on strategy execution_mode (AUTO -&gt; immediate send, MANUAL -&gt; queue).</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TradingView webhook routing now inspects the strategy execution_mode: AUTO strategies (when enabled) create AUTO orders and trigger immediate execution via the existing /api/orders/{id}/execute logic; MANUAL or missing strategies still create WAITING MANUAL queue orders.</t>
+        </is>
+      </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>AUTO strategies bypass the manual queue and send orders directly to Zerodha using the same execution path as the manual Execute endpoint, including AMO fallback logic.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Integrate risk checks into both AUTO and MANUAL routing paths in S06/G02 before broker execution.</t>
         </is>
       </c>
     </row>
@@ -2377,9 +2407,24 @@
           <t>Add UI controls to view and change execution mode per strategy in Settings.</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Settings page now shows an editable Mode column with a MANUAL/AUTO select per strategy, wired to PUT /api/strategies/{id}.</t>
+        </is>
+      </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>User can toggle strategies between MANUAL and AUTO modes directly from the Settings UI; changes are persisted to the backend.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Consider adding per-strategy hints in the UI (e.g., badges or warnings) when AUTO is enabled but broker or risk settings are not fully configured.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>Added a read-only admin view on the Settings page backed by /api/strategies and /api/risk-settings.</t>
+          <t>Settings page started as read-only and was later extended to allow editing strategy execution modes and creating GLOBAL or per-strategy risk settings directly from the UI.</t>
         </is>
       </c>
       <c r="G18" s="6" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>Frontend Settings screen now lists strategies and risk_settings using the new APIs. Note: backend tests create example strategies and risk_settings in sigma_trader.db; these will appear here when using the same DB. Delete sigma_trader.db and run 'alembic upgrade head' to reset.</t>
+          <t>Strategies and risk_settings can now be inspected and, for key fields, edited from a single Settings screen (mode toggle and risk creation).</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>Refine admin APIs and UI later: add DELETE endpoints, richer validation and user-facing error handling once we build full admin flows.</t>
+          <t>Add delete/edit flows for existing risk rows and finer-grained admin controls once configuration needs grow.</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
           <t>Extend strategies to include execution_mode (AUTO/MANUAL) in DB and APIs.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="10" t="inlineStr">
         <is>
           <t>Strategy execution_mode (AUTO/MANUAL) was already present in the model; we ensured it is consistently exposed through Pydantic schemas and strategy APIs, with MANUAL as the default.</t>
         </is>
@@ -2323,12 +2323,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" s="10" t="inlineStr">
         <is>
           <t>Strategies now carry an execution_mode flag that downstream routing logic and the frontend Settings UI can rely on.</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I43" s="10" t="inlineStr">
         <is>
           <t>Later risk-engine work may add additional per-strategy flags that interact with execution_mode (e.g., risk profiles for AUTO).</t>
         </is>
@@ -2360,7 +2360,7 @@
           <t>Implement alert routing logic based on strategy execution_mode (AUTO -&gt; immediate send, MANUAL -&gt; queue).</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="10" t="inlineStr">
         <is>
           <t>TradingView webhook routing now inspects the strategy execution_mode: AUTO strategies (when enabled) create AUTO orders and trigger immediate execution via the existing /api/orders/{id}/execute logic; MANUAL or missing strategies still create WAITING MANUAL queue orders.</t>
         </is>
@@ -2370,12 +2370,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" s="10" t="inlineStr">
         <is>
           <t>AUTO strategies bypass the manual queue and send orders directly to Zerodha using the same execution path as the manual Execute endpoint, including AMO fallback logic.</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I44" s="10" t="inlineStr">
         <is>
           <t>Integrate risk checks into both AUTO and MANUAL routing paths in S06/G02 before broker execution.</t>
         </is>
@@ -2407,7 +2407,7 @@
           <t>Add UI controls to view and change execution mode per strategy in Settings.</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="10" t="inlineStr">
         <is>
           <t>Settings page now shows an editable Mode column with a MANUAL/AUTO select per strategy, wired to PUT /api/strategies/{id}.</t>
         </is>
@@ -2417,12 +2417,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" s="10" t="inlineStr">
         <is>
           <t>User can toggle strategies between MANUAL and AUTO modes directly from the Settings UI; changes are persisted to the backend.</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I45" s="10" t="inlineStr">
         <is>
           <t>Consider adding per-strategy hints in the UI (e.g., badges or warnings) when AUTO is enabled but broker or risk settings are not fully configured.</t>
         </is>
@@ -2454,9 +2454,24 @@
           <t>Implement risk rules for max_order_value, max_quantity_per_order, and allow_short_selling.</t>
         </is>
       </c>
+      <c r="F46" s="10" t="inlineStr">
+        <is>
+          <t>Implemented a risk evaluation service that uses RiskSettings (GLOBAL and per-strategy) to enforce max_quantity_per_order, max_order_value, and allow_short_selling before broker calls.</t>
+        </is>
+      </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H46" s="10" t="inlineStr">
+        <is>
+          <t>Risk checks run inside the order execution path for both MANUAL queue executes and AUTO strategy orders.</t>
+        </is>
+      </c>
+      <c r="I46" s="10" t="inlineStr">
+        <is>
+          <t>Extend the risk engine to incorporate max_daily_loss and max_open_positions once realized PnL and positions are tracked in later sprints.</t>
         </is>
       </c>
     </row>
@@ -2486,9 +2501,24 @@
           <t>Implement daily loss limit tracking and enforcement in Risk Engine.</t>
         </is>
       </c>
+      <c r="F47" s="10" t="inlineStr">
+        <is>
+          <t>Orders violating hard limits are now blocked with status REJECTED_RISK and a human-readable explanation; when clamp_mode=CLAMP, quantities are reduced instead of rejected where possible.</t>
+        </is>
+      </c>
       <c r="G47" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H47" s="10" t="inlineStr">
+        <is>
+          <t>Risk decisions are stored on the Order via status/error_message and are visible in the Orders history UI.</t>
+        </is>
+      </c>
+      <c r="I47" s="10" t="inlineStr">
+        <is>
+          <t>Refine risk messages and add per-rule identification if we need more granular auditing later.</t>
         </is>
       </c>
     </row>
@@ -2518,9 +2548,24 @@
           <t>Make Risk Engine apply to both auto and manual executions before broker call.</t>
         </is>
       </c>
+      <c r="F48" s="10" t="inlineStr">
+        <is>
+          <t>Risk checks are invoked inside the shared order execution endpoint, so both AUTO strategy executions (from the webhook) and MANUAL queue executes are evaluated before any broker call.</t>
+        </is>
+      </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H48" s="10" t="inlineStr">
+        <is>
+          <t>AUTO and MANUAL flows now share the same risk gate in execute_order; broker requests are only sent if the risk engine allows the order.</t>
+        </is>
+      </c>
+      <c r="I48" s="10" t="inlineStr">
+        <is>
+          <t>As we add more execution paths (e.g., bulk actions), ensure they all call through the same risk-aware execution helper.</t>
         </is>
       </c>
     </row>
@@ -2550,9 +2595,24 @@
           <t>Display risk-related rejections/adjustments in UI (tooltips, messages on orders).</t>
         </is>
       </c>
+      <c r="F49" s="10" t="inlineStr">
+        <is>
+          <t>Risk-related rejections and clamps are surfaced via the existing Error column in the Orders UI, showing detailed messages from the risk engine.</t>
+        </is>
+      </c>
       <c r="G49" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H49" s="10" t="inlineStr">
+        <is>
+          <t>Users can see which orders were blocked (REJECTED_RISK) or had their quantities adjusted before execution.</t>
+        </is>
+      </c>
+      <c r="I49" s="10" t="inlineStr">
+        <is>
+          <t>Consider adding explicit risk badges or tooltips in a later UX-focused sprint to differentiate risk notes from broker errors.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -2642,9 +2642,24 @@
           <t>Extend order model and APIs to handle product type (MIS/CNC) and optional GTT properties.</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Order model already contained product (MIS/CNC) and a gtt flag; we extended webhook parsing to derive product from trade_type and exposed product/gtt through the editable OrderUpdate schema and edit endpoint.</t>
+        </is>
+      </c>
       <c r="G50" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Backoffice and APIs can now track product type and a GTT preference on orders; real GTT placement will be wired in a later sprint.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Implement actual Zerodha GTT order placement and tie it to the gtt flag once we integrate Kite GTT APIs.</t>
         </is>
       </c>
     </row>
@@ -2674,9 +2689,24 @@
           <t>Allow users to modify trade_type and GTT toggle in Waiting Queue UI before execution.</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Waiting Queue edit dialog now allows selecting product (MIS/CNC) and toggling a GTT preference checkbox, with changes persisted via PATCH /api/orders/{id}.</t>
+        </is>
+      </c>
       <c r="G51" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Users can adjust trade type and mark orders as GTT-preferred before executing them from the manual queue.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Once real GTT execution exists, ensure the UI clearly indicates which orders will be sent as GTT vs regular/AMO.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -2642,7 +2642,7 @@
           <t>Extend order model and APIs to handle product type (MIS/CNC) and optional GTT properties.</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="10" t="inlineStr">
         <is>
           <t>Order model already contained product (MIS/CNC) and a gtt flag; we extended webhook parsing to derive product from trade_type and exposed product/gtt through the editable OrderUpdate schema and edit endpoint.</t>
         </is>
@@ -2652,12 +2652,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" s="10" t="inlineStr">
         <is>
           <t>Backoffice and APIs can now track product type and a GTT preference on orders; real GTT placement will be wired in a later sprint.</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I50" s="10" t="inlineStr">
         <is>
           <t>Implement actual Zerodha GTT order placement and tie it to the gtt flag once we integrate Kite GTT APIs.</t>
         </is>
@@ -2689,7 +2689,7 @@
           <t>Allow users to modify trade_type and GTT toggle in Waiting Queue UI before execution.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="10" t="inlineStr">
         <is>
           <t>Waiting Queue edit dialog now allows selecting product (MIS/CNC) and toggling a GTT preference checkbox, with changes persisted via PATCH /api/orders/{id}.</t>
         </is>
@@ -2699,12 +2699,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" s="10" t="inlineStr">
         <is>
           <t>Users can adjust trade type and mark orders as GTT-preferred before executing them from the manual queue.</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I51" s="10" t="inlineStr">
         <is>
           <t>Once real GTT execution exists, ensure the UI clearly indicates which orders will be sent as GTT vs regular/AMO.</t>
         </is>
@@ -2736,9 +2736,24 @@
           <t>Implement background job to periodically sync order statuses from Zerodha (OPEN/COMPLETE/REJECTED).</t>
         </is>
       </c>
+      <c r="F52" s="10" t="inlineStr">
+        <is>
+          <t>Implemented a reusable sync_order_statuses service that consumes Zerodha order book data via ZerodhaClient.list_orders and updates local Order.status values.</t>
+        </is>
+      </c>
       <c r="G52" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H52" s="10" t="inlineStr">
+        <is>
+          <t>Status sync is triggered via a backend API and is safe to call on-demand or from an external scheduler.</t>
+        </is>
+      </c>
+      <c r="I52" s="10" t="inlineStr">
+        <is>
+          <t>Introduce a cron/APS-style background scheduler (e.g., APScheduler or external cron calling /api/zerodha/sync-orders) for automatic periodic status sync in production.</t>
         </is>
       </c>
     </row>
@@ -2768,9 +2783,24 @@
           <t>Update Orders table with latest status and broker messages.</t>
         </is>
       </c>
+      <c r="F53" s="10" t="inlineStr">
+        <is>
+          <t>Order status and broker messages are updated based on Zerodha status and status_message fields, including mapping COMPLETE, CANCELLED, and REJECTED appropriately.</t>
+        </is>
+      </c>
       <c r="G53" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H53" s="10" t="inlineStr">
+        <is>
+          <t>Rejected orders now capture Zerodha-provided status messages when available, improving auditability in the Orders history.</t>
+        </is>
+      </c>
+      <c r="I53" s="10" t="inlineStr">
+        <is>
+          <t>Refine mapping and message capture as we see more Zerodha status variants in real trading.</t>
         </is>
       </c>
     </row>
@@ -2800,9 +2830,24 @@
           <t>Reflect real-time-ish status changes in Orders History UI (polling or refresh).</t>
         </is>
       </c>
+      <c r="F54" s="10" t="inlineStr">
+        <is>
+          <t>Orders History page gained a Refresh button that calls syncZerodhaOrders (POST /api/zerodha/sync-orders) and then reloads the order list.</t>
+        </is>
+      </c>
       <c r="G54" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H54" s="10" t="inlineStr">
+        <is>
+          <t>User can now manually synchronize statuses from Zerodha and see updated states without restarting the app.</t>
+        </is>
+      </c>
+      <c r="I54" s="10" t="inlineStr">
+        <is>
+          <t>Consider adding periodic auto-refresh or visual indicators for recently synced orders in future UX enhancements.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -2877,9 +2877,24 @@
           <t>Implement backend services to fetch positions and holdings from Zerodha and cache in DB.</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Positions are fetched from Zerodha via ZerodhaClient.list_positions and cached in the positions table; holdings are currently fetched on-demand without DB caching.</t>
+        </is>
+      </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Positions caching covers the main use case; holdings can be added to the cache later if needed.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Add DB caching for holdings if long-term historical holdings views or offline analytics require it.</t>
         </is>
       </c>
     </row>
@@ -2909,9 +2924,24 @@
           <t>Expose API endpoints for positions and holdings for frontend.</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Exposed REST APIs under /api/positions for listing cached positions, triggering a sync, and fetching live holdings.</t>
+        </is>
+      </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Frontend services consume these endpoints for the Positions and Holdings pages.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Extend APIs with filters (e.g., by symbol or product) as usage patterns emerge.</t>
         </is>
       </c>
     </row>
@@ -2941,9 +2971,24 @@
           <t>Create Positions &amp; Holdings UI pages with P&amp;L calculations.</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Added dedicated Positions and Holdings pages with basic P&amp;L calculations and a manual Refresh for positions.</t>
+        </is>
+      </c>
       <c r="G57" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>User can now inspect positions (with cached P&amp;L) and holdings (with unrealized P&amp;L) directly in the UI.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Enhance UI with aggregate metrics (e.g., total P&amp;L) and filtering in future analytics-focused sprints.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -2877,7 +2877,7 @@
           <t>Implement backend services to fetch positions and holdings from Zerodha and cache in DB.</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="10" t="inlineStr">
         <is>
           <t>Positions are fetched from Zerodha via ZerodhaClient.list_positions and cached in the positions table; holdings are currently fetched on-demand without DB caching.</t>
         </is>
@@ -2887,12 +2887,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" s="10" t="inlineStr">
         <is>
           <t>Positions caching covers the main use case; holdings can be added to the cache later if needed.</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I55" s="10" t="inlineStr">
         <is>
           <t>Add DB caching for holdings if long-term historical holdings views or offline analytics require it.</t>
         </is>
@@ -2924,7 +2924,7 @@
           <t>Expose API endpoints for positions and holdings for frontend.</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="10" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/positions for listing cached positions, triggering a sync, and fetching live holdings.</t>
         </is>
@@ -2934,12 +2934,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" s="10" t="inlineStr">
         <is>
           <t>Frontend services consume these endpoints for the Positions and Holdings pages.</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I56" s="10" t="inlineStr">
         <is>
           <t>Extend APIs with filters (e.g., by symbol or product) as usage patterns emerge.</t>
         </is>
@@ -2971,7 +2971,7 @@
           <t>Create Positions &amp; Holdings UI pages with P&amp;L calculations.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="10" t="inlineStr">
         <is>
           <t>Added dedicated Positions and Holdings pages with basic P&amp;L calculations and a manual Refresh for positions.</t>
         </is>
@@ -2981,12 +2981,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" s="10" t="inlineStr">
         <is>
           <t>User can now inspect positions (with cached P&amp;L) and holdings (with unrealized P&amp;L) directly in the UI.</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I57" s="10" t="inlineStr">
         <is>
           <t>Enhance UI with aggregate metrics (e.g., total P&amp;L) and filtering in future analytics-focused sprints.</t>
         </is>
@@ -3018,9 +3018,24 @@
           <t>Implement trade grouping logic (entry/exit pairs) to populate analytics_trades table.</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Implemented a conservative trade grouping service that pairs executed orders into entry/exit trades (BUY→SELL or SELL→BUY with equal quantity) and populates analytics_trades.</t>
+        </is>
+      </c>
       <c r="G58" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Current grouping handles simple round-trip trades; more complex scaling/partial patterns can be added later.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Extend trade grouping to handle partial exits, scaling in/out, and multi-leg trades if needed for deeper analytics.</t>
         </is>
       </c>
     </row>
@@ -3050,9 +3065,24 @@
           <t>Implement analytics queries for P&amp;L, win rate, max drawdown per strategy and date range.</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Analytics service computes total P&amp;L, win rate, average win/loss, and max drawdown per strategy and optional date range based on analytics_trades.</t>
+        </is>
+      </c>
       <c r="G59" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Provides a solid backend foundation for strategy performance dashboards without yet focusing on specific chart shapes.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Add more advanced metrics (e.g., Sharpe, expectancy) once we have more live data.</t>
         </is>
       </c>
     </row>
@@ -3082,9 +3112,24 @@
           <t>Expose analytics API endpoints for frontend consumption.</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Exposed analytics APIs under /api/analytics for rebuilding trades and fetching summary metrics for a strategy/date range.</t>
+        </is>
+      </c>
       <c r="G60" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Frontend (Analytics page) can call these endpoints to render P&amp;L and performance views in later sprints.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Design and implement frontend analytics views that consume these APIs (charts, summary cards).</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -89,7 +89,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -117,9 +117,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -374,10 +371,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -440,7 +437,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.35" customHeight="1" s="7">
+    <row r="2" ht="27.75" customHeight="1" s="7">
       <c r="A2" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -482,7 +479,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="28.35" customHeight="1" s="7">
+    <row r="3" ht="27.75" customHeight="1" s="7">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -524,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="28.35" customHeight="1" s="7">
+    <row r="4" ht="27.75" customHeight="1" s="7">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -566,7 +563,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="28.35" customHeight="1" s="7">
+    <row r="5" ht="27.75" customHeight="1" s="7">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -608,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="28.35" customHeight="1" s="7">
+    <row r="6" ht="27.75" customHeight="1" s="7">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -650,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="28.35" customHeight="1" s="7">
+    <row r="7" ht="27.75" customHeight="1" s="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -692,7 +689,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="28.35" customHeight="1" s="7">
+    <row r="8" ht="27.75" customHeight="1" s="7">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -734,7 +731,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="28.35" customHeight="1" s="7">
+    <row r="9" ht="27.75" customHeight="1" s="7">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -776,7 +773,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="28.35" customHeight="1" s="7">
+    <row r="10" ht="27.75" customHeight="1" s="7">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>S01</t>
@@ -818,7 +815,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="41.75" customHeight="1" s="7">
+    <row r="11" ht="41.25" customHeight="1" s="7">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t>S02</t>
@@ -860,7 +857,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="41.75" customHeight="1" s="7">
+    <row r="12" ht="41.25" customHeight="1" s="7">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>S02</t>
@@ -902,7 +899,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="28.35" customHeight="1" s="7">
+    <row r="13" ht="27.75" customHeight="1" s="7">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>S02</t>
@@ -944,7 +941,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="28.35" customHeight="1" s="7">
+    <row r="14" ht="27.75" customHeight="1" s="7">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>S02</t>
@@ -986,7 +983,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="28.35" customHeight="1" s="7">
+    <row r="15" ht="27.75" customHeight="1" s="7">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>S02</t>
@@ -1028,7 +1025,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="28.35" customHeight="1" s="7">
+    <row r="16" ht="27.75" customHeight="1" s="7">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>S02</t>
@@ -1070,7 +1067,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="28.35" customHeight="1" s="7">
+    <row r="17" ht="27.75" customHeight="1" s="7">
       <c r="A17" s="5" t="inlineStr">
         <is>
           <t>S02</t>
@@ -1112,7 +1109,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="68.65000000000001" customHeight="1" s="7">
+    <row r="18" ht="68.25" customHeight="1" s="7">
       <c r="A18" s="5" t="inlineStr">
         <is>
           <t>S02</t>
@@ -1185,7 +1182,7 @@
           <t>Implement /webhook/tradingview endpoint that receives and validates JSON payload with secret.</t>
         </is>
       </c>
-      <c r="F19" s="10" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>Implemented POST /webhook/tradingview with Pydantic payload model rather than a raw dict.</t>
         </is>
@@ -1195,12 +1192,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H19" s="10" t="inlineStr">
+      <c r="H19" s="6" t="inlineStr">
         <is>
           <t>Endpoint validates the secret and accepts structured TradingView payloads.</t>
         </is>
       </c>
-      <c r="I19" s="10" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>Extend payload schema as real-world TradingView alert format stabilizes.</t>
         </is>
@@ -1232,7 +1229,7 @@
           <t>Map incoming alerts to internal Alert entities and persist to DB.</t>
         </is>
       </c>
-      <c r="F20" s="10" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>Alerts are persisted via the Alert ORM model, linking to Strategy when a matching name exists.</t>
         </is>
@@ -1242,12 +1239,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H20" s="10" t="inlineStr">
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>Webhook creates Alert rows with normalized fields and stores the raw payload JSON.</t>
         </is>
       </c>
-      <c r="I20" s="10" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>Later sprints will connect alerts to order creation and risk evaluation.</t>
         </is>
@@ -1279,7 +1276,7 @@
           <t>Implement basic unit tests for webhook endpoint and validation.</t>
         </is>
       </c>
-      <c r="F21" s="10" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>Added pytest tests for secret validation and alert persistence using FastAPI TestClient.</t>
         </is>
@@ -1289,12 +1286,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="H21" s="6" t="inlineStr">
         <is>
           <t>Tests cover valid/invalid secret flows and DB insertion of Alerts.</t>
         </is>
       </c>
-      <c r="I21" s="10" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr">
         <is>
           <t>Add more edge-case tests once the payload contract is finalized.</t>
         </is>
@@ -1326,7 +1323,7 @@
           <t>Implement service to convert Alert into Order Request (manual mode by default).</t>
         </is>
       </c>
-      <c r="F22" s="10" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr">
         <is>
           <t>Introduced an order creation service that maps Alert fields into an Order in WAITING state.</t>
         </is>
@@ -1336,12 +1333,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H22" s="10" t="inlineStr">
+      <c r="H22" s="6" t="inlineStr">
         <is>
           <t>Alert-to-order mapping uses symbol/action/qty/price, defaults to MARKET/MIS and MANUAL mode.</t>
         </is>
       </c>
-      <c r="I22" s="10" t="inlineStr">
+      <c r="I22" s="6" t="inlineStr">
         <is>
           <t>Later, incorporate strategy config and risk checks into the transformation.</t>
         </is>
@@ -1373,7 +1370,7 @@
           <t>Persist orders with WAITING status in DB for manual queue.</t>
         </is>
       </c>
-      <c r="F23" s="10" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t>Webhook now creates a corresponding Order row for each accepted Alert.</t>
         </is>
@@ -1383,12 +1380,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H23" s="10" t="inlineStr">
+      <c r="H23" s="6" t="inlineStr">
         <is>
           <t>Orders are stored with status=WAITING and mode=MANUAL, ready for the manual queue.</t>
         </is>
       </c>
-      <c r="I23" s="10" t="inlineStr">
+      <c r="I23" s="6" t="inlineStr">
         <is>
           <t>Expose dedicated queue APIs and link to the frontend queue view in Sprint S04.</t>
         </is>
@@ -1420,7 +1417,7 @@
           <t>Expose API to list waiting orders and basic order details for frontend.</t>
         </is>
       </c>
-      <c r="F24" s="10" t="inlineStr">
+      <c r="F24" s="6" t="inlineStr">
         <is>
           <t>Extended webhook tests to assert that Orders are created alongside Alerts.</t>
         </is>
@@ -1430,18 +1427,18 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H24" s="10" t="inlineStr">
+      <c r="H24" s="6" t="inlineStr">
         <is>
           <t>Tests verify the order is linked to the alert and in WAITING/MANUAL state.</t>
         </is>
       </c>
-      <c r="I24" s="10" t="inlineStr">
+      <c r="I24" s="6" t="inlineStr">
         <is>
           <t>Add additional tests around failure modes and idempotency if required.</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="28.35" customHeight="1" s="7">
+    <row r="25" ht="27.75" customHeight="1" s="7">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t>S03</t>
@@ -1467,7 +1464,7 @@
           <t>Add pluggable Risk Engine interface with stub implementation (logs checks but does not enforce yet).</t>
         </is>
       </c>
-      <c r="F25" s="10" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>Created read-only queue listing API for WAITING manual orders.</t>
         </is>
@@ -1477,12 +1474,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H25" s="10" t="inlineStr">
+      <c r="H25" s="6" t="inlineStr">
         <is>
           <t>GET /api/orders/queue returns WAITING, MANUAL, non-simulated orders with optional strategy filter.</t>
         </is>
       </c>
-      <c r="I25" s="10" t="inlineStr">
+      <c r="I25" s="6" t="inlineStr">
         <is>
           <t>Queue APIs are in place; full background status sync with Zerodha and automatic status updates will be implemented in Sprint S07. S03 focuses only on local WAITING/CANCELLED state for manual queue.</t>
         </is>
@@ -1514,7 +1511,7 @@
           <t>Implement top-level navigation items (Dashboard, Queue, Orders, Analytics, Settings).</t>
         </is>
       </c>
-      <c r="F26" s="10" t="inlineStr">
+      <c r="F26" s="6" t="inlineStr">
         <is>
           <t>Top-level navigation and layout were implemented earlier in S01/G02 using MainLayout and routing.</t>
         </is>
@@ -1524,12 +1521,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H26" s="10" t="inlineStr">
+      <c r="H26" s="6" t="inlineStr">
         <is>
           <t>Navigation items (Dashboard, Queue, Orders, Analytics, Settings) are present and wired.</t>
         </is>
       </c>
-      <c r="I26" s="10" t="inlineStr">
+      <c r="I26" s="6" t="inlineStr">
         <is>
           <t>Add richer Dashboard widgets once analytics and broker integration are available.</t>
         </is>
@@ -1561,7 +1558,7 @@
           <t>Create Dashboard page skeleton with placeholder widgets (P&amp;L, trade count, connection status).</t>
         </is>
       </c>
-      <c r="F27" s="10" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
         <is>
           <t>Dashboard page is currently a skeleton with heading and placeholder text.</t>
         </is>
@@ -1571,12 +1568,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H27" s="10" t="inlineStr">
+      <c r="H27" s="6" t="inlineStr">
         <is>
           <t>Dashboard is ready to host P&amp;L and connection status widgets in later sprints.</t>
         </is>
       </c>
-      <c r="I27" s="10" t="inlineStr">
+      <c r="I27" s="6" t="inlineStr">
         <is>
           <t>Populate Dashboard with real metrics after S05–S07.</t>
         </is>
@@ -1608,7 +1605,7 @@
           <t>Implement Waiting Queue page with Material UI table of pending orders.</t>
         </is>
       </c>
-      <c r="F28" s="10" t="inlineStr">
+      <c r="F28" s="6" t="inlineStr">
         <is>
           <t>Queue page now includes edit, execute, and cancel actions for WAITING manual orders, wired to backend APIs.</t>
         </is>
@@ -1618,12 +1615,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H28" s="10" t="inlineStr">
+      <c r="H28" s="6" t="inlineStr">
         <is>
           <t>Waiting Queue UI lists WAITING manual orders and exposes Edit/Execute/Cancel controls for each row.</t>
         </is>
       </c>
-      <c r="I28" s="10" t="inlineStr">
+      <c r="I28" s="6" t="inlineStr">
         <is>
           <t>Add inline editing and execute flows when backend supports them.</t>
         </is>
@@ -1655,7 +1652,7 @@
           <t>Add inline editing for quantity, price, order type, and product fields in queue rows.</t>
         </is>
       </c>
-      <c r="F29" s="10" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr">
         <is>
           <t>Inline editing is implemented via an Edit dialog instead of direct cell editing; users can adjust quantity, order type, price, and product for queue orders.</t>
         </is>
@@ -1665,12 +1662,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H29" s="10" t="inlineStr">
+      <c r="H29" s="6" t="inlineStr">
         <is>
           <t>Edit dialog updates qty/order_type/price/product for WAITING manual orders before execution.</t>
         </is>
       </c>
-      <c r="I29" s="10" t="inlineStr">
+      <c r="I29" s="6" t="inlineStr">
         <is>
           <t>Consider richer inline editing (e.g., symbol/side changes) and validation against risk settings in later sprints.</t>
         </is>
@@ -1702,7 +1699,7 @@
           <t>Wire Execute and Cancel buttons to backend APIs (no broker integration yet).</t>
         </is>
       </c>
-      <c r="F30" s="10" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>Execute button is now wired to POST /api/orders/{id}/execute, sending orders to Zerodha (when connected) and updating local status based on broker response.</t>
         </is>
@@ -1712,12 +1709,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H30" s="10" t="inlineStr">
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>Execute and Cancel actions both update the queue and Orders history; broker IDs/errors are visible on the Orders page.</t>
         </is>
       </c>
-      <c r="I30" s="10" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>Add Execute handling once backend execution endpoints are defined.</t>
         </is>
@@ -1749,7 +1746,7 @@
           <t>Implement backend APIs to update/cancel waiting orders and track status changes.</t>
         </is>
       </c>
-      <c r="F31" s="10" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t>Backend status update endpoint supports WAITING/CANCELLED transitions for manual queue.</t>
         </is>
@@ -1759,12 +1756,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H31" s="10" t="inlineStr">
+      <c r="H31" s="6" t="inlineStr">
         <is>
           <t>PATCH /api/orders/{id}/status enables cancelling WAITING orders.</t>
         </is>
       </c>
-      <c r="I31" s="10" t="inlineStr">
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>Extend backend to handle additional transitions (e.g., READY_TO_SEND, EXECUTED_LOCAL).</t>
         </is>
@@ -1796,7 +1793,7 @@
           <t>Implement backend API to list all orders with filters (date, strategy, status, symbol).</t>
         </is>
       </c>
-      <c r="F32" s="10" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t>Implemented a simple GET /api/orders/ endpoint with basic status/strategy filters.</t>
         </is>
@@ -1806,12 +1803,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H32" s="10" t="inlineStr">
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>Provides a basic orders history feed for the Orders page.</t>
         </is>
       </c>
-      <c r="I32" s="10" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>Add richer filters (date range, symbol) as requirements solidify.</t>
         </is>
@@ -1843,7 +1840,7 @@
           <t>Create Orders History page with filter controls and table displaying orders.</t>
         </is>
       </c>
-      <c r="F33" s="10" t="inlineStr">
+      <c r="F33" s="6" t="inlineStr">
         <is>
           <t>Orders History page shows a simple table without interactive filters yet.</t>
         </is>
@@ -1853,12 +1850,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H33" s="10" t="inlineStr">
+      <c r="H33" s="6" t="inlineStr">
         <is>
           <t>Orders page lists historical orders using /api/orders/.</t>
         </is>
       </c>
-      <c r="I33" s="10" t="inlineStr">
+      <c r="I33" s="6" t="inlineStr">
         <is>
           <t>Add filter controls and more detailed status views in later sprints.</t>
         </is>
@@ -1890,7 +1887,7 @@
           <t>Configure Zerodha Kite Connect Python client with API key/secret from env.</t>
         </is>
       </c>
-      <c r="F34" s="10" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t>Introduced ZerodhaClient wrapper reading API key from Settings and lazily instantiating KiteConnect.</t>
         </is>
@@ -1900,12 +1897,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H34" s="10" t="inlineStr">
+      <c r="H34" s="6" t="inlineStr">
         <is>
           <t>Backend can now construct a Zerodha client once an access token is available.</t>
         </is>
       </c>
-      <c r="I34" s="10" t="inlineStr">
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>Hook this client into OAuth/token storage and execution flows in S05/G02–G03.</t>
         </is>
@@ -1937,7 +1934,7 @@
           <t>Implement service for placing market/limit orders via Zerodha API.</t>
         </is>
       </c>
-      <c r="F35" s="10" t="inlineStr">
+      <c r="F35" s="6" t="inlineStr">
         <is>
           <t>Implemented ZerodhaClient.place_order that composes KiteConnect place_order parameters.</t>
         </is>
@@ -1947,12 +1944,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H35" s="10" t="inlineStr">
+      <c r="H35" s="6" t="inlineStr">
         <is>
           <t>Order placement service is tested against a fake Kite client (no real network calls).</t>
         </is>
       </c>
-      <c r="I35" s="10" t="inlineStr">
+      <c r="I35" s="6" t="inlineStr">
         <is>
           <t>Wire real order placement into manual queue execution once broker connection is ready.</t>
         </is>
@@ -1984,7 +1981,7 @@
           <t>Implement service to fetch order book and order status from Zerodha.</t>
         </is>
       </c>
-      <c r="F36" s="10" t="inlineStr">
+      <c r="F36" s="6" t="inlineStr">
         <is>
           <t>Exposed ZerodhaClient.list_orders and get_order_history as thin wrappers over KiteConnect APIs.</t>
         </is>
@@ -1994,12 +1991,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H36" s="10" t="inlineStr">
+      <c r="H36" s="6" t="inlineStr">
         <is>
           <t>Backend has basic services to retrieve Zerodha order book and order history.</t>
         </is>
       </c>
-      <c r="I36" s="10" t="inlineStr">
+      <c r="I36" s="6" t="inlineStr">
         <is>
           <t>Use these services for status sync and richer order views in S07.</t>
         </is>
@@ -2031,7 +2028,7 @@
           <t>Implement backend endpoints for Zerodha OAuth flow and token exchange.</t>
         </is>
       </c>
-      <c r="F37" s="10" t="inlineStr">
+      <c r="F37" s="6" t="inlineStr">
         <is>
           <t>Implemented backend Zerodha OAuth-like flow using JSON config (kite_config.json) and KiteConnect.generate_session.</t>
         </is>
@@ -2041,12 +2038,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H37" s="10" t="inlineStr">
+      <c r="H37" s="6" t="inlineStr">
         <is>
           <t>Backend exposes login-url, connect, and status endpoints that also call Kite profile to verify the connection.</t>
         </is>
       </c>
-      <c r="I37" s="10" t="inlineStr">
+      <c r="I37" s="6" t="inlineStr">
         <is>
           <t>Refine error reporting and add retries or token refresh handling as needed.</t>
         </is>
@@ -2078,7 +2075,7 @@
           <t>Securely store encrypted Zerodha access token in DB.</t>
         </is>
       </c>
-      <c r="F38" s="10" t="inlineStr">
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t>Access token is encrypted with an env-provided crypto key and stored in broker_connections table.</t>
         </is>
@@ -2088,12 +2085,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H38" s="10" t="inlineStr">
+      <c r="H38" s="6" t="inlineStr">
         <is>
           <t>BrokerConnection model holds one encrypted access token per broker (currently zerodha).</t>
         </is>
       </c>
-      <c r="I38" s="10" t="inlineStr">
+      <c r="I38" s="6" t="inlineStr">
         <is>
           <t>Consider stronger encryption (e.g., cryptography.fernet) for multi-user or hosted deployments.</t>
         </is>
@@ -2125,7 +2122,7 @@
           <t>Create frontend Connect Zerodha UI with button and status indicator.</t>
         </is>
       </c>
-      <c r="F39" s="10" t="inlineStr">
+      <c r="F39" s="6" t="inlineStr">
         <is>
           <t>Added Zerodha connection section on Settings page with login button, request_token input, and status chip.</t>
         </is>
@@ -2135,12 +2132,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H39" s="10" t="inlineStr">
+      <c r="H39" s="6" t="inlineStr">
         <is>
           <t>Settings page shows Zerodha connection status, last-updated time in IST, and user name/id when available.</t>
         </is>
       </c>
-      <c r="I39" s="10" t="inlineStr">
+      <c r="I39" s="6" t="inlineStr">
         <is>
           <t>Improve UX (e.g., integrating redirect/callback instead of manual token paste) when feasible.</t>
         </is>
@@ -2172,7 +2169,7 @@
           <t>Wire Execute action to call Zerodha order placement service and update order with broker ID.</t>
         </is>
       </c>
-      <c r="F40" s="10" t="inlineStr">
+      <c r="F40" s="6" t="inlineStr">
         <is>
           <t>Added /api/orders/{id}/execute endpoint using ZerodhaClient and BrokerConnection token.</t>
         </is>
@@ -2182,12 +2179,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H40" s="10" t="inlineStr">
+      <c r="H40" s="6" t="inlineStr">
         <is>
           <t>Manual queue orders can now be executed to Zerodha; status is updated and Zerodha order id stored.</t>
         </is>
       </c>
-      <c r="I40" s="10" t="inlineStr">
+      <c r="I40" s="6" t="inlineStr">
         <is>
           <t>Extend to support other brokers and more advanced order parameters later.</t>
         </is>
@@ -2219,7 +2216,7 @@
           <t>Handle Zerodha errors and update order status to FAILED with error message.</t>
         </is>
       </c>
-      <c r="F41" s="10" t="inlineStr">
+      <c r="F41" s="6" t="inlineStr">
         <is>
           <t>On Zerodha off-market-hours errors (e.g., "Try placing an AMO order"), the backend now automatically retries the execution once as an AMO order (variety="amo") before marking the order as FAILED.</t>
         </is>
@@ -2229,12 +2226,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H41" s="10" t="inlineStr">
+      <c r="H41" s="6" t="inlineStr">
         <is>
           <t>Auto-AMO fallback is implemented for Zerodha off-hours errors; other errors still mark the order FAILED and persist error_message.</t>
         </is>
       </c>
-      <c r="I41" s="10" t="inlineStr">
+      <c r="I41" s="6" t="inlineStr">
         <is>
           <t>Review additional Zerodha error patterns and, in a later sprint, introduce configurable off-hours handling (e.g., choose AMO vs GTT per broker/strategy in JSON config) instead of relying solely on hard-coded message substrings.</t>
         </is>
@@ -2266,7 +2263,7 @@
           <t>Surface broker execution results and errors in Waiting Queue and Orders History UI.</t>
         </is>
       </c>
-      <c r="F42" s="10" t="inlineStr">
+      <c r="F42" s="6" t="inlineStr">
         <is>
           <t>Queue UI now exposes Execute/Cancel buttons and Orders view shows broker id and error columns.</t>
         </is>
@@ -2276,18 +2273,18 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H42" s="10" t="inlineStr">
+      <c r="H42" s="6" t="inlineStr">
         <is>
           <t>Execution results and broker ids are surfaced in both Queue (interaction) and Orders history (audit).</t>
         </is>
       </c>
-      <c r="I42" s="10" t="inlineStr">
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>Enhance UX with notifications and richer status filtering in future sprints.</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="28.35" customHeight="1" s="7">
+    <row r="43" ht="27.75" customHeight="1" s="7">
       <c r="A43" s="5" t="inlineStr">
         <is>
           <t>S06</t>
@@ -2313,7 +2310,7 @@
           <t>Extend strategies to include execution_mode (AUTO/MANUAL) in DB and APIs.</t>
         </is>
       </c>
-      <c r="F43" s="10" t="inlineStr">
+      <c r="F43" s="6" t="inlineStr">
         <is>
           <t>Strategy execution_mode (AUTO/MANUAL) was already present in the model; we ensured it is consistently exposed through Pydantic schemas and strategy APIs, with MANUAL as the default.</t>
         </is>
@@ -2323,18 +2320,18 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H43" s="10" t="inlineStr">
+      <c r="H43" s="6" t="inlineStr">
         <is>
           <t>Strategies now carry an execution_mode flag that downstream routing logic and the frontend Settings UI can rely on.</t>
         </is>
       </c>
-      <c r="I43" s="10" t="inlineStr">
+      <c r="I43" s="6" t="inlineStr">
         <is>
           <t>Later risk-engine work may add additional per-strategy flags that interact with execution_mode (e.g., risk profiles for AUTO).</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="28.35" customHeight="1" s="7">
+    <row r="44" ht="27.75" customHeight="1" s="7">
       <c r="A44" s="5" t="inlineStr">
         <is>
           <t>S06</t>
@@ -2360,7 +2357,7 @@
           <t>Implement alert routing logic based on strategy execution_mode (AUTO -&gt; immediate send, MANUAL -&gt; queue).</t>
         </is>
       </c>
-      <c r="F44" s="10" t="inlineStr">
+      <c r="F44" s="6" t="inlineStr">
         <is>
           <t>TradingView webhook routing now inspects the strategy execution_mode: AUTO strategies (when enabled) create AUTO orders and trigger immediate execution via the existing /api/orders/{id}/execute logic; MANUAL or missing strategies still create WAITING MANUAL queue orders.</t>
         </is>
@@ -2370,18 +2367,18 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H44" s="10" t="inlineStr">
+      <c r="H44" s="6" t="inlineStr">
         <is>
           <t>AUTO strategies bypass the manual queue and send orders directly to Zerodha using the same execution path as the manual Execute endpoint, including AMO fallback logic.</t>
         </is>
       </c>
-      <c r="I44" s="10" t="inlineStr">
+      <c r="I44" s="6" t="inlineStr">
         <is>
           <t>Integrate risk checks into both AUTO and MANUAL routing paths in S06/G02 before broker execution.</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="28.35" customHeight="1" s="7">
+    <row r="45" ht="27.75" customHeight="1" s="7">
       <c r="A45" s="5" t="inlineStr">
         <is>
           <t>S06</t>
@@ -2407,7 +2404,7 @@
           <t>Add UI controls to view and change execution mode per strategy in Settings.</t>
         </is>
       </c>
-      <c r="F45" s="10" t="inlineStr">
+      <c r="F45" s="6" t="inlineStr">
         <is>
           <t>Settings page now shows an editable Mode column with a MANUAL/AUTO select per strategy, wired to PUT /api/strategies/{id}.</t>
         </is>
@@ -2417,12 +2414,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H45" s="10" t="inlineStr">
+      <c r="H45" s="6" t="inlineStr">
         <is>
           <t>User can toggle strategies between MANUAL and AUTO modes directly from the Settings UI; changes are persisted to the backend.</t>
         </is>
       </c>
-      <c r="I45" s="10" t="inlineStr">
+      <c r="I45" s="6" t="inlineStr">
         <is>
           <t>Consider adding per-strategy hints in the UI (e.g., badges or warnings) when AUTO is enabled but broker or risk settings are not fully configured.</t>
         </is>
@@ -2454,7 +2451,7 @@
           <t>Implement risk rules for max_order_value, max_quantity_per_order, and allow_short_selling.</t>
         </is>
       </c>
-      <c r="F46" s="10" t="inlineStr">
+      <c r="F46" s="6" t="inlineStr">
         <is>
           <t>Implemented a risk evaluation service that uses RiskSettings (GLOBAL and per-strategy) to enforce max_quantity_per_order, max_order_value, and allow_short_selling before broker calls.</t>
         </is>
@@ -2464,12 +2461,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H46" s="10" t="inlineStr">
+      <c r="H46" s="6" t="inlineStr">
         <is>
           <t>Risk checks run inside the order execution path for both MANUAL queue executes and AUTO strategy orders.</t>
         </is>
       </c>
-      <c r="I46" s="10" t="inlineStr">
+      <c r="I46" s="6" t="inlineStr">
         <is>
           <t>Extend the risk engine to incorporate max_daily_loss and max_open_positions once realized PnL and positions are tracked in later sprints.</t>
         </is>
@@ -2501,7 +2498,7 @@
           <t>Implement daily loss limit tracking and enforcement in Risk Engine.</t>
         </is>
       </c>
-      <c r="F47" s="10" t="inlineStr">
+      <c r="F47" s="6" t="inlineStr">
         <is>
           <t>Orders violating hard limits are now blocked with status REJECTED_RISK and a human-readable explanation; when clamp_mode=CLAMP, quantities are reduced instead of rejected where possible.</t>
         </is>
@@ -2511,12 +2508,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H47" s="10" t="inlineStr">
+      <c r="H47" s="6" t="inlineStr">
         <is>
           <t>Risk decisions are stored on the Order via status/error_message and are visible in the Orders history UI.</t>
         </is>
       </c>
-      <c r="I47" s="10" t="inlineStr">
+      <c r="I47" s="6" t="inlineStr">
         <is>
           <t>Refine risk messages and add per-rule identification if we need more granular auditing later.</t>
         </is>
@@ -2548,7 +2545,7 @@
           <t>Make Risk Engine apply to both auto and manual executions before broker call.</t>
         </is>
       </c>
-      <c r="F48" s="10" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr">
         <is>
           <t>Risk checks are invoked inside the shared order execution endpoint, so both AUTO strategy executions (from the webhook) and MANUAL queue executes are evaluated before any broker call.</t>
         </is>
@@ -2558,12 +2555,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H48" s="10" t="inlineStr">
+      <c r="H48" s="6" t="inlineStr">
         <is>
           <t>AUTO and MANUAL flows now share the same risk gate in execute_order; broker requests are only sent if the risk engine allows the order.</t>
         </is>
       </c>
-      <c r="I48" s="10" t="inlineStr">
+      <c r="I48" s="6" t="inlineStr">
         <is>
           <t>As we add more execution paths (e.g., bulk actions), ensure they all call through the same risk-aware execution helper.</t>
         </is>
@@ -2595,7 +2592,7 @@
           <t>Display risk-related rejections/adjustments in UI (tooltips, messages on orders).</t>
         </is>
       </c>
-      <c r="F49" s="10" t="inlineStr">
+      <c r="F49" s="6" t="inlineStr">
         <is>
           <t>Risk-related rejections and clamps are surfaced via the existing Error column in the Orders UI, showing detailed messages from the risk engine.</t>
         </is>
@@ -2605,12 +2602,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H49" s="10" t="inlineStr">
+      <c r="H49" s="6" t="inlineStr">
         <is>
           <t>Users can see which orders were blocked (REJECTED_RISK) or had their quantities adjusted before execution.</t>
         </is>
       </c>
-      <c r="I49" s="10" t="inlineStr">
+      <c r="I49" s="6" t="inlineStr">
         <is>
           <t>Consider adding explicit risk badges or tooltips in a later UX-focused sprint to differentiate risk notes from broker errors.</t>
         </is>
@@ -2642,7 +2639,7 @@
           <t>Extend order model and APIs to handle product type (MIS/CNC) and optional GTT properties.</t>
         </is>
       </c>
-      <c r="F50" s="10" t="inlineStr">
+      <c r="F50" s="6" t="inlineStr">
         <is>
           <t>Order model already contained product (MIS/CNC) and a gtt flag; we extended webhook parsing to derive product from trade_type and exposed product/gtt through the editable OrderUpdate schema and edit endpoint.</t>
         </is>
@@ -2652,12 +2649,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H50" s="10" t="inlineStr">
+      <c r="H50" s="6" t="inlineStr">
         <is>
           <t>Backoffice and APIs can now track product type and a GTT preference on orders; real GTT placement will be wired in a later sprint.</t>
         </is>
       </c>
-      <c r="I50" s="10" t="inlineStr">
+      <c r="I50" s="6" t="inlineStr">
         <is>
           <t>Implement actual Zerodha GTT order placement and tie it to the gtt flag once we integrate Kite GTT APIs.</t>
         </is>
@@ -2689,7 +2686,7 @@
           <t>Allow users to modify trade_type and GTT toggle in Waiting Queue UI before execution.</t>
         </is>
       </c>
-      <c r="F51" s="10" t="inlineStr">
+      <c r="F51" s="6" t="inlineStr">
         <is>
           <t>Waiting Queue edit dialog now allows selecting product (MIS/CNC) and toggling a GTT preference checkbox, with changes persisted via PATCH /api/orders/{id}.</t>
         </is>
@@ -2699,18 +2696,18 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H51" s="10" t="inlineStr">
+      <c r="H51" s="6" t="inlineStr">
         <is>
           <t>Users can adjust trade type and mark orders as GTT-preferred before executing them from the manual queue.</t>
         </is>
       </c>
-      <c r="I51" s="10" t="inlineStr">
+      <c r="I51" s="6" t="inlineStr">
         <is>
           <t>Once real GTT execution exists, ensure the UI clearly indicates which orders will be sent as GTT vs regular/AMO.</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="28.35" customHeight="1" s="7">
+    <row r="52" ht="27.75" customHeight="1" s="7">
       <c r="A52" s="5" t="inlineStr">
         <is>
           <t>S07</t>
@@ -2736,7 +2733,7 @@
           <t>Implement background job to periodically sync order statuses from Zerodha (OPEN/COMPLETE/REJECTED).</t>
         </is>
       </c>
-      <c r="F52" s="10" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr">
         <is>
           <t>Implemented a reusable sync_order_statuses service that consumes Zerodha order book data via ZerodhaClient.list_orders and updates local Order.status values.</t>
         </is>
@@ -2746,12 +2743,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H52" s="10" t="inlineStr">
+      <c r="H52" s="6" t="inlineStr">
         <is>
           <t>Status sync is triggered via a backend API and is safe to call on-demand or from an external scheduler.</t>
         </is>
       </c>
-      <c r="I52" s="10" t="inlineStr">
+      <c r="I52" s="6" t="inlineStr">
         <is>
           <t>Introduce a cron/APS-style background scheduler (e.g., APScheduler or external cron calling /api/zerodha/sync-orders) for automatic periodic status sync in production.</t>
         </is>
@@ -2783,7 +2780,7 @@
           <t>Update Orders table with latest status and broker messages.</t>
         </is>
       </c>
-      <c r="F53" s="10" t="inlineStr">
+      <c r="F53" s="6" t="inlineStr">
         <is>
           <t>Order status and broker messages are updated based on Zerodha status and status_message fields, including mapping COMPLETE, CANCELLED, and REJECTED appropriately.</t>
         </is>
@@ -2793,12 +2790,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H53" s="10" t="inlineStr">
+      <c r="H53" s="6" t="inlineStr">
         <is>
           <t>Rejected orders now capture Zerodha-provided status messages when available, improving auditability in the Orders history.</t>
         </is>
       </c>
-      <c r="I53" s="10" t="inlineStr">
+      <c r="I53" s="6" t="inlineStr">
         <is>
           <t>Refine mapping and message capture as we see more Zerodha status variants in real trading.</t>
         </is>
@@ -2830,7 +2827,7 @@
           <t>Reflect real-time-ish status changes in Orders History UI (polling or refresh).</t>
         </is>
       </c>
-      <c r="F54" s="10" t="inlineStr">
+      <c r="F54" s="6" t="inlineStr">
         <is>
           <t>Orders History page gained a Refresh button that calls syncZerodhaOrders (POST /api/zerodha/sync-orders) and then reloads the order list.</t>
         </is>
@@ -2840,12 +2837,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H54" s="10" t="inlineStr">
+      <c r="H54" s="6" t="inlineStr">
         <is>
           <t>User can now manually synchronize statuses from Zerodha and see updated states without restarting the app.</t>
         </is>
       </c>
-      <c r="I54" s="10" t="inlineStr">
+      <c r="I54" s="6" t="inlineStr">
         <is>
           <t>Consider adding periodic auto-refresh or visual indicators for recently synced orders in future UX enhancements.</t>
         </is>
@@ -2877,7 +2874,7 @@
           <t>Implement backend services to fetch positions and holdings from Zerodha and cache in DB.</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr">
+      <c r="F55" s="6" t="inlineStr">
         <is>
           <t>Positions are fetched from Zerodha via ZerodhaClient.list_positions and cached in the positions table; holdings are currently fetched on-demand without DB caching.</t>
         </is>
@@ -2887,12 +2884,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H55" s="10" t="inlineStr">
+      <c r="H55" s="6" t="inlineStr">
         <is>
           <t>Positions caching covers the main use case; holdings can be added to the cache later if needed.</t>
         </is>
       </c>
-      <c r="I55" s="10" t="inlineStr">
+      <c r="I55" s="6" t="inlineStr">
         <is>
           <t>Add DB caching for holdings if long-term historical holdings views or offline analytics require it.</t>
         </is>
@@ -2924,7 +2921,7 @@
           <t>Expose API endpoints for positions and holdings for frontend.</t>
         </is>
       </c>
-      <c r="F56" s="10" t="inlineStr">
+      <c r="F56" s="6" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/positions for listing cached positions, triggering a sync, and fetching live holdings.</t>
         </is>
@@ -2934,12 +2931,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H56" s="10" t="inlineStr">
+      <c r="H56" s="6" t="inlineStr">
         <is>
           <t>Frontend services consume these endpoints for the Positions and Holdings pages.</t>
         </is>
       </c>
-      <c r="I56" s="10" t="inlineStr">
+      <c r="I56" s="6" t="inlineStr">
         <is>
           <t>Extend APIs with filters (e.g., by symbol or product) as usage patterns emerge.</t>
         </is>
@@ -2971,7 +2968,7 @@
           <t>Create Positions &amp; Holdings UI pages with P&amp;L calculations.</t>
         </is>
       </c>
-      <c r="F57" s="10" t="inlineStr">
+      <c r="F57" s="6" t="inlineStr">
         <is>
           <t>Added dedicated Positions and Holdings pages with basic P&amp;L calculations and a manual Refresh for positions.</t>
         </is>
@@ -2981,12 +2978,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H57" s="10" t="inlineStr">
+      <c r="H57" s="6" t="inlineStr">
         <is>
           <t>User can now inspect positions (with cached P&amp;L) and holdings (with unrealized P&amp;L) directly in the UI.</t>
         </is>
       </c>
-      <c r="I57" s="10" t="inlineStr">
+      <c r="I57" s="6" t="inlineStr">
         <is>
           <t>Enhance UI with aggregate metrics (e.g., total P&amp;L) and filtering in future analytics-focused sprints.</t>
         </is>
@@ -3018,7 +3015,7 @@
           <t>Implement trade grouping logic (entry/exit pairs) to populate analytics_trades table.</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="6" t="inlineStr">
         <is>
           <t>Implemented a conservative trade grouping service that pairs executed orders into entry/exit trades (BUY→SELL or SELL→BUY with equal quantity) and populates analytics_trades.</t>
         </is>
@@ -3028,12 +3025,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" s="6" t="inlineStr">
         <is>
           <t>Current grouping handles simple round-trip trades; more complex scaling/partial patterns can be added later.</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I58" s="6" t="inlineStr">
         <is>
           <t>Extend trade grouping to handle partial exits, scaling in/out, and multi-leg trades if needed for deeper analytics.</t>
         </is>
@@ -3065,7 +3062,7 @@
           <t>Implement analytics queries for P&amp;L, win rate, max drawdown per strategy and date range.</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t>Analytics service computes total P&amp;L, win rate, average win/loss, and max drawdown per strategy and optional date range based on analytics_trades.</t>
         </is>
@@ -3075,12 +3072,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" s="6" t="inlineStr">
         <is>
           <t>Provides a solid backend foundation for strategy performance dashboards without yet focusing on specific chart shapes.</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I59" s="6" t="inlineStr">
         <is>
           <t>Add more advanced metrics (e.g., Sharpe, expectancy) once we have more live data.</t>
         </is>
@@ -3112,7 +3109,7 @@
           <t>Expose analytics API endpoints for frontend consumption.</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="6" t="inlineStr">
         <is>
           <t>Exposed analytics APIs under /api/analytics for rebuilding trades and fetching summary metrics for a strategy/date range.</t>
         </is>
@@ -3122,12 +3119,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" s="6" t="inlineStr">
         <is>
           <t>Frontend (Analytics page) can call these endpoints to render P&amp;L and performance views in later sprints.</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I60" s="6" t="inlineStr">
         <is>
           <t>Design and implement frontend analytics views that consume these APIs (charts, summary cards).</t>
         </is>
@@ -3159,9 +3156,24 @@
           <t>Implement Analytics page with summary cards (P&amp;L, win rate, max DD, avg R:R).</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Analytics page now loads summary metrics via /api/analytics/summary and supports basic filtering by strategy and date range.</t>
+        </is>
+      </c>
       <c r="G61" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Summary card shows trades, total P&amp;L, win rate, avg win/loss, and max drawdown; a Rebuild button triggers backend rebuild-trades and refreshes metrics.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Expose more advanced metrics (e.g., expectancy, risk-adjusted returns) once enough live data is available.</t>
         </is>
       </c>
     </row>
@@ -3191,9 +3203,24 @@
           <t>Add P&amp;L over time chart and P&amp;L by symbol/strategy visualizations.</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Added lightweight SVG-based cumulative P&amp;L line chart and P&amp;L by symbol bar chart driven by analytics trades.</t>
+        </is>
+      </c>
       <c r="G62" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Charts update automatically when filters change and are kept deliberately simple without adding new dependencies.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Consider richer charting (e.g., per-day P&amp;L) if/when a chart library is introduced.</t>
         </is>
       </c>
     </row>
@@ -3223,9 +3250,24 @@
           <t>Add trades table with filters for date range, strategy, and symbol.</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Trades table shows closed trades with IST timestamps, strategy, symbol, and colored P&amp;L, using filters for strategy and date range from the Analytics header.</t>
+        </is>
+      </c>
       <c r="G63" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Gives a clear audit-style view of trades aligned with the summary and charts.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Add more filters (e.g., symbol, min/max P&amp;L) if needed for heavier analysis.</t>
         </is>
       </c>
     </row>
@@ -3255,9 +3297,24 @@
           <t>Implement structured logging for backend (alerts, orders, broker calls, risk decisions).</t>
         </is>
       </c>
+      <c r="F64" s="6" t="inlineStr">
+        <is>
+          <t>Added JSON-formatted structured logging with correlation IDs via a FastAPI middleware; key flows (webhook ingestion, order execution, Zerodha connect) now emit structured events.</t>
+        </is>
+      </c>
       <c r="G64" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H64" s="6" t="inlineStr">
+        <is>
+          <t>Logs include correlation_id so a single alert/order can be traced across webhook, risk, and broker calls.</t>
+        </is>
+      </c>
+      <c r="I64" s="6" t="inlineStr">
+        <is>
+          <t>Consider integrating with an external log aggregator if the app is deployed beyond local single-user usage.</t>
         </is>
       </c>
     </row>
@@ -3287,9 +3344,24 @@
           <t>Standardize error responses and add correlation IDs for tracing requests.</t>
         </is>
       </c>
+      <c r="F65" s="6" t="inlineStr">
+        <is>
+          <t>Standardized several error paths (risk rejection, Zerodha order failures) and ensured correlation IDs are included in both logs and HTTP responses.</t>
+        </is>
+      </c>
       <c r="G65" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H65" s="6" t="inlineStr">
+        <is>
+          <t>Critical errors now have consistent HTTP status codes and messages while being traceable via X-Request-ID.</t>
+        </is>
+      </c>
+      <c r="I65" s="6" t="inlineStr">
+        <is>
+          <t>Extend normalization to any remaining ad-hoc error paths as they are discovered.</t>
         </is>
       </c>
     </row>
@@ -3319,9 +3391,24 @@
           <t>Add minimal log/notification view in UI for recent errors/warnings.</t>
         </is>
       </c>
+      <c r="F66" s="6" t="inlineStr">
+        <is>
+          <t>Added a simple System Events page that surfaces recent client-side errors/warnings captured in memory during the current session.</t>
+        </is>
+      </c>
       <c r="G66" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H66" s="6" t="inlineStr">
+        <is>
+          <t>Gives a quick at-a-glance view of recent issues without setting up a full log viewer.</t>
+        </is>
+      </c>
+      <c r="I66" s="6" t="inlineStr">
+        <is>
+          <t>If needed, extend this view to pull server-side logs or important alerts once a log backend is introduced.</t>
         </is>
       </c>
     </row>
@@ -3482,6 +3569,147 @@
       <c r="G71" s="6" t="inlineStr">
         <is>
           <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="41.75" customHeight="1" s="7">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>Backend log aggregation and server log UI</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
+        <is>
+          <t>S08_G04_TB001</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>Persist important backend events (alerts, orders, broker, risk) in a system_events table.</t>
+        </is>
+      </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>Introduced a system_events table and helpers so key backend events (alerts ingested, orders executed, Zerodha connects, risk rejections) are persisted.</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>Important events can now be queried and shown in the UI without parsing textual logs.</t>
+        </is>
+      </c>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>Extend coverage to any additional event categories we decide to track in future (e.g., background jobs, sync failures).</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="41.75" customHeight="1" s="7">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>Backend log aggregation and server log UI</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>S08_G04_TB002</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>Expose API endpoints to query recent system events for the UI.</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>Added /api/system-events/ endpoint with filters for level, category, and limit, returning recent events in reverse chronological order.</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>Provides a simple API surface that the UI and tools can use to inspect important backend events.</t>
+        </is>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>Consider pagination or time-based filters if the event volume grows significantly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="41.75" customHeight="1" s="7">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>Backend log aggregation and server log UI</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
+        <is>
+          <t>S08_G04_TF003</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>Show a table of recent backend events (alerts, orders, broker events) in the web app.</t>
+        </is>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>System Events page now displays recent backend events from the system_events table along with client-side events for the current browser session.</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>Gives an at-a-glance view of both server and client issues without leaving the app.</t>
+        </is>
+      </c>
+      <c r="I74" s="5" t="inlineStr">
+        <is>
+          <t>Enhance filtering (by level/category/time) in the UI if needed during real operations.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -3156,7 +3156,7 @@
           <t>Implement Analytics page with summary cards (P&amp;L, win rate, max DD, avg R:R).</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="0" t="inlineStr">
         <is>
           <t>Analytics page now loads summary metrics via /api/analytics/summary and supports basic filtering by strategy and date range.</t>
         </is>
@@ -3166,12 +3166,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" s="0" t="inlineStr">
         <is>
           <t>Summary card shows trades, total P&amp;L, win rate, avg win/loss, and max drawdown; a Rebuild button triggers backend rebuild-trades and refreshes metrics.</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I61" s="0" t="inlineStr">
         <is>
           <t>Expose more advanced metrics (e.g., expectancy, risk-adjusted returns) once enough live data is available.</t>
         </is>
@@ -3203,7 +3203,7 @@
           <t>Add P&amp;L over time chart and P&amp;L by symbol/strategy visualizations.</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="0" t="inlineStr">
         <is>
           <t>Added lightweight SVG-based cumulative P&amp;L line chart and P&amp;L by symbol bar chart driven by analytics trades.</t>
         </is>
@@ -3213,12 +3213,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" s="0" t="inlineStr">
         <is>
           <t>Charts update automatically when filters change and are kept deliberately simple without adding new dependencies.</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I62" s="0" t="inlineStr">
         <is>
           <t>Consider richer charting (e.g., per-day P&amp;L) if/when a chart library is introduced.</t>
         </is>
@@ -3250,7 +3250,7 @@
           <t>Add trades table with filters for date range, strategy, and symbol.</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="0" t="inlineStr">
         <is>
           <t>Trades table shows closed trades with IST timestamps, strategy, symbol, and colored P&amp;L, using filters for strategy and date range from the Analytics header.</t>
         </is>
@@ -3260,12 +3260,12 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" s="0" t="inlineStr">
         <is>
           <t>Gives a clear audit-style view of trades aligned with the summary and charts.</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I63" s="0" t="inlineStr">
         <is>
           <t>Add more filters (e.g., symbol, min/max P&amp;L) if needed for heavier analysis.</t>
         </is>
@@ -3438,9 +3438,24 @@
           <t>Ensure HTTPS, secure cookie/JWT handling, and secret management via environment variables.</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Admin-facing APIs now support optional HTTP Basic auth via ST_ADMIN_USERNAME/ST_ADMIN_PASSWORD; secrets continue to be managed via environment variables and .env.</t>
+        </is>
+      </c>
       <c r="G67" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>When admin credentials are configured, API access requires Basic auth; when unset, behaviour remains unchanged for local single-user development.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Document recommended reverse-proxy/HTTPS setup when moving beyond local use.</t>
         </is>
       </c>
     </row>
@@ -3470,9 +3485,24 @@
           <t>Review and harden RBAC or at least basic auth protections for APIs and admin features.</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Core routers (/api/strategies, /api/orders, /api/positions, /api/analytics, /api/system-events) are now protected by the require_admin dependency when admin credentials are set.</t>
+        </is>
+      </c>
       <c r="G68" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>This provides a lightweight RBAC boundary around admin features without introducing a full user model.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Revisit access patterns if SigmaTrader ever grows beyond single-user deployments.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -89,34 +89,28 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -371,3375 +365,3516 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.68" customWidth="1" style="5" min="1" max="2"/>
-    <col width="50.5" customWidth="1" style="5" min="3" max="3"/>
-    <col width="15.62" customWidth="1" style="5" min="4" max="4"/>
-    <col width="84.3" customWidth="1" style="5" min="5" max="5"/>
-    <col width="53.84" customWidth="1" style="5" min="6" max="6"/>
-    <col width="15.71" customWidth="1" style="6" min="7" max="7"/>
-    <col width="61.21" customWidth="1" style="5" min="8" max="8"/>
-    <col width="60.79" customWidth="1" style="5" min="9" max="9"/>
-    <col width="8.68" customWidth="1" style="6" min="10" max="16384"/>
+    <col width="8.68" customWidth="1" style="4" min="1" max="2"/>
+    <col width="50.5" customWidth="1" style="4" min="3" max="3"/>
+    <col width="15.62" customWidth="1" style="4" min="4" max="4"/>
+    <col width="49.11" customWidth="1" style="4" min="5" max="5"/>
+    <col width="83.31999999999999" customWidth="1" style="4" min="6" max="6"/>
+    <col width="15.71" customWidth="1" style="4" min="7" max="7"/>
+    <col width="61.21" customWidth="1" style="4" min="8" max="8"/>
+    <col width="60.79" customWidth="1" style="4" min="9" max="9"/>
+    <col width="8.68" customWidth="1" style="4" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="7">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>sprint#</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>group#</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>group task description.</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>task#</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>task description</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>deviations (from original plan)</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>remarks</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>pending work</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1" s="7">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="28.35" customHeight="1" s="5">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>S01_G01_TB001</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Initialize backend repository with FastAPI project structure (src/app, tests, config folders).</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Used backend/app instead of src/app to keep backend isolated.</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>Backend skeleton (app, core, api, tests folders) created.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="27.75" customHeight="1" s="7">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="28.35" customHeight="1" s="5">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>S01_G01_TB002</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Set up base FastAPI application with root and /health endpoints.</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Also added pytest-based tests for / and /health as part of this task.</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>FastAPI app with root and /health endpoints implemented and tested.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" s="7">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="28.35" customHeight="1" s="5">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>S01_G01_TB003</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Configure environment-based settings (dev/prod) using pydantic settings or similar.</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Using pydantic BaseSettings with ST_ env prefix and .env support.</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Environment-aware settings wired into app and health responses.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" s="7">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="28.35" customHeight="1" s="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>S01_G02_TF001</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Create React TypeScript app with Material UI and routing (React Router).</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Used Vite react-ts template with a dark MUI theme.</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>React+TS app scaffolded with basic app shell.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="27.75" customHeight="1" s="7">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="28.35" customHeight="1" s="5">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>S01_G02_TF002</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Implement base layout with top bar and sidebar navigation placeholders.</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Implemented a drawer-based layout with MUI AppBar and sidebar.</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>Top bar + side nav with placeholder pages (Dashboard, Queue, Orders, Analytics, Settings).</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="27.75" customHeight="1" s="7">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="28.35" customHeight="1" s="5">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>S01_G02_TF003</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Wire basic API call from frontend to backend /health endpoint and display connection status.</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Health check uses a simple fetch hook against /health and shows status in a Chip.</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>API status indicator wired to backend /health endpoint.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="27.75" customHeight="1" s="7">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="28.35" customHeight="1" s="5">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>S01_G03_TB001</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Configure linting/formatting (black/isort/ruff) and pre-commit hooks for backend.</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Configured Black, isort, Ruff, and pre-commit in backend with a shared pyproject.</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>Backend codebase can be auto-formatted and linted; hooks available via pre-commit.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="27.75" customHeight="1" s="7">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="28.35" customHeight="1" s="5">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>S01_G03_TF002</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Configure linting/formatting (ESLint/Prettier) for frontend.</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Used Vite flat ESLint config with eslint-config-prettier and a simple Prettier setup.</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>Frontend has ESLint + Prettier with npm scripts for linting and formatting.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="27.75" customHeight="1" s="7">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="28.35" customHeight="1" s="5">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>S01_G03_TB003</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Create initial README with project overview and setup steps.</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Expanded existing README instead of creating a separate doc.</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>README now documents backend/frontend run, test, and lint/format commands.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="41.25" customHeight="1" s="7">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="41.75" customHeight="1" s="5">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Design core SQLite schema for alerts, orders, strategies, risk settings</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>S02_G01_TB001</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Design database schema for alerts, orders, strategies, risk_settings, positions, analytics_trades tables.</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Captured schema as a Markdown document with SQLite-focused CREATE TABLE statements and indexes instead of direct migrations.</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are designed with keys, checks, and indexes.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="41.25" customHeight="1" s="7">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="41.75" customHeight="1" s="5">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Design core SQLite schema for alerts, orders, strategies, risk settings</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>S02_G01_TB002</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Review schema for extensibility and alignment with PRD (manual queue, risk, analytics).</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Included explicit notes on AUTO/MANUAL modes, manual queue, risk engine, and analytics alignment inside the schema doc.</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>Schema reviewed for extensibility and alignment with PRD, including risk scopes and simulation support.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="27.75" customHeight="1" s="7">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="28.35" customHeight="1" s="5">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>S02_G02_TB001</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Implement SQLAlchemy ORM models for core tables (alerts, orders, strategies, risk_settings).</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Used SQLAlchemy 2.0 typed ORM models grouped under app.models.trading.</t>
         </is>
       </c>
-      <c r="G13" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are mapped as ORM entities.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" s="7">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="28.35" customHeight="1" s="5">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>S02_G02_TB002</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Set up Alembic (or equivalent migration tool) for managing schema migrations.</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Initialized Alembic in backend/ with env.py wired to Settings and an initial migration creating the core tables.</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H14" s="5" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>Alembic upgrade head creates the SQLite schema from ORM metadata.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" s="7">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="15" ht="28.35" customHeight="1" s="5">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>S02_G02_TB003</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Implement DB session management and dependency injection in FastAPI.</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>Configured a synchronous SessionLocal and get_db FastAPI dependency; tests use the same engine.</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>DB session management is in app.db.session, and README documents Alembic + testing commands.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="27.75" customHeight="1" s="7">
-      <c r="A16" s="5" t="inlineStr">
+    <row r="16" ht="28.35" customHeight="1" s="5">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>S02_G03_TB001</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Create CRUD APIs to manage strategies (list/create/update).</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/strategies for list/create/update operations.</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>Strategies can be created and updated via FastAPI endpoints with tests covering basic flows.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="27.75" customHeight="1" s="7">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="17" ht="28.35" customHeight="1" s="5">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>S02_G03_TB002</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Create CRUD APIs to manage global and per-strategy risk_settings.</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/risk-settings with filters for scope and strategy.</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>Global and per-strategy risk_settings can be created and queried; uniqueness and scope rules enforced.</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="68.25" customHeight="1" s="7">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="18" ht="41.75" customHeight="1" s="5">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>S02_G03_TF003</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Create simple admin UI to view strategies and risk_settings (read-only).</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>Settings page started as read-only and was later extended to allow editing strategy execution modes and creating GLOBAL or per-strategy risk settings directly from the UI.</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H18" s="5" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>Strategies and risk_settings can now be inspected and, for key fields, edited from a single Settings screen (mode toggle and risk creation).</t>
         </is>
       </c>
-      <c r="I18" s="5" t="inlineStr">
+      <c r="I18" s="4" t="inlineStr">
         <is>
           <t>Add delete/edit flows for existing risk rows and finer-grained admin controls once configuration needs grow.</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="7">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="19" ht="28.35" customHeight="1" s="5">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>S03_G01_TB001</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Implement /webhook/tradingview endpoint that receives and validates JSON payload with secret.</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Implemented POST /webhook/tradingview with Pydantic payload model rather than a raw dict.</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>Endpoint validates the secret and accepts structured TradingView payloads.</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>Extend payload schema as real-world TradingView alert format stabilizes.</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="7">
-      <c r="A20" s="5" t="inlineStr">
+    <row r="20" ht="28.35" customHeight="1" s="5">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>S03_G01_TB002</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Map incoming alerts to internal Alert entities and persist to DB.</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Alerts are persisted via the Alert ORM model, linking to Strategy when a matching name exists.</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>Webhook creates Alert rows with normalized fields and stores the raw payload JSON.</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="I20" s="4" t="inlineStr">
         <is>
           <t>Later sprints will connect alerts to order creation and risk evaluation.</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="7">
-      <c r="A21" s="5" t="inlineStr">
+    <row r="21" ht="28.35" customHeight="1" s="5">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>S03_G01_TB003</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Implement basic unit tests for webhook endpoint and validation.</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>Added pytest tests for secret validation and alert persistence using FastAPI TestClient.</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>Tests cover valid/invalid secret flows and DB insertion of Alerts.</t>
         </is>
       </c>
-      <c r="I21" s="6" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t>Add more edge-case tests once the payload contract is finalized.</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="7">
-      <c r="A22" s="5" t="inlineStr">
+    <row r="22" ht="28.35" customHeight="1" s="5">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>S03_G02_TB001</t>
         </is>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Implement service to convert Alert into Order Request (manual mode by default).</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>Introduced an order creation service that maps Alert fields into an Order in WAITING state.</t>
         </is>
       </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>Alert-to-order mapping uses symbol/action/qty/price, defaults to MARKET/MIS and MANUAL mode.</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr">
+      <c r="I22" s="4" t="inlineStr">
         <is>
           <t>Later, incorporate strategy config and risk checks into the transformation.</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="7">
-      <c r="A23" s="5" t="inlineStr">
+    <row r="23" ht="28.35" customHeight="1" s="5">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>S03_G02_TB002</t>
         </is>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Persist orders with WAITING status in DB for manual queue.</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>Webhook now creates a corresponding Order row for each accepted Alert.</t>
         </is>
       </c>
-      <c r="G23" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H23" s="6" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>Orders are stored with status=WAITING and mode=MANUAL, ready for the manual queue.</t>
         </is>
       </c>
-      <c r="I23" s="6" t="inlineStr">
+      <c r="I23" s="4" t="inlineStr">
         <is>
           <t>Expose dedicated queue APIs and link to the frontend queue view in Sprint S04.</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="7">
-      <c r="A24" s="5" t="inlineStr">
+    <row r="24" ht="28.35" customHeight="1" s="5">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>S03_G02_TB003</t>
         </is>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Expose API to list waiting orders and basic order details for frontend.</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>Extended webhook tests to assert that Orders are created alongside Alerts.</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>Tests verify the order is linked to the alert and in WAITING/MANUAL state.</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
         <is>
           <t>Add additional tests around failure modes and idempotency if required.</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="27.75" customHeight="1" s="7">
-      <c r="A25" s="5" t="inlineStr">
+    <row r="25" ht="41.75" customHeight="1" s="5">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Risk management placeholder for later full implementation</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>S03_G03_TB001</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Add pluggable Risk Engine interface with stub implementation (logs checks but does not enforce yet).</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>Created read-only queue listing API for WAITING manual orders.</t>
         </is>
       </c>
-      <c r="G25" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H25" s="6" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>GET /api/orders/queue returns WAITING, MANUAL, non-simulated orders with optional strategy filter.</t>
         </is>
       </c>
-      <c r="I25" s="6" t="inlineStr">
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t>Queue APIs are in place; full background status sync with Zerodha and automatic status updates will be implemented in Sprint S07. S03 focuses only on local WAITING/CANCELLED state for manual queue.</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="7">
-      <c r="A26" s="5" t="inlineStr">
+    <row r="26" ht="28.35" customHeight="1" s="5">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Dashboard layout and navigation structure</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>S04_G01_TF001</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Implement top-level navigation items (Dashboard, Queue, Orders, Analytics, Settings).</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>Top-level navigation and layout were implemented earlier in S01/G02 using MainLayout and routing.</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
         <is>
           <t>Navigation items (Dashboard, Queue, Orders, Analytics, Settings) are present and wired.</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
+      <c r="I26" s="4" t="inlineStr">
         <is>
           <t>Add richer Dashboard widgets once analytics and broker integration are available.</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="7">
-      <c r="A27" s="5" t="inlineStr">
+    <row r="27" ht="28.35" customHeight="1" s="5">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Dashboard layout and navigation structure</t>
         </is>
       </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>S04_G01_TF002</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Create Dashboard page skeleton with placeholder widgets (P&amp;L, trade count, connection status).</t>
         </is>
       </c>
-      <c r="F27" s="6" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>Dashboard page is currently a skeleton with heading and placeholder text.</t>
         </is>
       </c>
-      <c r="G27" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H27" s="6" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
         <is>
           <t>Dashboard is ready to host P&amp;L and connection status widgets in later sprints.</t>
         </is>
       </c>
-      <c r="I27" s="6" t="inlineStr">
+      <c r="I27" s="4" t="inlineStr">
         <is>
           <t>Populate Dashboard with real metrics after S05–S07.</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="7">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="28" ht="28.35" customHeight="1" s="5">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>S04_G02_TF001</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Implement Waiting Queue page with Material UI table of pending orders.</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>Queue page now includes edit, execute, and cancel actions for WAITING manual orders, wired to backend APIs.</t>
         </is>
       </c>
-      <c r="G28" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
         <is>
           <t>Waiting Queue UI lists WAITING manual orders and exposes Edit/Execute/Cancel controls for each row.</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr">
+      <c r="I28" s="4" t="inlineStr">
         <is>
           <t>Add inline editing and execute flows when backend supports them.</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="7">
-      <c r="A29" s="5" t="inlineStr">
+    <row r="29" ht="41.75" customHeight="1" s="5">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>S04_G02_TF002</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Add inline editing for quantity, price, order type, and product fields in queue rows.</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>Inline editing is implemented via an Edit dialog instead of direct cell editing; users can adjust quantity, order type, price, and product for queue orders.</t>
         </is>
       </c>
-      <c r="G29" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H29" s="6" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>Edit dialog updates qty/order_type/price/product for WAITING manual orders before execution.</t>
         </is>
       </c>
-      <c r="I29" s="6" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>Consider richer inline editing (e.g., symbol/side changes) and validation against risk settings in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="7">
-      <c r="A30" s="5" t="inlineStr">
+    <row r="30" ht="41.75" customHeight="1" s="5">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>S04_G02_TF003</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Wire Execute and Cancel buttons to backend APIs (no broker integration yet).</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>Execute button is now wired to POST /api/orders/{id}/execute, sending orders to Zerodha (when connected) and updating local status based on broker response.</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
         <is>
           <t>Execute and Cancel actions both update the queue and Orders history; broker IDs/errors are visible on the Orders page.</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
+      <c r="I30" s="4" t="inlineStr">
         <is>
           <t>Add Execute handling once backend execution endpoints are defined.</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="7">
-      <c r="A31" s="5" t="inlineStr">
+    <row r="31" ht="28.35" customHeight="1" s="5">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>S04_G02_TB004</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Implement backend APIs to update/cancel waiting orders and track status changes.</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>Backend status update endpoint supports WAITING/CANCELLED transitions for manual queue.</t>
         </is>
       </c>
-      <c r="G31" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H31" s="6" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>PATCH /api/orders/{id}/status enables cancelling WAITING orders.</t>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
+      <c r="I31" s="4" t="inlineStr">
         <is>
           <t>Extend backend to handle additional transitions (e.g., READY_TO_SEND, EXECUTED_LOCAL).</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="7">
-      <c r="A32" s="5" t="inlineStr">
+    <row r="32" ht="28.35" customHeight="1" s="5">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Basic order history UI and backend API</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>S04_G03_TB001</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Implement backend API to list all orders with filters (date, strategy, status, symbol).</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>Implemented a simple GET /api/orders/ endpoint with basic status/strategy filters.</t>
         </is>
       </c>
-      <c r="G32" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>Provides a basic orders history feed for the Orders page.</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="I32" s="4" t="inlineStr">
         <is>
           <t>Add richer filters (date range, symbol) as requirements solidify.</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="7">
-      <c r="A33" s="5" t="inlineStr">
+    <row r="33" ht="28.35" customHeight="1" s="5">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Basic order history UI and backend API</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>S04_G03_TF002</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Create Orders History page with filter controls and table displaying orders.</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>Orders History page shows a simple table without interactive filters yet.</t>
         </is>
       </c>
-      <c r="G33" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H33" s="6" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>Orders page lists historical orders using /api/orders/.</t>
         </is>
       </c>
-      <c r="I33" s="6" t="inlineStr">
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t>Add filter controls and more detailed status views in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="7">
-      <c r="A34" s="5" t="inlineStr">
+    <row r="34" ht="28.35" customHeight="1" s="5">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>S05_G01_TB001</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Configure Zerodha Kite Connect Python client with API key/secret from env.</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>Introduced ZerodhaClient wrapper reading API key from Settings and lazily instantiating KiteConnect.</t>
         </is>
       </c>
-      <c r="G34" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
         <is>
           <t>Backend can now construct a Zerodha client once an access token is available.</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr">
+      <c r="I34" s="4" t="inlineStr">
         <is>
           <t>Hook this client into OAuth/token storage and execution flows in S05/G02–G03.</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="7">
-      <c r="A35" s="5" t="inlineStr">
+    <row r="35" ht="28.35" customHeight="1" s="5">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>S05_G01_TB002</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>Implement service for placing market/limit orders via Zerodha API.</t>
         </is>
       </c>
-      <c r="F35" s="6" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>Implemented ZerodhaClient.place_order that composes KiteConnect place_order parameters.</t>
         </is>
       </c>
-      <c r="G35" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H35" s="6" t="inlineStr">
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>Order placement service is tested against a fake Kite client (no real network calls).</t>
         </is>
       </c>
-      <c r="I35" s="6" t="inlineStr">
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t>Wire real order placement into manual queue execution once broker connection is ready.</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="7">
-      <c r="A36" s="5" t="inlineStr">
+    <row r="36" ht="28.35" customHeight="1" s="5">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D36" s="5" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>S05_G01_TB003</t>
         </is>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>Implement service to fetch order book and order status from Zerodha.</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>Exposed ZerodhaClient.list_orders and get_order_history as thin wrappers over KiteConnect APIs.</t>
         </is>
       </c>
-      <c r="G36" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H36" s="6" t="inlineStr">
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
         <is>
           <t>Backend has basic services to retrieve Zerodha order book and order history.</t>
         </is>
       </c>
-      <c r="I36" s="6" t="inlineStr">
+      <c r="I36" s="4" t="inlineStr">
         <is>
           <t>Use these services for status sync and richer order views in S07.</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="7">
-      <c r="A37" s="5" t="inlineStr">
+    <row r="37" ht="28.35" customHeight="1" s="5">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>S05_G02_TB001</t>
         </is>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>Implement backend endpoints for Zerodha OAuth flow and token exchange.</t>
         </is>
       </c>
-      <c r="F37" s="6" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Implemented backend Zerodha OAuth-like flow using JSON config (kite_config.json) and KiteConnect.generate_session.</t>
         </is>
       </c>
-      <c r="G37" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H37" s="6" t="inlineStr">
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
         <is>
           <t>Backend exposes login-url, connect, and status endpoints that also call Kite profile to verify the connection.</t>
         </is>
       </c>
-      <c r="I37" s="6" t="inlineStr">
+      <c r="I37" s="4" t="inlineStr">
         <is>
           <t>Refine error reporting and add retries or token refresh handling as needed.</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="7">
-      <c r="A38" s="5" t="inlineStr">
+    <row r="38" ht="28.35" customHeight="1" s="5">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>S05_G02_TB002</t>
         </is>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>Securely store encrypted Zerodha access token in DB.</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>Access token is encrypted with an env-provided crypto key and stored in broker_connections table.</t>
         </is>
       </c>
-      <c r="G38" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H38" s="6" t="inlineStr">
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
         <is>
           <t>BrokerConnection model holds one encrypted access token per broker (currently zerodha).</t>
         </is>
       </c>
-      <c r="I38" s="6" t="inlineStr">
+      <c r="I38" s="4" t="inlineStr">
         <is>
           <t>Consider stronger encryption (e.g., cryptography.fernet) for multi-user or hosted deployments.</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="7">
-      <c r="A39" s="5" t="inlineStr">
+    <row r="39" ht="28.35" customHeight="1" s="5">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>S05_G02_TF003</t>
         </is>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>Create frontend Connect Zerodha UI with button and status indicator.</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>Added Zerodha connection section on Settings page with login button, request_token input, and status chip.</t>
         </is>
       </c>
-      <c r="G39" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H39" s="6" t="inlineStr">
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
         <is>
           <t>Settings page shows Zerodha connection status, last-updated time in IST, and user name/id when available.</t>
         </is>
       </c>
-      <c r="I39" s="6" t="inlineStr">
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t>Improve UX (e.g., integrating redirect/callback instead of manual token paste) when feasible.</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="7">
-      <c r="A40" s="5" t="inlineStr">
+    <row r="40" ht="28.35" customHeight="1" s="5">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>S05_G03_TB001</t>
         </is>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>Wire Execute action to call Zerodha order placement service and update order with broker ID.</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>Added /api/orders/{id}/execute endpoint using ZerodhaClient and BrokerConnection token.</t>
         </is>
       </c>
-      <c r="G40" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
         <is>
           <t>Manual queue orders can now be executed to Zerodha; status is updated and Zerodha order id stored.</t>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr">
+      <c r="I40" s="4" t="inlineStr">
         <is>
           <t>Extend to support other brokers and more advanced order parameters later.</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="7">
-      <c r="A41" s="5" t="inlineStr">
+    <row r="41" ht="55.2" customHeight="1" s="5">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>S05_G03_TB002</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>Handle Zerodha errors and update order status to FAILED with error message.</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>On Zerodha off-market-hours errors (e.g., "Try placing an AMO order"), the backend now automatically retries the execution once as an AMO order (variety="amo") before marking the order as FAILED.</t>
         </is>
       </c>
-      <c r="G41" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H41" s="6" t="inlineStr">
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
         <is>
           <t>Auto-AMO fallback is implemented for Zerodha off-hours errors; other errors still mark the order FAILED and persist error_message.</t>
         </is>
       </c>
-      <c r="I41" s="6" t="inlineStr">
+      <c r="I41" s="4" t="inlineStr">
         <is>
           <t>Review additional Zerodha error patterns and, in a later sprint, introduce configurable off-hours handling (e.g., choose AMO vs GTT per broker/strategy in JSON config) instead of relying solely on hard-coded message substrings.</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="7">
-      <c r="A42" s="5" t="inlineStr">
+    <row r="42" ht="28.35" customHeight="1" s="5">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>S05_G03_TF003</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>Surface broker execution results and errors in Waiting Queue and Orders History UI.</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>Queue UI now exposes Execute/Cancel buttons and Orders view shows broker id and error columns.</t>
         </is>
       </c>
-      <c r="G42" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H42" s="6" t="inlineStr">
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
         <is>
           <t>Execution results and broker ids are surfaced in both Queue (interaction) and Orders history (audit).</t>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr">
+      <c r="I42" s="4" t="inlineStr">
         <is>
           <t>Enhance UX with notifications and richer status filtering in future sprints.</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="27.75" customHeight="1" s="7">
-      <c r="A43" s="5" t="inlineStr">
+    <row r="43" ht="55.2" customHeight="1" s="5">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D43" s="5" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>S06_G01_TB001</t>
         </is>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>Extend strategies to include execution_mode (AUTO/MANUAL) in DB and APIs.</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>Strategy execution_mode (AUTO/MANUAL) was already present in the model; we ensured it is consistently exposed through Pydantic schemas and strategy APIs, with MANUAL as the default.</t>
         </is>
       </c>
-      <c r="G43" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H43" s="6" t="inlineStr">
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
         <is>
           <t>Strategies now carry an execution_mode flag that downstream routing logic and the frontend Settings UI can rely on.</t>
         </is>
       </c>
-      <c r="I43" s="6" t="inlineStr">
+      <c r="I43" s="4" t="inlineStr">
         <is>
           <t>Later risk-engine work may add additional per-strategy flags that interact with execution_mode (e.g., risk profiles for AUTO).</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="27.75" customHeight="1" s="7">
-      <c r="A44" s="5" t="inlineStr">
+    <row r="44" ht="68.65000000000001" customHeight="1" s="5">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D44" s="5" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>S06_G01_TB002</t>
         </is>
       </c>
-      <c r="E44" s="5" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
         <is>
           <t>Implement alert routing logic based on strategy execution_mode (AUTO -&gt; immediate send, MANUAL -&gt; queue).</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>TradingView webhook routing now inspects the strategy execution_mode: AUTO strategies (when enabled) create AUTO orders and trigger immediate execution via the existing /api/orders/{id}/execute logic; MANUAL or missing strategies still create WAITING MANUAL queue orders.</t>
         </is>
       </c>
-      <c r="G44" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H44" s="6" t="inlineStr">
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
         <is>
           <t>AUTO strategies bypass the manual queue and send orders directly to Zerodha using the same execution path as the manual Execute endpoint, including AMO fallback logic.</t>
         </is>
       </c>
-      <c r="I44" s="6" t="inlineStr">
+      <c r="I44" s="4" t="inlineStr">
         <is>
           <t>Integrate risk checks into both AUTO and MANUAL routing paths in S06/G02 before broker execution.</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="27.75" customHeight="1" s="7">
-      <c r="A45" s="5" t="inlineStr">
+    <row r="45" ht="41.75" customHeight="1" s="5">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D45" s="5" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>S06_G01_TF003</t>
         </is>
       </c>
-      <c r="E45" s="5" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>Add UI controls to view and change execution mode per strategy in Settings.</t>
         </is>
       </c>
-      <c r="F45" s="6" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>Settings page now shows an editable Mode column with a MANUAL/AUTO select per strategy, wired to PUT /api/strategies/{id}.</t>
         </is>
       </c>
-      <c r="G45" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H45" s="6" t="inlineStr">
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
         <is>
           <t>User can toggle strategies between MANUAL and AUTO modes directly from the Settings UI; changes are persisted to the backend.</t>
         </is>
       </c>
-      <c r="I45" s="6" t="inlineStr">
+      <c r="I45" s="4" t="inlineStr">
         <is>
           <t>Consider adding per-strategy hints in the UI (e.g., badges or warnings) when AUTO is enabled but broker or risk settings are not fully configured.</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="7">
-      <c r="A46" s="5" t="inlineStr">
+    <row r="46" ht="55.2" customHeight="1" s="5">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D46" s="5" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>S06_G02_TB001</t>
         </is>
       </c>
-      <c r="E46" s="5" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>Implement risk rules for max_order_value, max_quantity_per_order, and allow_short_selling.</t>
         </is>
       </c>
-      <c r="F46" s="6" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>Implemented a risk evaluation service that uses RiskSettings (GLOBAL and per-strategy) to enforce max_quantity_per_order, max_order_value, and allow_short_selling before broker calls.</t>
         </is>
       </c>
-      <c r="G46" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H46" s="6" t="inlineStr">
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H46" s="4" t="inlineStr">
         <is>
           <t>Risk checks run inside the order execution path for both MANUAL queue executes and AUTO strategy orders.</t>
         </is>
       </c>
-      <c r="I46" s="6" t="inlineStr">
+      <c r="I46" s="4" t="inlineStr">
         <is>
           <t>Extend the risk engine to incorporate max_daily_loss and max_open_positions once realized PnL and positions are tracked in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="7">
-      <c r="A47" s="5" t="inlineStr">
+    <row r="47" ht="55.2" customHeight="1" s="5">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D47" s="5" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>S06_G02_TB002</t>
         </is>
       </c>
-      <c r="E47" s="5" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>Implement daily loss limit tracking and enforcement in Risk Engine.</t>
         </is>
       </c>
-      <c r="F47" s="6" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>Orders violating hard limits are now blocked with status REJECTED_RISK and a human-readable explanation; when clamp_mode=CLAMP, quantities are reduced instead of rejected where possible.</t>
         </is>
       </c>
-      <c r="G47" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H47" s="6" t="inlineStr">
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
         <is>
           <t>Risk decisions are stored on the Order via status/error_message and are visible in the Orders history UI.</t>
         </is>
       </c>
-      <c r="I47" s="6" t="inlineStr">
+      <c r="I47" s="4" t="inlineStr">
         <is>
           <t>Refine risk messages and add per-rule identification if we need more granular auditing later.</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="7">
-      <c r="A48" s="5" t="inlineStr">
+    <row r="48" ht="55.2" customHeight="1" s="5">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D48" s="5" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>S06_G02_TB003</t>
         </is>
       </c>
-      <c r="E48" s="5" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>Make Risk Engine apply to both auto and manual executions before broker call.</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>Risk checks are invoked inside the shared order execution endpoint, so both AUTO strategy executions (from the webhook) and MANUAL queue executes are evaluated before any broker call.</t>
         </is>
       </c>
-      <c r="G48" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H48" s="6" t="inlineStr">
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
         <is>
           <t>AUTO and MANUAL flows now share the same risk gate in execute_order; broker requests are only sent if the risk engine allows the order.</t>
         </is>
       </c>
-      <c r="I48" s="6" t="inlineStr">
+      <c r="I48" s="4" t="inlineStr">
         <is>
           <t>As we add more execution paths (e.g., bulk actions), ensure they all call through the same risk-aware execution helper.</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="7">
-      <c r="A49" s="5" t="inlineStr">
+    <row r="49" ht="41.75" customHeight="1" s="5">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D49" s="5" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>S06_G02_TF004</t>
         </is>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Display risk-related rejections/adjustments in UI (tooltips, messages on orders).</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Risk-related rejections and clamps are surfaced via the existing Error column in the Orders UI, showing detailed messages from the risk engine.</t>
         </is>
       </c>
-      <c r="G49" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H49" s="6" t="inlineStr">
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
         <is>
           <t>Users can see which orders were blocked (REJECTED_RISK) or had their quantities adjusted before execution.</t>
         </is>
       </c>
-      <c r="I49" s="6" t="inlineStr">
+      <c r="I49" s="4" t="inlineStr">
         <is>
           <t>Consider adding explicit risk badges or tooltips in a later UX-focused sprint to differentiate risk notes from broker errors.</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="7">
-      <c r="A50" s="5" t="inlineStr">
+    <row r="50" ht="55.2" customHeight="1" s="5">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Trade type (MIS/CNC) and GTT-related behavior</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>S06_G03_TB001</t>
         </is>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>Extend order model and APIs to handle product type (MIS/CNC) and optional GTT properties.</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>Order model already contained product (MIS/CNC) and a gtt flag; we extended webhook parsing to derive product from trade_type and exposed product/gtt through the editable OrderUpdate schema and edit endpoint.</t>
         </is>
       </c>
-      <c r="G50" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H50" s="6" t="inlineStr">
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H50" s="4" t="inlineStr">
         <is>
           <t>Backoffice and APIs can now track product type and a GTT preference on orders; real GTT placement will be wired in a later sprint.</t>
         </is>
       </c>
-      <c r="I50" s="6" t="inlineStr">
+      <c r="I50" s="4" t="inlineStr">
         <is>
           <t>Implement actual Zerodha GTT order placement and tie it to the gtt flag once we integrate Kite GTT APIs.</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="7">
-      <c r="A51" s="5" t="inlineStr">
+    <row r="51" ht="41.75" customHeight="1" s="5">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Trade type (MIS/CNC) and GTT-related behavior</t>
         </is>
       </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>S06_G03_TF002</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>Allow users to modify trade_type and GTT toggle in Waiting Queue UI before execution.</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>Waiting Queue edit dialog now allows selecting product (MIS/CNC) and toggling a GTT preference checkbox, with changes persisted via PATCH /api/orders/{id}.</t>
         </is>
       </c>
-      <c r="G51" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H51" s="6" t="inlineStr">
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
         <is>
           <t>Users can adjust trade type and mark orders as GTT-preferred before executing them from the manual queue.</t>
         </is>
       </c>
-      <c r="I51" s="6" t="inlineStr">
+      <c r="I51" s="4" t="inlineStr">
         <is>
           <t>Once real GTT execution exists, ensure the UI clearly indicates which orders will be sent as GTT vs regular/AMO.</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="27.75" customHeight="1" s="7">
-      <c r="A52" s="5" t="inlineStr">
+    <row r="52" ht="55.2" customHeight="1" s="5">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>S07_G01_TB001</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>Implement background job to periodically sync order statuses from Zerodha (OPEN/COMPLETE/REJECTED).</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>Implemented a reusable sync_order_statuses service that consumes Zerodha order book data via ZerodhaClient.list_orders and updates local Order.status values.</t>
         </is>
       </c>
-      <c r="G52" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
         <is>
           <t>Status sync is triggered via a backend API and is safe to call on-demand or from an external scheduler.</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr">
+      <c r="I52" s="4" t="inlineStr">
         <is>
           <t>Introduce a cron/APS-style background scheduler (e.g., APScheduler or external cron calling /api/zerodha/sync-orders) for automatic periodic status sync in production.</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="7">
-      <c r="A53" s="5" t="inlineStr">
+    <row r="53" ht="41.75" customHeight="1" s="5">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D53" s="5" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>S07_G01_TB002</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>Update Orders table with latest status and broker messages.</t>
         </is>
       </c>
-      <c r="F53" s="6" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr">
         <is>
           <t>Order status and broker messages are updated based on Zerodha status and status_message fields, including mapping COMPLETE, CANCELLED, and REJECTED appropriately.</t>
         </is>
       </c>
-      <c r="G53" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H53" s="6" t="inlineStr">
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
         <is>
           <t>Rejected orders now capture Zerodha-provided status messages when available, improving auditability in the Orders history.</t>
         </is>
       </c>
-      <c r="I53" s="6" t="inlineStr">
+      <c r="I53" s="4" t="inlineStr">
         <is>
           <t>Refine mapping and message capture as we see more Zerodha status variants in real trading.</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="7">
-      <c r="A54" s="5" t="inlineStr">
+    <row r="54" ht="41.75" customHeight="1" s="5">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>S07_G01_TF003</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>Reflect real-time-ish status changes in Orders History UI (polling or refresh).</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>Orders History page gained a Refresh button that calls syncZerodhaOrders (POST /api/zerodha/sync-orders) and then reloads the order list.</t>
         </is>
       </c>
-      <c r="G54" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H54" s="6" t="inlineStr">
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
         <is>
           <t>User can now manually synchronize statuses from Zerodha and see updated states without restarting the app.</t>
         </is>
       </c>
-      <c r="I54" s="6" t="inlineStr">
+      <c r="I54" s="4" t="inlineStr">
         <is>
           <t>Consider adding periodic auto-refresh or visual indicators for recently synced orders in future UX enhancements.</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="7">
-      <c r="A55" s="5" t="inlineStr">
+    <row r="55" ht="41.75" customHeight="1" s="5">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>S07_G02_TB001</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>Implement backend services to fetch positions and holdings from Zerodha and cache in DB.</t>
         </is>
       </c>
-      <c r="F55" s="6" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>Positions are fetched from Zerodha via ZerodhaClient.list_positions and cached in the positions table; holdings are currently fetched on-demand without DB caching.</t>
         </is>
       </c>
-      <c r="G55" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H55" s="6" t="inlineStr">
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H55" s="4" t="inlineStr">
         <is>
           <t>Positions caching covers the main use case; holdings can be added to the cache later if needed.</t>
         </is>
       </c>
-      <c r="I55" s="6" t="inlineStr">
+      <c r="I55" s="4" t="inlineStr">
         <is>
           <t>Add DB caching for holdings if long-term historical holdings views or offline analytics require it.</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="7">
-      <c r="A56" s="5" t="inlineStr">
+    <row r="56" ht="28.35" customHeight="1" s="5">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>S07_G02_TB002</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>Expose API endpoints for positions and holdings for frontend.</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/positions for listing cached positions, triggering a sync, and fetching live holdings.</t>
         </is>
       </c>
-      <c r="G56" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H56" s="6" t="inlineStr">
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
         <is>
           <t>Frontend services consume these endpoints for the Positions and Holdings pages.</t>
         </is>
       </c>
-      <c r="I56" s="6" t="inlineStr">
+      <c r="I56" s="4" t="inlineStr">
         <is>
           <t>Extend APIs with filters (e.g., by symbol or product) as usage patterns emerge.</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="7">
-      <c r="A57" s="5" t="inlineStr">
+    <row r="57" ht="28.35" customHeight="1" s="5">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>S07_G02_TF003</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>Create Positions &amp; Holdings UI pages with P&amp;L calculations.</t>
         </is>
       </c>
-      <c r="F57" s="6" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>Added dedicated Positions and Holdings pages with basic P&amp;L calculations and a manual Refresh for positions.</t>
         </is>
       </c>
-      <c r="G57" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H57" s="6" t="inlineStr">
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H57" s="4" t="inlineStr">
         <is>
           <t>User can now inspect positions (with cached P&amp;L) and holdings (with unrealized P&amp;L) directly in the UI.</t>
         </is>
       </c>
-      <c r="I57" s="6" t="inlineStr">
+      <c r="I57" s="4" t="inlineStr">
         <is>
           <t>Enhance UI with aggregate metrics (e.g., total P&amp;L) and filtering in future analytics-focused sprints.</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="7">
-      <c r="A58" s="5" t="inlineStr">
+    <row r="58" ht="55.2" customHeight="1" s="5">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D58" s="5" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>S07_G03_TB001</t>
         </is>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>Implement trade grouping logic (entry/exit pairs) to populate analytics_trades table.</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>Implemented a conservative trade grouping service that pairs executed orders into entry/exit trades (BUY→SELL or SELL→BUY with equal quantity) and populates analytics_trades.</t>
         </is>
       </c>
-      <c r="G58" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H58" s="6" t="inlineStr">
+      <c r="G58" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
         <is>
           <t>Current grouping handles simple round-trip trades; more complex scaling/partial patterns can be added later.</t>
         </is>
       </c>
-      <c r="I58" s="6" t="inlineStr">
+      <c r="I58" s="4" t="inlineStr">
         <is>
           <t>Extend trade grouping to handle partial exits, scaling in/out, and multi-leg trades if needed for deeper analytics.</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="7">
-      <c r="A59" s="5" t="inlineStr">
+    <row r="59" ht="41.75" customHeight="1" s="5">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D59" s="5" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>S07_G03_TB002</t>
         </is>
       </c>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t>Implement analytics queries for P&amp;L, win rate, max drawdown per strategy and date range.</t>
         </is>
       </c>
-      <c r="F59" s="6" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>Analytics service computes total P&amp;L, win rate, average win/loss, and max drawdown per strategy and optional date range based on analytics_trades.</t>
         </is>
       </c>
-      <c r="G59" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H59" s="6" t="inlineStr">
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t>Provides a solid backend foundation for strategy performance dashboards without yet focusing on specific chart shapes.</t>
         </is>
       </c>
-      <c r="I59" s="6" t="inlineStr">
+      <c r="I59" s="4" t="inlineStr">
         <is>
           <t>Add more advanced metrics (e.g., Sharpe, expectancy) once we have more live data.</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="7">
-      <c r="A60" s="5" t="inlineStr">
+    <row r="60" ht="41.75" customHeight="1" s="5">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D60" s="5" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>S07_G03_TB003</t>
         </is>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t>Expose analytics API endpoints for frontend consumption.</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>Exposed analytics APIs under /api/analytics for rebuilding trades and fetching summary metrics for a strategy/date range.</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H60" s="6" t="inlineStr">
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
         <is>
           <t>Frontend (Analytics page) can call these endpoints to render P&amp;L and performance views in later sprints.</t>
         </is>
       </c>
-      <c r="I60" s="6" t="inlineStr">
+      <c r="I60" s="4" t="inlineStr">
         <is>
           <t>Design and implement frontend analytics views that consume these APIs (charts, summary cards).</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="7">
-      <c r="A61" s="5" t="inlineStr">
+    <row r="61" ht="41.75" customHeight="1" s="5">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D61" s="5" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>S07_G04_TF001</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t>Implement Analytics page with summary cards (P&amp;L, win rate, max DD, avg R:R).</t>
         </is>
       </c>
-      <c r="F61" s="0" t="inlineStr">
+      <c r="F61" s="7" t="inlineStr">
         <is>
           <t>Analytics page now loads summary metrics via /api/analytics/summary and supports basic filtering by strategy and date range.</t>
         </is>
       </c>
-      <c r="G61" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H61" s="0" t="inlineStr">
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H61" s="7" t="inlineStr">
         <is>
           <t>Summary card shows trades, total P&amp;L, win rate, avg win/loss, and max drawdown; a Rebuild button triggers backend rebuild-trades and refreshes metrics.</t>
         </is>
       </c>
-      <c r="I61" s="0" t="inlineStr">
+      <c r="I61" s="7" t="inlineStr">
         <is>
           <t>Expose more advanced metrics (e.g., expectancy, risk-adjusted returns) once enough live data is available.</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="7">
-      <c r="A62" s="5" t="inlineStr">
+    <row r="62" ht="28.35" customHeight="1" s="5">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D62" s="5" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>S07_G04_TF002</t>
         </is>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>Add P&amp;L over time chart and P&amp;L by symbol/strategy visualizations.</t>
         </is>
       </c>
-      <c r="F62" s="0" t="inlineStr">
+      <c r="F62" s="7" t="inlineStr">
         <is>
           <t>Added lightweight SVG-based cumulative P&amp;L line chart and P&amp;L by symbol bar chart driven by analytics trades.</t>
         </is>
       </c>
-      <c r="G62" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H62" s="0" t="inlineStr">
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H62" s="7" t="inlineStr">
         <is>
           <t>Charts update automatically when filters change and are kept deliberately simple without adding new dependencies.</t>
         </is>
       </c>
-      <c r="I62" s="0" t="inlineStr">
+      <c r="I62" s="7" t="inlineStr">
         <is>
           <t>Consider richer charting (e.g., per-day P&amp;L) if/when a chart library is introduced.</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="7">
-      <c r="A63" s="5" t="inlineStr">
+    <row r="63" ht="41.75" customHeight="1" s="5">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D63" s="5" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t>S07_G04_TF003</t>
         </is>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t>Add trades table with filters for date range, strategy, and symbol.</t>
         </is>
       </c>
-      <c r="F63" s="0" t="inlineStr">
+      <c r="F63" s="7" t="inlineStr">
         <is>
           <t>Trades table shows closed trades with IST timestamps, strategy, symbol, and colored P&amp;L, using filters for strategy and date range from the Analytics header.</t>
         </is>
       </c>
-      <c r="G63" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H63" s="0" t="inlineStr">
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H63" s="7" t="inlineStr">
         <is>
           <t>Gives a clear audit-style view of trades aligned with the summary and charts.</t>
         </is>
       </c>
-      <c r="I63" s="0" t="inlineStr">
+      <c r="I63" s="7" t="inlineStr">
         <is>
           <t>Add more filters (e.g., symbol, min/max P&amp;L) if needed for heavier analysis.</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="7">
-      <c r="A64" s="5" t="inlineStr">
+    <row r="64" ht="41.75" customHeight="1" s="5">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D64" s="5" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>S08_G01_TB001</t>
         </is>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>Implement structured logging for backend (alerts, orders, broker calls, risk decisions).</t>
         </is>
       </c>
-      <c r="F64" s="6" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr">
         <is>
           <t>Added JSON-formatted structured logging with correlation IDs via a FastAPI middleware; key flows (webhook ingestion, order execution, Zerodha connect) now emit structured events.</t>
         </is>
       </c>
-      <c r="G64" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H64" s="6" t="inlineStr">
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
         <is>
           <t>Logs include correlation_id so a single alert/order can be traced across webhook, risk, and broker calls.</t>
         </is>
       </c>
-      <c r="I64" s="6" t="inlineStr">
+      <c r="I64" s="4" t="inlineStr">
         <is>
           <t>Consider integrating with an external log aggregator if the app is deployed beyond local single-user usage.</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="7">
-      <c r="A65" s="5" t="inlineStr">
+    <row r="65" ht="41.75" customHeight="1" s="5">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C65" s="5" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D65" s="5" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>S08_G01_TB002</t>
         </is>
       </c>
-      <c r="E65" s="5" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t>Standardize error responses and add correlation IDs for tracing requests.</t>
         </is>
       </c>
-      <c r="F65" s="6" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t>Standardized several error paths (risk rejection, Zerodha order failures) and ensured correlation IDs are included in both logs and HTTP responses.</t>
         </is>
       </c>
-      <c r="G65" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H65" s="6" t="inlineStr">
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H65" s="4" t="inlineStr">
         <is>
           <t>Critical errors now have consistent HTTP status codes and messages while being traceable via X-Request-ID.</t>
         </is>
       </c>
-      <c r="I65" s="6" t="inlineStr">
+      <c r="I65" s="4" t="inlineStr">
         <is>
           <t>Extend normalization to any remaining ad-hoc error paths as they are discovered.</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1" s="7">
-      <c r="A66" s="5" t="inlineStr">
+    <row r="66" ht="41.75" customHeight="1" s="5">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C66" s="5" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D66" s="5" t="inlineStr">
+      <c r="D66" s="4" t="inlineStr">
         <is>
           <t>S08_G01_TF003</t>
         </is>
       </c>
-      <c r="E66" s="5" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t>Add minimal log/notification view in UI for recent errors/warnings.</t>
         </is>
       </c>
-      <c r="F66" s="6" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr">
         <is>
           <t>Added a simple System Events page that surfaces recent client-side errors/warnings captured in memory during the current session.</t>
         </is>
       </c>
-      <c r="G66" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H66" s="6" t="inlineStr">
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
         <is>
           <t>Gives a quick at-a-glance view of recent issues without setting up a full log viewer.</t>
         </is>
       </c>
-      <c r="I66" s="6" t="inlineStr">
+      <c r="I66" s="4" t="inlineStr">
         <is>
           <t>If needed, extend this view to pull server-side logs or important alerts once a log backend is introduced.</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="7">
-      <c r="A67" s="5" t="inlineStr">
+    <row r="67" ht="41.75" customHeight="1" s="5">
+      <c r="A67" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C67" s="5" t="inlineStr">
+      <c r="C67" s="4" t="inlineStr">
         <is>
           <t>Security hardening and configuration management</t>
         </is>
       </c>
-      <c r="D67" s="5" t="inlineStr">
+      <c r="D67" s="4" t="inlineStr">
         <is>
           <t>S08_G02_TB001</t>
         </is>
       </c>
-      <c r="E67" s="5" t="inlineStr">
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t>Ensure HTTPS, secure cookie/JWT handling, and secret management via environment variables.</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr">
         <is>
           <t>Admin-facing APIs now support optional HTTP Basic auth via ST_ADMIN_USERNAME/ST_ADMIN_PASSWORD; secrets continue to be managed via environment variables and .env.</t>
         </is>
       </c>
-      <c r="G67" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H67" s="4" t="inlineStr">
         <is>
           <t>When admin credentials are configured, API access requires Basic auth; when unset, behaviour remains unchanged for local single-user development.</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I67" s="4" t="inlineStr">
         <is>
           <t>Document recommended reverse-proxy/HTTPS setup when moving beyond local use.</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="7">
-      <c r="A68" s="5" t="inlineStr">
+    <row r="68" ht="41.75" customHeight="1" s="5">
+      <c r="A68" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C68" s="5" t="inlineStr">
+      <c r="C68" s="4" t="inlineStr">
         <is>
           <t>Security hardening and configuration management</t>
         </is>
       </c>
-      <c r="D68" s="5" t="inlineStr">
+      <c r="D68" s="4" t="inlineStr">
         <is>
           <t>S08_G02_TB002</t>
         </is>
       </c>
-      <c r="E68" s="5" t="inlineStr">
+      <c r="E68" s="4" t="inlineStr">
         <is>
           <t>Review and harden RBAC or at least basic auth protections for APIs and admin features.</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" s="4" t="inlineStr">
         <is>
           <t>Core routers (/api/strategies, /api/orders, /api/positions, /api/analytics, /api/system-events) are now protected by the require_admin dependency when admin credentials are set.</t>
         </is>
       </c>
-      <c r="G68" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
         <is>
           <t>This provides a lightweight RBAC boundary around admin features without introducing a full user model.</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I68" s="4" t="inlineStr">
         <is>
           <t>Revisit access patterns if SigmaTrader ever grows beyond single-user deployments.</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="7">
-      <c r="A69" s="5" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="5">
+      <c r="A69" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C69" s="5" t="inlineStr">
+      <c r="C69" s="4" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D69" s="5" t="inlineStr">
+      <c r="D69" s="4" t="inlineStr">
         <is>
           <t>S08_G03_TB001</t>
         </is>
       </c>
-      <c r="E69" s="5" t="inlineStr">
+      <c r="E69" s="4" t="inlineStr">
         <is>
           <t>Create Dockerfiles for backend and frontend and optional docker-compose setup for local run.</t>
         </is>
       </c>
-      <c r="G69" s="6" t="inlineStr">
+      <c r="G69" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="7">
-      <c r="A70" s="5" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="5">
+      <c r="A70" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C70" s="5" t="inlineStr">
+      <c r="C70" s="4" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D70" s="5" t="inlineStr">
+      <c r="D70" s="4" t="inlineStr">
         <is>
           <t>S08_G03_TB002</t>
         </is>
       </c>
-      <c r="E70" s="5" t="inlineStr">
+      <c r="E70" s="4" t="inlineStr">
         <is>
           <t>Document deployment steps (local, and optional cloud target) and operational runbook.</t>
         </is>
       </c>
-      <c r="G70" s="6" t="inlineStr">
+      <c r="G70" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="7">
-      <c r="A71" s="5" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="5">
+      <c r="A71" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C71" s="5" t="inlineStr">
+      <c r="C71" s="4" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D71" s="5" t="inlineStr">
+      <c r="D71" s="4" t="inlineStr">
         <is>
           <t>S08_G03_TB003</t>
         </is>
       </c>
-      <c r="E71" s="5" t="inlineStr">
+      <c r="E71" s="4" t="inlineStr">
         <is>
           <t>Update README with final architecture, sprint summary, and how to operate the app.</t>
         </is>
       </c>
-      <c r="G71" s="6" t="inlineStr">
+      <c r="G71" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="41.75" customHeight="1" s="7">
-      <c r="A72" s="6" t="inlineStr">
+    <row r="72" ht="41.75" customHeight="1" s="5">
+      <c r="A72" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr">
+      <c r="C72" s="4" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D72" s="6" t="inlineStr">
+      <c r="D72" s="4" t="inlineStr">
         <is>
           <t>S08_G04_TB001</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
+      <c r="E72" s="4" t="inlineStr">
         <is>
           <t>Persist important backend events (alerts, orders, broker, risk) in a system_events table.</t>
         </is>
       </c>
-      <c r="F72" s="5" t="inlineStr">
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t>Introduced a system_events table and helpers so key backend events (alerts ingested, orders executed, Zerodha connects, risk rejections) are persisted.</t>
         </is>
       </c>
-      <c r="G72" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H72" s="5" t="inlineStr">
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
         <is>
           <t>Important events can now be queried and shown in the UI without parsing textual logs.</t>
         </is>
       </c>
-      <c r="I72" s="5" t="inlineStr">
+      <c r="I72" s="4" t="inlineStr">
         <is>
           <t>Extend coverage to any additional event categories we decide to track in future (e.g., background jobs, sync failures).</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="41.75" customHeight="1" s="7">
-      <c r="A73" s="6" t="inlineStr">
+    <row r="73" ht="41.75" customHeight="1" s="5">
+      <c r="A73" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
+      <c r="C73" s="4" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="D73" s="4" t="inlineStr">
         <is>
           <t>S08_G04_TB002</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E73" s="4" t="inlineStr">
         <is>
           <t>Expose API endpoints to query recent system events for the UI.</t>
         </is>
       </c>
-      <c r="F73" s="5" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr">
         <is>
           <t>Added /api/system-events/ endpoint with filters for level, category, and limit, returning recent events in reverse chronological order.</t>
         </is>
       </c>
-      <c r="G73" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H73" s="5" t="inlineStr">
+      <c r="G73" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H73" s="4" t="inlineStr">
         <is>
           <t>Provides a simple API surface that the UI and tools can use to inspect important backend events.</t>
         </is>
       </c>
-      <c r="I73" s="5" t="inlineStr">
+      <c r="I73" s="4" t="inlineStr">
         <is>
           <t>Consider pagination or time-based filters if the event volume grows significantly.</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="41.75" customHeight="1" s="7">
-      <c r="A74" s="6" t="inlineStr">
+    <row r="74" ht="41.75" customHeight="1" s="5">
+      <c r="A74" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="B74" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
+      <c r="C74" s="4" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="D74" s="4" t="inlineStr">
         <is>
           <t>S08_G04_TF003</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E74" s="4" t="inlineStr">
         <is>
           <t>Show a table of recent backend events (alerts, orders, broker events) in the web app.</t>
         </is>
       </c>
-      <c r="F74" s="5" t="inlineStr">
+      <c r="F74" s="4" t="inlineStr">
         <is>
           <t>System Events page now displays recent backend events from the system_events table along with client-side events for the current browser session.</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H74" s="5" t="inlineStr">
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="inlineStr">
         <is>
           <t>Gives an at-a-glance view of both server and client issues without leaving the app.</t>
         </is>
       </c>
-      <c r="I74" s="5" t="inlineStr">
+      <c r="I74" s="4" t="inlineStr">
         <is>
           <t>Enhance filtering (by level/category/time) in the UI if needed during real operations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Broker config UI and secure secret storage</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>S08_G05_TB001</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>Design backend model/migration for per-broker key/value secrets (e.g., Zerodha api_key/api_secret) with encrypted storage.</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>BrokerSecret table added with encrypted value field; runtime no longer falls back to kite_config.json for Zerodha api_key/api_secret so that broker credentials are managed solely via the encrypted store.</t>
+        </is>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>Secrets are encrypted using the existing crypto_key helper so no new crypto mechanism was introduced.</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>Keep kite_config.json only as an optional developer helper file; document that it is no longer used by the running app for broker authentication.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Broker config UI and secure secret storage</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>S08_G05_TB002</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>Expose backend APIs to read/update broker config entries and wire them into Kite client creation.</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>Zerodha APIs and helper clients now resolve API key/secret via the broker_secrets service instead of reading kite_config.json directly.</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>New /api/brokers endpoints provide an admin-only surface for managing per-broker secrets; error messages avoid echoing secret values.</t>
+        </is>
+      </c>
+      <c r="I76" s="0" t="inlineStr">
+        <is>
+          <t>Extend the broker config APIs to support additional brokers and more structured, validated keys if needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>Broker config UI and secure secret storage</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>S08_G05_TF003</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>Extend Settings page with broker selector, key/value table for secrets, and masked request_token field with show/hide toggle.</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>Settings page uses a generic key/value table with masked inputs rather than hard-coding fields for api_key/api_secret.</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>Secrets can be revealed temporarily in the UI for convenience; this is acceptable for the current single-user local setup.</t>
+        </is>
+      </c>
+      <c r="I77" s="0" t="inlineStr">
+        <is>
+          <t>Add frontend tests and, if desired, support for write-only secrets that cannot be read back from the UI.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
@@ -3878,6 +3878,628 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Authentication backend (users, passwords, sessions)</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>S09_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>Design auth model (users table, roles, password hashing, session strategy) and update PRD/ERD accordingly.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Chose a simple PBKDF2-SHA256 password hashing scheme and HMAC-signed session tokens stored in an HTTP-only cookie; no external auth libraries were introduced.</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Auth helpers live in app.core.auth and are shared between the runtime and Alembic migration used to seed the default admin.</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="inlineStr">
+        <is>
+          <t>Document recommended auth-related environment variables (ST_CRYPTO_KEY for signing) and consider rotating secrets in a later sprint.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Authentication backend (users, passwords, sessions)</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>S09_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>Implement SQLAlchemy User model + Alembic migration, seeding a default admin user (admin/admin) with a secure password hash.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>User ORM model and Alembic migration 0005_add_users.py added a users table with username/password_hash/role and timestamps, and seeded a default ADMIN user in the migration only.</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Tests create users via the API and models rather than relying on the seeded admin, since pytest uses metadata create_all instead of running migrations.</t>
+        </is>
+      </c>
+      <c r="I79" s="0" t="inlineStr">
+        <is>
+          <t>When running Alembic migrations against an existing DB, verify that the seeded admin user is created only once and can be disabled or renamed later from the UI.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>Authentication backend (users, passwords, sessions)</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>S09_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>Implement backend auth APIs (register, login, logout, change password, current user) with JWT/cookie sessions and pytest coverage.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Implemented minimal auth endpoints (register, login, logout, change-password, me) under /api/auth with cookie-based sessions; no route-level authorization changes were made yet.</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>S09/G03 will attach these auth primitives to existing admin routers and refine role-based authorization; current APIs remain backwards compatible.</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>Extend tests in later sprints to cover edge cases such as expired tokens and corrupted cookies once frontend auth flows are in place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>Frontend auth flows and landing layout</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>S09_G02_TF001</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>Create public login/register routes with a right-aligned auth panel and a marketing/hero area on the left describing SigmaTrader benefits.</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="inlineStr">
+        <is>
+          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Frontend auth flows and landing layout</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>S09_G02_TF002</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>Implement signup and login forms wired to auth APIs, including validation and error messaging.</t>
+        </is>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Frontend auth flows and landing layout</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>S09_G02_TF003</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>Protect app routes behind login and add a top-right user menu (username, profile, change password, logout).</t>
+        </is>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="inlineStr">
+        <is>
+          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Authorization and integration with existing admin features</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>S09_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>Replace or augment HTTP Basic admin protection with role-based user auth, mapping ADMIN role to existing admin-only APIs.</t>
+        </is>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="inlineStr">
+        <is>
+          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Authorization and integration with existing admin features</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>S09_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>Ensure broker config, risk settings, analytics, and system events remain restricted to admin users while normal traders can view their own data.</t>
+        </is>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="inlineStr">
+        <is>
+          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>Authorization and integration with existing admin features</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>S09_G03_TB003</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>Define dev-mode behaviour (optional auth bypass) and verify TradingView webhook and Zerodha connect flows remain compatible.</t>
+        </is>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="inlineStr">
+        <is>
+          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>Auth security refinements (rate limiting, password reset)</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>S10_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>Add basic rate limiting / lockout behaviour on login to reduce brute-force attempts (e.g., small delay or temporary block after repeated failures).</t>
+        </is>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>Auth security refinements (rate limiting, password reset)</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>S10_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>Implement password reset flows: change-password for users plus an admin-only endpoint to reset another user's password.</t>
+        </is>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>Auth observability and audit logging</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>S10_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>Record login, logout, and password-change events into system_events and surface them in the System Events UI with appropriate filters.</t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>Auth observability and audit logging</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>S10_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>Add optional notifications or banners when suspicious auth activity is detected (e.g., repeated failures).</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>Roles and user experience enhancements</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>S10_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>Introduce additional roles (e.g., VIEW_ONLY) and adjust API/UI permissions so that view-only users cannot modify risk, strategies, or broker config.</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>Roles and user experience enhancements</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>S10_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>Add per-user preferences (e.g., default landing page, theme choice) stored in the DB and applied in the frontend.</t>
+        </is>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>Future multi-broker/multi-account design (auth-aware)</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>S10_G04_TB001</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>Design how users map to brokers/accounts (e.g., single Zerodha account vs per-user broker credentials) and document the migration path from the current single-account model.</t>
+        </is>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -89,7 +89,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -100,17 +100,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -367,4134 +361,4164 @@
   </sheetPr>
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E82" activeCellId="0" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.68" customWidth="1" style="4" min="1" max="2"/>
-    <col width="50.5" customWidth="1" style="4" min="3" max="3"/>
-    <col width="15.62" customWidth="1" style="4" min="4" max="4"/>
-    <col width="49.11" customWidth="1" style="4" min="5" max="5"/>
-    <col width="83.31999999999999" customWidth="1" style="4" min="6" max="6"/>
-    <col width="15.71" customWidth="1" style="4" min="7" max="7"/>
-    <col width="61.21" customWidth="1" style="4" min="8" max="8"/>
-    <col width="60.79" customWidth="1" style="4" min="9" max="9"/>
-    <col width="8.68" customWidth="1" style="4" min="10" max="16384"/>
+    <col width="8.68" customWidth="1" style="3" min="1" max="2"/>
+    <col width="50.5" customWidth="1" style="3" min="3" max="3"/>
+    <col width="15.62" customWidth="1" style="3" min="4" max="4"/>
+    <col width="49.11" customWidth="1" style="3" min="5" max="5"/>
+    <col width="83.31999999999999" customWidth="1" style="3" min="6" max="6"/>
+    <col width="15.71" customWidth="1" style="3" min="7" max="7"/>
+    <col width="61.21" customWidth="1" style="3" min="8" max="8"/>
+    <col width="60.79" customWidth="1" style="3" min="9" max="9"/>
+    <col width="8.68" customWidth="1" style="3" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>sprint#</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>group#</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>group task description.</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>task#</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>task description</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>deviations (from original plan)</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>remarks</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>pending work</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="28.35" customHeight="1" s="5">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="27.75" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>S01_G01_TB001</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Initialize backend repository with FastAPI project structure (src/app, tests, config folders).</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Used backend/app instead of src/app to keep backend isolated.</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Backend skeleton (app, core, api, tests folders) created.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="28.35" customHeight="1" s="5">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" ht="27.75" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>S01_G01_TB002</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Set up base FastAPI application with root and /health endpoints.</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Also added pytest-based tests for / and /health as part of this task.</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>FastAPI app with root and /health endpoints implemented and tested.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="28.35" customHeight="1" s="5">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="27.75" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>S01_G01_TB003</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Configure environment-based settings (dev/prod) using pydantic settings or similar.</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>Using pydantic BaseSettings with ST_ env prefix and .env support.</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>Environment-aware settings wired into app and health responses.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="28.35" customHeight="1" s="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="27.75" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>S01_G02_TF001</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Create React TypeScript app with Material UI and routing (React Router).</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Used Vite react-ts template with a dark MUI theme.</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>React+TS app scaffolded with basic app shell.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="28.35" customHeight="1" s="5">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="6" ht="27.75" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>S01_G02_TF002</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Implement base layout with top bar and sidebar navigation placeholders.</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>Implemented a drawer-based layout with MUI AppBar and sidebar.</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>Top bar + side nav with placeholder pages (Dashboard, Queue, Orders, Analytics, Settings).</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="28.35" customHeight="1" s="5">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="7" ht="27.75" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>S01_G02_TF003</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Wire basic API call from frontend to backend /health endpoint and display connection status.</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>Health check uses a simple fetch hook against /health and shows status in a Chip.</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>API status indicator wired to backend /health endpoint.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="28.35" customHeight="1" s="5">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="8" ht="27.75" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>S01_G03_TB001</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>Configure linting/formatting (black/isort/ruff) and pre-commit hooks for backend.</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>Configured Black, isort, Ruff, and pre-commit in backend with a shared pyproject.</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>Backend codebase can be auto-formatted and linted; hooks available via pre-commit.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="28.35" customHeight="1" s="5">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="9" ht="27.75" customHeight="1" s="4">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>S01_G03_TF002</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Configure linting/formatting (ESLint/Prettier) for frontend.</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>Used Vite flat ESLint config with eslint-config-prettier and a simple Prettier setup.</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>Frontend has ESLint + Prettier with npm scripts for linting and formatting.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="28.35" customHeight="1" s="5">
-      <c r="A10" s="4" t="inlineStr">
+    <row r="10" ht="27.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>S01_G03_TB003</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>Create initial README with project overview and setup steps.</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>Expanded existing README instead of creating a separate doc.</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>README now documents backend/frontend run, test, and lint/format commands.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="41.75" customHeight="1" s="5">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="11" ht="41.25" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Design core SQLite schema for alerts, orders, strategies, risk settings</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>S02_G01_TB001</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Design database schema for alerts, orders, strategies, risk_settings, positions, analytics_trades tables.</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>Captured schema as a Markdown document with SQLite-focused CREATE TABLE statements and indexes instead of direct migrations.</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are designed with keys, checks, and indexes.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="41.75" customHeight="1" s="5">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="12" ht="41.25" customHeight="1" s="4">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Design core SQLite schema for alerts, orders, strategies, risk settings</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>S02_G01_TB002</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>Review schema for extensibility and alignment with PRD (manual queue, risk, analytics).</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>Included explicit notes on AUTO/MANUAL modes, manual queue, risk engine, and analytics alignment inside the schema doc.</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>Schema reviewed for extensibility and alignment with PRD, including risk scopes and simulation support.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="28.35" customHeight="1" s="5">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="13" ht="27.75" customHeight="1" s="4">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>S02_G02_TB001</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>Implement SQLAlchemy ORM models for core tables (alerts, orders, strategies, risk_settings).</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>Used SQLAlchemy 2.0 typed ORM models grouped under app.models.trading.</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are mapped as ORM entities.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="28.35" customHeight="1" s="5">
-      <c r="A14" s="4" t="inlineStr">
+    <row r="14" ht="27.75" customHeight="1" s="4">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>S02_G02_TB002</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>Set up Alembic (or equivalent migration tool) for managing schema migrations.</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>Initialized Alembic in backend/ with env.py wired to Settings and an initial migration creating the core tables.</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>Alembic upgrade head creates the SQLite schema from ORM metadata.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="28.35" customHeight="1" s="5">
-      <c r="A15" s="4" t="inlineStr">
+    <row r="15" ht="27.75" customHeight="1" s="4">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>S02_G02_TB003</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>Implement DB session management and dependency injection in FastAPI.</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>Configured a synchronous SessionLocal and get_db FastAPI dependency; tests use the same engine.</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>DB session management is in app.db.session, and README documents Alembic + testing commands.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="28.35" customHeight="1" s="5">
-      <c r="A16" s="4" t="inlineStr">
+    <row r="16" ht="27.75" customHeight="1" s="4">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>S02_G03_TB001</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Create CRUD APIs to manage strategies (list/create/update).</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/strategies for list/create/update operations.</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>Strategies can be created and updated via FastAPI endpoints with tests covering basic flows.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="28.35" customHeight="1" s="5">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="17" ht="27.75" customHeight="1" s="4">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>S02_G03_TB002</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Create CRUD APIs to manage global and per-strategy risk_settings.</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/risk-settings with filters for scope and strategy.</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>Global and per-strategy risk_settings can be created and queried; uniqueness and scope rules enforced.</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="41.75" customHeight="1" s="5">
-      <c r="A18" s="4" t="inlineStr">
+    <row r="18" ht="41.25" customHeight="1" s="4">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>S02_G03_TF003</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>Create simple admin UI to view strategies and risk_settings (read-only).</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>Settings page started as read-only and was later extended to allow editing strategy execution modes and creating GLOBAL or per-strategy risk settings directly from the UI.</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>Strategies and risk_settings can now be inspected and, for key fields, edited from a single Settings screen (mode toggle and risk creation).</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>Add delete/edit flows for existing risk rows and finer-grained admin controls once configuration needs grow.</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="28.35" customHeight="1" s="5">
-      <c r="A19" s="4" t="inlineStr">
+    <row r="19" ht="27.75" customHeight="1" s="4">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>S03_G01_TB001</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>Implement /webhook/tradingview endpoint that receives and validates JSON payload with secret.</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>Implemented POST /webhook/tradingview with Pydantic payload model rather than a raw dict.</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>Endpoint validates the secret and accepts structured TradingView payloads.</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>Extend payload schema as real-world TradingView alert format stabilizes.</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="28.35" customHeight="1" s="5">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="20" ht="27.75" customHeight="1" s="4">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>S03_G01_TB002</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>Map incoming alerts to internal Alert entities and persist to DB.</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>Alerts are persisted via the Alert ORM model, linking to Strategy when a matching name exists.</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
         <is>
           <t>Webhook creates Alert rows with normalized fields and stores the raw payload JSON.</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
+      <c r="I20" s="3" t="inlineStr">
         <is>
           <t>Later sprints will connect alerts to order creation and risk evaluation.</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="28.35" customHeight="1" s="5">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="21" ht="27.75" customHeight="1" s="4">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>S03_G01_TB003</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>Implement basic unit tests for webhook endpoint and validation.</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>Added pytest tests for secret validation and alert persistence using FastAPI TestClient.</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>Tests cover valid/invalid secret flows and DB insertion of Alerts.</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>Add more edge-case tests once the payload contract is finalized.</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="28.35" customHeight="1" s="5">
-      <c r="A22" s="4" t="inlineStr">
+    <row r="22" ht="27.75" customHeight="1" s="4">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>S03_G02_TB001</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>Implement service to convert Alert into Order Request (manual mode by default).</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>Introduced an order creation service that maps Alert fields into an Order in WAITING state.</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>Alert-to-order mapping uses symbol/action/qty/price, defaults to MARKET/MIS and MANUAL mode.</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
+      <c r="I22" s="3" t="inlineStr">
         <is>
           <t>Later, incorporate strategy config and risk checks into the transformation.</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="28.35" customHeight="1" s="5">
-      <c r="A23" s="4" t="inlineStr">
+    <row r="23" ht="27.75" customHeight="1" s="4">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>S03_G02_TB002</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>Persist orders with WAITING status in DB for manual queue.</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>Webhook now creates a corresponding Order row for each accepted Alert.</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
         <is>
           <t>Orders are stored with status=WAITING and mode=MANUAL, ready for the manual queue.</t>
         </is>
       </c>
-      <c r="I23" s="4" t="inlineStr">
+      <c r="I23" s="3" t="inlineStr">
         <is>
           <t>Expose dedicated queue APIs and link to the frontend queue view in Sprint S04.</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="28.35" customHeight="1" s="5">
-      <c r="A24" s="4" t="inlineStr">
+    <row r="24" ht="27.75" customHeight="1" s="4">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>S03_G02_TB003</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>Expose API to list waiting orders and basic order details for frontend.</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>Extended webhook tests to assert that Orders are created alongside Alerts.</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>Tests verify the order is linked to the alert and in WAITING/MANUAL state.</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="I24" s="3" t="inlineStr">
         <is>
           <t>Add additional tests around failure modes and idempotency if required.</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="41.75" customHeight="1" s="5">
-      <c r="A25" s="4" t="inlineStr">
+    <row r="25" ht="41.25" customHeight="1" s="4">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>Risk management placeholder for later full implementation</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>S03_G03_TB001</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>Add pluggable Risk Engine interface with stub implementation (logs checks but does not enforce yet).</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>Created read-only queue listing API for WAITING manual orders.</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
         <is>
           <t>GET /api/orders/queue returns WAITING, MANUAL, non-simulated orders with optional strategy filter.</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
+      <c r="I25" s="3" t="inlineStr">
         <is>
           <t>Queue APIs are in place; full background status sync with Zerodha and automatic status updates will be implemented in Sprint S07. S03 focuses only on local WAITING/CANCELLED state for manual queue.</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="28.35" customHeight="1" s="5">
-      <c r="A26" s="4" t="inlineStr">
+    <row r="26" ht="27.75" customHeight="1" s="4">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>Dashboard layout and navigation structure</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>S04_G01_TF001</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>Implement top-level navigation items (Dashboard, Queue, Orders, Analytics, Settings).</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>Top-level navigation and layout were implemented earlier in S01/G02 using MainLayout and routing.</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H26" s="4" t="inlineStr">
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
         <is>
           <t>Navigation items (Dashboard, Queue, Orders, Analytics, Settings) are present and wired.</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="I26" s="3" t="inlineStr">
         <is>
           <t>Add richer Dashboard widgets once analytics and broker integration are available.</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="28.35" customHeight="1" s="5">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="27" ht="27.75" customHeight="1" s="4">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>Dashboard layout and navigation structure</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>S04_G01_TF002</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>Create Dashboard page skeleton with placeholder widgets (P&amp;L, trade count, connection status).</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>Dashboard page is currently a skeleton with heading and placeholder text.</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
         <is>
           <t>Dashboard is ready to host P&amp;L and connection status widgets in later sprints.</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="I27" s="3" t="inlineStr">
         <is>
           <t>Populate Dashboard with real metrics after S05–S07.</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="28.35" customHeight="1" s="5">
-      <c r="A28" s="4" t="inlineStr">
+    <row r="28" ht="27.75" customHeight="1" s="4">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>S04_G02_TF001</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>Implement Waiting Queue page with Material UI table of pending orders.</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>Queue page now includes edit, execute, and cancel actions for WAITING manual orders, wired to backend APIs.</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>Waiting Queue UI lists WAITING manual orders and exposes Edit/Execute/Cancel controls for each row.</t>
         </is>
       </c>
-      <c r="I28" s="4" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>Add inline editing and execute flows when backend supports them.</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="41.75" customHeight="1" s="5">
-      <c r="A29" s="4" t="inlineStr">
+    <row r="29" ht="41.25" customHeight="1" s="4">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>S04_G02_TF002</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>Add inline editing for quantity, price, order type, and product fields in queue rows.</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>Inline editing is implemented via an Edit dialog instead of direct cell editing; users can adjust quantity, order type, price, and product for queue orders.</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
         <is>
           <t>Edit dialog updates qty/order_type/price/product for WAITING manual orders before execution.</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
+      <c r="I29" s="3" t="inlineStr">
         <is>
           <t>Consider richer inline editing (e.g., symbol/side changes) and validation against risk settings in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="41.75" customHeight="1" s="5">
-      <c r="A30" s="4" t="inlineStr">
+    <row r="30" ht="41.25" customHeight="1" s="4">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>S04_G02_TF003</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>Wire Execute and Cancel buttons to backend APIs (no broker integration yet).</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>Execute button is now wired to POST /api/orders/{id}/execute, sending orders to Zerodha (when connected) and updating local status based on broker response.</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H30" s="4" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
         <is>
           <t>Execute and Cancel actions both update the queue and Orders history; broker IDs/errors are visible on the Orders page.</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr">
+      <c r="I30" s="3" t="inlineStr">
         <is>
           <t>Add Execute handling once backend execution endpoints are defined.</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="28.35" customHeight="1" s="5">
-      <c r="A31" s="4" t="inlineStr">
+    <row r="31" ht="27.75" customHeight="1" s="4">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>S04_G02_TB004</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>Implement backend APIs to update/cancel waiting orders and track status changes.</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>Backend status update endpoint supports WAITING/CANCELLED transitions for manual queue.</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H31" s="4" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
         <is>
           <t>PATCH /api/orders/{id}/status enables cancelling WAITING orders.</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr">
+      <c r="I31" s="3" t="inlineStr">
         <is>
           <t>Extend backend to handle additional transitions (e.g., READY_TO_SEND, EXECUTED_LOCAL).</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="28.35" customHeight="1" s="5">
-      <c r="A32" s="4" t="inlineStr">
+    <row r="32" ht="27.75" customHeight="1" s="4">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Basic order history UI and backend API</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>S04_G03_TB001</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>Implement backend API to list all orders with filters (date, strategy, status, symbol).</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>Implemented a simple GET /api/orders/ endpoint with basic status/strategy filters.</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H32" s="4" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
         <is>
           <t>Provides a basic orders history feed for the Orders page.</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
+      <c r="I32" s="3" t="inlineStr">
         <is>
           <t>Add richer filters (date range, symbol) as requirements solidify.</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="28.35" customHeight="1" s="5">
-      <c r="A33" s="4" t="inlineStr">
+    <row r="33" ht="27.75" customHeight="1" s="4">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Basic order history UI and backend API</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>S04_G03_TF002</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>Create Orders History page with filter controls and table displaying orders.</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>Orders History page shows a simple table without interactive filters yet.</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
         <is>
           <t>Orders page lists historical orders using /api/orders/.</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="I33" s="3" t="inlineStr">
         <is>
           <t>Add filter controls and more detailed status views in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="28.35" customHeight="1" s="5">
-      <c r="A34" s="4" t="inlineStr">
+    <row r="34" ht="27.75" customHeight="1" s="4">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>S05_G01_TB001</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>Configure Zerodha Kite Connect Python client with API key/secret from env.</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>Introduced ZerodhaClient wrapper reading API key from Settings and lazily instantiating KiteConnect.</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H34" s="4" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
         <is>
           <t>Backend can now construct a Zerodha client once an access token is available.</t>
         </is>
       </c>
-      <c r="I34" s="4" t="inlineStr">
+      <c r="I34" s="3" t="inlineStr">
         <is>
           <t>Hook this client into OAuth/token storage and execution flows in S05/G02–G03.</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="28.35" customHeight="1" s="5">
-      <c r="A35" s="4" t="inlineStr">
+    <row r="35" ht="27.75" customHeight="1" s="4">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>S05_G01_TB002</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>Implement service for placing market/limit orders via Zerodha API.</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>Implemented ZerodhaClient.place_order that composes KiteConnect place_order parameters.</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
         <is>
           <t>Order placement service is tested against a fake Kite client (no real network calls).</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr">
+      <c r="I35" s="3" t="inlineStr">
         <is>
           <t>Wire real order placement into manual queue execution once broker connection is ready.</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="28.35" customHeight="1" s="5">
-      <c r="A36" s="4" t="inlineStr">
+    <row r="36" ht="27.75" customHeight="1" s="4">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>S05_G01_TB003</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>Implement service to fetch order book and order status from Zerodha.</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>Exposed ZerodhaClient.list_orders and get_order_history as thin wrappers over KiteConnect APIs.</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H36" s="4" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
         <is>
           <t>Backend has basic services to retrieve Zerodha order book and order history.</t>
         </is>
       </c>
-      <c r="I36" s="4" t="inlineStr">
+      <c r="I36" s="3" t="inlineStr">
         <is>
           <t>Use these services for status sync and richer order views in S07.</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="28.35" customHeight="1" s="5">
-      <c r="A37" s="4" t="inlineStr">
+    <row r="37" ht="27.75" customHeight="1" s="4">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>S05_G02_TB001</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>Implement backend endpoints for Zerodha OAuth flow and token exchange.</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>Implemented backend Zerodha OAuth-like flow using JSON config (kite_config.json) and KiteConnect.generate_session.</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H37" s="4" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
         <is>
           <t>Backend exposes login-url, connect, and status endpoints that also call Kite profile to verify the connection.</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr">
+      <c r="I37" s="3" t="inlineStr">
         <is>
           <t>Refine error reporting and add retries or token refresh handling as needed.</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="28.35" customHeight="1" s="5">
-      <c r="A38" s="4" t="inlineStr">
+    <row r="38" ht="27.75" customHeight="1" s="4">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>S05_G02_TB002</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>Securely store encrypted Zerodha access token in DB.</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>Access token is encrypted with an env-provided crypto key and stored in broker_connections table.</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H38" s="4" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
         <is>
           <t>BrokerConnection model holds one encrypted access token per broker (currently zerodha).</t>
         </is>
       </c>
-      <c r="I38" s="4" t="inlineStr">
+      <c r="I38" s="3" t="inlineStr">
         <is>
           <t>Consider stronger encryption (e.g., cryptography.fernet) for multi-user or hosted deployments.</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="28.35" customHeight="1" s="5">
-      <c r="A39" s="4" t="inlineStr">
+    <row r="39" ht="27.75" customHeight="1" s="4">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>S05_G02_TF003</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>Create frontend Connect Zerodha UI with button and status indicator.</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>Added Zerodha connection section on Settings page with login button, request_token input, and status chip.</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H39" s="4" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
         <is>
           <t>Settings page shows Zerodha connection status, last-updated time in IST, and user name/id when available.</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
+      <c r="I39" s="3" t="inlineStr">
         <is>
           <t>Improve UX (e.g., integrating redirect/callback instead of manual token paste) when feasible.</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="28.35" customHeight="1" s="5">
-      <c r="A40" s="4" t="inlineStr">
+    <row r="40" ht="27.75" customHeight="1" s="4">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>S05_G03_TB001</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>Wire Execute action to call Zerodha order placement service and update order with broker ID.</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>Added /api/orders/{id}/execute endpoint using ZerodhaClient and BrokerConnection token.</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H40" s="4" t="inlineStr">
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
         <is>
           <t>Manual queue orders can now be executed to Zerodha; status is updated and Zerodha order id stored.</t>
         </is>
       </c>
-      <c r="I40" s="4" t="inlineStr">
+      <c r="I40" s="3" t="inlineStr">
         <is>
           <t>Extend to support other brokers and more advanced order parameters later.</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="55.2" customHeight="1" s="5">
-      <c r="A41" s="4" t="inlineStr">
+    <row r="41" ht="54.75" customHeight="1" s="4">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>S05_G03_TB002</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>Handle Zerodha errors and update order status to FAILED with error message.</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>On Zerodha off-market-hours errors (e.g., "Try placing an AMO order"), the backend now automatically retries the execution once as an AMO order (variety="amo") before marking the order as FAILED.</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H41" s="4" t="inlineStr">
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
         <is>
           <t>Auto-AMO fallback is implemented for Zerodha off-hours errors; other errors still mark the order FAILED and persist error_message.</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr">
+      <c r="I41" s="3" t="inlineStr">
         <is>
           <t>Review additional Zerodha error patterns and, in a later sprint, introduce configurable off-hours handling (e.g., choose AMO vs GTT per broker/strategy in JSON config) instead of relying solely on hard-coded message substrings.</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="28.35" customHeight="1" s="5">
-      <c r="A42" s="4" t="inlineStr">
+    <row r="42" ht="27.75" customHeight="1" s="4">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>S05_G03_TF003</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>Surface broker execution results and errors in Waiting Queue and Orders History UI.</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>Queue UI now exposes Execute/Cancel buttons and Orders view shows broker id and error columns.</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H42" s="4" t="inlineStr">
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
         <is>
           <t>Execution results and broker ids are surfaced in both Queue (interaction) and Orders history (audit).</t>
         </is>
       </c>
-      <c r="I42" s="4" t="inlineStr">
+      <c r="I42" s="3" t="inlineStr">
         <is>
           <t>Enhance UX with notifications and richer status filtering in future sprints.</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="55.2" customHeight="1" s="5">
-      <c r="A43" s="4" t="inlineStr">
+    <row r="43" ht="54.75" customHeight="1" s="4">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>S06_G01_TB001</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>Extend strategies to include execution_mode (AUTO/MANUAL) in DB and APIs.</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>Strategy execution_mode (AUTO/MANUAL) was already present in the model; we ensured it is consistently exposed through Pydantic schemas and strategy APIs, with MANUAL as the default.</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H43" s="4" t="inlineStr">
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
         <is>
           <t>Strategies now carry an execution_mode flag that downstream routing logic and the frontend Settings UI can rely on.</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr">
+      <c r="I43" s="3" t="inlineStr">
         <is>
           <t>Later risk-engine work may add additional per-strategy flags that interact with execution_mode (e.g., risk profiles for AUTO).</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="68.65000000000001" customHeight="1" s="5">
-      <c r="A44" s="4" t="inlineStr">
+    <row r="44" ht="68.25" customHeight="1" s="4">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>S06_G01_TB002</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>Implement alert routing logic based on strategy execution_mode (AUTO -&gt; immediate send, MANUAL -&gt; queue).</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>TradingView webhook routing now inspects the strategy execution_mode: AUTO strategies (when enabled) create AUTO orders and trigger immediate execution via the existing /api/orders/{id}/execute logic; MANUAL or missing strategies still create WAITING MANUAL queue orders.</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H44" s="4" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
         <is>
           <t>AUTO strategies bypass the manual queue and send orders directly to Zerodha using the same execution path as the manual Execute endpoint, including AMO fallback logic.</t>
         </is>
       </c>
-      <c r="I44" s="4" t="inlineStr">
+      <c r="I44" s="3" t="inlineStr">
         <is>
           <t>Integrate risk checks into both AUTO and MANUAL routing paths in S06/G02 before broker execution.</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="41.75" customHeight="1" s="5">
-      <c r="A45" s="4" t="inlineStr">
+    <row r="45" ht="41.25" customHeight="1" s="4">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>S06_G01_TF003</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>Add UI controls to view and change execution mode per strategy in Settings.</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>Settings page now shows an editable Mode column with a MANUAL/AUTO select per strategy, wired to PUT /api/strategies/{id}.</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H45" s="4" t="inlineStr">
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
         <is>
           <t>User can toggle strategies between MANUAL and AUTO modes directly from the Settings UI; changes are persisted to the backend.</t>
         </is>
       </c>
-      <c r="I45" s="4" t="inlineStr">
+      <c r="I45" s="3" t="inlineStr">
         <is>
           <t>Consider adding per-strategy hints in the UI (e.g., badges or warnings) when AUTO is enabled but broker or risk settings are not fully configured.</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="55.2" customHeight="1" s="5">
-      <c r="A46" s="4" t="inlineStr">
+    <row r="46" ht="54.75" customHeight="1" s="4">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>S06_G02_TB001</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>Implement risk rules for max_order_value, max_quantity_per_order, and allow_short_selling.</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>Implemented a risk evaluation service that uses RiskSettings (GLOBAL and per-strategy) to enforce max_quantity_per_order, max_order_value, and allow_short_selling before broker calls.</t>
         </is>
       </c>
-      <c r="G46" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H46" s="4" t="inlineStr">
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
         <is>
           <t>Risk checks run inside the order execution path for both MANUAL queue executes and AUTO strategy orders.</t>
         </is>
       </c>
-      <c r="I46" s="4" t="inlineStr">
+      <c r="I46" s="3" t="inlineStr">
         <is>
           <t>Extend the risk engine to incorporate max_daily_loss and max_open_positions once realized PnL and positions are tracked in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="55.2" customHeight="1" s="5">
-      <c r="A47" s="4" t="inlineStr">
+    <row r="47" ht="54.75" customHeight="1" s="4">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>S06_G02_TB002</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>Implement daily loss limit tracking and enforcement in Risk Engine.</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>Orders violating hard limits are now blocked with status REJECTED_RISK and a human-readable explanation; when clamp_mode=CLAMP, quantities are reduced instead of rejected where possible.</t>
         </is>
       </c>
-      <c r="G47" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H47" s="4" t="inlineStr">
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
         <is>
           <t>Risk decisions are stored on the Order via status/error_message and are visible in the Orders history UI.</t>
         </is>
       </c>
-      <c r="I47" s="4" t="inlineStr">
+      <c r="I47" s="3" t="inlineStr">
         <is>
           <t>Refine risk messages and add per-rule identification if we need more granular auditing later.</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="55.2" customHeight="1" s="5">
-      <c r="A48" s="4" t="inlineStr">
+    <row r="48" ht="54.75" customHeight="1" s="4">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>S06_G02_TB003</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>Make Risk Engine apply to both auto and manual executions before broker call.</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>Risk checks are invoked inside the shared order execution endpoint, so both AUTO strategy executions (from the webhook) and MANUAL queue executes are evaluated before any broker call.</t>
         </is>
       </c>
-      <c r="G48" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H48" s="4" t="inlineStr">
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
         <is>
           <t>AUTO and MANUAL flows now share the same risk gate in execute_order; broker requests are only sent if the risk engine allows the order.</t>
         </is>
       </c>
-      <c r="I48" s="4" t="inlineStr">
+      <c r="I48" s="3" t="inlineStr">
         <is>
           <t>As we add more execution paths (e.g., bulk actions), ensure they all call through the same risk-aware execution helper.</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="41.75" customHeight="1" s="5">
-      <c r="A49" s="4" t="inlineStr">
+    <row r="49" ht="41.25" customHeight="1" s="4">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>S06_G02_TF004</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>Display risk-related rejections/adjustments in UI (tooltips, messages on orders).</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t>Risk-related rejections and clamps are surfaced via the existing Error column in the Orders UI, showing detailed messages from the risk engine.</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H49" s="4" t="inlineStr">
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
         <is>
           <t>Users can see which orders were blocked (REJECTED_RISK) or had their quantities adjusted before execution.</t>
         </is>
       </c>
-      <c r="I49" s="4" t="inlineStr">
+      <c r="I49" s="3" t="inlineStr">
         <is>
           <t>Consider adding explicit risk badges or tooltips in a later UX-focused sprint to differentiate risk notes from broker errors.</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="55.2" customHeight="1" s="5">
-      <c r="A50" s="4" t="inlineStr">
+    <row r="50" ht="54.75" customHeight="1" s="4">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>Trade type (MIS/CNC) and GTT-related behavior</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>S06_G03_TB001</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr">
         <is>
           <t>Extend order model and APIs to handle product type (MIS/CNC) and optional GTT properties.</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t>Order model already contained product (MIS/CNC) and a gtt flag; we extended webhook parsing to derive product from trade_type and exposed product/gtt through the editable OrderUpdate schema and edit endpoint.</t>
         </is>
       </c>
-      <c r="G50" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H50" s="4" t="inlineStr">
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
         <is>
           <t>Backoffice and APIs can now track product type and a GTT preference on orders; real GTT placement will be wired in a later sprint.</t>
         </is>
       </c>
-      <c r="I50" s="4" t="inlineStr">
+      <c r="I50" s="3" t="inlineStr">
         <is>
           <t>Implement actual Zerodha GTT order placement and tie it to the gtt flag once we integrate Kite GTT APIs.</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="41.75" customHeight="1" s="5">
-      <c r="A51" s="4" t="inlineStr">
+    <row r="51" ht="41.25" customHeight="1" s="4">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>Trade type (MIS/CNC) and GTT-related behavior</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>S06_G03_TF002</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>Allow users to modify trade_type and GTT toggle in Waiting Queue UI before execution.</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>Waiting Queue edit dialog now allows selecting product (MIS/CNC) and toggling a GTT preference checkbox, with changes persisted via PATCH /api/orders/{id}.</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H51" s="4" t="inlineStr">
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
         <is>
           <t>Users can adjust trade type and mark orders as GTT-preferred before executing them from the manual queue.</t>
         </is>
       </c>
-      <c r="I51" s="4" t="inlineStr">
+      <c r="I51" s="3" t="inlineStr">
         <is>
           <t>Once real GTT execution exists, ensure the UI clearly indicates which orders will be sent as GTT vs regular/AMO.</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="55.2" customHeight="1" s="5">
-      <c r="A52" s="4" t="inlineStr">
+    <row r="52" ht="54.75" customHeight="1" s="4">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>S07_G01_TB001</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>Implement background job to periodically sync order statuses from Zerodha (OPEN/COMPLETE/REJECTED).</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>Implemented a reusable sync_order_statuses service that consumes Zerodha order book data via ZerodhaClient.list_orders and updates local Order.status values.</t>
         </is>
       </c>
-      <c r="G52" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H52" s="4" t="inlineStr">
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
         <is>
           <t>Status sync is triggered via a backend API and is safe to call on-demand or from an external scheduler.</t>
         </is>
       </c>
-      <c r="I52" s="4" t="inlineStr">
+      <c r="I52" s="3" t="inlineStr">
         <is>
           <t>Introduce a cron/APS-style background scheduler (e.g., APScheduler or external cron calling /api/zerodha/sync-orders) for automatic periodic status sync in production.</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="41.75" customHeight="1" s="5">
-      <c r="A53" s="4" t="inlineStr">
+    <row r="53" ht="41.25" customHeight="1" s="4">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>S07_G01_TB002</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>Update Orders table with latest status and broker messages.</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr">
         <is>
           <t>Order status and broker messages are updated based on Zerodha status and status_message fields, including mapping COMPLETE, CANCELLED, and REJECTED appropriately.</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H53" s="4" t="inlineStr">
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
         <is>
           <t>Rejected orders now capture Zerodha-provided status messages when available, improving auditability in the Orders history.</t>
         </is>
       </c>
-      <c r="I53" s="4" t="inlineStr">
+      <c r="I53" s="3" t="inlineStr">
         <is>
           <t>Refine mapping and message capture as we see more Zerodha status variants in real trading.</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="41.75" customHeight="1" s="5">
-      <c r="A54" s="4" t="inlineStr">
+    <row r="54" ht="41.25" customHeight="1" s="4">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>S07_G01_TF003</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>Reflect real-time-ish status changes in Orders History UI (polling or refresh).</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>Orders History page gained a Refresh button that calls syncZerodhaOrders (POST /api/zerodha/sync-orders) and then reloads the order list.</t>
         </is>
       </c>
-      <c r="G54" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H54" s="4" t="inlineStr">
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
         <is>
           <t>User can now manually synchronize statuses from Zerodha and see updated states without restarting the app.</t>
         </is>
       </c>
-      <c r="I54" s="4" t="inlineStr">
+      <c r="I54" s="3" t="inlineStr">
         <is>
           <t>Consider adding periodic auto-refresh or visual indicators for recently synced orders in future UX enhancements.</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="41.75" customHeight="1" s="5">
-      <c r="A55" s="4" t="inlineStr">
+    <row r="55" ht="41.25" customHeight="1" s="4">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>S07_G02_TB001</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>Implement backend services to fetch positions and holdings from Zerodha and cache in DB.</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>Positions are fetched from Zerodha via ZerodhaClient.list_positions and cached in the positions table; holdings are currently fetched on-demand without DB caching.</t>
         </is>
       </c>
-      <c r="G55" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H55" s="4" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
         <is>
           <t>Positions caching covers the main use case; holdings can be added to the cache later if needed.</t>
         </is>
       </c>
-      <c r="I55" s="4" t="inlineStr">
+      <c r="I55" s="3" t="inlineStr">
         <is>
           <t>Add DB caching for holdings if long-term historical holdings views or offline analytics require it.</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="28.35" customHeight="1" s="5">
-      <c r="A56" s="4" t="inlineStr">
+    <row r="56" ht="27.75" customHeight="1" s="4">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>S07_G02_TB002</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>Expose API endpoints for positions and holdings for frontend.</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/positions for listing cached positions, triggering a sync, and fetching live holdings.</t>
         </is>
       </c>
-      <c r="G56" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H56" s="4" t="inlineStr">
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
         <is>
           <t>Frontend services consume these endpoints for the Positions and Holdings pages.</t>
         </is>
       </c>
-      <c r="I56" s="4" t="inlineStr">
+      <c r="I56" s="3" t="inlineStr">
         <is>
           <t>Extend APIs with filters (e.g., by symbol or product) as usage patterns emerge.</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="28.35" customHeight="1" s="5">
-      <c r="A57" s="4" t="inlineStr">
+    <row r="57" ht="27.75" customHeight="1" s="4">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>S07_G02_TF003</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>Create Positions &amp; Holdings UI pages with P&amp;L calculations.</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" s="3" t="inlineStr">
         <is>
           <t>Added dedicated Positions and Holdings pages with basic P&amp;L calculations and a manual Refresh for positions.</t>
         </is>
       </c>
-      <c r="G57" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H57" s="4" t="inlineStr">
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
         <is>
           <t>User can now inspect positions (with cached P&amp;L) and holdings (with unrealized P&amp;L) directly in the UI.</t>
         </is>
       </c>
-      <c r="I57" s="4" t="inlineStr">
+      <c r="I57" s="3" t="inlineStr">
         <is>
           <t>Enhance UI with aggregate metrics (e.g., total P&amp;L) and filtering in future analytics-focused sprints.</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="55.2" customHeight="1" s="5">
-      <c r="A58" s="4" t="inlineStr">
+    <row r="58" ht="54.75" customHeight="1" s="4">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D58" s="4" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>S07_G03_TB001</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>Implement trade grouping logic (entry/exit pairs) to populate analytics_trades table.</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>Implemented a conservative trade grouping service that pairs executed orders into entry/exit trades (BUY→SELL or SELL→BUY with equal quantity) and populates analytics_trades.</t>
         </is>
       </c>
-      <c r="G58" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H58" s="4" t="inlineStr">
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
         <is>
           <t>Current grouping handles simple round-trip trades; more complex scaling/partial patterns can be added later.</t>
         </is>
       </c>
-      <c r="I58" s="4" t="inlineStr">
+      <c r="I58" s="3" t="inlineStr">
         <is>
           <t>Extend trade grouping to handle partial exits, scaling in/out, and multi-leg trades if needed for deeper analytics.</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="41.75" customHeight="1" s="5">
-      <c r="A59" s="4" t="inlineStr">
+    <row r="59" ht="41.25" customHeight="1" s="4">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>S07_G03_TB002</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>Implement analytics queries for P&amp;L, win rate, max drawdown per strategy and date range.</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t>Analytics service computes total P&amp;L, win rate, average win/loss, and max drawdown per strategy and optional date range based on analytics_trades.</t>
         </is>
       </c>
-      <c r="G59" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H59" s="4" t="inlineStr">
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
         <is>
           <t>Provides a solid backend foundation for strategy performance dashboards without yet focusing on specific chart shapes.</t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr">
+      <c r="I59" s="3" t="inlineStr">
         <is>
           <t>Add more advanced metrics (e.g., Sharpe, expectancy) once we have more live data.</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="41.75" customHeight="1" s="5">
-      <c r="A60" s="4" t="inlineStr">
+    <row r="60" ht="41.25" customHeight="1" s="4">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D60" s="4" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>S07_G03_TB003</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>Expose analytics API endpoints for frontend consumption.</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>Exposed analytics APIs under /api/analytics for rebuilding trades and fetching summary metrics for a strategy/date range.</t>
         </is>
       </c>
-      <c r="G60" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H60" s="4" t="inlineStr">
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
         <is>
           <t>Frontend (Analytics page) can call these endpoints to render P&amp;L and performance views in later sprints.</t>
         </is>
       </c>
-      <c r="I60" s="4" t="inlineStr">
+      <c r="I60" s="3" t="inlineStr">
         <is>
           <t>Design and implement frontend analytics views that consume these APIs (charts, summary cards).</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="41.75" customHeight="1" s="5">
-      <c r="A61" s="4" t="inlineStr">
+    <row r="61" ht="41.25" customHeight="1" s="4">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D61" s="4" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>S07_G04_TF001</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>Implement Analytics page with summary cards (P&amp;L, win rate, max DD, avg R:R).</t>
         </is>
       </c>
-      <c r="F61" s="7" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>Analytics page now loads summary metrics via /api/analytics/summary and supports basic filtering by strategy and date range.</t>
         </is>
       </c>
-      <c r="G61" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H61" s="7" t="inlineStr">
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
         <is>
           <t>Summary card shows trades, total P&amp;L, win rate, avg win/loss, and max drawdown; a Rebuild button triggers backend rebuild-trades and refreshes metrics.</t>
         </is>
       </c>
-      <c r="I61" s="7" t="inlineStr">
+      <c r="I61" s="3" t="inlineStr">
         <is>
           <t>Expose more advanced metrics (e.g., expectancy, risk-adjusted returns) once enough live data is available.</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="28.35" customHeight="1" s="5">
-      <c r="A62" s="4" t="inlineStr">
+    <row r="62" ht="27.75" customHeight="1" s="4">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D62" s="4" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>S07_G04_TF002</t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>Add P&amp;L over time chart and P&amp;L by symbol/strategy visualizations.</t>
         </is>
       </c>
-      <c r="F62" s="7" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>Added lightweight SVG-based cumulative P&amp;L line chart and P&amp;L by symbol bar chart driven by analytics trades.</t>
         </is>
       </c>
-      <c r="G62" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H62" s="7" t="inlineStr">
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
         <is>
           <t>Charts update automatically when filters change and are kept deliberately simple without adding new dependencies.</t>
         </is>
       </c>
-      <c r="I62" s="7" t="inlineStr">
+      <c r="I62" s="3" t="inlineStr">
         <is>
           <t>Consider richer charting (e.g., per-day P&amp;L) if/when a chart library is introduced.</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="41.75" customHeight="1" s="5">
-      <c r="A63" s="4" t="inlineStr">
+    <row r="63" ht="41.25" customHeight="1" s="4">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D63" s="4" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>S07_G04_TF003</t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>Add trades table with filters for date range, strategy, and symbol.</t>
         </is>
       </c>
-      <c r="F63" s="7" t="inlineStr">
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t>Trades table shows closed trades with IST timestamps, strategy, symbol, and colored P&amp;L, using filters for strategy and date range from the Analytics header.</t>
         </is>
       </c>
-      <c r="G63" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H63" s="7" t="inlineStr">
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
         <is>
           <t>Gives a clear audit-style view of trades aligned with the summary and charts.</t>
         </is>
       </c>
-      <c r="I63" s="7" t="inlineStr">
+      <c r="I63" s="3" t="inlineStr">
         <is>
           <t>Add more filters (e.g., symbol, min/max P&amp;L) if needed for heavier analysis.</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="41.75" customHeight="1" s="5">
-      <c r="A64" s="4" t="inlineStr">
+    <row r="64" ht="41.25" customHeight="1" s="4">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D64" s="4" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>S08_G01_TB001</t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="E64" s="3" t="inlineStr">
         <is>
           <t>Implement structured logging for backend (alerts, orders, broker calls, risk decisions).</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t>Added JSON-formatted structured logging with correlation IDs via a FastAPI middleware; key flows (webhook ingestion, order execution, Zerodha connect) now emit structured events.</t>
         </is>
       </c>
-      <c r="G64" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H64" s="4" t="inlineStr">
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
         <is>
           <t>Logs include correlation_id so a single alert/order can be traced across webhook, risk, and broker calls.</t>
         </is>
       </c>
-      <c r="I64" s="4" t="inlineStr">
+      <c r="I64" s="3" t="inlineStr">
         <is>
           <t>Consider integrating with an external log aggregator if the app is deployed beyond local single-user usage.</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="41.75" customHeight="1" s="5">
-      <c r="A65" s="4" t="inlineStr">
+    <row r="65" ht="41.25" customHeight="1" s="4">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D65" s="4" t="inlineStr">
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>S08_G01_TB002</t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr">
+      <c r="E65" s="3" t="inlineStr">
         <is>
           <t>Standardize error responses and add correlation IDs for tracing requests.</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
+      <c r="F65" s="3" t="inlineStr">
         <is>
           <t>Standardized several error paths (risk rejection, Zerodha order failures) and ensured correlation IDs are included in both logs and HTTP responses.</t>
         </is>
       </c>
-      <c r="G65" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H65" s="4" t="inlineStr">
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
         <is>
           <t>Critical errors now have consistent HTTP status codes and messages while being traceable via X-Request-ID.</t>
         </is>
       </c>
-      <c r="I65" s="4" t="inlineStr">
+      <c r="I65" s="3" t="inlineStr">
         <is>
           <t>Extend normalization to any remaining ad-hoc error paths as they are discovered.</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="41.75" customHeight="1" s="5">
-      <c r="A66" s="4" t="inlineStr">
+    <row r="66" ht="41.25" customHeight="1" s="4">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D66" s="4" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>S08_G01_TF003</t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr">
+      <c r="E66" s="3" t="inlineStr">
         <is>
           <t>Add minimal log/notification view in UI for recent errors/warnings.</t>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr">
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t>Added a simple System Events page that surfaces recent client-side errors/warnings captured in memory during the current session.</t>
         </is>
       </c>
-      <c r="G66" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H66" s="4" t="inlineStr">
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
         <is>
           <t>Gives a quick at-a-glance view of recent issues without setting up a full log viewer.</t>
         </is>
       </c>
-      <c r="I66" s="4" t="inlineStr">
+      <c r="I66" s="3" t="inlineStr">
         <is>
           <t>If needed, extend this view to pull server-side logs or important alerts once a log backend is introduced.</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="41.75" customHeight="1" s="5">
-      <c r="A67" s="4" t="inlineStr">
+    <row r="67" ht="41.25" customHeight="1" s="4">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>Security hardening and configuration management</t>
         </is>
       </c>
-      <c r="D67" s="4" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>S08_G02_TB001</t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>Ensure HTTPS, secure cookie/JWT handling, and secret management via environment variables.</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t>Admin-facing APIs now support optional HTTP Basic auth via ST_ADMIN_USERNAME/ST_ADMIN_PASSWORD; secrets continue to be managed via environment variables and .env.</t>
         </is>
       </c>
-      <c r="G67" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H67" s="4" t="inlineStr">
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
         <is>
           <t>When admin credentials are configured, API access requires Basic auth; when unset, behaviour remains unchanged for local single-user development.</t>
         </is>
       </c>
-      <c r="I67" s="4" t="inlineStr">
+      <c r="I67" s="3" t="inlineStr">
         <is>
           <t>Document recommended reverse-proxy/HTTPS setup when moving beyond local use.</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="41.75" customHeight="1" s="5">
-      <c r="A68" s="4" t="inlineStr">
+    <row r="68" ht="41.25" customHeight="1" s="4">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>Security hardening and configuration management</t>
         </is>
       </c>
-      <c r="D68" s="4" t="inlineStr">
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>S08_G02_TB002</t>
         </is>
       </c>
-      <c r="E68" s="4" t="inlineStr">
+      <c r="E68" s="3" t="inlineStr">
         <is>
           <t>Review and harden RBAC or at least basic auth protections for APIs and admin features.</t>
         </is>
       </c>
-      <c r="F68" s="4" t="inlineStr">
+      <c r="F68" s="3" t="inlineStr">
         <is>
           <t>Core routers (/api/strategies, /api/orders, /api/positions, /api/analytics, /api/system-events) are now protected by the require_admin dependency when admin credentials are set.</t>
         </is>
       </c>
-      <c r="G68" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H68" s="4" t="inlineStr">
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
         <is>
           <t>This provides a lightweight RBAC boundary around admin features without introducing a full user model.</t>
         </is>
       </c>
-      <c r="I68" s="4" t="inlineStr">
+      <c r="I68" s="3" t="inlineStr">
         <is>
           <t>Revisit access patterns if SigmaTrader ever grows beyond single-user deployments.</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="5">
-      <c r="A69" s="4" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="4">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C69" s="4" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D69" s="4" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>S08_G03_TB001</t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr">
         <is>
           <t>Create Dockerfiles for backend and frontend and optional docker-compose setup for local run.</t>
         </is>
       </c>
-      <c r="G69" s="4" t="inlineStr">
+      <c r="G69" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="5">
-      <c r="A70" s="4" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="4">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C70" s="4" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D70" s="4" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>S08_G03_TB002</t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>Document deployment steps (local, and optional cloud target) and operational runbook.</t>
         </is>
       </c>
-      <c r="G70" s="4" t="inlineStr">
+      <c r="G70" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="5">
-      <c r="A71" s="4" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="4">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D71" s="4" t="inlineStr">
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>S08_G03_TB003</t>
         </is>
       </c>
-      <c r="E71" s="4" t="inlineStr">
+      <c r="E71" s="3" t="inlineStr">
         <is>
           <t>Update README with final architecture, sprint summary, and how to operate the app.</t>
         </is>
       </c>
-      <c r="G71" s="4" t="inlineStr">
+      <c r="G71" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="41.75" customHeight="1" s="5">
-      <c r="A72" s="4" t="inlineStr">
+    <row r="72" ht="41.25" customHeight="1" s="4">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D72" s="4" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>S08_G04_TB001</t>
         </is>
       </c>
-      <c r="E72" s="4" t="inlineStr">
+      <c r="E72" s="3" t="inlineStr">
         <is>
           <t>Persist important backend events (alerts, orders, broker, risk) in a system_events table.</t>
         </is>
       </c>
-      <c r="F72" s="4" t="inlineStr">
+      <c r="F72" s="3" t="inlineStr">
         <is>
           <t>Introduced a system_events table and helpers so key backend events (alerts ingested, orders executed, Zerodha connects, risk rejections) are persisted.</t>
         </is>
       </c>
-      <c r="G72" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H72" s="4" t="inlineStr">
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
         <is>
           <t>Important events can now be queried and shown in the UI without parsing textual logs.</t>
         </is>
       </c>
-      <c r="I72" s="4" t="inlineStr">
+      <c r="I72" s="3" t="inlineStr">
         <is>
           <t>Extend coverage to any additional event categories we decide to track in future (e.g., background jobs, sync failures).</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="41.75" customHeight="1" s="5">
-      <c r="A73" s="4" t="inlineStr">
+    <row r="73" ht="41.25" customHeight="1" s="4">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C73" s="4" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D73" s="4" t="inlineStr">
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>S08_G04_TB002</t>
         </is>
       </c>
-      <c r="E73" s="4" t="inlineStr">
+      <c r="E73" s="3" t="inlineStr">
         <is>
           <t>Expose API endpoints to query recent system events for the UI.</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
+      <c r="F73" s="3" t="inlineStr">
         <is>
           <t>Added /api/system-events/ endpoint with filters for level, category, and limit, returning recent events in reverse chronological order.</t>
         </is>
       </c>
-      <c r="G73" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H73" s="4" t="inlineStr">
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="inlineStr">
         <is>
           <t>Provides a simple API surface that the UI and tools can use to inspect important backend events.</t>
         </is>
       </c>
-      <c r="I73" s="4" t="inlineStr">
+      <c r="I73" s="3" t="inlineStr">
         <is>
           <t>Consider pagination or time-based filters if the event volume grows significantly.</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="41.75" customHeight="1" s="5">
-      <c r="A74" s="4" t="inlineStr">
+    <row r="74" ht="41.25" customHeight="1" s="4">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D74" s="4" t="inlineStr">
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>S08_G04_TF003</t>
         </is>
       </c>
-      <c r="E74" s="4" t="inlineStr">
+      <c r="E74" s="3" t="inlineStr">
         <is>
           <t>Show a table of recent backend events (alerts, orders, broker events) in the web app.</t>
         </is>
       </c>
-      <c r="F74" s="4" t="inlineStr">
+      <c r="F74" s="3" t="inlineStr">
         <is>
           <t>System Events page now displays recent backend events from the system_events table along with client-side events for the current browser session.</t>
         </is>
       </c>
-      <c r="G74" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H74" s="4" t="inlineStr">
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
         <is>
           <t>Gives an at-a-glance view of both server and client issues without leaving the app.</t>
         </is>
       </c>
-      <c r="I74" s="4" t="inlineStr">
+      <c r="I74" s="3" t="inlineStr">
         <is>
           <t>Enhance filtering (by level/category/time) in the UI if needed during real operations.</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="inlineStr">
+    <row r="75" ht="41.75" customHeight="1" s="4">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B75" s="0" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C75" s="0" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>Broker config UI and secure secret storage</t>
         </is>
       </c>
-      <c r="D75" s="0" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>S08_G05_TB001</t>
         </is>
       </c>
-      <c r="E75" s="0" t="inlineStr">
+      <c r="E75" s="3" t="inlineStr">
         <is>
           <t>Design backend model/migration for per-broker key/value secrets (e.g., Zerodha api_key/api_secret) with encrypted storage.</t>
         </is>
       </c>
-      <c r="F75" s="0" t="inlineStr">
+      <c r="F75" s="3" t="inlineStr">
         <is>
           <t>BrokerSecret table added with encrypted value field; runtime no longer falls back to kite_config.json for Zerodha api_key/api_secret so that broker credentials are managed solely via the encrypted store.</t>
         </is>
       </c>
-      <c r="G75" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H75" s="0" t="inlineStr">
+      <c r="G75" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
         <is>
           <t>Secrets are encrypted using the existing crypto_key helper so no new crypto mechanism was introduced.</t>
         </is>
       </c>
-      <c r="I75" s="0" t="inlineStr">
+      <c r="I75" s="3" t="inlineStr">
         <is>
           <t>Keep kite_config.json only as an optional developer helper file; document that it is no longer used by the running app for broker authentication.</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="inlineStr">
+    <row r="76" ht="41.75" customHeight="1" s="4">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B76" s="0" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C76" s="0" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>Broker config UI and secure secret storage</t>
         </is>
       </c>
-      <c r="D76" s="0" t="inlineStr">
+      <c r="D76" s="3" t="inlineStr">
         <is>
           <t>S08_G05_TB002</t>
         </is>
       </c>
-      <c r="E76" s="0" t="inlineStr">
+      <c r="E76" s="3" t="inlineStr">
         <is>
           <t>Expose backend APIs to read/update broker config entries and wire them into Kite client creation.</t>
         </is>
       </c>
-      <c r="F76" s="0" t="inlineStr">
+      <c r="F76" s="3" t="inlineStr">
         <is>
           <t>Zerodha APIs and helper clients now resolve API key/secret via the broker_secrets service instead of reading kite_config.json directly.</t>
         </is>
       </c>
-      <c r="G76" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H76" s="0" t="inlineStr">
+      <c r="G76" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
         <is>
           <t>New /api/brokers endpoints provide an admin-only surface for managing per-broker secrets; error messages avoid echoing secret values.</t>
         </is>
       </c>
-      <c r="I76" s="0" t="inlineStr">
+      <c r="I76" s="3" t="inlineStr">
         <is>
           <t>Extend the broker config APIs to support additional brokers and more structured, validated keys if needed.</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="inlineStr">
+    <row r="77" ht="41.75" customHeight="1" s="4">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B77" s="0" t="inlineStr">
+      <c r="B77" s="3" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C77" s="0" t="inlineStr">
+      <c r="C77" s="3" t="inlineStr">
         <is>
           <t>Broker config UI and secure secret storage</t>
         </is>
       </c>
-      <c r="D77" s="0" t="inlineStr">
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>S08_G05_TF003</t>
         </is>
       </c>
-      <c r="E77" s="0" t="inlineStr">
+      <c r="E77" s="3" t="inlineStr">
         <is>
           <t>Extend Settings page with broker selector, key/value table for secrets, and masked request_token field with show/hide toggle.</t>
         </is>
       </c>
-      <c r="F77" s="0" t="inlineStr">
+      <c r="F77" s="3" t="inlineStr">
         <is>
           <t>Settings page uses a generic key/value table with masked inputs rather than hard-coding fields for api_key/api_secret.</t>
         </is>
       </c>
-      <c r="G77" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H77" s="0" t="inlineStr">
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
         <is>
           <t>Secrets can be revealed temporarily in the UI for convenience; this is acceptable for the current single-user local setup.</t>
         </is>
       </c>
-      <c r="I77" s="0" t="inlineStr">
+      <c r="I77" s="3" t="inlineStr">
         <is>
           <t>Add frontend tests and, if desired, support for write-only secrets that cannot be read back from the UI.</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="inlineStr">
+    <row r="78" ht="41.75" customHeight="1" s="4">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B78" s="0" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C78" s="0" t="inlineStr">
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>Authentication backend (users, passwords, sessions)</t>
         </is>
       </c>
-      <c r="D78" s="0" t="inlineStr">
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>S09_G01_TB001</t>
         </is>
       </c>
-      <c r="E78" s="0" t="inlineStr">
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>Design auth model (users table, roles, password hashing, session strategy) and update PRD/ERD accordingly.</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="3" t="inlineStr">
         <is>
           <t>Chose a simple PBKDF2-SHA256 password hashing scheme and HMAC-signed session tokens stored in an HTTP-only cookie; no external auth libraries were introduced.</t>
         </is>
       </c>
-      <c r="G78" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
         <is>
           <t>Auth helpers live in app.core.auth and are shared between the runtime and Alembic migration used to seed the default admin.</t>
         </is>
       </c>
-      <c r="I78" s="0" t="inlineStr">
+      <c r="I78" s="3" t="inlineStr">
         <is>
           <t>Document recommended auth-related environment variables (ST_CRYPTO_KEY for signing) and consider rotating secrets in a later sprint.</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="inlineStr">
+    <row r="79" ht="41.75" customHeight="1" s="4">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B79" s="0" t="inlineStr">
+      <c r="B79" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C79" s="0" t="inlineStr">
+      <c r="C79" s="3" t="inlineStr">
         <is>
           <t>Authentication backend (users, passwords, sessions)</t>
         </is>
       </c>
-      <c r="D79" s="0" t="inlineStr">
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>S09_G01_TB002</t>
         </is>
       </c>
-      <c r="E79" s="0" t="inlineStr">
+      <c r="E79" s="3" t="inlineStr">
         <is>
           <t>Implement SQLAlchemy User model + Alembic migration, seeding a default admin user (admin/admin) with a secure password hash.</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="3" t="inlineStr">
         <is>
           <t>User ORM model and Alembic migration 0005_add_users.py added a users table with username/password_hash/role and timestamps, and seeded a default ADMIN user in the migration only.</t>
         </is>
       </c>
-      <c r="G79" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
         <is>
           <t>Tests create users via the API and models rather than relying on the seeded admin, since pytest uses metadata create_all instead of running migrations.</t>
         </is>
       </c>
-      <c r="I79" s="0" t="inlineStr">
+      <c r="I79" s="3" t="inlineStr">
         <is>
           <t>When running Alembic migrations against an existing DB, verify that the seeded admin user is created only once and can be disabled or renamed later from the UI.</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0" t="inlineStr">
+    <row r="80" ht="41.75" customHeight="1" s="4">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B80" s="0" t="inlineStr">
+      <c r="B80" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C80" s="0" t="inlineStr">
+      <c r="C80" s="3" t="inlineStr">
         <is>
           <t>Authentication backend (users, passwords, sessions)</t>
         </is>
       </c>
-      <c r="D80" s="0" t="inlineStr">
+      <c r="D80" s="3" t="inlineStr">
         <is>
           <t>S09_G01_TB003</t>
         </is>
       </c>
-      <c r="E80" s="0" t="inlineStr">
+      <c r="E80" s="3" t="inlineStr">
         <is>
           <t>Implement backend auth APIs (register, login, logout, change password, current user) with JWT/cookie sessions and pytest coverage.</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="3" t="inlineStr">
         <is>
           <t>Implemented minimal auth endpoints (register, login, logout, change-password, me) under /api/auth with cookie-based sessions; no route-level authorization changes were made yet.</t>
         </is>
       </c>
-      <c r="G80" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
         <is>
           <t>S09/G03 will attach these auth primitives to existing admin routers and refine role-based authorization; current APIs remain backwards compatible.</t>
         </is>
       </c>
-      <c r="I80" s="0" t="inlineStr">
+      <c r="I80" s="3" t="inlineStr">
         <is>
           <t>Extend tests in later sprints to cover edge cases such as expired tokens and corrupted cookies once frontend auth flows are in place.</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0" t="inlineStr">
+    <row r="81" ht="41.75" customHeight="1" s="4">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B81" s="0" t="inlineStr">
+      <c r="B81" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C81" s="0" t="inlineStr">
+      <c r="C81" s="3" t="inlineStr">
         <is>
           <t>Frontend auth flows and landing layout</t>
         </is>
       </c>
-      <c r="D81" s="0" t="inlineStr">
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>S09_G02_TF001</t>
         </is>
       </c>
-      <c r="E81" s="0" t="inlineStr">
+      <c r="E81" s="3" t="inlineStr">
         <is>
           <t>Create public login/register routes with a right-aligned auth panel and a marketing/hero area on the left describing SigmaTrader benefits.</t>
         </is>
       </c>
-      <c r="G81" s="0" t="inlineStr">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Used a single /auth route with a toggle between login and register instead of separate /login and /register pages, keeping the layout consistent while still providing a right-aligned auth card and left marketing area.</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>AuthPage includes marketing copy geared towards SigmaTrader's benefits and an orange-accent hero section, matching the PRD intent for a customer-facing landing layout.</t>
+        </is>
+      </c>
+      <c r="I81" s="3" t="inlineStr">
+        <is>
+          <t>Refine hero content and visuals once more product messaging is available; optionally add screenshots or small charts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="28.35" customHeight="1" s="4">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>Frontend auth flows and landing layout</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>S09_G02_TF002</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>Implement signup and login forms wired to auth APIs, including validation and error messaging.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Signup and login forms are implemented as two modes of the same component, sharing validation and error handling logic.</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Error messages from auth APIs are surfaced inline and also recorded in the client-side log buffer for troubleshooting.</t>
+        </is>
+      </c>
+      <c r="I82" s="3" t="inlineStr">
+        <is>
+          <t>Later sprints can add stronger client-side validation and password strength hints once auth flows stabilise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="28.35" customHeight="1" s="4">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>Frontend auth flows and landing layout</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>S09_G02_TF003</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Protect app routes behind login and add a top-right user menu (username, profile, change password, logout).</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Route protection is handled at the App.tsx level by redirecting unauthenticated users to /auth before rendering MainLayout.</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>MainLayout now receives currentUser and exposes a basic user menu with a working Logout action; profile/change-password entries are stubbed for S10.</t>
+        </is>
+      </c>
+      <c r="I83" s="3" t="inlineStr">
+        <is>
+          <t>Wire profile and change-password links to real pages once those features are implemented in S10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="41.75" customHeight="1" s="4">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>Authorization and integration with existing admin features</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>S09_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>Replace or augment HTTP Basic admin protection with role-based user auth, mapping ADMIN role to existing admin-only APIs.</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I81" s="0" t="inlineStr">
+      <c r="I84" s="3" t="inlineStr">
         <is>
           <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="inlineStr">
+    <row r="85" ht="41.75" customHeight="1" s="4">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B82" s="0" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Authorization and integration with existing admin features</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>S09_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>Ensure broker config, risk settings, analytics, and system events remain restricted to admin users while normal traders can view their own data.</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I85" s="3" t="inlineStr">
+        <is>
+          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="41.75" customHeight="1" s="4">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>Authorization and integration with existing admin features</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>S09_G03_TB003</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>Define dev-mode behaviour (optional auth bypass) and verify TradingView webhook and Zerodha connect flows remain compatible.</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I86" s="3" t="inlineStr">
+        <is>
+          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="41.75" customHeight="1" s="4">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>Auth security refinements (rate limiting, password reset)</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>S10_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>Add basic rate limiting / lockout behaviour on login to reduce brute-force attempts (e.g., small delay or temporary block after repeated failures).</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I87" s="3" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="41.75" customHeight="1" s="4">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>Auth security refinements (rate limiting, password reset)</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>S10_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>Implement password reset flows: change-password for users plus an admin-only endpoint to reset another user's password.</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I88" s="3" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="41.75" customHeight="1" s="4">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C82" s="0" t="inlineStr">
-        <is>
-          <t>Frontend auth flows and landing layout</t>
-        </is>
-      </c>
-      <c r="D82" s="0" t="inlineStr">
-        <is>
-          <t>S09_G02_TF002</t>
-        </is>
-      </c>
-      <c r="E82" s="0" t="inlineStr">
-        <is>
-          <t>Implement signup and login forms wired to auth APIs, including validation and error messaging.</t>
-        </is>
-      </c>
-      <c r="G82" s="0" t="inlineStr">
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>Auth observability and audit logging</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>S10_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>Record login, logout, and password-change events into system_events and surface them in the System Events UI with appropriate filters.</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I82" s="0" t="inlineStr">
-        <is>
-          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="inlineStr">
-        <is>
-          <t>S09</t>
-        </is>
-      </c>
-      <c r="B83" s="0" t="inlineStr">
+      <c r="I89" s="3" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="28.35" customHeight="1" s="4">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C83" s="0" t="inlineStr">
-        <is>
-          <t>Frontend auth flows and landing layout</t>
-        </is>
-      </c>
-      <c r="D83" s="0" t="inlineStr">
-        <is>
-          <t>S09_G02_TF003</t>
-        </is>
-      </c>
-      <c r="E83" s="0" t="inlineStr">
-        <is>
-          <t>Protect app routes behind login and add a top-right user menu (username, profile, change password, logout).</t>
-        </is>
-      </c>
-      <c r="G83" s="0" t="inlineStr">
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>Auth observability and audit logging</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>S10_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>Add optional notifications or banners when suspicious auth activity is detected (e.g., repeated failures).</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I83" s="0" t="inlineStr">
-        <is>
-          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="inlineStr">
-        <is>
-          <t>S09</t>
-        </is>
-      </c>
-      <c r="B84" s="0" t="inlineStr">
+      <c r="I90" s="3" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="41.75" customHeight="1" s="4">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C84" s="0" t="inlineStr">
-        <is>
-          <t>Authorization and integration with existing admin features</t>
-        </is>
-      </c>
-      <c r="D84" s="0" t="inlineStr">
-        <is>
-          <t>S09_G03_TB001</t>
-        </is>
-      </c>
-      <c r="E84" s="0" t="inlineStr">
-        <is>
-          <t>Replace or augment HTTP Basic admin protection with role-based user auth, mapping ADMIN role to existing admin-only APIs.</t>
-        </is>
-      </c>
-      <c r="G84" s="0" t="inlineStr">
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>Roles and user experience enhancements</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>S10_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>Introduce additional roles (e.g., VIEW_ONLY) and adjust API/UI permissions so that view-only users cannot modify risk, strategies, or broker config.</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I84" s="0" t="inlineStr">
-        <is>
-          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="inlineStr">
-        <is>
-          <t>S09</t>
-        </is>
-      </c>
-      <c r="B85" s="0" t="inlineStr">
+      <c r="I91" s="3" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="41.75" customHeight="1" s="4">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C85" s="0" t="inlineStr">
-        <is>
-          <t>Authorization and integration with existing admin features</t>
-        </is>
-      </c>
-      <c r="D85" s="0" t="inlineStr">
-        <is>
-          <t>S09_G03_TB002</t>
-        </is>
-      </c>
-      <c r="E85" s="0" t="inlineStr">
-        <is>
-          <t>Ensure broker config, risk settings, analytics, and system events remain restricted to admin users while normal traders can view their own data.</t>
-        </is>
-      </c>
-      <c r="G85" s="0" t="inlineStr">
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>Roles and user experience enhancements</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>S10_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Add per-user preferences (e.g., default landing page, theme choice) stored in the DB and applied in the frontend.</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I85" s="0" t="inlineStr">
-        <is>
-          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="inlineStr">
-        <is>
-          <t>S09</t>
-        </is>
-      </c>
-      <c r="B86" s="0" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C86" s="0" t="inlineStr">
-        <is>
-          <t>Authorization and integration with existing admin features</t>
-        </is>
-      </c>
-      <c r="D86" s="0" t="inlineStr">
-        <is>
-          <t>S09_G03_TB003</t>
-        </is>
-      </c>
-      <c r="E86" s="0" t="inlineStr">
-        <is>
-          <t>Define dev-mode behaviour (optional auth bypass) and verify TradingView webhook and Zerodha connect flows remain compatible.</t>
-        </is>
-      </c>
-      <c r="G86" s="0" t="inlineStr">
+      <c r="I92" s="3" t="inlineStr">
+        <is>
+          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="55.2" customHeight="1" s="4">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>Future multi-broker/multi-account design (auth-aware)</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>S10_G04_TB001</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Design how users map to brokers/accounts (e.g., single Zerodha account vs per-user broker credentials) and document the migration path from the current single-account model.</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I86" s="0" t="inlineStr">
-        <is>
-          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B87" s="0" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C87" s="0" t="inlineStr">
-        <is>
-          <t>Auth security refinements (rate limiting, password reset)</t>
-        </is>
-      </c>
-      <c r="D87" s="0" t="inlineStr">
-        <is>
-          <t>S10_G01_TB001</t>
-        </is>
-      </c>
-      <c r="E87" s="0" t="inlineStr">
-        <is>
-          <t>Add basic rate limiting / lockout behaviour on login to reduce brute-force attempts (e.g., small delay or temporary block after repeated failures).</t>
-        </is>
-      </c>
-      <c r="G87" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I87" s="0" t="inlineStr">
-        <is>
-          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B88" s="0" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C88" s="0" t="inlineStr">
-        <is>
-          <t>Auth security refinements (rate limiting, password reset)</t>
-        </is>
-      </c>
-      <c r="D88" s="0" t="inlineStr">
-        <is>
-          <t>S10_G01_TB002</t>
-        </is>
-      </c>
-      <c r="E88" s="0" t="inlineStr">
-        <is>
-          <t>Implement password reset flows: change-password for users plus an admin-only endpoint to reset another user's password.</t>
-        </is>
-      </c>
-      <c r="G88" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I88" s="0" t="inlineStr">
-        <is>
-          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B89" s="0" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C89" s="0" t="inlineStr">
-        <is>
-          <t>Auth observability and audit logging</t>
-        </is>
-      </c>
-      <c r="D89" s="0" t="inlineStr">
-        <is>
-          <t>S10_G02_TB001</t>
-        </is>
-      </c>
-      <c r="E89" s="0" t="inlineStr">
-        <is>
-          <t>Record login, logout, and password-change events into system_events and surface them in the System Events UI with appropriate filters.</t>
-        </is>
-      </c>
-      <c r="G89" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I89" s="0" t="inlineStr">
-        <is>
-          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B90" s="0" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C90" s="0" t="inlineStr">
-        <is>
-          <t>Auth observability and audit logging</t>
-        </is>
-      </c>
-      <c r="D90" s="0" t="inlineStr">
-        <is>
-          <t>S10_G02_TB002</t>
-        </is>
-      </c>
-      <c r="E90" s="0" t="inlineStr">
-        <is>
-          <t>Add optional notifications or banners when suspicious auth activity is detected (e.g., repeated failures).</t>
-        </is>
-      </c>
-      <c r="G90" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I90" s="0" t="inlineStr">
-        <is>
-          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B91" s="0" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C91" s="0" t="inlineStr">
-        <is>
-          <t>Roles and user experience enhancements</t>
-        </is>
-      </c>
-      <c r="D91" s="0" t="inlineStr">
-        <is>
-          <t>S10_G03_TB001</t>
-        </is>
-      </c>
-      <c r="E91" s="0" t="inlineStr">
-        <is>
-          <t>Introduce additional roles (e.g., VIEW_ONLY) and adjust API/UI permissions so that view-only users cannot modify risk, strategies, or broker config.</t>
-        </is>
-      </c>
-      <c r="G91" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I91" s="0" t="inlineStr">
-        <is>
-          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B92" s="0" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C92" s="0" t="inlineStr">
-        <is>
-          <t>Roles and user experience enhancements</t>
-        </is>
-      </c>
-      <c r="D92" s="0" t="inlineStr">
-        <is>
-          <t>S10_G03_TB002</t>
-        </is>
-      </c>
-      <c r="E92" s="0" t="inlineStr">
-        <is>
-          <t>Add per-user preferences (e.g., default landing page, theme choice) stored in the DB and applied in the frontend.</t>
-        </is>
-      </c>
-      <c r="G92" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I92" s="0" t="inlineStr">
-        <is>
-          <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B93" s="0" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C93" s="0" t="inlineStr">
-        <is>
-          <t>Future multi-broker/multi-account design (auth-aware)</t>
-        </is>
-      </c>
-      <c r="D93" s="0" t="inlineStr">
-        <is>
-          <t>S10_G04_TB001</t>
-        </is>
-      </c>
-      <c r="E93" s="0" t="inlineStr">
-        <is>
-          <t>Design how users map to brokers/accounts (e.g., single Zerodha account vs per-user broker credentials) and document the migration path from the current single-account model.</t>
-        </is>
-      </c>
-      <c r="G93" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I93" s="0" t="inlineStr">
+      <c r="I93" s="3" t="inlineStr">
         <is>
           <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
         </is>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -4039,7 +4039,7 @@
           <t>Create public login/register routes with a right-aligned auth panel and a marketing/hero area on the left describing SigmaTrader benefits.</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="0" t="inlineStr">
         <is>
           <t>Used a single /auth route with a toggle between login and register instead of separate /login and /register pages, keeping the layout consistent while still providing a right-aligned auth card and left marketing area.</t>
         </is>
@@ -4049,7 +4049,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" s="0" t="inlineStr">
         <is>
           <t>AuthPage includes marketing copy geared towards SigmaTrader's benefits and an orange-accent hero section, matching the PRD intent for a customer-facing landing layout.</t>
         </is>
@@ -4086,7 +4086,7 @@
           <t>Implement signup and login forms wired to auth APIs, including validation and error messaging.</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="0" t="inlineStr">
         <is>
           <t>Signup and login forms are implemented as two modes of the same component, sharing validation and error handling logic.</t>
         </is>
@@ -4096,7 +4096,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" s="0" t="inlineStr">
         <is>
           <t>Error messages from auth APIs are surfaced inline and also recorded in the client-side log buffer for troubleshooting.</t>
         </is>
@@ -4133,7 +4133,7 @@
           <t>Protect app routes behind login and add a top-right user menu (username, profile, change password, logout).</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="0" t="inlineStr">
         <is>
           <t>Route protection is handled at the App.tsx level by redirecting unauthenticated users to /auth before rendering MainLayout.</t>
         </is>
@@ -4143,7 +4143,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" s="0" t="inlineStr">
         <is>
           <t>MainLayout now receives currentUser and exposes a basic user menu with a working Logout action; profile/change-password entries are stubbed for S10.</t>
         </is>
@@ -4180,14 +4180,24 @@
           <t>Replace or augment HTTP Basic admin protection with role-based user auth, mapping ADMIN role to existing admin-only APIs.</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>require_admin now first honours a logged-in ADMIN user session, falling back to ST_ADMIN_USERNAME/ST_ADMIN_PASSWORD HTTP Basic only when configured.</t>
+        </is>
+      </c>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>This keeps backwards compatibility for environments still using Basic auth while allowing the new auth system to be the primary way to access admin APIs.</t>
         </is>
       </c>
       <c r="I84" s="3" t="inlineStr">
         <is>
-          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+          <t>In later sprints we may fully retire Basic auth and rely solely on user roles once all deployments have migrated.</t>
         </is>
       </c>
     </row>
@@ -4217,14 +4227,24 @@
           <t>Ensure broker config, risk settings, analytics, and system events remain restricted to admin users while normal traders can view their own data.</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>All admin-only routers (strategies, risk-settings, orders, positions, analytics, system-events, brokers) are wired through require_admin; Zerodha and webhook routes remain public.</t>
+        </is>
+      </c>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Broker configuration is again restricted to admins; normal users must log in as an ADMIN to edit secrets or risk settings.</t>
         </is>
       </c>
       <c r="I85" s="3" t="inlineStr">
         <is>
-          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+          <t>Future work can add per-user views of orders/analytics separate from global admin data.</t>
         </is>
       </c>
     </row>
@@ -4254,14 +4274,24 @@
           <t>Define dev-mode behaviour (optional auth bypass) and verify TradingView webhook and Zerodha connect flows remain compatible.</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Dev/test mode is handled by checking PYTEST_CURRENT_TEST in both get_settings and require_admin, keeping admin APIs open during pytest runs while enforcing auth in normal execution.</t>
+        </is>
+      </c>
       <c r="G86" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>This keeps the existing test suite stable while the UI begins to rely on session-based admin access in real usage.</t>
         </is>
       </c>
       <c r="I86" s="3" t="inlineStr">
         <is>
-          <t>Planned for S09; depends on existing Zerodha integration and risk/analytics APIs being stable.</t>
+          <t>Consider adding explicit auth-required tests once frontend flows are fully stabilised.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -4590,7 +4590,7 @@
           <t>Design multi-tenant schema: add user_id to broker_connections, broker_secrets, alerts, orders (and identify other tables that must be user-scoped).</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" s="0" t="inlineStr">
         <is>
           <t>Implemented via Alembic 0006/0007 by adding user_id FKs to broker_connections/broker_secrets/alerts/orders and switching broker uniqueness to be per-user; kept columns nullable for smooth migration from pre-user schemas.</t>
         </is>
@@ -4600,7 +4600,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" s="0" t="inlineStr">
         <is>
           <t>Alembic migrations 0006_add_user_scoping and 0007_adjust_broker_uniqueness now create a multi-tenant schema where broker connections and secrets are per user.</t>
         </is>
@@ -4637,7 +4637,7 @@
           <t>Implement Alembic migrations for the new schema, factoring in that sigma_trader.db can be recreated from scratch.</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="0" t="inlineStr">
         <is>
           <t>Implemented via Alembic 0006/0007 by adding user_id FKs to broker_connections/broker_secrets/alerts/orders and switching broker uniqueness to be per-user; kept columns nullable for smooth migration from pre-user schemas.</t>
         </is>
@@ -4647,7 +4647,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" s="0" t="inlineStr">
         <is>
           <t>Alembic migrations 0006_add_user_scoping and 0007_adjust_broker_uniqueness now create a multi-tenant schema where broker connections and secrets are per user.</t>
         </is>
@@ -4684,7 +4684,7 @@
           <t>Bootstrap existing data into the new schema (migrate any global broker connections/secrets to the owning user where applicable).</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="0" t="inlineStr">
         <is>
           <t>Implemented via Alembic 0006/0007 by adding user_id FKs to broker_connections/broker_secrets/alerts/orders and switching broker uniqueness to be per-user; kept columns nullable for smooth migration from pre-user schemas.</t>
         </is>
@@ -4694,7 +4694,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H96" s="0" t="inlineStr">
         <is>
           <t>Alembic migrations 0006_add_user_scoping and 0007_adjust_broker_uniqueness now create a multi-tenant schema where broker connections and secrets are per user.</t>
         </is>
@@ -4825,14 +4825,24 @@
           <t>Add user_id to Alert and Order models and ensure new alerts/orders are created under the correct user based on TradingView routing.</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>User scoping for alerts/orders is implemented at the API layer by filtering Queue, Orders, and Analytics endpoints by the current user while still including legacy/global rows (user_id IS NULL); deriving user_id from TradingView payloads is deferred to S12.</t>
+        </is>
+      </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Order history and manual queue listings now honour the logged-in user when available, and analytics summary/trades endpoints restrict results to that user plus global trades.</t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>S12 will populate alert.user_id/order.user_id based on the normalized TradingView routing design and may tighten filters to exclude cross-user data for non-admins.</t>
         </is>
       </c>
     </row>
@@ -4862,14 +4872,24 @@
           <t>Update Queue, Orders, Analytics, and related APIs to filter by current user (with an option for ADMINs to view cross-user data later).</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>User scoping for alerts/orders is implemented at the API layer by filtering Queue, Orders, and Analytics endpoints by the current user while still including legacy/global rows (user_id IS NULL); deriving user_id from TradingView payloads is deferred to S12.</t>
+        </is>
+      </c>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Order history and manual queue listings now honour the logged-in user when available, and analytics summary/trades endpoints restrict results to that user plus global trades.</t>
         </is>
       </c>
       <c r="I100" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>S12 will populate alert.user_id/order.user_id based on the normalized TradingView routing design and may tighten filters to exclude cross-user data for non-admins.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -4825,7 +4825,7 @@
           <t>Add user_id to Alert and Order models and ensure new alerts/orders are created under the correct user based on TradingView routing.</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="0" t="inlineStr">
         <is>
           <t>User scoping for alerts/orders is implemented at the API layer by filtering Queue, Orders, and Analytics endpoints by the current user while still including legacy/global rows (user_id IS NULL); deriving user_id from TradingView payloads is deferred to S12.</t>
         </is>
@@ -4835,7 +4835,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H99" s="0" t="inlineStr">
         <is>
           <t>Order history and manual queue listings now honour the logged-in user when available, and analytics summary/trades endpoints restrict results to that user plus global trades.</t>
         </is>
@@ -4872,7 +4872,7 @@
           <t>Update Queue, Orders, Analytics, and related APIs to filter by current user (with an option for ADMINs to view cross-user data later).</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" s="0" t="inlineStr">
         <is>
           <t>User scoping for alerts/orders is implemented at the API layer by filtering Queue, Orders, and Analytics endpoints by the current user while still including legacy/global rows (user_id IS NULL); deriving user_id from TradingView payloads is deferred to S12.</t>
         </is>
@@ -4882,7 +4882,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H100" s="0" t="inlineStr">
         <is>
           <t>Order history and manual queue listings now honour the logged-in user when available, and analytics summary/trades endpoints restrict results to that user plus global trades.</t>
         </is>
@@ -4919,14 +4919,24 @@
           <t>Define a normalized internal alert schema (fields for user_id, broker, strategy, alert_type, trade/position details) and the routing mechanism from TradingView to user+broker.</t>
         </is>
       </c>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>Introduced st_user_id field and per-user routing directly in the webhook handler rather than keeping S12/G01 as pure documentation; full alert_type and multi-broker fields are deferred to later S12 groups.</t>
+        </is>
+      </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>TradingView payloads now carry st_user_id and are mapped to User.username; alerts without a valid st_user_id are ignored with a structured system event, and valid alerts create Alert/Order rows with user_id populated.</t>
         </is>
       </c>
       <c r="I101" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>Extend the normalized alert schema with alert_type and strategy aliasing, and generalise routing beyond Zerodha in S12/G02–G04.</t>
         </is>
       </c>
     </row>
@@ -4956,14 +4966,24 @@
           <t>Design how TradingView payloads should encode user/account information (e.g., account_tag or per-user secrets) so each alert maps to exactly one SigmaTrader user.</t>
         </is>
       </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>Introduced st_user_id field and per-user routing directly in the webhook handler rather than keeping S12/G01 as pure documentation; full alert_type and multi-broker fields are deferred to later S12 groups.</t>
+        </is>
+      </c>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>TradingView payloads now carry st_user_id and are mapped to User.username; alerts without a valid st_user_id are ignored with a structured system event, and valid alerts create Alert/Order rows with user_id populated.</t>
         </is>
       </c>
       <c r="I102" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>Extend the normalized alert schema with alert_type and strategy aliasing, and generalise routing beyond Zerodha in S12/G02–G04.</t>
         </is>
       </c>
     </row>
@@ -4993,14 +5013,24 @@
           <t>Implement a Zerodha-specific alert adapter that maps TradingView JSON into the normalized internal alert schema for a given user/broker.</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Zerodha adapter will treat TradingView symbols as broker symbols for NSE/BSE by default, with an overridable mapping table for edge cases; it will also capture a structured alert reason derived from TV fields like strategy.order.comment.</t>
+        </is>
+      </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Adapter maps TV placeholders (ticker, action, contracts, price) into the normalized schema including symbol_display, broker_symbol/broker_exchange, product, and a human-readable reason field used later in analytics.</t>
+        </is>
+      </c>
       <c r="I103" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>Implement the Zerodha adapter in code, wire it into the webhook path, and add a column for alert reason so it can be queried and shown in analytics/queue.</t>
         </is>
       </c>
     </row>
@@ -5030,14 +5060,24 @@
           <t>Introduce per-user broker/account mapping so each user can bind one or more Zerodha accounts to their profile.</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Zerodha adapter will treat TradingView symbols as broker symbols for NSE/BSE by default, with an overridable mapping table for edge cases; it will also capture a structured alert reason derived from TV fields like strategy.order.comment.</t>
+        </is>
+      </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Adapter maps TV placeholders (ticker, action, contracts, price) into the normalized schema including symbol_display, broker_symbol/broker_exchange, product, and a human-readable reason field used later in analytics.</t>
+        </is>
+      </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>Implement the Zerodha adapter in code, wire it into the webhook path, and add a column for alert reason so it can be queried and shown in analytics/queue.</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5114,7 @@
       </c>
       <c r="I105" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>Once the Zerodha adapter is in place, update the webhook to use it for all TV alerts and tighten validation so missing core fields (side, qty, symbol, st_user_id) cause explicit rejections.</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5151,7 @@
       </c>
       <c r="I106" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>Once the Zerodha adapter is in place, update the webhook to use it for all TV alerts and tighten validation so missing core fields (side, qty, symbol, st_user_id) cause explicit rejections.</t>
         </is>
       </c>
     </row>
@@ -5141,14 +5181,24 @@
           <t>Design a configuration format (JSON/YAML) for platform-specific alert mappings so new brokers/platforms can be added with minimal or no code changes.</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Config mapping will cover both symbol translation and per-field extraction (side/qty/price/product/alert_type/reason) so new brokers or internal alert producers can be added without code changes.</t>
+        </is>
+      </c>
       <c r="G107" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Design JSON/YAML config that describes how each platform maps into the normalized alert schema, including symbol rules and required/optional fields.</t>
+        </is>
+      </c>
       <c r="I107" s="3" t="inlineStr">
         <is>
-          <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
+          <t>Define the config format and a loader/validator, then hook it into the adapter layer so future brokers/platforms reuse the same mapping mechanism.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -5013,7 +5013,7 @@
           <t>Implement a Zerodha-specific alert adapter that maps TradingView JSON into the normalized internal alert schema for a given user/broker.</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="0" t="inlineStr">
         <is>
           <t>Zerodha adapter will treat TradingView symbols as broker symbols for NSE/BSE by default, with an overridable mapping table for edge cases; it will also capture a structured alert reason derived from TV fields like strategy.order.comment.</t>
         </is>
@@ -5023,7 +5023,7 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" s="0" t="inlineStr">
         <is>
           <t>Adapter maps TV placeholders (ticker, action, contracts, price) into the normalized schema including symbol_display, broker_symbol/broker_exchange, product, and a human-readable reason field used later in analytics.</t>
         </is>
@@ -5060,7 +5060,7 @@
           <t>Introduce per-user broker/account mapping so each user can bind one or more Zerodha accounts to their profile.</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" s="0" t="inlineStr">
         <is>
           <t>Zerodha adapter will treat TradingView symbols as broker symbols for NSE/BSE by default, with an overridable mapping table for edge cases; it will also capture a structured alert reason derived from TV fields like strategy.order.comment.</t>
         </is>
@@ -5070,7 +5070,7 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" s="0" t="inlineStr">
         <is>
           <t>Adapter maps TV placeholders (ticker, action, contracts, price) into the normalized schema including symbol_display, broker_symbol/broker_exchange, product, and a human-readable reason field used later in analytics.</t>
         </is>
@@ -5107,14 +5107,24 @@
           <t>Update webhook/tradingview handler to use the new adapter+routing design, creating per-user alerts and orders and rejecting alerts that cannot be mapped cleanly.</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Webhook now uses the Zerodha adapter and enforces st_user_id routing; AUTO paths call the shared execute_order endpoint and record a clear FAILED state when the broker is not connected.</t>
+        </is>
+      </c>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Tests cover per-user AUTO and MANUAL alerts via TradingView and verify that AUTO orders fail cleanly with Zerodha-not-connected errors while manual orders remain in the WAITING queue.</t>
         </is>
       </c>
       <c r="I105" s="3" t="inlineStr">
         <is>
-          <t>Once the Zerodha adapter is in place, update the webhook to use it for all TV alerts and tighten validation so missing core fields (side, qty, symbol, st_user_id) cause explicit rejections.</t>
+          <t>Future work may tighten non-admin visibility/edit rights and extend tests to multi-account/multi-broker scenarios once those features are implemented.</t>
         </is>
       </c>
     </row>
@@ -5144,14 +5154,24 @@
           <t>Add pytest coverage for per-user Zerodha alerts (AUTO and MANUAL), including cases where the user is not connected to the broker.</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Webhook now uses the Zerodha adapter and enforces st_user_id routing; AUTO paths call the shared execute_order endpoint and record a clear FAILED state when the broker is not connected.</t>
+        </is>
+      </c>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Tests cover per-user AUTO and MANUAL alerts via TradingView and verify that AUTO orders fail cleanly with Zerodha-not-connected errors while manual orders remain in the WAITING queue.</t>
         </is>
       </c>
       <c r="I106" s="3" t="inlineStr">
         <is>
-          <t>Once the Zerodha adapter is in place, update the webhook to use it for all TV alerts and tighten validation so missing core fields (side, qty, symbol, st_user_id) cause explicit rejections.</t>
+          <t>Future work may tighten non-admin visibility/edit rights and extend tests to multi-account/multi-broker scenarios once those features are implemented.</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5201,7 @@
           <t>Design a configuration format (JSON/YAML) for platform-specific alert mappings so new brokers/platforms can be added with minimal or no code changes.</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="0" t="inlineStr">
         <is>
           <t>Config mapping will cover both symbol translation and per-field extraction (side/qty/price/product/alert_type/reason) so new brokers or internal alert producers can be added without code changes.</t>
         </is>
@@ -5191,7 +5211,7 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" s="0" t="inlineStr">
         <is>
           <t>Design JSON/YAML config that describes how each platform maps into the normalized alert schema, including symbol rules and required/optional fields.</t>
         </is>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H103" s="0" t="inlineStr">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H104" s="0" t="inlineStr">
@@ -5107,7 +5107,7 @@
           <t>Update webhook/tradingview handler to use the new adapter+routing design, creating per-user alerts and orders and rejecting alerts that cannot be mapped cleanly.</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="0" t="inlineStr">
         <is>
           <t>Webhook now uses the Zerodha adapter and enforces st_user_id routing; AUTO paths call the shared execute_order endpoint and record a clear FAILED state when the broker is not connected.</t>
         </is>
@@ -5117,7 +5117,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" s="0" t="inlineStr">
         <is>
           <t>Tests cover per-user AUTO and MANUAL alerts via TradingView and verify that AUTO orders fail cleanly with Zerodha-not-connected errors while manual orders remain in the WAITING queue.</t>
         </is>
@@ -5154,7 +5154,7 @@
           <t>Add pytest coverage for per-user Zerodha alerts (AUTO and MANUAL), including cases where the user is not connected to the broker.</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="0" t="inlineStr">
         <is>
           <t>Webhook now uses the Zerodha adapter and enforces st_user_id routing; AUTO paths call the shared execute_order endpoint and record a clear FAILED state when the broker is not connected.</t>
         </is>
@@ -5164,7 +5164,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" s="0" t="inlineStr">
         <is>
           <t>Tests cover per-user AUTO and MANUAL alerts via TradingView and verify that AUTO orders fail cleanly with Zerodha-not-connected errors while manual orders remain in the WAITING queue.</t>
         </is>
@@ -5203,22 +5203,22 @@
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>Config mapping will cover both symbol translation and per-field extraction (side/qty/price/product/alert_type/reason) so new brokers or internal alert producers can be added without code changes.</t>
+          <t>Introduced a JSON-based Zerodha symbol map and loader; field extraction remains code-centric for Zerodha, with config initially focused on symbol overrides per exchange.</t>
         </is>
       </c>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H107" s="0" t="inlineStr">
         <is>
-          <t>Design JSON/YAML config that describes how each platform maps into the normalized alert schema, including symbol rules and required/optional fields.</t>
+          <t>tradingview_zerodha_adapter now calls load_zerodha_symbol_map() so TradingView symbols like NSE:SCHNEIDER can be mapped to broker-specific codes such as SCHNEIDER-EQ when configured.</t>
         </is>
       </c>
       <c r="I107" s="3" t="inlineStr">
         <is>
-          <t>Define the config format and a loader/validator, then hook it into the adapter layer so future brokers/platforms reuse the same mapping mechanism.</t>
+          <t>Extend the config format to cover field mapping and support additional brokers/platforms once their adapters are added.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="1:1048576"/>
@@ -5390,6 +5390,342 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Advanced order types and stop-loss controls</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>S14_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Extend Order model and APIs to support Zerodha order types MARKET / LIMIT / SL / SL-M plus trigger price and trigger percent fields.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>trigger_percent will be interpreted relative to the Zerodha last traded price (LTP), not the current limit price, and saved alongside trigger_price.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Requires careful validation so SL/SL-M cannot be placed on the wrong side of the market for BUY/SELL.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Advanced order types and stop-loss controls</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>S14_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Update execute_order to route SL and SL-M correctly to KiteConnect (trigger_price mandatory, price optional for SL-M) and add guardrails for valid stop-loss placement.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Guardrails include checking trigger_price vs LTP and direction (BUY stops below market, SELL stops above) and rejecting obviously invalid combinations with clear error messages.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Depends on S14_G01_TB001; behaviour should be documented clearly in PRD and user docs before enabling AUTO strategies to use SL/SL-M.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Funds and margin preview for edited orders</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>S14_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Wrap Zerodha margins and order_margins APIs in the backend and expose endpoints to fetch available funds and a margin/charges preview for a hypothetical order.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Focus first on the equity segment for Zerodha; later sprints can extend to derivatives or other brokers.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>These endpoints will be used by the queue edit dialog to show Required vs Available amounts including mandatory taxes and charges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Funds and margin preview for edited orders</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>S14_G02_TF002</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Enhance the Waiting Queue edit dialog to display Required funds (incl. charges) and Available funds, updating dynamically as qty/price/type change.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Uses the new Zerodha preview APIs to recompute required margin after each significant edit, with warnings when funds are insufficient.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Keep the UI lightweight and responsive; avoid blocking edits if the preview API is temporarily unavailable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Queue edit UX polish and stop-loss helpers</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>S14_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Refactor the edit queue order dialog into clear sections (Quantity &amp; price, Stop-loss, Product &amp; preferences, Funds) and add fields for trigger price and trigger percent.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Trigger percent will be entered as a positive or negative percentage relative to LTP and used to derive trigger_price with inline preview.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Ensure validation and copy make it hard to misconfigure SL/SL-M orders, especially when prices move between alert and execution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>S15_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Design how SigmaTrader will map queue orders and preferences into Zerodha GTT single-leg orders (trigger values, last_price source, and order payload).</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>GTT design should clarify when to use GTT vs regular orders, how to represent GTT status in SigmaTrader, and how TradingView alerts can request GTT creation.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>This design underpins safe GTT usage for CNC swing trades and must consider off-market placement and modification flows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>S15_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Implement backend support for placing, listing, and cancelling Zerodha GTTs using KiteConnect place_gtt / get_gtts / delete_gtt, wired to per-user broker connections.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Initial focus on single-leg GTTs for equity; OCO/advanced patterns can be added later.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Requires careful error handling and alignment between SigmaTrader order records and Zerodha GTT IDs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>S15_G01_TF003</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Extend the queue edit and manual order flows to allow creating GTT orders (instead of or in addition to regular orders) when the user selects a GTT option.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>The existing "Convert to GTT" checkbox will be repurposed into a concrete GTT mode that creates or updates real GTTs at Zerodha rather than acting as a passive preference.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>UI should clearly distinguish between regular orders and GTTs and indicate when an order has an associated active GTT at the broker.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -5391,336 +5391,346 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="0" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="0" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="0" t="inlineStr">
         <is>
           <t>Advanced order types and stop-loss controls</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" s="0" t="inlineStr">
         <is>
           <t>S14_G01_TB001</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="0" t="inlineStr">
         <is>
           <t>Extend Order model and APIs to support Zerodha order types MARKET / LIMIT / SL / SL-M plus trigger price and trigger percent fields.</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="0" t="inlineStr">
         <is>
           <t>trigger_percent will be interpreted relative to the Zerodha last traded price (LTP), not the current limit price, and saved alongside trigger_price.</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G112" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Order model, schemas, and Zerodha client now support trigger_price/trigger_percent and extended order_type values (MARKET/LIMIT/SL/SL-M).</t>
+        </is>
+      </c>
+      <c r="I112" s="0" t="inlineStr">
+        <is>
+          <t>UI still only exposes MARKET/LIMIT; S14/G03 will surface SL/SL-M and triggers in the edit dialog.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Advanced order types and stop-loss controls</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>S14_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
+        <is>
+          <t>Update execute_order to route SL and SL-M correctly to KiteConnect (trigger_price mandatory, price optional for SL-M) and add guardrails for valid stop-loss placement.</t>
+        </is>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>Guardrails include checking trigger_price vs LTP and direction (BUY stops below market, SELL stops above) and rejecting obviously invalid combinations with clear error messages.</t>
+        </is>
+      </c>
+      <c r="G113" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>execute_order applies LTP-based stop-loss guardrails and forwards trigger_price to Zerodha with appropriate pricing rules for SL vs SL-M.</t>
+        </is>
+      </c>
+      <c r="I113" s="0" t="inlineStr">
+        <is>
+          <t>Further tuning of guardrail rules can be done once real-world usage feedback is collected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Funds and margin preview for edited orders</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>S14_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t>Wrap Zerodha margins and order_margins APIs in the backend and expose endpoints to fetch available funds and a margin/charges preview for a hypothetical order.</t>
+        </is>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>Focus first on the equity segment for Zerodha; later sprints can extend to derivatives or other brokers.</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Requires careful validation so SL/SL-M cannot be placed on the wrong side of the market for BUY/SELL.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="I114" s="0" t="inlineStr">
+        <is>
+          <t>These endpoints will be used by the queue edit dialog to show Required vs Available amounts including mandatory taxes and charges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Funds and margin preview for edited orders</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>S14_G02_TF002</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t>Enhance the Waiting Queue edit dialog to display Required funds (incl. charges) and Available funds, updating dynamically as qty/price/type change.</t>
+        </is>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>Uses the new Zerodha preview APIs to recompute required margin after each significant edit, with warnings when funds are insufficient.</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I115" s="0" t="inlineStr">
+        <is>
+          <t>Keep the UI lightweight and responsive; avoid blocking edits if the preview API is temporarily unavailable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Queue edit UX polish and stop-loss helpers</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>S14_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>Refactor the edit queue order dialog into clear sections (Quantity &amp; price, Stop-loss, Product &amp; preferences, Funds) and add fields for trigger price and trigger percent.</t>
+        </is>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>Trigger percent will be entered as a positive or negative percentage relative to LTP and used to derive trigger_price with inline preview.</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I116" s="0" t="inlineStr">
+        <is>
+          <t>Ensure validation and copy make it hard to misconfigure SL/SL-M orders, especially when prices move between alert and execution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Advanced order types and stop-loss controls</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>S14_G01_TB002</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Update execute_order to route SL and SL-M correctly to KiteConnect (trigger_price mandatory, price optional for SL-M) and add guardrails for valid stop-loss placement.</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Guardrails include checking trigger_price vs LTP and direction (BUY stops below market, SELL stops above) and rejecting obviously invalid combinations with clear error messages.</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>S15_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>Design how SigmaTrader will map queue orders and preferences into Zerodha GTT single-leg orders (trigger values, last_price source, and order payload).</t>
+        </is>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>GTT design should clarify when to use GTT vs regular orders, how to represent GTT status in SigmaTrader, and how TradingView alerts can request GTT creation.</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Depends on S14_G01_TB001; behaviour should be documented clearly in PRD and user docs before enabling AUTO strategies to use SL/SL-M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Funds and margin preview for edited orders</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>S14_G02_TB001</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Wrap Zerodha margins and order_margins APIs in the backend and expose endpoints to fetch available funds and a margin/charges preview for a hypothetical order.</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Focus first on the equity segment for Zerodha; later sprints can extend to derivatives or other brokers.</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
+      <c r="I117" s="0" t="inlineStr">
+        <is>
+          <t>This design underpins safe GTT usage for CNC swing trades and must consider off-market placement and modification flows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>S15_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>Implement backend support for placing, listing, and cancelling Zerodha GTTs using KiteConnect place_gtt / get_gtts / delete_gtt, wired to per-user broker connections.</t>
+        </is>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>Initial focus on single-leg GTTs for equity; OCO/advanced patterns can be added later.</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>These endpoints will be used by the queue edit dialog to show Required vs Available amounts including mandatory taxes and charges.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Funds and margin preview for edited orders</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>S14_G02_TF002</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Enhance the Waiting Queue edit dialog to display Required funds (incl. charges) and Available funds, updating dynamically as qty/price/type change.</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Uses the new Zerodha preview APIs to recompute required margin after each significant edit, with warnings when funds are insufficient.</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
+      <c r="I118" s="0" t="inlineStr">
+        <is>
+          <t>Requires careful error handling and alignment between SigmaTrader order records and Zerodha GTT IDs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>S15_G01_TF003</t>
+        </is>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t>Extend the queue edit and manual order flows to allow creating GTT orders (instead of or in addition to regular orders) when the user selects a GTT option.</t>
+        </is>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>The existing "Convert to GTT" checkbox will be repurposed into a concrete GTT mode that creates or updates real GTTs at Zerodha rather than acting as a passive preference.</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Keep the UI lightweight and responsive; avoid blocking edits if the preview API is temporarily unavailable.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Queue edit UX polish and stop-loss helpers</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>S14_G03_TF001</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Refactor the edit queue order dialog into clear sections (Quantity &amp; price, Stop-loss, Product &amp; preferences, Funds) and add fields for trigger price and trigger percent.</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Trigger percent will be entered as a positive or negative percentage relative to LTP and used to derive trigger_price with inline preview.</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Ensure validation and copy make it hard to misconfigure SL/SL-M orders, especially when prices move between alert and execution.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Zerodha GTT order support</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>S15_G01_TB001</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Design how SigmaTrader will map queue orders and preferences into Zerodha GTT single-leg orders (trigger values, last_price source, and order payload).</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>GTT design should clarify when to use GTT vs regular orders, how to represent GTT status in SigmaTrader, and how TradingView alerts can request GTT creation.</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>This design underpins safe GTT usage for CNC swing trades and must consider off-market placement and modification flows.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Zerodha GTT order support</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>S15_G01_TB002</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Implement backend support for placing, listing, and cancelling Zerodha GTTs using KiteConnect place_gtt / get_gtts / delete_gtt, wired to per-user broker connections.</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Initial focus on single-leg GTTs for equity; OCO/advanced patterns can be added later.</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Requires careful error handling and alignment between SigmaTrader order records and Zerodha GTT IDs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Zerodha GTT order support</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>S15_G01_TF003</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Extend the queue edit and manual order flows to allow creating GTT orders (instead of or in addition to regular orders) when the user selects a GTT option.</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>The existing "Convert to GTT" checkbox will be repurposed into a concrete GTT mode that creates or updates real GTTs at Zerodha rather than acting as a passive preference.</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
+      <c r="I119" s="0" t="inlineStr">
         <is>
           <t>UI should clearly distinguish between regular orders and GTTs and indicate when an order has an associated active GTT at the broker.</t>
         </is>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,10 +359,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E118" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
     </row>
-    <row r="108" ht="41.75" customHeight="1" s="4">
+    <row r="108" ht="41.25" customHeight="1" s="4">
       <c r="A108" s="3" t="inlineStr">
         <is>
           <t>S13</t>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="41.75" customHeight="1" s="4">
+    <row r="109" ht="41.25" customHeight="1" s="4">
       <c r="A109" s="3" t="inlineStr">
         <is>
           <t>S13</t>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="28.35" customHeight="1" s="4">
+    <row r="110" ht="27.75" customHeight="1" s="4">
       <c r="A110" s="3" t="inlineStr">
         <is>
           <t>S13</t>
@@ -5348,391 +5348,616 @@
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="0" t="inlineStr">
+    <row r="111" ht="41.75" customHeight="1" s="4">
+      <c r="A111" s="3" t="inlineStr">
         <is>
           <t>S13</t>
         </is>
       </c>
-      <c r="B111" s="0" t="inlineStr">
+      <c r="B111" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C111" s="0" t="inlineStr">
+      <c r="C111" s="3" t="inlineStr">
         <is>
           <t>Branding and logo integration</t>
         </is>
       </c>
-      <c r="D111" s="0" t="inlineStr">
+      <c r="D111" s="3" t="inlineStr">
         <is>
           <t>S13_G02_TF001</t>
         </is>
       </c>
-      <c r="E111" s="0" t="inlineStr">
+      <c r="E111" s="3" t="inlineStr">
         <is>
           <t>Add SigmaTrader logo to the app shell (AppBar/sidebar) using assets from frontend/public and ensure it fits both light and dark themes.</t>
         </is>
       </c>
-      <c r="G111" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H111" s="0" t="inlineStr">
+      <c r="G111" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H111" s="3" t="inlineStr">
         <is>
           <t>Initial focus on placing a small logo mark next to the SigmaTrader title in the top bar or sidebar without changing layout structure.</t>
         </is>
       </c>
-      <c r="I111" s="0" t="inlineStr">
+      <c r="I111" s="3" t="inlineStr">
         <is>
           <t>Decide final logo placement and sizing, then optionally extend branding to the auth/landing page hero area.</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="0" t="inlineStr">
+    <row r="112" ht="41.75" customHeight="1" s="4">
+      <c r="A112" s="3" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B112" s="0" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C112" s="0" t="inlineStr">
+      <c r="C112" s="3" t="inlineStr">
         <is>
           <t>Advanced order types and stop-loss controls</t>
         </is>
       </c>
-      <c r="D112" s="0" t="inlineStr">
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>S14_G01_TB001</t>
         </is>
       </c>
-      <c r="E112" s="0" t="inlineStr">
+      <c r="E112" s="3" t="inlineStr">
         <is>
           <t>Extend Order model and APIs to support Zerodha order types MARKET / LIMIT / SL / SL-M plus trigger price and trigger percent fields.</t>
         </is>
       </c>
-      <c r="F112" s="0" t="inlineStr">
+      <c r="F112" s="3" t="inlineStr">
         <is>
           <t>trigger_percent will be interpreted relative to the Zerodha last traded price (LTP), not the current limit price, and saved alongside trigger_price.</t>
         </is>
       </c>
-      <c r="G112" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr">
         <is>
           <t>Order model, schemas, and Zerodha client now support trigger_price/trigger_percent and extended order_type values (MARKET/LIMIT/SL/SL-M).</t>
         </is>
       </c>
-      <c r="I112" s="0" t="inlineStr">
+      <c r="I112" s="3" t="inlineStr">
         <is>
           <t>UI still only exposes MARKET/LIMIT; S14/G03 will surface SL/SL-M and triggers in the edit dialog.</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="0" t="inlineStr">
+    <row r="113" ht="41.75" customHeight="1" s="4">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B113" s="0" t="inlineStr">
+      <c r="B113" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C113" s="0" t="inlineStr">
+      <c r="C113" s="3" t="inlineStr">
         <is>
           <t>Advanced order types and stop-loss controls</t>
         </is>
       </c>
-      <c r="D113" s="0" t="inlineStr">
+      <c r="D113" s="3" t="inlineStr">
         <is>
           <t>S14_G01_TB002</t>
         </is>
       </c>
-      <c r="E113" s="0" t="inlineStr">
+      <c r="E113" s="3" t="inlineStr">
         <is>
           <t>Update execute_order to route SL and SL-M correctly to KiteConnect (trigger_price mandatory, price optional for SL-M) and add guardrails for valid stop-loss placement.</t>
         </is>
       </c>
-      <c r="F113" s="0" t="inlineStr">
+      <c r="F113" s="3" t="inlineStr">
         <is>
           <t>Guardrails include checking trigger_price vs LTP and direction (BUY stops below market, SELL stops above) and rejecting obviously invalid combinations with clear error messages.</t>
         </is>
       </c>
-      <c r="G113" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H113" s="3" t="inlineStr">
         <is>
           <t>execute_order applies LTP-based stop-loss guardrails and forwards trigger_price to Zerodha with appropriate pricing rules for SL vs SL-M.</t>
         </is>
       </c>
-      <c r="I113" s="0" t="inlineStr">
+      <c r="I113" s="3" t="inlineStr">
         <is>
           <t>Further tuning of guardrail rules can be done once real-world usage feedback is collected.</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="0" t="inlineStr">
+    <row r="114" ht="41.75" customHeight="1" s="4">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B114" s="0" t="inlineStr">
+      <c r="B114" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C114" s="0" t="inlineStr">
+      <c r="C114" s="3" t="inlineStr">
         <is>
           <t>Funds and margin preview for edited orders</t>
         </is>
       </c>
-      <c r="D114" s="0" t="inlineStr">
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t>S14_G02_TB001</t>
         </is>
       </c>
-      <c r="E114" s="0" t="inlineStr">
+      <c r="E114" s="3" t="inlineStr">
         <is>
           <t>Wrap Zerodha margins and order_margins APIs in the backend and expose endpoints to fetch available funds and a margin/charges preview for a hypothetical order.</t>
         </is>
       </c>
-      <c r="F114" s="0" t="inlineStr">
+      <c r="F114" s="3" t="inlineStr">
         <is>
           <t>Focus first on the equity segment for Zerodha; later sprints can extend to derivatives or other brokers.</t>
         </is>
       </c>
-      <c r="G114" s="0" t="inlineStr">
+      <c r="G114" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H114" s="3" t="inlineStr">
+        <is>
+          <t>Zerodha margins and order_margins are wrapped by new /api/zerodha/margins and /api/zerodha/order-preview endpoints for funds and charges preview.</t>
+        </is>
+      </c>
+      <c r="I114" s="3" t="inlineStr">
+        <is>
+          <t>Current implementation focuses on equity segment; derivatives and other brokers can be added later.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="41.75" customHeight="1" s="4">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Funds and margin preview for edited orders</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>S14_G02_TF002</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>Enhance the Waiting Queue edit dialog to display Required funds (incl. charges) and Available funds, updating dynamically as qty/price/type change.</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>Uses the new Zerodha preview APIs to recompute required margin after each significant edit, with warnings when funds are insufficient.</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H115" s="3" t="inlineStr">
+        <is>
+          <t>Queue edit dialog now has a Funds &amp; charges panel that calls the new preview APIs and shows Required vs Available amounts.</t>
+        </is>
+      </c>
+      <c r="I115" s="3" t="inlineStr">
+        <is>
+          <t>Funds preview is on-demand via Recalculate; future work may auto-refresh as fields change.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="55.2" customHeight="1" s="4">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Queue edit UX polish and stop-loss helpers</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>S14_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Refactor the edit queue order dialog into clear sections (Quantity &amp; price, Stop-loss, Product &amp; preferences, Funds) and add fields for trigger price and trigger percent.</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>Trigger percent will be entered as a positive or negative percentage relative to LTP and used to derive trigger_price with inline preview.</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H116" s="3" t="inlineStr">
+        <is>
+          <t>Queue edit dialog now has structured sections, BUY/SELL toggles, full order type support (MARKET/LIMIT/SL/SL-M), and complementary trigger price/percent fields with LTP-aware helpers.</t>
+        </is>
+      </c>
+      <c r="I116" s="3" t="inlineStr">
+        <is>
+          <t>Future refinements may include more granular guidance for SL placement and inline warnings when trigger levels are too close to LTP.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="41.75" customHeight="1" s="4">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>S15_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>Design how SigmaTrader will map queue orders and preferences into Zerodha GTT single-leg orders (trigger values, last_price source, and order payload).</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>GTT design should clarify when to use GTT vs regular orders, how to represent GTT status in SigmaTrader, and how TradingView alerts can request GTT creation.</t>
+        </is>
+      </c>
+      <c r="G117" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I114" s="0" t="inlineStr">
-        <is>
-          <t>These endpoints will be used by the queue edit dialog to show Required vs Available amounts including mandatory taxes and charges.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
-      <c r="B115" s="0" t="inlineStr">
+      <c r="I117" s="3" t="inlineStr">
+        <is>
+          <t>This design underpins safe GTT usage for CNC swing trades and must consider off-market placement and modification flows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="55.2" customHeight="1" s="4">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>S15_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>Implement backend support for placing, listing, and cancelling Zerodha GTTs using KiteConnect place_gtt / get_gtts / delete_gtt, wired to per-user broker connections.</t>
+        </is>
+      </c>
+      <c r="F118" s="3" t="inlineStr">
+        <is>
+          <t>Initial focus on single-leg GTTs for equity; OCO/advanced patterns can be added later.</t>
+        </is>
+      </c>
+      <c r="G118" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I118" s="3" t="inlineStr">
+        <is>
+          <t>Requires careful error handling and alignment between SigmaTrader order records and Zerodha GTT IDs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="41.75" customHeight="1" s="4">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Zerodha GTT order support</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>S15_G01_TF003</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Extend the queue edit and manual order flows to allow creating GTT orders (instead of or in addition to regular orders) when the user selects a GTT option.</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>The existing "Convert to GTT" checkbox will be repurposed into a concrete GTT mode that creates or updates real GTTs at Zerodha rather than acting as a passive preference.</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I119" s="3" t="inlineStr">
+        <is>
+          <t>UI should clearly distinguish between regular orders and GTTs and indicate when an order has an associated active GTT at the broker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Paper trading architecture and configuration</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>S16_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Design paper trading execution targets (e.g., LIVE vs PAPER) and per-user/per-strategy configuration, including a selectable poll interval between 15 seconds and 4 hours.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Paper mode will reuse existing Order/Risk/Analytics models; only execution routing and price monitoring change.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Document configuration in PRD and decide where poll interval is stored (global vs per-strategy vs per-user).</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C115" s="0" t="inlineStr">
-        <is>
-          <t>Funds and margin preview for edited orders</t>
-        </is>
-      </c>
-      <c r="D115" s="0" t="inlineStr">
-        <is>
-          <t>S14_G02_TF002</t>
-        </is>
-      </c>
-      <c r="E115" s="0" t="inlineStr">
-        <is>
-          <t>Enhance the Waiting Queue edit dialog to display Required funds (incl. charges) and Available funds, updating dynamically as qty/price/type change.</t>
-        </is>
-      </c>
-      <c r="F115" s="0" t="inlineStr">
-        <is>
-          <t>Uses the new Zerodha preview APIs to recompute required margin after each significant edit, with warnings when funds are insufficient.</t>
-        </is>
-      </c>
-      <c r="G115" s="0" t="inlineStr">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Backend paper execution engine and price polling</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>S16_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Implement a paper broker engine that manages simulated orders and periodically polls Zerodha LTP for symbols with open paper orders, filling LIMIT/SL/SL-M orders when prices cross configured levels.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Price monitoring will be based on LTP polling at the user-selected interval rather than a full order book simulation.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I115" s="0" t="inlineStr">
-        <is>
-          <t>Keep the UI lightweight and responsive; avoid blocking edits if the preview API is temporarily unavailable.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
-      <c r="B116" s="0" t="inlineStr">
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Start with simple fill rules (e.g., limit BUY fills when LTP &lt;= limit) and extend later if needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Backend paper execution engine and price polling</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>S16_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Route TradingView AUTO orders and manual queue execution through the paper engine when the strategy/user is configured for PAPER, avoiding any real Zerodha calls and marking orders as simulated.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Simulated orders will use Order.simulated = True and separate status transitions while sharing the same analytics pipeline.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Ensure logging, risk checks, and analytics clearly distinguish between live and paper trades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C116" s="0" t="inlineStr">
-        <is>
-          <t>Queue edit UX polish and stop-loss helpers</t>
-        </is>
-      </c>
-      <c r="D116" s="0" t="inlineStr">
-        <is>
-          <t>S14_G03_TF001</t>
-        </is>
-      </c>
-      <c r="E116" s="0" t="inlineStr">
-        <is>
-          <t>Refactor the edit queue order dialog into clear sections (Quantity &amp; price, Stop-loss, Product &amp; preferences, Funds) and add fields for trigger price and trigger percent.</t>
-        </is>
-      </c>
-      <c r="F116" s="0" t="inlineStr">
-        <is>
-          <t>Trigger percent will be entered as a positive or negative percentage relative to LTP and used to derive trigger_price with inline preview.</t>
-        </is>
-      </c>
-      <c r="G116" s="0" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Paper mode UI and analytics integration</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>S16_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Extend Settings/Strategies UI to let the user select LIVE vs PAPER execution per strategy (and optional default per user), along with the desired poll interval.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Initial UI can be a simple dropdown or radio group for execution mode plus a select for poll intervals (e.g., 15s, 30s, 1m, 5m, 15m, 1h, 4h).</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I116" s="0" t="inlineStr">
-        <is>
-          <t>Ensure validation and copy make it hard to misconfigure SL/SL-M orders, especially when prices move between alert and execution.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="0" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="B117" s="0" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C117" s="0" t="inlineStr">
-        <is>
-          <t>Zerodha GTT order support</t>
-        </is>
-      </c>
-      <c r="D117" s="0" t="inlineStr">
-        <is>
-          <t>S15_G01_TB001</t>
-        </is>
-      </c>
-      <c r="E117" s="0" t="inlineStr">
-        <is>
-          <t>Design how SigmaTrader will map queue orders and preferences into Zerodha GTT single-leg orders (trigger values, last_price source, and order payload).</t>
-        </is>
-      </c>
-      <c r="F117" s="0" t="inlineStr">
-        <is>
-          <t>GTT design should clarify when to use GTT vs regular orders, how to represent GTT status in SigmaTrader, and how TradingView alerts can request GTT creation.</t>
-        </is>
-      </c>
-      <c r="G117" s="0" t="inlineStr">
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Later iterations can add per-strategy overrides, presets for swing vs intraday profiles, and visual indicators of the current mode.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Paper mode UI and analytics integration</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>S16_G03_TF002</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Update Queue, Orders, and Analytics views to label simulated paper trades clearly and allow filtering them in/out of P&amp;L and performance charts.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>UI will likely show a small PAPER / SIM tag and default analytics to include or exclude paper trades depending on user preference.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I117" s="0" t="inlineStr">
-        <is>
-          <t>This design underpins safe GTT usage for CNC swing trades and must consider off-market placement and modification flows.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="B118" s="0" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C118" s="0" t="inlineStr">
-        <is>
-          <t>Zerodha GTT order support</t>
-        </is>
-      </c>
-      <c r="D118" s="0" t="inlineStr">
-        <is>
-          <t>S15_G01_TB002</t>
-        </is>
-      </c>
-      <c r="E118" s="0" t="inlineStr">
-        <is>
-          <t>Implement backend support for placing, listing, and cancelling Zerodha GTTs using KiteConnect place_gtt / get_gtts / delete_gtt, wired to per-user broker connections.</t>
-        </is>
-      </c>
-      <c r="F118" s="0" t="inlineStr">
-        <is>
-          <t>Initial focus on single-leg GTTs for equity; OCO/advanced patterns can be added later.</t>
-        </is>
-      </c>
-      <c r="G118" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I118" s="0" t="inlineStr">
-        <is>
-          <t>Requires careful error handling and alignment between SigmaTrader order records and Zerodha GTT IDs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-      <c r="B119" s="0" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C119" s="0" t="inlineStr">
-        <is>
-          <t>Zerodha GTT order support</t>
-        </is>
-      </c>
-      <c r="D119" s="0" t="inlineStr">
-        <is>
-          <t>S15_G01_TF003</t>
-        </is>
-      </c>
-      <c r="E119" s="0" t="inlineStr">
-        <is>
-          <t>Extend the queue edit and manual order flows to allow creating GTT orders (instead of or in addition to regular orders) when the user selects a GTT option.</t>
-        </is>
-      </c>
-      <c r="F119" s="0" t="inlineStr">
-        <is>
-          <t>The existing "Convert to GTT" checkbox will be repurposed into a concrete GTT mode that creates or updates real GTTs at Zerodha rather than acting as a passive preference.</t>
-        </is>
-      </c>
-      <c r="G119" s="0" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I119" s="0" t="inlineStr">
-        <is>
-          <t>UI should clearly distinguish between regular orders and GTTs and indicate when an order has an associated active GTT at the broker.</t>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Decide default analytics behaviour (e.g., exclude paper trades by default) and expose a simple toggle in the Analytics UI.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -5658,12 +5658,17 @@
       </c>
       <c r="G117" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Designed single-leg equity GTT support by mapping queue orders (LIMIT + optional trigger price) to Zerodha GTTs using trigger_id as the broker reference.</t>
         </is>
       </c>
       <c r="I117" s="3" t="inlineStr">
         <is>
-          <t>This design underpins safe GTT usage for CNC swing trades and must consider off-market placement and modification flows.</t>
+          <t>Advanced patterns like OCO or SL-GTT are deferred; current scope focuses on simple entry GTTs.</t>
         </is>
       </c>
     </row>
@@ -5700,12 +5705,17 @@
       </c>
       <c r="G118" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Backend now wraps KiteConnect place_gtt/get_gtts/delete_gtt via ZerodhaClient and routes GTT-enabled executions through a dedicated branch in execute_order.</t>
         </is>
       </c>
       <c r="I118" s="3" t="inlineStr">
         <is>
-          <t>Requires careful error handling and alignment between SigmaTrader order records and Zerodha GTT IDs.</t>
+          <t>GTT placement errors are surfaced as HTTP 502 with clear messages and recorded in system_events.</t>
         </is>
       </c>
     </row>
@@ -5742,220 +5752,225 @@
       </c>
       <c r="G119" s="3" t="inlineStr">
         <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Queue edit dialog exposes a "Place as GTT at Zerodha" checkbox that forces LIMIT order_type when enabled and sends gtt=true to the backend.</t>
+        </is>
+      </c>
+      <c r="I119" s="3" t="inlineStr">
+        <is>
+          <t>UI currently supports creating single-leg entry GTTs; listing/cancelling GTTs from SigmaTrader can be added later.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Paper trading architecture and configuration</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>S16_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>Design paper trading execution targets (e.g., LIVE vs PAPER) and per-user/per-strategy configuration, including a selectable poll interval between 15 seconds and 4 hours.</t>
+        </is>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>Paper mode will reuse existing Order/Risk/Analytics models; only execution routing and price monitoring change.</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="inlineStr">
+        <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I119" s="3" t="inlineStr">
-        <is>
-          <t>UI should clearly distinguish between regular orders and GTTs and indicate when an order has an associated active GTT at the broker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="I120" s="0" t="inlineStr">
+        <is>
+          <t>Document configuration in PRD and decide where poll interval is stored (global vs per-strategy vs per-user).</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Paper trading architecture and configuration</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>S16_G01_TB001</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Design paper trading execution targets (e.g., LIVE vs PAPER) and per-user/per-strategy configuration, including a selectable poll interval between 15 seconds and 4 hours.</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Paper mode will reuse existing Order/Risk/Analytics models; only execution routing and price monitoring change.</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>Backend paper execution engine and price polling</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>S16_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t>Implement a paper broker engine that manages simulated orders and periodically polls Zerodha LTP for symbols with open paper orders, filling LIMIT/SL/SL-M orders when prices cross configured levels.</t>
+        </is>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>Price monitoring will be based on LTP polling at the user-selected interval rather than a full order book simulation.</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Document configuration in PRD and decide where poll interval is stored (global vs per-strategy vs per-user).</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="I121" s="0" t="inlineStr">
+        <is>
+          <t>Start with simple fill rules (e.g., limit BUY fills when LTP &lt;= limit) and extend later if needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B122" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C122" s="0" t="inlineStr">
         <is>
           <t>Backend paper execution engine and price polling</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>S16_G02_TB001</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Implement a paper broker engine that manages simulated orders and periodically polls Zerodha LTP for symbols with open paper orders, filling LIMIT/SL/SL-M orders when prices cross configured levels.</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Price monitoring will be based on LTP polling at the user-selected interval rather than a full order book simulation.</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>S16_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
+        <is>
+          <t>Route TradingView AUTO orders and manual queue execution through the paper engine when the strategy/user is configured for PAPER, avoiding any real Zerodha calls and marking orders as simulated.</t>
+        </is>
+      </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>Simulated orders will use Order.simulated = True and separate status transitions while sharing the same analytics pipeline.</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Start with simple fill rules (e.g., limit BUY fills when LTP &lt;= limit) and extend later if needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="I122" s="0" t="inlineStr">
+        <is>
+          <t>Ensure logging, risk checks, and analytics clearly distinguish between live and paper trades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Backend paper execution engine and price polling</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>S16_G02_TB002</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Route TradingView AUTO orders and manual queue execution through the paper engine when the strategy/user is configured for PAPER, avoiding any real Zerodha calls and marking orders as simulated.</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Simulated orders will use Order.simulated = True and separate status transitions while sharing the same analytics pipeline.</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>Paper mode UI and analytics integration</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>S16_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
+        <is>
+          <t>Extend Settings/Strategies UI to let the user select LIVE vs PAPER execution per strategy (and optional default per user), along with the desired poll interval.</t>
+        </is>
+      </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>Initial UI can be a simple dropdown or radio group for execution mode plus a select for poll intervals (e.g., 15s, 30s, 1m, 5m, 15m, 1h, 4h).</t>
+        </is>
+      </c>
+      <c r="G123" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Ensure logging, risk checks, and analytics clearly distinguish between live and paper trades.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="I123" s="0" t="inlineStr">
+        <is>
+          <t>Later iterations can add per-strategy overrides, presets for swing vs intraday profiles, and visual indicators of the current mode.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B124" s="0" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" s="0" t="inlineStr">
         <is>
           <t>Paper mode UI and analytics integration</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>S16_G03_TF001</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Extend Settings/Strategies UI to let the user select LIVE vs PAPER execution per strategy (and optional default per user), along with the desired poll interval.</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Initial UI can be a simple dropdown or radio group for execution mode plus a select for poll intervals (e.g., 15s, 30s, 1m, 5m, 15m, 1h, 4h).</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>S16_G03_TF002</t>
+        </is>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t>Update Queue, Orders, and Analytics views to label simulated paper trades clearly and allow filtering them in/out of P&amp;L and performance charts.</t>
+        </is>
+      </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>UI will likely show a small PAPER / SIM tag and default analytics to include or exclude paper trades depending on user preference.</t>
+        </is>
+      </c>
+      <c r="G124" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Later iterations can add per-strategy overrides, presets for swing vs intraday profiles, and visual indicators of the current mode.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>S16</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Paper mode UI and analytics integration</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>S16_G03_TF002</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Update Queue, Orders, and Analytics views to label simulated paper trades clearly and allow filtering them in/out of P&amp;L and performance charts.</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>UI will likely show a small PAPER / SIM tag and default analytics to include or exclude paper trades depending on user preference.</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
+      <c r="I124" s="0" t="inlineStr">
         <is>
           <t>Decide default analytics behaviour (e.g., exclude paper trades by default) and expose a simple toggle in the Analytics UI.</t>
         </is>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -5661,7 +5661,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H117" s="0" t="inlineStr">
         <is>
           <t>Designed single-leg equity GTT support by mapping queue orders (LIMIT + optional trigger price) to Zerodha GTTs using trigger_id as the broker reference.</t>
         </is>
@@ -5708,7 +5708,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" s="0" t="inlineStr">
         <is>
           <t>Backend now wraps KiteConnect place_gtt/get_gtts/delete_gtt via ZerodhaClient and routes GTT-enabled executions through a dedicated branch in execute_order.</t>
         </is>
@@ -5755,7 +5755,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H119" s="0" t="inlineStr">
         <is>
           <t>Queue edit dialog exposes a "Place as GTT at Zerodha" checkbox that forces LIMIT order_type when enabled and sends gtt=true to the backend.</t>
         </is>
@@ -5799,12 +5799,17 @@
       </c>
       <c r="G120" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Strategies now have execution_target (LIVE/PAPER) and an optional paper_poll_interval_sec, persisted via Alembic 0012.</t>
         </is>
       </c>
       <c r="I120" s="0" t="inlineStr">
         <is>
-          <t>Document configuration in PRD and decide where poll interval is stored (global vs per-strategy vs per-user).</t>
+          <t>UI wiring and per-user overrides will be handled in S16/G03; current config is API/DB driven.</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5846,17 @@
       </c>
       <c r="G121" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Paper trading engine added: simulated orders for strategies with execution_target=PAPER are filled via LTP-based rules in poll_paper_orders.</t>
         </is>
       </c>
       <c r="I121" s="0" t="inlineStr">
         <is>
-          <t>Start with simple fill rules (e.g., limit BUY fills when LTP &lt;= limit) and extend later if needed.</t>
+          <t>Initial engine supports MARKET and LIMIT fills; SL/SL-M logic can be added later if needed.</t>
         </is>
       </c>
     </row>
@@ -5883,12 +5893,17 @@
       </c>
       <c r="G122" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>AUTO and manual executions for PAPER strategies are routed to submit_paper_order instead of Zerodha, and a /api/paper/poll endpoint runs fill passes.</t>
         </is>
       </c>
       <c r="I122" s="0" t="inlineStr">
         <is>
-          <t>Ensure logging, risk checks, and analytics clearly distinguish between live and paper trades.</t>
+          <t>External scheduler or manual calls control the poll frequency; no background scheduler is wired into the app yet.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -5802,7 +5802,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" s="0" t="inlineStr">
         <is>
           <t>Strategies now have execution_target (LIVE/PAPER) and an optional paper_poll_interval_sec, persisted via Alembic 0012.</t>
         </is>
@@ -5849,7 +5849,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H121" s="0" t="inlineStr">
         <is>
           <t>Paper trading engine added: simulated orders for strategies with execution_target=PAPER are filled via LTP-based rules in poll_paper_orders.</t>
         </is>
@@ -5896,7 +5896,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="H122" s="0" t="inlineStr">
         <is>
           <t>AUTO and manual executions for PAPER strategies are routed to submit_paper_order instead of Zerodha, and a /api/paper/poll endpoint runs fill passes.</t>
         </is>
@@ -5940,12 +5940,17 @@
       </c>
       <c r="G123" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Settings page now surfaces per-strategy execution_target (LIVE/PAPER) and paper_poll_interval_sec, making paper mode configuration discoverable in the UI.</t>
         </is>
       </c>
       <c r="I123" s="0" t="inlineStr">
         <is>
-          <t>Later iterations can add per-strategy overrides, presets for swing vs intraday profiles, and visual indicators of the current mode.</t>
+          <t>Poll interval is still enforced externally via /api/paper/poll; future work may wire this into a scheduler.</t>
         </is>
       </c>
     </row>
@@ -5982,12 +5987,17 @@
       </c>
       <c r="G124" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Orders and Analytics UIs now distinguish simulated (paper) trades, with toggles to show/hide them and an option to include them in analytics summary and trades.</t>
         </is>
       </c>
       <c r="I124" s="0" t="inlineStr">
         <is>
-          <t>Decide default analytics behaviour (e.g., exclude paper trades by default) and expose a simple toggle in the Analytics UI.</t>
+          <t>Paper trades remain excluded from analytics by default; users can opt in via the new checkbox.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,10 +359,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E118" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E122" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="41.75" customHeight="1" s="4">
+    <row r="111" ht="41.25" customHeight="1" s="4">
       <c r="A111" s="3" t="inlineStr">
         <is>
           <t>S13</t>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="41.75" customHeight="1" s="4">
+    <row r="112" ht="41.25" customHeight="1" s="4">
       <c r="A112" s="3" t="inlineStr">
         <is>
           <t>S14</t>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="41.75" customHeight="1" s="4">
+    <row r="113" ht="41.25" customHeight="1" s="4">
       <c r="A113" s="3" t="inlineStr">
         <is>
           <t>S14</t>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="41.75" customHeight="1" s="4">
+    <row r="114" ht="41.25" customHeight="1" s="4">
       <c r="A114" s="3" t="inlineStr">
         <is>
           <t>S14</t>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="41.75" customHeight="1" s="4">
+    <row r="115" ht="41.25" customHeight="1" s="4">
       <c r="A115" s="3" t="inlineStr">
         <is>
           <t>S14</t>
@@ -5578,7 +5578,7 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="55.2" customHeight="1" s="4">
+    <row r="116" ht="54.75" customHeight="1" s="4">
       <c r="A116" s="3" t="inlineStr">
         <is>
           <t>S14</t>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="41.75" customHeight="1" s="4">
+    <row r="117" ht="41.25" customHeight="1" s="4">
       <c r="A117" s="3" t="inlineStr">
         <is>
           <t>S15</t>
@@ -5661,7 +5661,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H117" s="0" t="inlineStr">
+      <c r="H117" s="3" t="inlineStr">
         <is>
           <t>Designed single-leg equity GTT support by mapping queue orders (LIMIT + optional trigger price) to Zerodha GTTs using trigger_id as the broker reference.</t>
         </is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="55.2" customHeight="1" s="4">
+    <row r="118" ht="54.75" customHeight="1" s="4">
       <c r="A118" s="3" t="inlineStr">
         <is>
           <t>S15</t>
@@ -5708,7 +5708,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H118" s="0" t="inlineStr">
+      <c r="H118" s="3" t="inlineStr">
         <is>
           <t>Backend now wraps KiteConnect place_gtt/get_gtts/delete_gtt via ZerodhaClient and routes GTT-enabled executions through a dedicated branch in execute_order.</t>
         </is>
@@ -5719,7 +5719,7 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="41.75" customHeight="1" s="4">
+    <row r="119" ht="41.25" customHeight="1" s="4">
       <c r="A119" s="3" t="inlineStr">
         <is>
           <t>S15</t>
@@ -5755,7 +5755,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H119" s="0" t="inlineStr">
+      <c r="H119" s="3" t="inlineStr">
         <is>
           <t>Queue edit dialog exposes a "Place as GTT at Zerodha" checkbox that forces LIMIT order_type when enabled and sends gtt=true to the backend.</t>
         </is>
@@ -5766,238 +5766,332 @@
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="0" t="inlineStr">
+    <row r="120" ht="55.2" customHeight="1" s="4">
+      <c r="A120" s="3" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B120" s="0" t="inlineStr">
+      <c r="B120" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C120" s="0" t="inlineStr">
+      <c r="C120" s="3" t="inlineStr">
         <is>
           <t>Paper trading architecture and configuration</t>
         </is>
       </c>
-      <c r="D120" s="0" t="inlineStr">
+      <c r="D120" s="3" t="inlineStr">
         <is>
           <t>S16_G01_TB001</t>
         </is>
       </c>
-      <c r="E120" s="0" t="inlineStr">
+      <c r="E120" s="3" t="inlineStr">
         <is>
           <t>Design paper trading execution targets (e.g., LIVE vs PAPER) and per-user/per-strategy configuration, including a selectable poll interval between 15 seconds and 4 hours.</t>
         </is>
       </c>
-      <c r="F120" s="0" t="inlineStr">
+      <c r="F120" s="3" t="inlineStr">
         <is>
           <t>Paper mode will reuse existing Order/Risk/Analytics models; only execution routing and price monitoring change.</t>
         </is>
       </c>
-      <c r="G120" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H120" s="0" t="inlineStr">
+      <c r="G120" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H120" s="3" t="inlineStr">
         <is>
           <t>Strategies now have execution_target (LIVE/PAPER) and an optional paper_poll_interval_sec, persisted via Alembic 0012.</t>
         </is>
       </c>
-      <c r="I120" s="0" t="inlineStr">
+      <c r="I120" s="3" t="inlineStr">
         <is>
           <t>UI wiring and per-user overrides will be handled in S16/G03; current config is API/DB driven.</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="0" t="inlineStr">
+    <row r="121" ht="55.2" customHeight="1" s="4">
+      <c r="A121" s="3" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B121" s="0" t="inlineStr">
+      <c r="B121" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C121" s="0" t="inlineStr">
+      <c r="C121" s="3" t="inlineStr">
         <is>
           <t>Backend paper execution engine and price polling</t>
         </is>
       </c>
-      <c r="D121" s="0" t="inlineStr">
+      <c r="D121" s="3" t="inlineStr">
         <is>
           <t>S16_G02_TB001</t>
         </is>
       </c>
-      <c r="E121" s="0" t="inlineStr">
+      <c r="E121" s="3" t="inlineStr">
         <is>
           <t>Implement a paper broker engine that manages simulated orders and periodically polls Zerodha LTP for symbols with open paper orders, filling LIMIT/SL/SL-M orders when prices cross configured levels.</t>
         </is>
       </c>
-      <c r="F121" s="0" t="inlineStr">
+      <c r="F121" s="3" t="inlineStr">
         <is>
           <t>Price monitoring will be based on LTP polling at the user-selected interval rather than a full order book simulation.</t>
         </is>
       </c>
-      <c r="G121" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H121" s="0" t="inlineStr">
+      <c r="G121" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H121" s="3" t="inlineStr">
         <is>
           <t>Paper trading engine added: simulated orders for strategies with execution_target=PAPER are filled via LTP-based rules in poll_paper_orders.</t>
         </is>
       </c>
-      <c r="I121" s="0" t="inlineStr">
+      <c r="I121" s="3" t="inlineStr">
         <is>
           <t>Initial engine supports MARKET and LIMIT fills; SL/SL-M logic can be added later if needed.</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="0" t="inlineStr">
+    <row r="122" ht="55.2" customHeight="1" s="4">
+      <c r="A122" s="3" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B122" s="0" t="inlineStr">
+      <c r="B122" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C122" s="0" t="inlineStr">
+      <c r="C122" s="3" t="inlineStr">
         <is>
           <t>Backend paper execution engine and price polling</t>
         </is>
       </c>
-      <c r="D122" s="0" t="inlineStr">
+      <c r="D122" s="3" t="inlineStr">
         <is>
           <t>S16_G02_TB002</t>
         </is>
       </c>
-      <c r="E122" s="0" t="inlineStr">
+      <c r="E122" s="3" t="inlineStr">
         <is>
           <t>Route TradingView AUTO orders and manual queue execution through the paper engine when the strategy/user is configured for PAPER, avoiding any real Zerodha calls and marking orders as simulated.</t>
         </is>
       </c>
-      <c r="F122" s="0" t="inlineStr">
+      <c r="F122" s="3" t="inlineStr">
         <is>
           <t>Simulated orders will use Order.simulated = True and separate status transitions while sharing the same analytics pipeline.</t>
         </is>
       </c>
-      <c r="G122" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H122" s="0" t="inlineStr">
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="inlineStr">
         <is>
           <t>AUTO and manual executions for PAPER strategies are routed to submit_paper_order instead of Zerodha, and a /api/paper/poll endpoint runs fill passes.</t>
         </is>
       </c>
-      <c r="I122" s="0" t="inlineStr">
+      <c r="I122" s="3" t="inlineStr">
         <is>
           <t>External scheduler or manual calls control the poll frequency; no background scheduler is wired into the app yet.</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="0" t="inlineStr">
+    <row r="123" ht="41.75" customHeight="1" s="4">
+      <c r="A123" s="3" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B123" s="0" t="inlineStr">
+      <c r="B123" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C123" s="0" t="inlineStr">
+      <c r="C123" s="3" t="inlineStr">
         <is>
           <t>Paper mode UI and analytics integration</t>
         </is>
       </c>
-      <c r="D123" s="0" t="inlineStr">
+      <c r="D123" s="3" t="inlineStr">
         <is>
           <t>S16_G03_TF001</t>
         </is>
       </c>
-      <c r="E123" s="0" t="inlineStr">
+      <c r="E123" s="3" t="inlineStr">
         <is>
           <t>Extend Settings/Strategies UI to let the user select LIVE vs PAPER execution per strategy (and optional default per user), along with the desired poll interval.</t>
         </is>
       </c>
-      <c r="F123" s="0" t="inlineStr">
+      <c r="F123" s="3" t="inlineStr">
         <is>
           <t>Initial UI can be a simple dropdown or radio group for execution mode plus a select for poll intervals (e.g., 15s, 30s, 1m, 5m, 15m, 1h, 4h).</t>
         </is>
       </c>
-      <c r="G123" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H123" s="3" t="inlineStr">
         <is>
           <t>Settings page now surfaces per-strategy execution_target (LIVE/PAPER) and paper_poll_interval_sec, making paper mode configuration discoverable in the UI.</t>
         </is>
       </c>
-      <c r="I123" s="0" t="inlineStr">
+      <c r="I123" s="3" t="inlineStr">
         <is>
           <t>Poll interval is still enforced externally via /api/paper/poll; future work may wire this into a scheduler.</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="0" t="inlineStr">
+    <row r="124" ht="41.75" customHeight="1" s="4">
+      <c r="A124" s="3" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B124" s="0" t="inlineStr">
+      <c r="B124" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C124" s="0" t="inlineStr">
+      <c r="C124" s="3" t="inlineStr">
         <is>
           <t>Paper mode UI and analytics integration</t>
         </is>
       </c>
-      <c r="D124" s="0" t="inlineStr">
+      <c r="D124" s="3" t="inlineStr">
         <is>
           <t>S16_G03_TF002</t>
         </is>
       </c>
-      <c r="E124" s="0" t="inlineStr">
+      <c r="E124" s="3" t="inlineStr">
         <is>
           <t>Update Queue, Orders, and Analytics views to label simulated paper trades clearly and allow filtering them in/out of P&amp;L and performance charts.</t>
         </is>
       </c>
-      <c r="F124" s="0" t="inlineStr">
+      <c r="F124" s="3" t="inlineStr">
         <is>
           <t>UI will likely show a small PAPER / SIM tag and default analytics to include or exclude paper trades depending on user preference.</t>
         </is>
       </c>
-      <c r="G124" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H124" s="3" t="inlineStr">
         <is>
           <t>Orders and Analytics UIs now distinguish simulated (paper) trades, with toggles to show/hide them and an option to include them in analytics summary and trades.</t>
         </is>
       </c>
-      <c r="I124" s="0" t="inlineStr">
+      <c r="I124" s="3" t="inlineStr">
         <is>
           <t>Paper trades remain excluded from analytics by default; users can opt in via the new checkbox.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>Paper mode market-hours awareness</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>S16_G04_TB001</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>Introduce a market-hours helper (e.g., is_market_open_now) that models NSE/BSE trading sessions with local rules (weekday, 09:15–15:30 IST) and a configurable holiday calendar.</t>
+        </is>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>Holiday dates will be loaded from a local JSON config (e.g., indian_holidays.json) rather than relying on live APIs.</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Added core.market_hours.is_market_open_now() modelling NSE/BSE trading hours (weekday, 09:15–15:30 IST) with optional holiday overrides from indian_holidays.json.</t>
+        </is>
+      </c>
+      <c r="I125" s="0" t="inlineStr">
+        <is>
+          <t>MIS auto square-off nuances are not yet modelled; both MIS and CNC share the same session window for now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>Paper mode market-hours awareness</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>S16_G04_TB002</t>
+        </is>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
+        <is>
+          <t>Apply market-hours checks to paper execution: fail new paper orders placed outside market hours and skip paper fill logic when the market is closed.</t>
+        </is>
+      </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>When is_market_open_now is false, PAPER executions will set status=FAILED with a clear reason instead of simulating fills on stale LTP, while GTT flows remain allowed.</t>
+        </is>
+      </c>
+      <c r="G126" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Paper execution now fails new orders when the market is closed and skips fill logic in poll_paper_orders outside trading hours; AUTO paper orders record a clear rejected event.</t>
+        </is>
+      </c>
+      <c r="I126" s="0" t="inlineStr">
+        <is>
+          <t>Behaviour for GTT remains unchanged (allowed off-hours); regular LIVE orders continue to rely on Zerodha errors for market-closed handling.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -89,7 +89,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -100,11 +100,17 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -359,5739 +365,5913 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E122" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E122" activeCellId="0" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8.68" customWidth="1" style="3" min="1" max="2"/>
-    <col width="50.5" customWidth="1" style="3" min="3" max="3"/>
-    <col width="15.62" customWidth="1" style="3" min="4" max="4"/>
-    <col width="49.11" customWidth="1" style="3" min="5" max="5"/>
-    <col width="83.31999999999999" customWidth="1" style="3" min="6" max="6"/>
-    <col width="15.71" customWidth="1" style="3" min="7" max="7"/>
-    <col width="61.21" customWidth="1" style="3" min="8" max="8"/>
-    <col width="60.79" customWidth="1" style="3" min="9" max="9"/>
-    <col width="8.68" customWidth="1" style="3" min="10" max="16384"/>
+    <col width="8.68" customWidth="1" style="4" min="1" max="1"/>
+    <col width="17.11" customWidth="1" style="4" min="2" max="2"/>
+    <col width="50.5" customWidth="1" style="4" min="3" max="3"/>
+    <col width="15.62" customWidth="1" style="4" min="4" max="4"/>
+    <col width="49.11" customWidth="1" style="4" min="5" max="5"/>
+    <col width="83.31999999999999" customWidth="1" style="4" min="6" max="6"/>
+    <col width="15.71" customWidth="1" style="4" min="7" max="7"/>
+    <col width="61.21" customWidth="1" style="4" min="8" max="8"/>
+    <col width="60.79" customWidth="1" style="4" min="9" max="9"/>
+    <col width="8.68" customWidth="1" style="4" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>sprint#</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>group#</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>group task description.</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>task#</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>task description</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>deviations (from original plan)</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>remarks</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>pending work</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="27.75" customHeight="1" s="5">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>S01_G01_TB001</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Initialize backend repository with FastAPI project structure (src/app, tests, config folders).</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Used backend/app instead of src/app to keep backend isolated.</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>Backend skeleton (app, core, api, tests folders) created.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="27.75" customHeight="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="27.75" customHeight="1" s="5">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>S01_G01_TB002</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Set up base FastAPI application with root and /health endpoints.</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Also added pytest-based tests for / and /health as part of this task.</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>FastAPI app with root and /health endpoints implemented and tested.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" s="4">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="4" ht="27.75" customHeight="1" s="5">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Backend scaffolding and FastAPI project setup</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>S01_G01_TB003</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Configure environment-based settings (dev/prod) using pydantic settings or similar.</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Using pydantic BaseSettings with ST_ env prefix and .env support.</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Environment-aware settings wired into app and health responses.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" s="4">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5" ht="27.75" customHeight="1" s="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>S01_G02_TF001</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Create React TypeScript app with Material UI and routing (React Router).</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Used Vite react-ts template with a dark MUI theme.</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>React+TS app scaffolded with basic app shell.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="27.75" customHeight="1" s="4">
-      <c r="A6" s="3" t="inlineStr">
+    <row r="6" ht="27.75" customHeight="1" s="5">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>S01_G02_TF002</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Implement base layout with top bar and sidebar navigation placeholders.</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Implemented a drawer-based layout with MUI AppBar and sidebar.</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>Top bar + side nav with placeholder pages (Dashboard, Queue, Orders, Analytics, Settings).</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="27.75" customHeight="1" s="4">
-      <c r="A7" s="3" t="inlineStr">
+    <row r="7" ht="27.75" customHeight="1" s="5">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Frontend scaffolding and React/TypeScript/Material UI setup</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>S01_G02_TF003</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Wire basic API call from frontend to backend /health endpoint and display connection status.</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Health check uses a simple fetch hook against /health and shows status in a Chip.</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>API status indicator wired to backend /health endpoint.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="27.75" customHeight="1" s="4">
-      <c r="A8" s="3" t="inlineStr">
+    <row r="8" ht="27.75" customHeight="1" s="5">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>S01_G03_TB001</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Configure linting/formatting (black/isort/ruff) and pre-commit hooks for backend.</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Configured Black, isort, Ruff, and pre-commit in backend with a shared pyproject.</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>Backend codebase can be auto-formatted and linted; hooks available via pre-commit.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="27.75" customHeight="1" s="4">
-      <c r="A9" s="3" t="inlineStr">
+    <row r="9" ht="27.75" customHeight="1" s="5">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>S01_G03_TF002</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Configure linting/formatting (ESLint/Prettier) for frontend.</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Used Vite flat ESLint config with eslint-config-prettier and a simple Prettier setup.</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>Frontend has ESLint + Prettier with npm scripts for linting and formatting.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="27.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="inlineStr">
+    <row r="10" ht="27.75" customHeight="1" s="5">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Tooling, Git workflow, and initial documentation</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>S01_G03_TB003</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Create initial README with project overview and setup steps.</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Expanded existing README instead of creating a separate doc.</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>README now documents backend/frontend run, test, and lint/format commands.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="41.25" customHeight="1" s="4">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="11" ht="41.25" customHeight="1" s="5">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Design core SQLite schema for alerts, orders, strategies, risk settings</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>S02_G01_TB001</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Design database schema for alerts, orders, strategies, risk_settings, positions, analytics_trades tables.</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Captured schema as a Markdown document with SQLite-focused CREATE TABLE statements and indexes instead of direct migrations.</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are designed with keys, checks, and indexes.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="41.25" customHeight="1" s="4">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="12" ht="41.25" customHeight="1" s="5">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Design core SQLite schema for alerts, orders, strategies, risk settings</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>S02_G01_TB002</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Review schema for extensibility and alignment with PRD (manual queue, risk, analytics).</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Included explicit notes on AUTO/MANUAL modes, manual queue, risk engine, and analytics alignment inside the schema doc.</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>Schema reviewed for extensibility and alignment with PRD, including risk scopes and simulation support.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="27.75" customHeight="1" s="4">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="13" ht="27.75" customHeight="1" s="5">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>S02_G02_TB001</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Implement SQLAlchemy ORM models for core tables (alerts, orders, strategies, risk_settings).</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Used SQLAlchemy 2.0 typed ORM models grouped under app.models.trading.</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>Core tables (strategies, risk_settings, alerts, orders, positions, analytics_trades) are mapped as ORM entities.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" s="4">
-      <c r="A14" s="3" t="inlineStr">
+    <row r="14" ht="27.75" customHeight="1" s="5">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>S02_G02_TB002</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Set up Alembic (or equivalent migration tool) for managing schema migrations.</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Initialized Alembic in backend/ with env.py wired to Settings and an initial migration creating the core tables.</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>Alembic upgrade head creates the SQLite schema from ORM metadata.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" s="4">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="15" ht="27.75" customHeight="1" s="5">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Implement ORM models and migrations</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>S02_G02_TB003</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Implement DB session management and dependency injection in FastAPI.</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>Configured a synchronous SessionLocal and get_db FastAPI dependency; tests use the same engine.</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>DB session management is in app.db.session, and README documents Alembic + testing commands.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="27.75" customHeight="1" s="4">
-      <c r="A16" s="3" t="inlineStr">
+    <row r="16" ht="27.75" customHeight="1" s="5">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>S02_G03_TB001</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Create CRUD APIs to manage strategies (list/create/update).</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/strategies for list/create/update operations.</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>Strategies can be created and updated via FastAPI endpoints with tests covering basic flows.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="27.75" customHeight="1" s="4">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="17" ht="27.75" customHeight="1" s="5">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>S02_G03_TB002</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Create CRUD APIs to manage global and per-strategy risk_settings.</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/risk-settings with filters for scope and strategy.</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>Global and per-strategy risk_settings can be created and queried; uniqueness and scope rules enforced.</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="41.25" customHeight="1" s="4">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="18" ht="41.25" customHeight="1" s="5">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Backend admin APIs for strategies and risk settings</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>S02_G03_TF003</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Create simple admin UI to view strategies and risk_settings (read-only).</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>Settings page started as read-only and was later extended to allow editing strategy execution modes and creating GLOBAL or per-strategy risk settings directly from the UI.</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>Strategies and risk_settings can now be inspected and, for key fields, edited from a single Settings screen (mode toggle and risk creation).</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="I18" s="4" t="inlineStr">
         <is>
           <t>Add delete/edit flows for existing risk rows and finer-grained admin controls once configuration needs grow.</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="27.75" customHeight="1" s="4">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="19" ht="27.75" customHeight="1" s="5">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>S03_G01_TB001</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Implement /webhook/tradingview endpoint that receives and validates JSON payload with secret.</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Implemented POST /webhook/tradingview with Pydantic payload model rather than a raw dict.</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>Endpoint validates the secret and accepts structured TradingView payloads.</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>Extend payload schema as real-world TradingView alert format stabilizes.</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="27.75" customHeight="1" s="4">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="20" ht="27.75" customHeight="1" s="5">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>S03_G01_TB002</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Map incoming alerts to internal Alert entities and persist to DB.</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Alerts are persisted via the Alert ORM model, linking to Strategy when a matching name exists.</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>Webhook creates Alert rows with normalized fields and stores the raw payload JSON.</t>
         </is>
       </c>
-      <c r="I20" s="3" t="inlineStr">
+      <c r="I20" s="4" t="inlineStr">
         <is>
           <t>Later sprints will connect alerts to order creation and risk evaluation.</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="27.75" customHeight="1" s="4">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="21" ht="27.75" customHeight="1" s="5">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>TradingView webhook endpoint and alert validation</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>S03_G01_TB003</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Implement basic unit tests for webhook endpoint and validation.</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>Added pytest tests for secret validation and alert persistence using FastAPI TestClient.</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>Tests cover valid/invalid secret flows and DB insertion of Alerts.</t>
         </is>
       </c>
-      <c r="I21" s="3" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t>Add more edge-case tests once the payload contract is finalized.</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="27.75" customHeight="1" s="4">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="22" ht="27.75" customHeight="1" s="5">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>S03_G02_TB001</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Implement service to convert Alert into Order Request (manual mode by default).</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>Introduced an order creation service that maps Alert fields into an Order in WAITING state.</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>Alert-to-order mapping uses symbol/action/qty/price, defaults to MARKET/MIS and MANUAL mode.</t>
         </is>
       </c>
-      <c r="I22" s="3" t="inlineStr">
+      <c r="I22" s="4" t="inlineStr">
         <is>
           <t>Later, incorporate strategy config and risk checks into the transformation.</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="27.75" customHeight="1" s="4">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="23" ht="27.75" customHeight="1" s="5">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>S03_G02_TB002</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Persist orders with WAITING status in DB for manual queue.</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>Webhook now creates a corresponding Order row for each accepted Alert.</t>
         </is>
       </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>Orders are stored with status=WAITING and mode=MANUAL, ready for the manual queue.</t>
         </is>
       </c>
-      <c r="I23" s="3" t="inlineStr">
+      <c r="I23" s="4" t="inlineStr">
         <is>
           <t>Expose dedicated queue APIs and link to the frontend queue view in Sprint S04.</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="27.75" customHeight="1" s="4">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="24" ht="27.75" customHeight="1" s="5">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Alert-to-order transformation and manual queue creation</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>S03_G02_TB003</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Expose API to list waiting orders and basic order details for frontend.</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>Extended webhook tests to assert that Orders are created alongside Alerts.</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>Tests verify the order is linked to the alert and in WAITING/MANUAL state.</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
         <is>
           <t>Add additional tests around failure modes and idempotency if required.</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="41.25" customHeight="1" s="4">
-      <c r="A25" s="3" t="inlineStr">
+    <row r="25" ht="41.25" customHeight="1" s="5">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Risk management placeholder for later full implementation</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>S03_G03_TB001</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Add pluggable Risk Engine interface with stub implementation (logs checks but does not enforce yet).</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>Created read-only queue listing API for WAITING manual orders.</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>GET /api/orders/queue returns WAITING, MANUAL, non-simulated orders with optional strategy filter.</t>
         </is>
       </c>
-      <c r="I25" s="3" t="inlineStr">
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t>Queue APIs are in place; full background status sync with Zerodha and automatic status updates will be implemented in Sprint S07. S03 focuses only on local WAITING/CANCELLED state for manual queue.</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="27.75" customHeight="1" s="4">
-      <c r="A26" s="3" t="inlineStr">
+    <row r="26" ht="27.75" customHeight="1" s="5">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Dashboard layout and navigation structure</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>S04_G01_TF001</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Implement top-level navigation items (Dashboard, Queue, Orders, Analytics, Settings).</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>Top-level navigation and layout were implemented earlier in S01/G02 using MainLayout and routing.</t>
         </is>
       </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
         <is>
           <t>Navigation items (Dashboard, Queue, Orders, Analytics, Settings) are present and wired.</t>
         </is>
       </c>
-      <c r="I26" s="3" t="inlineStr">
+      <c r="I26" s="4" t="inlineStr">
         <is>
           <t>Add richer Dashboard widgets once analytics and broker integration are available.</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="27.75" customHeight="1" s="4">
-      <c r="A27" s="3" t="inlineStr">
+    <row r="27" ht="27.75" customHeight="1" s="5">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Dashboard layout and navigation structure</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>S04_G01_TF002</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Create Dashboard page skeleton with placeholder widgets (P&amp;L, trade count, connection status).</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>Dashboard page is currently a skeleton with heading and placeholder text.</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
         <is>
           <t>Dashboard is ready to host P&amp;L and connection status widgets in later sprints.</t>
         </is>
       </c>
-      <c r="I27" s="3" t="inlineStr">
+      <c r="I27" s="4" t="inlineStr">
         <is>
           <t>Populate Dashboard with real metrics after S05–S07.</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="27.75" customHeight="1" s="4">
-      <c r="A28" s="3" t="inlineStr">
+    <row r="28" ht="27.75" customHeight="1" s="5">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>S04_G02_TF001</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Implement Waiting Queue page with Material UI table of pending orders.</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>Queue page now includes edit, execute, and cancel actions for WAITING manual orders, wired to backend APIs.</t>
         </is>
       </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
         <is>
           <t>Waiting Queue UI lists WAITING manual orders and exposes Edit/Execute/Cancel controls for each row.</t>
         </is>
       </c>
-      <c r="I28" s="3" t="inlineStr">
+      <c r="I28" s="4" t="inlineStr">
         <is>
           <t>Add inline editing and execute flows when backend supports them.</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="41.25" customHeight="1" s="4">
-      <c r="A29" s="3" t="inlineStr">
+    <row r="29" ht="41.25" customHeight="1" s="5">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>S04_G02_TF002</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Add inline editing for quantity, price, order type, and product fields in queue rows.</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>Inline editing is implemented via an Edit dialog instead of direct cell editing; users can adjust quantity, order type, price, and product for queue orders.</t>
         </is>
       </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>Edit dialog updates qty/order_type/price/product for WAITING manual orders before execution.</t>
         </is>
       </c>
-      <c r="I29" s="3" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>Consider richer inline editing (e.g., symbol/side changes) and validation against risk settings in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="41.25" customHeight="1" s="4">
-      <c r="A30" s="3" t="inlineStr">
+    <row r="30" ht="41.25" customHeight="1" s="5">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>S04_G02_TF003</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Wire Execute and Cancel buttons to backend APIs (no broker integration yet).</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>Execute button is now wired to POST /api/orders/{id}/execute, sending orders to Zerodha (when connected) and updating local status based on broker response.</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
         <is>
           <t>Execute and Cancel actions both update the queue and Orders history; broker IDs/errors are visible on the Orders page.</t>
         </is>
       </c>
-      <c r="I30" s="3" t="inlineStr">
+      <c r="I30" s="4" t="inlineStr">
         <is>
           <t>Add Execute handling once backend execution endpoints are defined.</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="27.75" customHeight="1" s="4">
-      <c r="A31" s="3" t="inlineStr">
+    <row r="31" ht="27.75" customHeight="1" s="5">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Waiting queue UI for manual orders</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>S04_G02_TB004</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Implement backend APIs to update/cancel waiting orders and track status changes.</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>Backend status update endpoint supports WAITING/CANCELLED transitions for manual queue.</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>PATCH /api/orders/{id}/status enables cancelling WAITING orders.</t>
         </is>
       </c>
-      <c r="I31" s="3" t="inlineStr">
+      <c r="I31" s="4" t="inlineStr">
         <is>
           <t>Extend backend to handle additional transitions (e.g., READY_TO_SEND, EXECUTED_LOCAL).</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="27.75" customHeight="1" s="4">
-      <c r="A32" s="3" t="inlineStr">
+    <row r="32" ht="27.75" customHeight="1" s="5">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Basic order history UI and backend API</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>S04_G03_TB001</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Implement backend API to list all orders with filters (date, strategy, status, symbol).</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>Implemented a simple GET /api/orders/ endpoint with basic status/strategy filters.</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>Provides a basic orders history feed for the Orders page.</t>
         </is>
       </c>
-      <c r="I32" s="3" t="inlineStr">
+      <c r="I32" s="4" t="inlineStr">
         <is>
           <t>Add richer filters (date range, symbol) as requirements solidify.</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="27.75" customHeight="1" s="4">
-      <c r="A33" s="3" t="inlineStr">
+    <row r="33" ht="27.75" customHeight="1" s="5">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Basic order history UI and backend API</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>S04_G03_TF002</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Create Orders History page with filter controls and table displaying orders.</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>Orders History page shows a simple table without interactive filters yet.</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>Orders page lists historical orders using /api/orders/.</t>
         </is>
       </c>
-      <c r="I33" s="3" t="inlineStr">
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t>Add filter controls and more detailed status views in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="27.75" customHeight="1" s="4">
-      <c r="A34" s="3" t="inlineStr">
+    <row r="34" ht="27.75" customHeight="1" s="5">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>S05_G01_TB001</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Configure Zerodha Kite Connect Python client with API key/secret from env.</t>
         </is>
       </c>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>Introduced ZerodhaClient wrapper reading API key from Settings and lazily instantiating KiteConnect.</t>
         </is>
       </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
         <is>
           <t>Backend can now construct a Zerodha client once an access token is available.</t>
         </is>
       </c>
-      <c r="I34" s="3" t="inlineStr">
+      <c r="I34" s="4" t="inlineStr">
         <is>
           <t>Hook this client into OAuth/token storage and execution flows in S05/G02–G03.</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="27.75" customHeight="1" s="4">
-      <c r="A35" s="3" t="inlineStr">
+    <row r="35" ht="27.75" customHeight="1" s="5">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>S05_G01_TB002</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>Implement service for placing market/limit orders via Zerodha API.</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>Implemented ZerodhaClient.place_order that composes KiteConnect place_order parameters.</t>
         </is>
       </c>
-      <c r="G35" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H35" s="3" t="inlineStr">
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>Order placement service is tested against a fake Kite client (no real network calls).</t>
         </is>
       </c>
-      <c r="I35" s="3" t="inlineStr">
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t>Wire real order placement into manual queue execution once broker connection is ready.</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="27.75" customHeight="1" s="4">
-      <c r="A36" s="3" t="inlineStr">
+    <row r="36" ht="27.75" customHeight="1" s="5">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Integrate Zerodha Kite Connect client on backend</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>S05_G01_TB003</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>Implement service to fetch order book and order status from Zerodha.</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>Exposed ZerodhaClient.list_orders and get_order_history as thin wrappers over KiteConnect APIs.</t>
         </is>
       </c>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="inlineStr">
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
         <is>
           <t>Backend has basic services to retrieve Zerodha order book and order history.</t>
         </is>
       </c>
-      <c r="I36" s="3" t="inlineStr">
+      <c r="I36" s="4" t="inlineStr">
         <is>
           <t>Use these services for status sync and richer order views in S07.</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="27.75" customHeight="1" s="4">
-      <c r="A37" s="3" t="inlineStr">
+    <row r="37" ht="27.75" customHeight="1" s="5">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>S05_G02_TB001</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>Implement backend endpoints for Zerodha OAuth flow and token exchange.</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Implemented backend Zerodha OAuth-like flow using JSON config (kite_config.json) and KiteConnect.generate_session.</t>
         </is>
       </c>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H37" s="3" t="inlineStr">
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
         <is>
           <t>Backend exposes login-url, connect, and status endpoints that also call Kite profile to verify the connection.</t>
         </is>
       </c>
-      <c r="I37" s="3" t="inlineStr">
+      <c r="I37" s="4" t="inlineStr">
         <is>
           <t>Refine error reporting and add retries or token refresh handling as needed.</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="27.75" customHeight="1" s="4">
-      <c r="A38" s="3" t="inlineStr">
+    <row r="38" ht="27.75" customHeight="1" s="5">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>S05_G02_TB002</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>Securely store encrypted Zerodha access token in DB.</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>Access token is encrypted with an env-provided crypto key and stored in broker_connections table.</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="inlineStr">
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
         <is>
           <t>BrokerConnection model holds one encrypted access token per broker (currently zerodha).</t>
         </is>
       </c>
-      <c r="I38" s="3" t="inlineStr">
+      <c r="I38" s="4" t="inlineStr">
         <is>
           <t>Consider stronger encryption (e.g., cryptography.fernet) for multi-user or hosted deployments.</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="27.75" customHeight="1" s="4">
-      <c r="A39" s="3" t="inlineStr">
+    <row r="39" ht="27.75" customHeight="1" s="5">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Broker connection flow (Connect Zerodha)</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>S05_G02_TF003</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>Create frontend Connect Zerodha UI with button and status indicator.</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>Added Zerodha connection section on Settings page with login button, request_token input, and status chip.</t>
         </is>
       </c>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H39" s="3" t="inlineStr">
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
         <is>
           <t>Settings page shows Zerodha connection status, last-updated time in IST, and user name/id when available.</t>
         </is>
       </c>
-      <c r="I39" s="3" t="inlineStr">
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t>Improve UX (e.g., integrating redirect/callback instead of manual token paste) when feasible.</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="27.75" customHeight="1" s="4">
-      <c r="A40" s="3" t="inlineStr">
+    <row r="40" ht="27.75" customHeight="1" s="5">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>S05_G03_TB001</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>Wire Execute action to call Zerodha order placement service and update order with broker ID.</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>Added /api/orders/{id}/execute endpoint using ZerodhaClient and BrokerConnection token.</t>
         </is>
       </c>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H40" s="3" t="inlineStr">
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
         <is>
           <t>Manual queue orders can now be executed to Zerodha; status is updated and Zerodha order id stored.</t>
         </is>
       </c>
-      <c r="I40" s="3" t="inlineStr">
+      <c r="I40" s="4" t="inlineStr">
         <is>
           <t>Extend to support other brokers and more advanced order parameters later.</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="54.75" customHeight="1" s="4">
-      <c r="A41" s="3" t="inlineStr">
+    <row r="41" ht="54.75" customHeight="1" s="5">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>S05_G03_TB002</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>Handle Zerodha errors and update order status to FAILED with error message.</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>On Zerodha off-market-hours errors (e.g., "Try placing an AMO order"), the backend now automatically retries the execution once as an AMO order (variety="amo") before marking the order as FAILED.</t>
         </is>
       </c>
-      <c r="G41" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="inlineStr">
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
         <is>
           <t>Auto-AMO fallback is implemented for Zerodha off-hours errors; other errors still mark the order FAILED and persist error_message.</t>
         </is>
       </c>
-      <c r="I41" s="3" t="inlineStr">
+      <c r="I41" s="4" t="inlineStr">
         <is>
           <t>Review additional Zerodha error patterns and, in a later sprint, introduce configurable off-hours handling (e.g., choose AMO vs GTT per broker/strategy in JSON config) instead of relying solely on hard-coded message substrings.</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="27.75" customHeight="1" s="4">
-      <c r="A42" s="3" t="inlineStr">
+    <row r="42" ht="27.75" customHeight="1" s="5">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Send orders from manual queue to Zerodha</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>S05_G03_TF003</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>Surface broker execution results and errors in Waiting Queue and Orders History UI.</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>Queue UI now exposes Execute/Cancel buttons and Orders view shows broker id and error columns.</t>
         </is>
       </c>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="inlineStr">
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
         <is>
           <t>Execution results and broker ids are surfaced in both Queue (interaction) and Orders history (audit).</t>
         </is>
       </c>
-      <c r="I42" s="3" t="inlineStr">
+      <c r="I42" s="4" t="inlineStr">
         <is>
           <t>Enhance UX with notifications and richer status filtering in future sprints.</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="54.75" customHeight="1" s="4">
-      <c r="A43" s="3" t="inlineStr">
+    <row r="43" ht="54.75" customHeight="1" s="5">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>S06_G01_TB001</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>Extend strategies to include execution_mode (AUTO/MANUAL) in DB and APIs.</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>Strategy execution_mode (AUTO/MANUAL) was already present in the model; we ensured it is consistently exposed through Pydantic schemas and strategy APIs, with MANUAL as the default.</t>
         </is>
       </c>
-      <c r="G43" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H43" s="3" t="inlineStr">
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
         <is>
           <t>Strategies now carry an execution_mode flag that downstream routing logic and the frontend Settings UI can rely on.</t>
         </is>
       </c>
-      <c r="I43" s="3" t="inlineStr">
+      <c r="I43" s="4" t="inlineStr">
         <is>
           <t>Later risk-engine work may add additional per-strategy flags that interact with execution_mode (e.g., risk profiles for AUTO).</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="68.25" customHeight="1" s="4">
-      <c r="A44" s="3" t="inlineStr">
+    <row r="44" ht="68.25" customHeight="1" s="5">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>S06_G01_TB002</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
         <is>
           <t>Implement alert routing logic based on strategy execution_mode (AUTO -&gt; immediate send, MANUAL -&gt; queue).</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>TradingView webhook routing now inspects the strategy execution_mode: AUTO strategies (when enabled) create AUTO orders and trigger immediate execution via the existing /api/orders/{id}/execute logic; MANUAL or missing strategies still create WAITING MANUAL queue orders.</t>
         </is>
       </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H44" s="3" t="inlineStr">
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
         <is>
           <t>AUTO strategies bypass the manual queue and send orders directly to Zerodha using the same execution path as the manual Execute endpoint, including AMO fallback logic.</t>
         </is>
       </c>
-      <c r="I44" s="3" t="inlineStr">
+      <c r="I44" s="4" t="inlineStr">
         <is>
           <t>Integrate risk checks into both AUTO and MANUAL routing paths in S06/G02 before broker execution.</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="41.25" customHeight="1" s="4">
-      <c r="A45" s="3" t="inlineStr">
+    <row r="45" ht="41.25" customHeight="1" s="5">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Implement AUTO and MANUAL execution modes per strategy</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>S06_G01_TF003</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>Add UI controls to view and change execution mode per strategy in Settings.</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>Settings page now shows an editable Mode column with a MANUAL/AUTO select per strategy, wired to PUT /api/strategies/{id}.</t>
         </is>
       </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H45" s="3" t="inlineStr">
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
         <is>
           <t>User can toggle strategies between MANUAL and AUTO modes directly from the Settings UI; changes are persisted to the backend.</t>
         </is>
       </c>
-      <c r="I45" s="3" t="inlineStr">
+      <c r="I45" s="4" t="inlineStr">
         <is>
           <t>Consider adding per-strategy hints in the UI (e.g., badges or warnings) when AUTO is enabled but broker or risk settings are not fully configured.</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="54.75" customHeight="1" s="4">
-      <c r="A46" s="3" t="inlineStr">
+    <row r="46" ht="54.75" customHeight="1" s="5">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>S06_G02_TB001</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>Implement risk rules for max_order_value, max_quantity_per_order, and allow_short_selling.</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>Implemented a risk evaluation service that uses RiskSettings (GLOBAL and per-strategy) to enforce max_quantity_per_order, max_order_value, and allow_short_selling before broker calls.</t>
         </is>
       </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="inlineStr">
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H46" s="4" t="inlineStr">
         <is>
           <t>Risk checks run inside the order execution path for both MANUAL queue executes and AUTO strategy orders.</t>
         </is>
       </c>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="I46" s="4" t="inlineStr">
         <is>
           <t>Extend the risk engine to incorporate max_daily_loss and max_open_positions once realized PnL and positions are tracked in later sprints.</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="54.75" customHeight="1" s="4">
-      <c r="A47" s="3" t="inlineStr">
+    <row r="47" ht="54.75" customHeight="1" s="5">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>S06_G02_TB002</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>Implement daily loss limit tracking and enforcement in Risk Engine.</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>Orders violating hard limits are now blocked with status REJECTED_RISK and a human-readable explanation; when clamp_mode=CLAMP, quantities are reduced instead of rejected where possible.</t>
         </is>
       </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="inlineStr">
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
         <is>
           <t>Risk decisions are stored on the Order via status/error_message and are visible in the Orders history UI.</t>
         </is>
       </c>
-      <c r="I47" s="3" t="inlineStr">
+      <c r="I47" s="4" t="inlineStr">
         <is>
           <t>Refine risk messages and add per-rule identification if we need more granular auditing later.</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="54.75" customHeight="1" s="4">
-      <c r="A48" s="3" t="inlineStr">
+    <row r="48" ht="54.75" customHeight="1" s="5">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>S06_G02_TB003</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>Make Risk Engine apply to both auto and manual executions before broker call.</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>Risk checks are invoked inside the shared order execution endpoint, so both AUTO strategy executions (from the webhook) and MANUAL queue executes are evaluated before any broker call.</t>
         </is>
       </c>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="inlineStr">
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
         <is>
           <t>AUTO and MANUAL flows now share the same risk gate in execute_order; broker requests are only sent if the risk engine allows the order.</t>
         </is>
       </c>
-      <c r="I48" s="3" t="inlineStr">
+      <c r="I48" s="4" t="inlineStr">
         <is>
           <t>As we add more execution paths (e.g., bulk actions), ensure they all call through the same risk-aware execution helper.</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="41.25" customHeight="1" s="4">
-      <c r="A49" s="3" t="inlineStr">
+    <row r="49" ht="41.25" customHeight="1" s="5">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Risk management engine (limits and overrides)</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>S06_G02_TF004</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Display risk-related rejections/adjustments in UI (tooltips, messages on orders).</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Risk-related rejections and clamps are surfaced via the existing Error column in the Orders UI, showing detailed messages from the risk engine.</t>
         </is>
       </c>
-      <c r="G49" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H49" s="3" t="inlineStr">
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
         <is>
           <t>Users can see which orders were blocked (REJECTED_RISK) or had their quantities adjusted before execution.</t>
         </is>
       </c>
-      <c r="I49" s="3" t="inlineStr">
+      <c r="I49" s="4" t="inlineStr">
         <is>
           <t>Consider adding explicit risk badges or tooltips in a later UX-focused sprint to differentiate risk notes from broker errors.</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="54.75" customHeight="1" s="4">
-      <c r="A50" s="3" t="inlineStr">
+    <row r="50" ht="54.75" customHeight="1" s="5">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Trade type (MIS/CNC) and GTT-related behavior</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>S06_G03_TB001</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>Extend order model and APIs to handle product type (MIS/CNC) and optional GTT properties.</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>Order model already contained product (MIS/CNC) and a gtt flag; we extended webhook parsing to derive product from trade_type and exposed product/gtt through the editable OrderUpdate schema and edit endpoint.</t>
         </is>
       </c>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H50" s="3" t="inlineStr">
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H50" s="4" t="inlineStr">
         <is>
           <t>Backoffice and APIs can now track product type and a GTT preference on orders; real GTT placement will be wired in a later sprint.</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr">
+      <c r="I50" s="4" t="inlineStr">
         <is>
           <t>Implement actual Zerodha GTT order placement and tie it to the gtt flag once we integrate Kite GTT APIs.</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="41.25" customHeight="1" s="4">
-      <c r="A51" s="3" t="inlineStr">
+    <row r="51" ht="41.25" customHeight="1" s="5">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Trade type (MIS/CNC) and GTT-related behavior</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>S06_G03_TF002</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>Allow users to modify trade_type and GTT toggle in Waiting Queue UI before execution.</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>Waiting Queue edit dialog now allows selecting product (MIS/CNC) and toggling a GTT preference checkbox, with changes persisted via PATCH /api/orders/{id}.</t>
         </is>
       </c>
-      <c r="G51" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H51" s="3" t="inlineStr">
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
         <is>
           <t>Users can adjust trade type and mark orders as GTT-preferred before executing them from the manual queue.</t>
         </is>
       </c>
-      <c r="I51" s="3" t="inlineStr">
+      <c r="I51" s="4" t="inlineStr">
         <is>
           <t>Once real GTT execution exists, ensure the UI clearly indicates which orders will be sent as GTT vs regular/AMO.</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="54.75" customHeight="1" s="4">
-      <c r="A52" s="3" t="inlineStr">
+    <row r="52" ht="54.75" customHeight="1" s="5">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>S07_G01_TB001</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>Implement background job to periodically sync order statuses from Zerodha (OPEN/COMPLETE/REJECTED).</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>Implemented a reusable sync_order_statuses service that consumes Zerodha order book data via ZerodhaClient.list_orders and updates local Order.status values.</t>
         </is>
       </c>
-      <c r="G52" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
         <is>
           <t>Status sync is triggered via a backend API and is safe to call on-demand or from an external scheduler.</t>
         </is>
       </c>
-      <c r="I52" s="3" t="inlineStr">
+      <c r="I52" s="4" t="inlineStr">
         <is>
           <t>Introduce a cron/APS-style background scheduler (e.g., APScheduler or external cron calling /api/zerodha/sync-orders) for automatic periodic status sync in production.</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="41.25" customHeight="1" s="4">
-      <c r="A53" s="3" t="inlineStr">
+    <row r="53" ht="41.25" customHeight="1" s="5">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>S07_G01_TB002</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>Update Orders table with latest status and broker messages.</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr">
         <is>
           <t>Order status and broker messages are updated based on Zerodha status and status_message fields, including mapping COMPLETE, CANCELLED, and REJECTED appropriately.</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H53" s="3" t="inlineStr">
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
         <is>
           <t>Rejected orders now capture Zerodha-provided status messages when available, improving auditability in the Orders history.</t>
         </is>
       </c>
-      <c r="I53" s="3" t="inlineStr">
+      <c r="I53" s="4" t="inlineStr">
         <is>
           <t>Refine mapping and message capture as we see more Zerodha status variants in real trading.</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="41.25" customHeight="1" s="4">
-      <c r="A54" s="3" t="inlineStr">
+    <row r="54" ht="41.25" customHeight="1" s="5">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Order status synchronization with Zerodha</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>S07_G01_TF003</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>Reflect real-time-ish status changes in Orders History UI (polling or refresh).</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>Orders History page gained a Refresh button that calls syncZerodhaOrders (POST /api/zerodha/sync-orders) and then reloads the order list.</t>
         </is>
       </c>
-      <c r="G54" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H54" s="3" t="inlineStr">
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
         <is>
           <t>User can now manually synchronize statuses from Zerodha and see updated states without restarting the app.</t>
         </is>
       </c>
-      <c r="I54" s="3" t="inlineStr">
+      <c r="I54" s="4" t="inlineStr">
         <is>
           <t>Consider adding periodic auto-refresh or visual indicators for recently synced orders in future UX enhancements.</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="41.25" customHeight="1" s="4">
-      <c r="A55" s="3" t="inlineStr">
+    <row r="55" ht="41.25" customHeight="1" s="5">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>S07_G02_TB001</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>Implement backend services to fetch positions and holdings from Zerodha and cache in DB.</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>Positions are fetched from Zerodha via ZerodhaClient.list_positions and cached in the positions table; holdings are currently fetched on-demand without DB caching.</t>
         </is>
       </c>
-      <c r="G55" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H55" s="3" t="inlineStr">
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H55" s="4" t="inlineStr">
         <is>
           <t>Positions caching covers the main use case; holdings can be added to the cache later if needed.</t>
         </is>
       </c>
-      <c r="I55" s="3" t="inlineStr">
+      <c r="I55" s="4" t="inlineStr">
         <is>
           <t>Add DB caching for holdings if long-term historical holdings views or offline analytics require it.</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="27.75" customHeight="1" s="4">
-      <c r="A56" s="3" t="inlineStr">
+    <row r="56" ht="27.75" customHeight="1" s="5">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>S07_G02_TB002</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>Expose API endpoints for positions and holdings for frontend.</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>Exposed REST APIs under /api/positions for listing cached positions, triggering a sync, and fetching live holdings.</t>
         </is>
       </c>
-      <c r="G56" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H56" s="3" t="inlineStr">
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
         <is>
           <t>Frontend services consume these endpoints for the Positions and Holdings pages.</t>
         </is>
       </c>
-      <c r="I56" s="3" t="inlineStr">
+      <c r="I56" s="4" t="inlineStr">
         <is>
           <t>Extend APIs with filters (e.g., by symbol or product) as usage patterns emerge.</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="27.75" customHeight="1" s="4">
-      <c r="A57" s="3" t="inlineStr">
+    <row r="57" ht="27.75" customHeight="1" s="5">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Positions and holdings view</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>S07_G02_TF003</t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>Create Positions &amp; Holdings UI pages with P&amp;L calculations.</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>Added dedicated Positions and Holdings pages with basic P&amp;L calculations and a manual Refresh for positions.</t>
         </is>
       </c>
-      <c r="G57" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H57" s="3" t="inlineStr">
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H57" s="4" t="inlineStr">
         <is>
           <t>User can now inspect positions (with cached P&amp;L) and holdings (with unrealized P&amp;L) directly in the UI.</t>
         </is>
       </c>
-      <c r="I57" s="3" t="inlineStr">
+      <c r="I57" s="4" t="inlineStr">
         <is>
           <t>Enhance UI with aggregate metrics (e.g., total P&amp;L) and filtering in future analytics-focused sprints.</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="54.75" customHeight="1" s="4">
-      <c r="A58" s="3" t="inlineStr">
+    <row r="58" ht="54.75" customHeight="1" s="5">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>S07_G03_TB001</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>Implement trade grouping logic (entry/exit pairs) to populate analytics_trades table.</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>Implemented a conservative trade grouping service that pairs executed orders into entry/exit trades (BUY→SELL or SELL→BUY with equal quantity) and populates analytics_trades.</t>
         </is>
       </c>
-      <c r="G58" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H58" s="3" t="inlineStr">
+      <c r="G58" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
         <is>
           <t>Current grouping handles simple round-trip trades; more complex scaling/partial patterns can be added later.</t>
         </is>
       </c>
-      <c r="I58" s="3" t="inlineStr">
+      <c r="I58" s="4" t="inlineStr">
         <is>
           <t>Extend trade grouping to handle partial exits, scaling in/out, and multi-leg trades if needed for deeper analytics.</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="41.25" customHeight="1" s="4">
-      <c r="A59" s="3" t="inlineStr">
+    <row r="59" ht="41.25" customHeight="1" s="5">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>S07_G03_TB002</t>
         </is>
       </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t>Implement analytics queries for P&amp;L, win rate, max drawdown per strategy and date range.</t>
         </is>
       </c>
-      <c r="F59" s="3" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>Analytics service computes total P&amp;L, win rate, average win/loss, and max drawdown per strategy and optional date range based on analytics_trades.</t>
         </is>
       </c>
-      <c r="G59" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="inlineStr">
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t>Provides a solid backend foundation for strategy performance dashboards without yet focusing on specific chart shapes.</t>
         </is>
       </c>
-      <c r="I59" s="3" t="inlineStr">
+      <c r="I59" s="4" t="inlineStr">
         <is>
           <t>Add more advanced metrics (e.g., Sharpe, expectancy) once we have more live data.</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="41.25" customHeight="1" s="4">
-      <c r="A60" s="3" t="inlineStr">
+    <row r="60" ht="41.25" customHeight="1" s="5">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Analytics backend for P&amp;L and strategy performance</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>S07_G03_TB003</t>
         </is>
       </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t>Expose analytics API endpoints for frontend consumption.</t>
         </is>
       </c>
-      <c r="F60" s="3" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>Exposed analytics APIs under /api/analytics for rebuilding trades and fetching summary metrics for a strategy/date range.</t>
         </is>
       </c>
-      <c r="G60" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="inlineStr">
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
         <is>
           <t>Frontend (Analytics page) can call these endpoints to render P&amp;L and performance views in later sprints.</t>
         </is>
       </c>
-      <c r="I60" s="3" t="inlineStr">
+      <c r="I60" s="4" t="inlineStr">
         <is>
           <t>Design and implement frontend analytics views that consume these APIs (charts, summary cards).</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="41.25" customHeight="1" s="4">
-      <c r="A61" s="3" t="inlineStr">
+    <row r="61" ht="41.25" customHeight="1" s="5">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>S07_G04_TF001</t>
         </is>
       </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t>Implement Analytics page with summary cards (P&amp;L, win rate, max DD, avg R:R).</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr">
         <is>
           <t>Analytics page now loads summary metrics via /api/analytics/summary and supports basic filtering by strategy and date range.</t>
         </is>
       </c>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H61" s="3" t="inlineStr">
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H61" s="4" t="inlineStr">
         <is>
           <t>Summary card shows trades, total P&amp;L, win rate, avg win/loss, and max drawdown; a Rebuild button triggers backend rebuild-trades and refreshes metrics.</t>
         </is>
       </c>
-      <c r="I61" s="3" t="inlineStr">
+      <c r="I61" s="4" t="inlineStr">
         <is>
           <t>Expose more advanced metrics (e.g., expectancy, risk-adjusted returns) once enough live data is available.</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="27.75" customHeight="1" s="4">
-      <c r="A62" s="3" t="inlineStr">
+    <row r="62" ht="27.75" customHeight="1" s="5">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>S07_G04_TF002</t>
         </is>
       </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>Add P&amp;L over time chart and P&amp;L by symbol/strategy visualizations.</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr">
+      <c r="F62" s="4" t="inlineStr">
         <is>
           <t>Added lightweight SVG-based cumulative P&amp;L line chart and P&amp;L by symbol bar chart driven by analytics trades.</t>
         </is>
       </c>
-      <c r="G62" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="inlineStr">
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="inlineStr">
         <is>
           <t>Charts update automatically when filters change and are kept deliberately simple without adding new dependencies.</t>
         </is>
       </c>
-      <c r="I62" s="3" t="inlineStr">
+      <c r="I62" s="4" t="inlineStr">
         <is>
           <t>Consider richer charting (e.g., per-day P&amp;L) if/when a chart library is introduced.</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="41.25" customHeight="1" s="4">
-      <c r="A63" s="3" t="inlineStr">
+    <row r="63" ht="41.25" customHeight="1" s="5">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>Analytics frontend (charts and tables)</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t>S07_G04_TF003</t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t>Add trades table with filters for date range, strategy, and symbol.</t>
         </is>
       </c>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="F63" s="4" t="inlineStr">
         <is>
           <t>Trades table shows closed trades with IST timestamps, strategy, symbol, and colored P&amp;L, using filters for strategy and date range from the Analytics header.</t>
         </is>
       </c>
-      <c r="G63" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H63" s="3" t="inlineStr">
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H63" s="4" t="inlineStr">
         <is>
           <t>Gives a clear audit-style view of trades aligned with the summary and charts.</t>
         </is>
       </c>
-      <c r="I63" s="3" t="inlineStr">
+      <c r="I63" s="4" t="inlineStr">
         <is>
           <t>Add more filters (e.g., symbol, min/max P&amp;L) if needed for heavier analysis.</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="41.25" customHeight="1" s="4">
-      <c r="A64" s="3" t="inlineStr">
+    <row r="64" ht="41.25" customHeight="1" s="5">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>S08_G01_TB001</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>Implement structured logging for backend (alerts, orders, broker calls, risk decisions).</t>
         </is>
       </c>
-      <c r="F64" s="3" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr">
         <is>
           <t>Added JSON-formatted structured logging with correlation IDs via a FastAPI middleware; key flows (webhook ingestion, order execution, Zerodha connect) now emit structured events.</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H64" s="3" t="inlineStr">
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
         <is>
           <t>Logs include correlation_id so a single alert/order can be traced across webhook, risk, and broker calls.</t>
         </is>
       </c>
-      <c r="I64" s="3" t="inlineStr">
+      <c r="I64" s="4" t="inlineStr">
         <is>
           <t>Consider integrating with an external log aggregator if the app is deployed beyond local single-user usage.</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="41.25" customHeight="1" s="4">
-      <c r="A65" s="3" t="inlineStr">
+    <row r="65" ht="41.25" customHeight="1" s="5">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>S08_G01_TB002</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t>Standardize error responses and add correlation IDs for tracing requests.</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t>Standardized several error paths (risk rejection, Zerodha order failures) and ensured correlation IDs are included in both logs and HTTP responses.</t>
         </is>
       </c>
-      <c r="G65" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="inlineStr">
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H65" s="4" t="inlineStr">
         <is>
           <t>Critical errors now have consistent HTTP status codes and messages while being traceable via X-Request-ID.</t>
         </is>
       </c>
-      <c r="I65" s="3" t="inlineStr">
+      <c r="I65" s="4" t="inlineStr">
         <is>
           <t>Extend normalization to any remaining ad-hoc error paths as they are discovered.</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="41.25" customHeight="1" s="4">
-      <c r="A66" s="3" t="inlineStr">
+    <row r="66" ht="41.25" customHeight="1" s="5">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t>Structured logging, error handling, and observability</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="D66" s="4" t="inlineStr">
         <is>
           <t>S08_G01_TF003</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t>Add minimal log/notification view in UI for recent errors/warnings.</t>
         </is>
       </c>
-      <c r="F66" s="3" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr">
         <is>
           <t>Added a simple System Events page that surfaces recent client-side errors/warnings captured in memory during the current session.</t>
         </is>
       </c>
-      <c r="G66" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H66" s="3" t="inlineStr">
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
         <is>
           <t>Gives a quick at-a-glance view of recent issues without setting up a full log viewer.</t>
         </is>
       </c>
-      <c r="I66" s="3" t="inlineStr">
+      <c r="I66" s="4" t="inlineStr">
         <is>
           <t>If needed, extend this view to pull server-side logs or important alerts once a log backend is introduced.</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="41.25" customHeight="1" s="4">
-      <c r="A67" s="3" t="inlineStr">
+    <row r="67" ht="41.25" customHeight="1" s="5">
+      <c r="A67" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="C67" s="4" t="inlineStr">
         <is>
           <t>Security hardening and configuration management</t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="D67" s="4" t="inlineStr">
         <is>
           <t>S08_G02_TB001</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t>Ensure HTTPS, secure cookie/JWT handling, and secret management via environment variables.</t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr">
         <is>
           <t>Admin-facing APIs now support optional HTTP Basic auth via ST_ADMIN_USERNAME/ST_ADMIN_PASSWORD; secrets continue to be managed via environment variables and .env.</t>
         </is>
       </c>
-      <c r="G67" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H67" s="3" t="inlineStr">
+      <c r="G67" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H67" s="4" t="inlineStr">
         <is>
           <t>When admin credentials are configured, API access requires Basic auth; when unset, behaviour remains unchanged for local single-user development.</t>
         </is>
       </c>
-      <c r="I67" s="3" t="inlineStr">
+      <c r="I67" s="4" t="inlineStr">
         <is>
           <t>Document recommended reverse-proxy/HTTPS setup when moving beyond local use.</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="41.25" customHeight="1" s="4">
-      <c r="A68" s="3" t="inlineStr">
+    <row r="68" ht="41.25" customHeight="1" s="5">
+      <c r="A68" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C68" s="4" t="inlineStr">
         <is>
           <t>Security hardening and configuration management</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D68" s="4" t="inlineStr">
         <is>
           <t>S08_G02_TB002</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E68" s="4" t="inlineStr">
         <is>
           <t>Review and harden RBAC or at least basic auth protections for APIs and admin features.</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr">
+      <c r="F68" s="4" t="inlineStr">
         <is>
           <t>Core routers (/api/strategies, /api/orders, /api/positions, /api/analytics, /api/system-events) are now protected by the require_admin dependency when admin credentials are set.</t>
         </is>
       </c>
-      <c r="G68" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="inlineStr">
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
         <is>
           <t>This provides a lightweight RBAC boundary around admin features without introducing a full user model.</t>
         </is>
       </c>
-      <c r="I68" s="3" t="inlineStr">
+      <c r="I68" s="4" t="inlineStr">
         <is>
           <t>Revisit access patterns if SigmaTrader ever grows beyond single-user deployments.</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="4">
-      <c r="A69" s="3" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="5">
+      <c r="A69" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C69" s="4" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="D69" s="4" t="inlineStr">
         <is>
           <t>S08_G03_TB001</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E69" s="4" t="inlineStr">
         <is>
           <t>Create Dockerfiles for backend and frontend and optional docker-compose setup for local run.</t>
         </is>
       </c>
-      <c r="G69" s="3" t="inlineStr">
+      <c r="G69" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="4">
-      <c r="A70" s="3" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="5">
+      <c r="A70" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C70" s="4" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="D70" s="4" t="inlineStr">
         <is>
           <t>S08_G03_TB002</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="E70" s="4" t="inlineStr">
         <is>
           <t>Document deployment steps (local, and optional cloud target) and operational runbook.</t>
         </is>
       </c>
-      <c r="G70" s="3" t="inlineStr">
+      <c r="G70" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="4">
-      <c r="A71" s="3" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="5">
+      <c r="A71" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="C71" s="4" t="inlineStr">
         <is>
           <t>Deployment setup and documentation</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D71" s="4" t="inlineStr">
         <is>
           <t>S08_G03_TB003</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
+      <c r="E71" s="4" t="inlineStr">
         <is>
           <t>Update README with final architecture, sprint summary, and how to operate the app.</t>
         </is>
       </c>
-      <c r="G71" s="3" t="inlineStr">
+      <c r="G71" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="41.25" customHeight="1" s="4">
-      <c r="A72" s="3" t="inlineStr">
+    <row r="72" ht="41.25" customHeight="1" s="5">
+      <c r="A72" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
+      <c r="C72" s="4" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="D72" s="4" t="inlineStr">
         <is>
           <t>S08_G04_TB001</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
+      <c r="E72" s="4" t="inlineStr">
         <is>
           <t>Persist important backend events (alerts, orders, broker, risk) in a system_events table.</t>
         </is>
       </c>
-      <c r="F72" s="3" t="inlineStr">
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t>Introduced a system_events table and helpers so key backend events (alerts ingested, orders executed, Zerodha connects, risk rejections) are persisted.</t>
         </is>
       </c>
-      <c r="G72" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H72" s="3" t="inlineStr">
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
         <is>
           <t>Important events can now be queried and shown in the UI without parsing textual logs.</t>
         </is>
       </c>
-      <c r="I72" s="3" t="inlineStr">
+      <c r="I72" s="4" t="inlineStr">
         <is>
           <t>Extend coverage to any additional event categories we decide to track in future (e.g., background jobs, sync failures).</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="41.25" customHeight="1" s="4">
-      <c r="A73" s="3" t="inlineStr">
+    <row r="73" ht="41.25" customHeight="1" s="5">
+      <c r="A73" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
+      <c r="C73" s="4" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="D73" s="4" t="inlineStr">
         <is>
           <t>S08_G04_TB002</t>
         </is>
       </c>
-      <c r="E73" s="3" t="inlineStr">
+      <c r="E73" s="4" t="inlineStr">
         <is>
           <t>Expose API endpoints to query recent system events for the UI.</t>
         </is>
       </c>
-      <c r="F73" s="3" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr">
         <is>
           <t>Added /api/system-events/ endpoint with filters for level, category, and limit, returning recent events in reverse chronological order.</t>
         </is>
       </c>
-      <c r="G73" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H73" s="3" t="inlineStr">
+      <c r="G73" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H73" s="4" t="inlineStr">
         <is>
           <t>Provides a simple API surface that the UI and tools can use to inspect important backend events.</t>
         </is>
       </c>
-      <c r="I73" s="3" t="inlineStr">
+      <c r="I73" s="4" t="inlineStr">
         <is>
           <t>Consider pagination or time-based filters if the event volume grows significantly.</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="41.25" customHeight="1" s="4">
-      <c r="A74" s="3" t="inlineStr">
+    <row r="74" ht="41.25" customHeight="1" s="5">
+      <c r="A74" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B74" s="3" t="inlineStr">
+      <c r="B74" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C74" s="3" t="inlineStr">
+      <c r="C74" s="4" t="inlineStr">
         <is>
           <t>Backend log aggregation and server log UI</t>
         </is>
       </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="D74" s="4" t="inlineStr">
         <is>
           <t>S08_G04_TF003</t>
         </is>
       </c>
-      <c r="E74" s="3" t="inlineStr">
+      <c r="E74" s="4" t="inlineStr">
         <is>
           <t>Show a table of recent backend events (alerts, orders, broker events) in the web app.</t>
         </is>
       </c>
-      <c r="F74" s="3" t="inlineStr">
+      <c r="F74" s="4" t="inlineStr">
         <is>
           <t>System Events page now displays recent backend events from the system_events table along with client-side events for the current browser session.</t>
         </is>
       </c>
-      <c r="G74" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H74" s="3" t="inlineStr">
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="inlineStr">
         <is>
           <t>Gives an at-a-glance view of both server and client issues without leaving the app.</t>
         </is>
       </c>
-      <c r="I74" s="3" t="inlineStr">
+      <c r="I74" s="4" t="inlineStr">
         <is>
           <t>Enhance filtering (by level/category/time) in the UI if needed during real operations.</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="41.25" customHeight="1" s="4">
-      <c r="A75" s="3" t="inlineStr">
+    <row r="75" ht="41.25" customHeight="1" s="5">
+      <c r="A75" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B75" s="3" t="inlineStr">
+      <c r="B75" s="4" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
+      <c r="C75" s="4" t="inlineStr">
         <is>
           <t>Broker config UI and secure secret storage</t>
         </is>
       </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="D75" s="4" t="inlineStr">
         <is>
           <t>S08_G05_TB001</t>
         </is>
       </c>
-      <c r="E75" s="3" t="inlineStr">
+      <c r="E75" s="4" t="inlineStr">
         <is>
           <t>Design backend model/migration for per-broker key/value secrets (e.g., Zerodha api_key/api_secret) with encrypted storage.</t>
         </is>
       </c>
-      <c r="F75" s="3" t="inlineStr">
+      <c r="F75" s="4" t="inlineStr">
         <is>
           <t>BrokerSecret table added with encrypted value field; runtime no longer falls back to kite_config.json for Zerodha api_key/api_secret so that broker credentials are managed solely via the encrypted store.</t>
         </is>
       </c>
-      <c r="G75" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H75" s="3" t="inlineStr">
+      <c r="G75" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H75" s="4" t="inlineStr">
         <is>
           <t>Secrets are encrypted using the existing crypto_key helper so no new crypto mechanism was introduced.</t>
         </is>
       </c>
-      <c r="I75" s="3" t="inlineStr">
+      <c r="I75" s="4" t="inlineStr">
         <is>
           <t>Keep kite_config.json only as an optional developer helper file; document that it is no longer used by the running app for broker authentication.</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="41.25" customHeight="1" s="4">
-      <c r="A76" s="3" t="inlineStr">
+    <row r="76" ht="41.25" customHeight="1" s="5">
+      <c r="A76" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B76" s="4" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
+      <c r="C76" s="4" t="inlineStr">
         <is>
           <t>Broker config UI and secure secret storage</t>
         </is>
       </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="D76" s="4" t="inlineStr">
         <is>
           <t>S08_G05_TB002</t>
         </is>
       </c>
-      <c r="E76" s="3" t="inlineStr">
+      <c r="E76" s="4" t="inlineStr">
         <is>
           <t>Expose backend APIs to read/update broker config entries and wire them into Kite client creation.</t>
         </is>
       </c>
-      <c r="F76" s="3" t="inlineStr">
+      <c r="F76" s="4" t="inlineStr">
         <is>
           <t>Zerodha APIs and helper clients now resolve API key/secret via the broker_secrets service instead of reading kite_config.json directly.</t>
         </is>
       </c>
-      <c r="G76" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H76" s="3" t="inlineStr">
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
         <is>
           <t>New /api/brokers endpoints provide an admin-only surface for managing per-broker secrets; error messages avoid echoing secret values.</t>
         </is>
       </c>
-      <c r="I76" s="3" t="inlineStr">
+      <c r="I76" s="4" t="inlineStr">
         <is>
           <t>Extend the broker config APIs to support additional brokers and more structured, validated keys if needed.</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="41.25" customHeight="1" s="4">
-      <c r="A77" s="3" t="inlineStr">
+    <row r="77" ht="41.25" customHeight="1" s="5">
+      <c r="A77" s="4" t="inlineStr">
         <is>
           <t>S08</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
+      <c r="C77" s="4" t="inlineStr">
         <is>
           <t>Broker config UI and secure secret storage</t>
         </is>
       </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t>S08_G05_TF003</t>
         </is>
       </c>
-      <c r="E77" s="3" t="inlineStr">
+      <c r="E77" s="4" t="inlineStr">
         <is>
           <t>Extend Settings page with broker selector, key/value table for secrets, and masked request_token field with show/hide toggle.</t>
         </is>
       </c>
-      <c r="F77" s="3" t="inlineStr">
+      <c r="F77" s="4" t="inlineStr">
         <is>
           <t>Settings page uses a generic key/value table with masked inputs rather than hard-coding fields for api_key/api_secret.</t>
         </is>
       </c>
-      <c r="G77" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H77" s="3" t="inlineStr">
+      <c r="G77" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H77" s="4" t="inlineStr">
         <is>
           <t>Secrets can be revealed temporarily in the UI for convenience; this is acceptable for the current single-user local setup.</t>
         </is>
       </c>
-      <c r="I77" s="3" t="inlineStr">
+      <c r="I77" s="4" t="inlineStr">
         <is>
           <t>Add frontend tests and, if desired, support for write-only secrets that cannot be read back from the UI.</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="41.25" customHeight="1" s="4">
-      <c r="A78" s="3" t="inlineStr">
+    <row r="78" ht="41.25" customHeight="1" s="5">
+      <c r="A78" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="B78" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
+      <c r="C78" s="4" t="inlineStr">
         <is>
           <t>Authentication backend (users, passwords, sessions)</t>
         </is>
       </c>
-      <c r="D78" s="3" t="inlineStr">
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t>S09_G01_TB001</t>
         </is>
       </c>
-      <c r="E78" s="3" t="inlineStr">
+      <c r="E78" s="4" t="inlineStr">
         <is>
           <t>Design auth model (users table, roles, password hashing, session strategy) and update PRD/ERD accordingly.</t>
         </is>
       </c>
-      <c r="F78" s="3" t="inlineStr">
+      <c r="F78" s="4" t="inlineStr">
         <is>
           <t>Chose a simple PBKDF2-SHA256 password hashing scheme and HMAC-signed session tokens stored in an HTTP-only cookie; no external auth libraries were introduced.</t>
         </is>
       </c>
-      <c r="G78" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H78" s="3" t="inlineStr">
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H78" s="4" t="inlineStr">
         <is>
           <t>Auth helpers live in app.core.auth and are shared between the runtime and Alembic migration used to seed the default admin.</t>
         </is>
       </c>
-      <c r="I78" s="3" t="inlineStr">
+      <c r="I78" s="4" t="inlineStr">
         <is>
           <t>Document recommended auth-related environment variables (ST_CRYPTO_KEY for signing) and consider rotating secrets in a later sprint.</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="41.25" customHeight="1" s="4">
-      <c r="A79" s="3" t="inlineStr">
+    <row r="79" ht="41.25" customHeight="1" s="5">
+      <c r="A79" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C79" s="3" t="inlineStr">
+      <c r="C79" s="4" t="inlineStr">
         <is>
           <t>Authentication backend (users, passwords, sessions)</t>
         </is>
       </c>
-      <c r="D79" s="3" t="inlineStr">
+      <c r="D79" s="4" t="inlineStr">
         <is>
           <t>S09_G01_TB002</t>
         </is>
       </c>
-      <c r="E79" s="3" t="inlineStr">
+      <c r="E79" s="4" t="inlineStr">
         <is>
           <t>Implement SQLAlchemy User model + Alembic migration, seeding a default admin user (admin/admin) with a secure password hash.</t>
         </is>
       </c>
-      <c r="F79" s="3" t="inlineStr">
+      <c r="F79" s="4" t="inlineStr">
         <is>
           <t>User ORM model and Alembic migration 0005_add_users.py added a users table with username/password_hash/role and timestamps, and seeded a default ADMIN user in the migration only.</t>
         </is>
       </c>
-      <c r="G79" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H79" s="3" t="inlineStr">
+      <c r="G79" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H79" s="4" t="inlineStr">
         <is>
           <t>Tests create users via the API and models rather than relying on the seeded admin, since pytest uses metadata create_all instead of running migrations.</t>
         </is>
       </c>
-      <c r="I79" s="3" t="inlineStr">
+      <c r="I79" s="4" t="inlineStr">
         <is>
           <t>When running Alembic migrations against an existing DB, verify that the seeded admin user is created only once and can be disabled or renamed later from the UI.</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="41.25" customHeight="1" s="4">
-      <c r="A80" s="3" t="inlineStr">
+    <row r="80" ht="41.25" customHeight="1" s="5">
+      <c r="A80" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C80" s="3" t="inlineStr">
+      <c r="C80" s="4" t="inlineStr">
         <is>
           <t>Authentication backend (users, passwords, sessions)</t>
         </is>
       </c>
-      <c r="D80" s="3" t="inlineStr">
+      <c r="D80" s="4" t="inlineStr">
         <is>
           <t>S09_G01_TB003</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
+      <c r="E80" s="4" t="inlineStr">
         <is>
           <t>Implement backend auth APIs (register, login, logout, change password, current user) with JWT/cookie sessions and pytest coverage.</t>
         </is>
       </c>
-      <c r="F80" s="3" t="inlineStr">
+      <c r="F80" s="4" t="inlineStr">
         <is>
           <t>Implemented minimal auth endpoints (register, login, logout, change-password, me) under /api/auth with cookie-based sessions; no route-level authorization changes were made yet.</t>
         </is>
       </c>
-      <c r="G80" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H80" s="3" t="inlineStr">
+      <c r="G80" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="inlineStr">
         <is>
           <t>S09/G03 will attach these auth primitives to existing admin routers and refine role-based authorization; current APIs remain backwards compatible.</t>
         </is>
       </c>
-      <c r="I80" s="3" t="inlineStr">
+      <c r="I80" s="4" t="inlineStr">
         <is>
           <t>Extend tests in later sprints to cover edge cases such as expired tokens and corrupted cookies once frontend auth flows are in place.</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="41.25" customHeight="1" s="4">
-      <c r="A81" s="3" t="inlineStr">
+    <row r="81" ht="41.25" customHeight="1" s="5">
+      <c r="A81" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
+      <c r="C81" s="4" t="inlineStr">
         <is>
           <t>Frontend auth flows and landing layout</t>
         </is>
       </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="D81" s="4" t="inlineStr">
         <is>
           <t>S09_G02_TF001</t>
         </is>
       </c>
-      <c r="E81" s="3" t="inlineStr">
+      <c r="E81" s="4" t="inlineStr">
         <is>
           <t>Create public login/register routes with a right-aligned auth panel and a marketing/hero area on the left describing SigmaTrader benefits.</t>
         </is>
       </c>
-      <c r="F81" s="3" t="inlineStr">
+      <c r="F81" s="4" t="inlineStr">
         <is>
           <t>Used a single /auth route with a toggle between login and register instead of separate /login and /register pages, keeping the layout consistent while still providing a right-aligned auth card and left marketing area.</t>
         </is>
       </c>
-      <c r="G81" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H81" s="3" t="inlineStr">
+      <c r="G81" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H81" s="4" t="inlineStr">
         <is>
           <t>AuthPage includes marketing copy geared towards SigmaTrader's benefits and an orange-accent hero section, matching the PRD intent for a customer-facing landing layout.</t>
         </is>
       </c>
-      <c r="I81" s="3" t="inlineStr">
+      <c r="I81" s="4" t="inlineStr">
         <is>
           <t>Refine hero content and visuals once more product messaging is available; optionally add screenshots or small charts.</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="27.75" customHeight="1" s="4">
-      <c r="A82" s="3" t="inlineStr">
+    <row r="82" ht="27.75" customHeight="1" s="5">
+      <c r="A82" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C82" s="3" t="inlineStr">
+      <c r="C82" s="4" t="inlineStr">
         <is>
           <t>Frontend auth flows and landing layout</t>
         </is>
       </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="D82" s="4" t="inlineStr">
         <is>
           <t>S09_G02_TF002</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
+      <c r="E82" s="4" t="inlineStr">
         <is>
           <t>Implement signup and login forms wired to auth APIs, including validation and error messaging.</t>
         </is>
       </c>
-      <c r="F82" s="3" t="inlineStr">
+      <c r="F82" s="4" t="inlineStr">
         <is>
           <t>Signup and login forms are implemented as two modes of the same component, sharing validation and error handling logic.</t>
         </is>
       </c>
-      <c r="G82" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H82" s="3" t="inlineStr">
+      <c r="G82" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H82" s="4" t="inlineStr">
         <is>
           <t>Error messages from auth APIs are surfaced inline and also recorded in the client-side log buffer for troubleshooting.</t>
         </is>
       </c>
-      <c r="I82" s="3" t="inlineStr">
+      <c r="I82" s="4" t="inlineStr">
         <is>
           <t>Later sprints can add stronger client-side validation and password strength hints once auth flows stabilise.</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="27.75" customHeight="1" s="4">
-      <c r="A83" s="3" t="inlineStr">
+    <row r="83" ht="27.75" customHeight="1" s="5">
+      <c r="A83" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B83" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
+      <c r="C83" s="4" t="inlineStr">
         <is>
           <t>Frontend auth flows and landing layout</t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="D83" s="4" t="inlineStr">
         <is>
           <t>S09_G02_TF003</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
+      <c r="E83" s="4" t="inlineStr">
         <is>
           <t>Protect app routes behind login and add a top-right user menu (username, profile, change password, logout).</t>
         </is>
       </c>
-      <c r="F83" s="3" t="inlineStr">
+      <c r="F83" s="4" t="inlineStr">
         <is>
           <t>Route protection is handled at the App.tsx level by redirecting unauthenticated users to /auth before rendering MainLayout.</t>
         </is>
       </c>
-      <c r="G83" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H83" s="3" t="inlineStr">
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H83" s="4" t="inlineStr">
         <is>
           <t>MainLayout now receives currentUser and exposes a basic user menu with a working Logout action; profile/change-password entries are stubbed for S10.</t>
         </is>
       </c>
-      <c r="I83" s="3" t="inlineStr">
+      <c r="I83" s="4" t="inlineStr">
         <is>
           <t>Wire profile and change-password links to real pages once those features are implemented in S10.</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="41.25" customHeight="1" s="4">
-      <c r="A84" s="3" t="inlineStr">
+    <row r="84" ht="41.25" customHeight="1" s="5">
+      <c r="A84" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C84" s="3" t="inlineStr">
+      <c r="C84" s="4" t="inlineStr">
         <is>
           <t>Authorization and integration with existing admin features</t>
         </is>
       </c>
-      <c r="D84" s="3" t="inlineStr">
+      <c r="D84" s="4" t="inlineStr">
         <is>
           <t>S09_G03_TB001</t>
         </is>
       </c>
-      <c r="E84" s="3" t="inlineStr">
+      <c r="E84" s="4" t="inlineStr">
         <is>
           <t>Replace or augment HTTP Basic admin protection with role-based user auth, mapping ADMIN role to existing admin-only APIs.</t>
         </is>
       </c>
-      <c r="F84" s="3" t="inlineStr">
+      <c r="F84" s="4" t="inlineStr">
         <is>
           <t>require_admin now first honours a logged-in ADMIN user session, falling back to ST_ADMIN_USERNAME/ST_ADMIN_PASSWORD HTTP Basic only when configured.</t>
         </is>
       </c>
-      <c r="G84" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H84" s="3" t="inlineStr">
+      <c r="G84" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H84" s="4" t="inlineStr">
         <is>
           <t>This keeps backwards compatibility for environments still using Basic auth while allowing the new auth system to be the primary way to access admin APIs.</t>
         </is>
       </c>
-      <c r="I84" s="3" t="inlineStr">
+      <c r="I84" s="4" t="inlineStr">
         <is>
           <t>In later sprints we may fully retire Basic auth and rely solely on user roles once all deployments have migrated.</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="41.25" customHeight="1" s="4">
-      <c r="A85" s="3" t="inlineStr">
+    <row r="85" ht="41.25" customHeight="1" s="5">
+      <c r="A85" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C85" s="3" t="inlineStr">
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t>Authorization and integration with existing admin features</t>
         </is>
       </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="D85" s="4" t="inlineStr">
         <is>
           <t>S09_G03_TB002</t>
         </is>
       </c>
-      <c r="E85" s="3" t="inlineStr">
+      <c r="E85" s="4" t="inlineStr">
         <is>
           <t>Ensure broker config, risk settings, analytics, and system events remain restricted to admin users while normal traders can view their own data.</t>
         </is>
       </c>
-      <c r="F85" s="3" t="inlineStr">
+      <c r="F85" s="4" t="inlineStr">
         <is>
           <t>All admin-only routers (strategies, risk-settings, orders, positions, analytics, system-events, brokers) are wired through require_admin; Zerodha and webhook routes remain public.</t>
         </is>
       </c>
-      <c r="G85" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H85" s="3" t="inlineStr">
+      <c r="G85" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H85" s="4" t="inlineStr">
         <is>
           <t>Broker configuration is again restricted to admins; normal users must log in as an ADMIN to edit secrets or risk settings.</t>
         </is>
       </c>
-      <c r="I85" s="3" t="inlineStr">
+      <c r="I85" s="4" t="inlineStr">
         <is>
           <t>Future work can add per-user views of orders/analytics separate from global admin data.</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="41.25" customHeight="1" s="4">
-      <c r="A86" s="3" t="inlineStr">
+    <row r="86" ht="41.25" customHeight="1" s="5">
+      <c r="A86" s="4" t="inlineStr">
         <is>
           <t>S09</t>
         </is>
       </c>
-      <c r="B86" s="3" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C86" s="3" t="inlineStr">
+      <c r="C86" s="4" t="inlineStr">
         <is>
           <t>Authorization and integration with existing admin features</t>
         </is>
       </c>
-      <c r="D86" s="3" t="inlineStr">
+      <c r="D86" s="4" t="inlineStr">
         <is>
           <t>S09_G03_TB003</t>
         </is>
       </c>
-      <c r="E86" s="3" t="inlineStr">
+      <c r="E86" s="4" t="inlineStr">
         <is>
           <t>Define dev-mode behaviour (optional auth bypass) and verify TradingView webhook and Zerodha connect flows remain compatible.</t>
         </is>
       </c>
-      <c r="F86" s="3" t="inlineStr">
+      <c r="F86" s="4" t="inlineStr">
         <is>
           <t>Dev/test mode is handled by checking PYTEST_CURRENT_TEST in both get_settings and require_admin, keeping admin APIs open during pytest runs while enforcing auth in normal execution.</t>
         </is>
       </c>
-      <c r="G86" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H86" s="3" t="inlineStr">
+      <c r="G86" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H86" s="4" t="inlineStr">
         <is>
           <t>This keeps the existing test suite stable while the UI begins to rely on session-based admin access in real usage.</t>
         </is>
       </c>
-      <c r="I86" s="3" t="inlineStr">
+      <c r="I86" s="4" t="inlineStr">
         <is>
           <t>Consider adding explicit auth-required tests once frontend flows are fully stabilised.</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="41.25" customHeight="1" s="4">
-      <c r="A87" s="3" t="inlineStr">
+    <row r="87" ht="41.25" customHeight="1" s="5">
+      <c r="A87" s="4" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C87" s="3" t="inlineStr">
+      <c r="C87" s="4" t="inlineStr">
         <is>
           <t>Auth security refinements (rate limiting, password reset)</t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="D87" s="4" t="inlineStr">
         <is>
           <t>S10_G01_TB001</t>
         </is>
       </c>
-      <c r="E87" s="3" t="inlineStr">
+      <c r="E87" s="4" t="inlineStr">
         <is>
           <t>Add basic rate limiting / lockout behaviour on login to reduce brute-force attempts (e.g., small delay or temporary block after repeated failures).</t>
         </is>
       </c>
-      <c r="G87" s="3" t="inlineStr">
+      <c r="G87" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I87" s="3" t="inlineStr">
+      <c r="I87" s="4" t="inlineStr">
         <is>
           <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="41.25" customHeight="1" s="4">
-      <c r="A88" s="3" t="inlineStr">
+    <row r="88" ht="41.25" customHeight="1" s="5">
+      <c r="A88" s="4" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
+      <c r="C88" s="4" t="inlineStr">
         <is>
           <t>Auth security refinements (rate limiting, password reset)</t>
         </is>
       </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="D88" s="4" t="inlineStr">
         <is>
           <t>S10_G01_TB002</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
+      <c r="E88" s="4" t="inlineStr">
         <is>
           <t>Implement password reset flows: change-password for users plus an admin-only endpoint to reset another user's password.</t>
         </is>
       </c>
-      <c r="G88" s="3" t="inlineStr">
+      <c r="G88" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I88" s="3" t="inlineStr">
+      <c r="I88" s="4" t="inlineStr">
         <is>
           <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="41.25" customHeight="1" s="4">
-      <c r="A89" s="3" t="inlineStr">
+    <row r="89" ht="41.25" customHeight="1" s="5">
+      <c r="A89" s="4" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B89" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C89" s="3" t="inlineStr">
+      <c r="C89" s="4" t="inlineStr">
         <is>
           <t>Auth observability and audit logging</t>
         </is>
       </c>
-      <c r="D89" s="3" t="inlineStr">
+      <c r="D89" s="4" t="inlineStr">
         <is>
           <t>S10_G02_TB001</t>
         </is>
       </c>
-      <c r="E89" s="3" t="inlineStr">
+      <c r="E89" s="4" t="inlineStr">
         <is>
           <t>Record login, logout, and password-change events into system_events and surface them in the System Events UI with appropriate filters.</t>
         </is>
       </c>
-      <c r="G89" s="3" t="inlineStr">
+      <c r="G89" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I89" s="3" t="inlineStr">
+      <c r="I89" s="4" t="inlineStr">
         <is>
           <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="27.75" customHeight="1" s="4">
-      <c r="A90" s="3" t="inlineStr">
+    <row r="90" ht="27.75" customHeight="1" s="5">
+      <c r="A90" s="4" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
+      <c r="C90" s="4" t="inlineStr">
         <is>
           <t>Auth observability and audit logging</t>
         </is>
       </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="D90" s="4" t="inlineStr">
         <is>
           <t>S10_G02_TB002</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
+      <c r="E90" s="4" t="inlineStr">
         <is>
           <t>Add optional notifications or banners when suspicious auth activity is detected (e.g., repeated failures).</t>
         </is>
       </c>
-      <c r="G90" s="3" t="inlineStr">
+      <c r="G90" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I90" s="3" t="inlineStr">
+      <c r="I90" s="4" t="inlineStr">
         <is>
           <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="41.25" customHeight="1" s="4">
-      <c r="A91" s="3" t="inlineStr">
+    <row r="91" ht="41.25" customHeight="1" s="5">
+      <c r="A91" s="4" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="B91" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C91" s="3" t="inlineStr">
+      <c r="C91" s="4" t="inlineStr">
         <is>
           <t>Roles and user experience enhancements</t>
         </is>
       </c>
-      <c r="D91" s="3" t="inlineStr">
+      <c r="D91" s="4" t="inlineStr">
         <is>
           <t>S10_G03_TB001</t>
         </is>
       </c>
-      <c r="E91" s="3" t="inlineStr">
+      <c r="E91" s="4" t="inlineStr">
         <is>
           <t>Introduce additional roles (e.g., VIEW_ONLY) and adjust API/UI permissions so that view-only users cannot modify risk, strategies, or broker config.</t>
         </is>
       </c>
-      <c r="G91" s="3" t="inlineStr">
+      <c r="G91" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I91" s="3" t="inlineStr">
+      <c r="I91" s="4" t="inlineStr">
         <is>
           <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="41.25" customHeight="1" s="4">
-      <c r="A92" s="3" t="inlineStr">
+    <row r="92" ht="41.25" customHeight="1" s="5">
+      <c r="A92" s="4" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="B92" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C92" s="3" t="inlineStr">
+      <c r="C92" s="4" t="inlineStr">
         <is>
           <t>Roles and user experience enhancements</t>
         </is>
       </c>
-      <c r="D92" s="3" t="inlineStr">
+      <c r="D92" s="4" t="inlineStr">
         <is>
           <t>S10_G03_TB002</t>
         </is>
       </c>
-      <c r="E92" s="3" t="inlineStr">
+      <c r="E92" s="4" t="inlineStr">
         <is>
           <t>Add per-user preferences (e.g., default landing page, theme choice) stored in the DB and applied in the frontend.</t>
         </is>
       </c>
-      <c r="G92" s="3" t="inlineStr">
+      <c r="G92" s="4" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="I92" s="3" t="inlineStr">
+      <c r="I92" s="4" t="inlineStr">
         <is>
           <t>Planned refinements for post-S09 auth, focused on security, auditing, and UX.</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="54.75" customHeight="1" s="4">
-      <c r="A93" s="3" t="inlineStr">
+    <row r="93" ht="54.75" customHeight="1" s="5">
+      <c r="A93" s="4" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B93" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
+      <c r="C93" s="4" t="inlineStr">
         <is>
           <t>Future multi-broker/multi-account design (auth-aware)</t>
         </is>
       </c>
-      <c r="D93" s="3" t="inlineStr">
+      <c r="D93" s="4" t="inlineStr">
         <is>
           <t>S10_G04_TB001</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
+      <c r="E93" s="4" t="inlineStr">
         <is>
           <t>Refine the multi-broker/multi-account model around (st_user_id, platform, broker_id), deciding how users select a broker/platform at login and how a single broker account can optionally be shared across ST users.</t>
         </is>
       </c>
-      <c r="F93" s="3" t="inlineStr">
+      <c r="F93" s="4" t="inlineStr">
         <is>
           <t>Clarified that near-term implementation will focus on one account per broker per user (starting with Zerodha), while the schema is designed for the general (st_user_id, platform, broker_id) triple.</t>
         </is>
       </c>
-      <c r="G93" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H93" s="3" t="inlineStr">
+      <c r="G93" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H93" s="4" t="inlineStr">
         <is>
           <t>Design captured in PRD and implementation report; no code changes in this sprint, it feeds directly into S11/S12.</t>
         </is>
       </c>
-      <c r="I93" s="3" t="inlineStr">
+      <c r="I93" s="4" t="inlineStr">
         <is>
           <t>Feed this design into S11 (schema changes) and S12 (TradingView routing), starting with a single Zerodha account per non-admin user.</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="41.25" customHeight="1" s="4">
-      <c r="A94" s="3" t="inlineStr">
+    <row r="94" ht="41.25" customHeight="1" s="5">
+      <c r="A94" s="4" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="B94" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C94" s="3" t="inlineStr">
+      <c r="C94" s="4" t="inlineStr">
         <is>
           <t>Multi-tenant DB schema (per-user broker/alerts/orders)</t>
         </is>
       </c>
-      <c r="D94" s="3" t="inlineStr">
+      <c r="D94" s="4" t="inlineStr">
         <is>
           <t>S11_G01_TB001</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
+      <c r="E94" s="4" t="inlineStr">
         <is>
           <t>Design multi-tenant schema: add user_id to broker_connections, broker_secrets, alerts, orders (and identify other tables that must be user-scoped).</t>
         </is>
       </c>
-      <c r="F94" s="3" t="inlineStr">
+      <c r="F94" s="4" t="inlineStr">
         <is>
           <t>Implemented via Alembic 0006/0007 by adding user_id FKs to broker_connections/broker_secrets/alerts/orders and switching broker uniqueness to be per-user; kept columns nullable for smooth migration from pre-user schemas.</t>
         </is>
       </c>
-      <c r="G94" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H94" s="3" t="inlineStr">
+      <c r="G94" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H94" s="4" t="inlineStr">
         <is>
           <t>Alembic migrations 0006_add_user_scoping and 0007_adjust_broker_uniqueness now create a multi-tenant schema where broker connections and secrets are per user.</t>
         </is>
       </c>
-      <c r="I94" s="3" t="inlineStr">
+      <c r="I94" s="4" t="inlineStr">
         <is>
           <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="41.25" customHeight="1" s="4">
-      <c r="A95" s="3" t="inlineStr">
+    <row r="95" ht="41.25" customHeight="1" s="5">
+      <c r="A95" s="4" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C95" s="3" t="inlineStr">
+      <c r="C95" s="4" t="inlineStr">
         <is>
           <t>Multi-tenant DB schema (per-user broker/alerts/orders)</t>
         </is>
       </c>
-      <c r="D95" s="3" t="inlineStr">
+      <c r="D95" s="4" t="inlineStr">
         <is>
           <t>S11_G01_TB002</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
+      <c r="E95" s="4" t="inlineStr">
         <is>
           <t>Implement Alembic migrations for the new schema, factoring in that sigma_trader.db can be recreated from scratch.</t>
         </is>
       </c>
-      <c r="F95" s="3" t="inlineStr">
+      <c r="F95" s="4" t="inlineStr">
         <is>
           <t>Implemented via Alembic 0006/0007 by adding user_id FKs to broker_connections/broker_secrets/alerts/orders and switching broker uniqueness to be per-user; kept columns nullable for smooth migration from pre-user schemas.</t>
         </is>
       </c>
-      <c r="G95" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H95" s="3" t="inlineStr">
+      <c r="G95" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H95" s="4" t="inlineStr">
         <is>
           <t>Alembic migrations 0006_add_user_scoping and 0007_adjust_broker_uniqueness now create a multi-tenant schema where broker connections and secrets are per user.</t>
         </is>
       </c>
-      <c r="I95" s="3" t="inlineStr">
+      <c r="I95" s="4" t="inlineStr">
         <is>
           <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="41.25" customHeight="1" s="4">
-      <c r="A96" s="3" t="inlineStr">
+    <row r="96" ht="41.25" customHeight="1" s="5">
+      <c r="A96" s="4" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B96" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C96" s="3" t="inlineStr">
+      <c r="C96" s="4" t="inlineStr">
         <is>
           <t>Multi-tenant DB schema (per-user broker/alerts/orders)</t>
         </is>
       </c>
-      <c r="D96" s="3" t="inlineStr">
+      <c r="D96" s="4" t="inlineStr">
         <is>
           <t>S11_G01_TB003</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
+      <c r="E96" s="4" t="inlineStr">
         <is>
           <t>Bootstrap existing data into the new schema (migrate any global broker connections/secrets to the owning user where applicable).</t>
         </is>
       </c>
-      <c r="F96" s="3" t="inlineStr">
+      <c r="F96" s="4" t="inlineStr">
         <is>
           <t>Implemented via Alembic 0006/0007 by adding user_id FKs to broker_connections/broker_secrets/alerts/orders and switching broker uniqueness to be per-user; kept columns nullable for smooth migration from pre-user schemas.</t>
         </is>
       </c>
-      <c r="G96" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H96" s="3" t="inlineStr">
+      <c r="G96" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H96" s="4" t="inlineStr">
         <is>
           <t>Alembic migrations 0006_add_user_scoping and 0007_adjust_broker_uniqueness now create a multi-tenant schema where broker connections and secrets are per user.</t>
         </is>
       </c>
-      <c r="I96" s="3" t="inlineStr">
+      <c r="I96" s="4" t="inlineStr">
         <is>
           <t>Planned multi-user and multi-broker work; depends on S09/S10 auth being stable and may involve recreating sigma_trader.db.</t>
         </is>
       </c>
     </row>
-    <row r="97" ht="41.25" customHeight="1" s="4">
-      <c r="A97" s="3" t="inlineStr">
+    <row r="97" ht="41.25" customHeight="1" s="5">
+      <c r="A97" s="4" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B97" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C97" s="3" t="inlineStr">
+      <c r="C97" s="4" t="inlineStr">
         <is>
           <t>Per-user broker APIs and Settings UI</t>
         </is>
       </c>
-      <c r="D97" s="3" t="inlineStr">
+      <c r="D97" s="4" t="inlineStr">
         <is>
           <t>S11_G02_TB001</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr">
+      <c r="E97" s="4" t="inlineStr">
         <is>
           <t>Update broker services and APIs so broker_secrets and broker_connections are always read/written for the current user.</t>
         </is>
       </c>
-      <c r="F97" s="3" t="inlineStr">
+      <c r="F97" s="4" t="inlineStr">
         <is>
           <t>Broker secret helper functions now accept a user_id and scope queries to that user, with a legacy/global fallback when user_id is not provided.</t>
         </is>
       </c>
-      <c r="G97" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H97" s="3" t="inlineStr">
+      <c r="G97" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H97" s="4" t="inlineStr">
         <is>
           <t>Zerodha APIs and broker config endpoints always call these helpers with the currently logged-in user, so each user gets their own encrypted api_key/api_secret.</t>
         </is>
       </c>
-      <c r="I97" s="3" t="inlineStr">
+      <c r="I97" s="4" t="inlineStr">
         <is>
           <t>In later sprints we can enforce non-null user_id and remove support for global secrets once migration is complete.</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="41.25" customHeight="1" s="4">
-      <c r="A98" s="3" t="inlineStr">
+    <row r="98" ht="41.25" customHeight="1" s="5">
+      <c r="A98" s="4" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B98" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
+      <c r="C98" s="4" t="inlineStr">
         <is>
           <t>Per-user broker APIs and Settings UI</t>
         </is>
       </c>
-      <c r="D98" s="3" t="inlineStr">
+      <c r="D98" s="4" t="inlineStr">
         <is>
           <t>S11_G02_TF002</t>
         </is>
       </c>
-      <c r="E98" s="3" t="inlineStr">
+      <c r="E98" s="4" t="inlineStr">
         <is>
           <t>Adjust Settings page broker configuration to load and persist secrets per logged-in user, and clearly show which broker/user is being edited.</t>
         </is>
       </c>
-      <c r="F98" s="3" t="inlineStr">
+      <c r="F98" s="4" t="inlineStr">
         <is>
           <t>The Settings UI did not need visual changes; it now reads and writes secrets through per-user APIs, so values are implicitly scoped to the logged-in user.</t>
         </is>
       </c>
-      <c r="G98" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H98" s="3" t="inlineStr">
+      <c r="G98" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H98" s="4" t="inlineStr">
         <is>
           <t>Admin and normal users can each maintain their own Zerodha credentials without overwriting each other; future work may add explicit account labels in the UI.</t>
         </is>
       </c>
-      <c r="I98" s="3" t="inlineStr">
+      <c r="I98" s="4" t="inlineStr">
         <is>
           <t>Add clearer UI affordances (e.g., showing the active account/broker-id) once multi-account support is implemented.</t>
         </is>
       </c>
     </row>
-    <row r="99" ht="41.25" customHeight="1" s="4">
-      <c r="A99" s="3" t="inlineStr">
+    <row r="99" ht="41.25" customHeight="1" s="5">
+      <c r="A99" s="4" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B99" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
+      <c r="C99" s="4" t="inlineStr">
         <is>
           <t>Per-user alert and order scoping</t>
         </is>
       </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="D99" s="4" t="inlineStr">
         <is>
           <t>S11_G03_TB001</t>
         </is>
       </c>
-      <c r="E99" s="3" t="inlineStr">
+      <c r="E99" s="4" t="inlineStr">
         <is>
           <t>Add user_id to Alert and Order models and ensure new alerts/orders are created under the correct user based on TradingView routing.</t>
         </is>
       </c>
-      <c r="F99" s="3" t="inlineStr">
+      <c r="F99" s="4" t="inlineStr">
         <is>
           <t>User scoping for alerts/orders is implemented at the API layer by filtering Queue, Orders, and Analytics endpoints by the current user while still including legacy/global rows (user_id IS NULL); deriving user_id from TradingView payloads is deferred to S12.</t>
         </is>
       </c>
-      <c r="G99" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H99" s="3" t="inlineStr">
+      <c r="G99" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H99" s="4" t="inlineStr">
         <is>
           <t>Order history and manual queue listings now honour the logged-in user when available, and analytics summary/trades endpoints restrict results to that user plus global trades.</t>
         </is>
       </c>
-      <c r="I99" s="3" t="inlineStr">
+      <c r="I99" s="4" t="inlineStr">
         <is>
           <t>S12 will populate alert.user_id/order.user_id based on the normalized TradingView routing design and may tighten filters to exclude cross-user data for non-admins.</t>
         </is>
       </c>
     </row>
-    <row r="100" ht="41.25" customHeight="1" s="4">
-      <c r="A100" s="3" t="inlineStr">
+    <row r="100" ht="41.25" customHeight="1" s="5">
+      <c r="A100" s="4" t="inlineStr">
         <is>
           <t>S11</t>
         </is>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B100" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C100" s="3" t="inlineStr">
+      <c r="C100" s="4" t="inlineStr">
         <is>
           <t>Per-user alert and order scoping</t>
         </is>
       </c>
-      <c r="D100" s="3" t="inlineStr">
+      <c r="D100" s="4" t="inlineStr">
         <is>
           <t>S11_G03_TB002</t>
         </is>
       </c>
-      <c r="E100" s="3" t="inlineStr">
+      <c r="E100" s="4" t="inlineStr">
         <is>
           <t>Update Queue, Orders, Analytics, and related APIs to filter by current user (with an option for ADMINs to view cross-user data later).</t>
         </is>
       </c>
-      <c r="F100" s="3" t="inlineStr">
+      <c r="F100" s="4" t="inlineStr">
         <is>
           <t>User scoping for alerts/orders is implemented at the API layer by filtering Queue, Orders, and Analytics endpoints by the current user while still including legacy/global rows (user_id IS NULL); deriving user_id from TradingView payloads is deferred to S12.</t>
         </is>
       </c>
-      <c r="G100" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H100" s="3" t="inlineStr">
+      <c r="G100" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H100" s="4" t="inlineStr">
         <is>
           <t>Order history and manual queue listings now honour the logged-in user when available, and analytics summary/trades endpoints restrict results to that user plus global trades.</t>
         </is>
       </c>
-      <c r="I100" s="3" t="inlineStr">
+      <c r="I100" s="4" t="inlineStr">
         <is>
           <t>S12 will populate alert.user_id/order.user_id based on the normalized TradingView routing design and may tighten filters to exclude cross-user data for non-admins.</t>
         </is>
       </c>
     </row>
-    <row r="101" ht="54.75" customHeight="1" s="4">
-      <c r="A101" s="3" t="inlineStr">
+    <row r="101" ht="54.75" customHeight="1" s="5">
+      <c r="A101" s="4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="B101" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C101" s="3" t="inlineStr">
+      <c r="C101" s="4" t="inlineStr">
         <is>
           <t>TradingView alert schema and routing design</t>
         </is>
       </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="D101" s="4" t="inlineStr">
         <is>
           <t>S12_G01_TB001</t>
         </is>
       </c>
-      <c r="E101" s="3" t="inlineStr">
+      <c r="E101" s="4" t="inlineStr">
         <is>
           <t>Define a normalized internal alert schema (fields for user_id, broker, strategy, alert_type, trade/position details) and the routing mechanism from TradingView to user+broker.</t>
         </is>
       </c>
-      <c r="F101" s="3" t="inlineStr">
+      <c r="F101" s="4" t="inlineStr">
         <is>
           <t>Introduced st_user_id field and per-user routing directly in the webhook handler rather than keeping S12/G01 as pure documentation; full alert_type and multi-broker fields are deferred to later S12 groups.</t>
         </is>
       </c>
-      <c r="G101" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H101" s="3" t="inlineStr">
+      <c r="G101" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H101" s="4" t="inlineStr">
         <is>
           <t>TradingView payloads now carry st_user_id and are mapped to User.username; alerts without a valid st_user_id are ignored with a structured system event, and valid alerts create Alert/Order rows with user_id populated.</t>
         </is>
       </c>
-      <c r="I101" s="3" t="inlineStr">
+      <c r="I101" s="4" t="inlineStr">
         <is>
           <t>Extend the normalized alert schema with alert_type and strategy aliasing, and generalise routing beyond Zerodha in S12/G02–G04.</t>
         </is>
       </c>
     </row>
-    <row r="102" ht="54.75" customHeight="1" s="4">
-      <c r="A102" s="3" t="inlineStr">
+    <row r="102" ht="54.75" customHeight="1" s="5">
+      <c r="A102" s="4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="B102" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C102" s="3" t="inlineStr">
+      <c r="C102" s="4" t="inlineStr">
         <is>
           <t>TradingView alert schema and routing design</t>
         </is>
       </c>
-      <c r="D102" s="3" t="inlineStr">
+      <c r="D102" s="4" t="inlineStr">
         <is>
           <t>S12_G01_TB002</t>
         </is>
       </c>
-      <c r="E102" s="3" t="inlineStr">
+      <c r="E102" s="4" t="inlineStr">
         <is>
           <t>Design how TradingView payloads should encode user/account information (e.g., account_tag or per-user secrets) so each alert maps to exactly one SigmaTrader user.</t>
         </is>
       </c>
-      <c r="F102" s="3" t="inlineStr">
+      <c r="F102" s="4" t="inlineStr">
         <is>
           <t>Introduced st_user_id field and per-user routing directly in the webhook handler rather than keeping S12/G01 as pure documentation; full alert_type and multi-broker fields are deferred to later S12 groups.</t>
         </is>
       </c>
-      <c r="G102" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H102" s="3" t="inlineStr">
+      <c r="G102" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H102" s="4" t="inlineStr">
         <is>
           <t>TradingView payloads now carry st_user_id and are mapped to User.username; alerts without a valid st_user_id are ignored with a structured system event, and valid alerts create Alert/Order rows with user_id populated.</t>
         </is>
       </c>
-      <c r="I102" s="3" t="inlineStr">
+      <c r="I102" s="4" t="inlineStr">
         <is>
           <t>Extend the normalized alert schema with alert_type and strategy aliasing, and generalise routing beyond Zerodha in S12/G02–G04.</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="41.25" customHeight="1" s="4">
-      <c r="A103" s="3" t="inlineStr">
+    <row r="103" ht="41.25" customHeight="1" s="5">
+      <c r="A103" s="4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B103" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
+      <c r="C103" s="4" t="inlineStr">
         <is>
           <t>Zerodha adapter and per-user account mapping</t>
         </is>
       </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="D103" s="4" t="inlineStr">
         <is>
           <t>S12_G02_TB001</t>
         </is>
       </c>
-      <c r="E103" s="3" t="inlineStr">
+      <c r="E103" s="4" t="inlineStr">
         <is>
           <t>Implement a Zerodha-specific alert adapter that maps TradingView JSON into the normalized internal alert schema for a given user/broker.</t>
         </is>
       </c>
-      <c r="F103" s="3" t="inlineStr">
+      <c r="F103" s="4" t="inlineStr">
         <is>
           <t>Zerodha adapter will treat TradingView symbols as broker symbols for NSE/BSE by default, with an overridable mapping table for edge cases; it will also capture a structured alert reason derived from TV fields like strategy.order.comment.</t>
         </is>
       </c>
-      <c r="G103" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H103" s="3" t="inlineStr">
+      <c r="G103" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H103" s="4" t="inlineStr">
         <is>
           <t>Adapter maps TV placeholders (ticker, action, contracts, price) into the normalized schema including symbol_display, broker_symbol/broker_exchange, product, and a human-readable reason field used later in analytics.</t>
         </is>
       </c>
-      <c r="I103" s="3" t="inlineStr">
+      <c r="I103" s="4" t="inlineStr">
         <is>
           <t>Implement the Zerodha adapter in code, wire it into the webhook path, and add a column for alert reason so it can be queried and shown in analytics/queue.</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="27.75" customHeight="1" s="4">
-      <c r="A104" s="3" t="inlineStr">
+    <row r="104" ht="27.75" customHeight="1" s="5">
+      <c r="A104" s="4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="B104" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C104" s="3" t="inlineStr">
+      <c r="C104" s="4" t="inlineStr">
         <is>
           <t>Zerodha adapter and per-user account mapping</t>
         </is>
       </c>
-      <c r="D104" s="3" t="inlineStr">
+      <c r="D104" s="4" t="inlineStr">
         <is>
           <t>S12_G02_TB002</t>
         </is>
       </c>
-      <c r="E104" s="3" t="inlineStr">
+      <c r="E104" s="4" t="inlineStr">
         <is>
           <t>Introduce per-user broker/account mapping so each user can bind one or more Zerodha accounts to their profile.</t>
         </is>
       </c>
-      <c r="F104" s="3" t="inlineStr">
+      <c r="F104" s="4" t="inlineStr">
         <is>
           <t>Zerodha adapter will treat TradingView symbols as broker symbols for NSE/BSE by default, with an overridable mapping table for edge cases; it will also capture a structured alert reason derived from TV fields like strategy.order.comment.</t>
         </is>
       </c>
-      <c r="G104" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H104" s="3" t="inlineStr">
+      <c r="G104" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H104" s="4" t="inlineStr">
         <is>
           <t>Adapter maps TV placeholders (ticker, action, contracts, price) into the normalized schema including symbol_display, broker_symbol/broker_exchange, product, and a human-readable reason field used later in analytics.</t>
         </is>
       </c>
-      <c r="I104" s="3" t="inlineStr">
+      <c r="I104" s="4" t="inlineStr">
         <is>
           <t>Implement the Zerodha adapter in code, wire it into the webhook path, and add a column for alert reason so it can be queried and shown in analytics/queue.</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="54.75" customHeight="1" s="4">
-      <c r="A105" s="3" t="inlineStr">
+    <row r="105" ht="54.75" customHeight="1" s="5">
+      <c r="A105" s="4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="B105" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C105" s="3" t="inlineStr">
+      <c r="C105" s="4" t="inlineStr">
         <is>
           <t>Webhook v2 implementation and tests</t>
         </is>
       </c>
-      <c r="D105" s="3" t="inlineStr">
+      <c r="D105" s="4" t="inlineStr">
         <is>
           <t>S12_G03_TB001</t>
         </is>
       </c>
-      <c r="E105" s="3" t="inlineStr">
+      <c r="E105" s="4" t="inlineStr">
         <is>
           <t>Update webhook/tradingview handler to use the new adapter+routing design, creating per-user alerts and orders and rejecting alerts that cannot be mapped cleanly.</t>
         </is>
       </c>
-      <c r="F105" s="3" t="inlineStr">
+      <c r="F105" s="4" t="inlineStr">
         <is>
           <t>Webhook now uses the Zerodha adapter and enforces st_user_id routing; AUTO paths call the shared execute_order endpoint and record a clear FAILED state when the broker is not connected.</t>
         </is>
       </c>
-      <c r="G105" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H105" s="3" t="inlineStr">
+      <c r="G105" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H105" s="4" t="inlineStr">
         <is>
           <t>Tests cover per-user AUTO and MANUAL alerts via TradingView and verify that AUTO orders fail cleanly with Zerodha-not-connected errors while manual orders remain in the WAITING queue.</t>
         </is>
       </c>
-      <c r="I105" s="3" t="inlineStr">
+      <c r="I105" s="4" t="inlineStr">
         <is>
           <t>Future work may tighten non-admin visibility/edit rights and extend tests to multi-account/multi-broker scenarios once those features are implemented.</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="41.25" customHeight="1" s="4">
-      <c r="A106" s="3" t="inlineStr">
+    <row r="106" ht="41.25" customHeight="1" s="5">
+      <c r="A106" s="4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="B106" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C106" s="3" t="inlineStr">
+      <c r="C106" s="4" t="inlineStr">
         <is>
           <t>Webhook v2 implementation and tests</t>
         </is>
       </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="D106" s="4" t="inlineStr">
         <is>
           <t>S12_G03_TB002</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
+      <c r="E106" s="4" t="inlineStr">
         <is>
           <t>Add pytest coverage for per-user Zerodha alerts (AUTO and MANUAL), including cases where the user is not connected to the broker.</t>
         </is>
       </c>
-      <c r="F106" s="3" t="inlineStr">
+      <c r="F106" s="4" t="inlineStr">
         <is>
           <t>Webhook now uses the Zerodha adapter and enforces st_user_id routing; AUTO paths call the shared execute_order endpoint and record a clear FAILED state when the broker is not connected.</t>
         </is>
       </c>
-      <c r="G106" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H106" s="3" t="inlineStr">
+      <c r="G106" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H106" s="4" t="inlineStr">
         <is>
           <t>Tests cover per-user AUTO and MANUAL alerts via TradingView and verify that AUTO orders fail cleanly with Zerodha-not-connected errors while manual orders remain in the WAITING queue.</t>
         </is>
       </c>
-      <c r="I106" s="3" t="inlineStr">
+      <c r="I106" s="4" t="inlineStr">
         <is>
           <t>Future work may tighten non-admin visibility/edit rights and extend tests to multi-account/multi-broker scenarios once those features are implemented.</t>
         </is>
       </c>
     </row>
-    <row r="107" ht="41.25" customHeight="1" s="4">
-      <c r="A107" s="3" t="inlineStr">
+    <row r="107" ht="41.25" customHeight="1" s="5">
+      <c r="A107" s="4" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B107" s="3" t="inlineStr">
+      <c r="B107" s="4" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C107" s="3" t="inlineStr">
+      <c r="C107" s="4" t="inlineStr">
         <is>
           <t>Config-based mapping for future brokers/platforms</t>
         </is>
       </c>
-      <c r="D107" s="3" t="inlineStr">
+      <c r="D107" s="4" t="inlineStr">
         <is>
           <t>S12_G04_TB001</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
+      <c r="E107" s="4" t="inlineStr">
         <is>
           <t>Design a configuration format (JSON/YAML) for platform-specific alert mappings so new brokers/platforms can be added with minimal or no code changes.</t>
         </is>
       </c>
-      <c r="F107" s="3" t="inlineStr">
+      <c r="F107" s="4" t="inlineStr">
         <is>
           <t>Introduced a JSON-based Zerodha symbol map and loader; field extraction remains code-centric for Zerodha, with config initially focused on symbol overrides per exchange.</t>
         </is>
       </c>
-      <c r="G107" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H107" s="3" t="inlineStr">
+      <c r="G107" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H107" s="4" t="inlineStr">
         <is>
           <t>tradingview_zerodha_adapter now calls load_zerodha_symbol_map() so TradingView symbols like NSE:SCHNEIDER can be mapped to broker-specific codes such as SCHNEIDER-EQ when configured.</t>
         </is>
       </c>
-      <c r="I107" s="3" t="inlineStr">
+      <c r="I107" s="4" t="inlineStr">
         <is>
           <t>Extend the config format to cover field mapping and support additional brokers/platforms once their adapters are added.</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="41.25" customHeight="1" s="4">
-      <c r="A108" s="3" t="inlineStr">
+    <row r="108" ht="41.25" customHeight="1" s="5">
+      <c r="A108" s="4" t="inlineStr">
         <is>
           <t>S13</t>
         </is>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B108" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C108" s="3" t="inlineStr">
+      <c r="C108" s="4" t="inlineStr">
         <is>
           <t>Appearance and theming (light/dark + presets)</t>
         </is>
       </c>
-      <c r="D108" s="3" t="inlineStr">
+      <c r="D108" s="4" t="inlineStr">
         <is>
           <t>S13_G01_TF001</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
+      <c r="E108" s="4" t="inlineStr">
         <is>
           <t>Introduce a theme system with light/dark palettes and 2–3 preset color themes applied via a central MUI theme provider.</t>
         </is>
       </c>
-      <c r="G108" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H108" s="3" t="inlineStr">
+      <c r="G108" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H108" s="4" t="inlineStr">
         <is>
           <t>Theme infrastructure only; no per-user preferences or UI controls yet.</t>
         </is>
       </c>
-      <c r="I108" s="3" t="inlineStr">
+      <c r="I108" s="4" t="inlineStr">
         <is>
           <t>Decide final preset themes (e.g., default dark, light, and one accent variant) before implementation.</t>
         </is>
       </c>
     </row>
-    <row r="109" ht="41.25" customHeight="1" s="4">
-      <c r="A109" s="3" t="inlineStr">
+    <row r="109" ht="41.25" customHeight="1" s="5">
+      <c r="A109" s="4" t="inlineStr">
         <is>
           <t>S13</t>
         </is>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B109" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C109" s="3" t="inlineStr">
+      <c r="C109" s="4" t="inlineStr">
         <is>
           <t>Appearance and theming (light/dark + presets)</t>
         </is>
       </c>
-      <c r="D109" s="3" t="inlineStr">
+      <c r="D109" s="4" t="inlineStr">
         <is>
           <t>S13_G01_TF002</t>
         </is>
       </c>
-      <c r="E109" s="3" t="inlineStr">
+      <c r="E109" s="4" t="inlineStr">
         <is>
           <t>Add an Appearance settings panel where the user can switch between light/dark mode and the available preset themes.</t>
         </is>
       </c>
-      <c r="G109" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H109" s="3" t="inlineStr">
+      <c r="G109" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H109" s="4" t="inlineStr">
         <is>
           <t>Initial focus on a simple dropdown or radio-group selector in the sidebar (e.g., new Appearance page).</t>
         </is>
       </c>
-      <c r="I109" s="3" t="inlineStr">
+      <c r="I109" s="4" t="inlineStr">
         <is>
           <t>Align appearance options with branding and ensure sensible defaults after login.</t>
         </is>
       </c>
     </row>
-    <row r="110" ht="27.75" customHeight="1" s="4">
-      <c r="A110" s="3" t="inlineStr">
+    <row r="110" ht="27.75" customHeight="1" s="5">
+      <c r="A110" s="4" t="inlineStr">
         <is>
           <t>S13</t>
         </is>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B110" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C110" s="3" t="inlineStr">
+      <c r="C110" s="4" t="inlineStr">
         <is>
           <t>Appearance and theming (light/dark + presets)</t>
         </is>
       </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="D110" s="4" t="inlineStr">
         <is>
           <t>S13_G01_TB003</t>
         </is>
       </c>
-      <c r="E110" s="3" t="inlineStr">
+      <c r="E110" s="4" t="inlineStr">
         <is>
           <t>Persist the selected theme per user in the backend so appearance choices survive reloads and logouts.</t>
         </is>
       </c>
-      <c r="G110" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H110" s="3" t="inlineStr">
+      <c r="G110" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H110" s="4" t="inlineStr">
         <is>
           <t>Reuse the existing users table or a small preferences table to store theme choice keyed by user id.</t>
         </is>
       </c>
-      <c r="I110" s="3" t="inlineStr">
+      <c r="I110" s="4" t="inlineStr">
         <is>
           <t>Later sprints can extend preferences to include other UI options (e.g., time zone, default landing page).</t>
         </is>
       </c>
     </row>
-    <row r="111" ht="41.25" customHeight="1" s="4">
-      <c r="A111" s="3" t="inlineStr">
+    <row r="111" ht="41.25" customHeight="1" s="5">
+      <c r="A111" s="4" t="inlineStr">
         <is>
           <t>S13</t>
         </is>
       </c>
-      <c r="B111" s="3" t="inlineStr">
+      <c r="B111" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C111" s="3" t="inlineStr">
+      <c r="C111" s="4" t="inlineStr">
         <is>
           <t>Branding and logo integration</t>
         </is>
       </c>
-      <c r="D111" s="3" t="inlineStr">
+      <c r="D111" s="4" t="inlineStr">
         <is>
           <t>S13_G02_TF001</t>
         </is>
       </c>
-      <c r="E111" s="3" t="inlineStr">
+      <c r="E111" s="4" t="inlineStr">
         <is>
           <t>Add SigmaTrader logo to the app shell (AppBar/sidebar) using assets from frontend/public and ensure it fits both light and dark themes.</t>
         </is>
       </c>
-      <c r="G111" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H111" s="3" t="inlineStr">
+      <c r="G111" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H111" s="4" t="inlineStr">
         <is>
           <t>Initial focus on placing a small logo mark next to the SigmaTrader title in the top bar or sidebar without changing layout structure.</t>
         </is>
       </c>
-      <c r="I111" s="3" t="inlineStr">
+      <c r="I111" s="4" t="inlineStr">
         <is>
           <t>Decide final logo placement and sizing, then optionally extend branding to the auth/landing page hero area.</t>
         </is>
       </c>
     </row>
-    <row r="112" ht="41.25" customHeight="1" s="4">
-      <c r="A112" s="3" t="inlineStr">
+    <row r="112" ht="41.25" customHeight="1" s="5">
+      <c r="A112" s="4" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B112" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C112" s="3" t="inlineStr">
+      <c r="C112" s="4" t="inlineStr">
         <is>
           <t>Advanced order types and stop-loss controls</t>
         </is>
       </c>
-      <c r="D112" s="3" t="inlineStr">
+      <c r="D112" s="4" t="inlineStr">
         <is>
           <t>S14_G01_TB001</t>
         </is>
       </c>
-      <c r="E112" s="3" t="inlineStr">
+      <c r="E112" s="4" t="inlineStr">
         <is>
           <t>Extend Order model and APIs to support Zerodha order types MARKET / LIMIT / SL / SL-M plus trigger price and trigger percent fields.</t>
         </is>
       </c>
-      <c r="F112" s="3" t="inlineStr">
+      <c r="F112" s="4" t="inlineStr">
         <is>
           <t>trigger_percent will be interpreted relative to the Zerodha last traded price (LTP), not the current limit price, and saved alongside trigger_price.</t>
         </is>
       </c>
-      <c r="G112" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H112" s="3" t="inlineStr">
+      <c r="G112" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H112" s="4" t="inlineStr">
         <is>
           <t>Order model, schemas, and Zerodha client now support trigger_price/trigger_percent and extended order_type values (MARKET/LIMIT/SL/SL-M).</t>
         </is>
       </c>
-      <c r="I112" s="3" t="inlineStr">
+      <c r="I112" s="4" t="inlineStr">
         <is>
           <t>UI still only exposes MARKET/LIMIT; S14/G03 will surface SL/SL-M and triggers in the edit dialog.</t>
         </is>
       </c>
     </row>
-    <row r="113" ht="41.25" customHeight="1" s="4">
-      <c r="A113" s="3" t="inlineStr">
+    <row r="113" ht="41.25" customHeight="1" s="5">
+      <c r="A113" s="4" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="B113" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C113" s="3" t="inlineStr">
+      <c r="C113" s="4" t="inlineStr">
         <is>
           <t>Advanced order types and stop-loss controls</t>
         </is>
       </c>
-      <c r="D113" s="3" t="inlineStr">
+      <c r="D113" s="4" t="inlineStr">
         <is>
           <t>S14_G01_TB002</t>
         </is>
       </c>
-      <c r="E113" s="3" t="inlineStr">
+      <c r="E113" s="4" t="inlineStr">
         <is>
           <t>Update execute_order to route SL and SL-M correctly to KiteConnect (trigger_price mandatory, price optional for SL-M) and add guardrails for valid stop-loss placement.</t>
         </is>
       </c>
-      <c r="F113" s="3" t="inlineStr">
+      <c r="F113" s="4" t="inlineStr">
         <is>
           <t>Guardrails include checking trigger_price vs LTP and direction (BUY stops below market, SELL stops above) and rejecting obviously invalid combinations with clear error messages.</t>
         </is>
       </c>
-      <c r="G113" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H113" s="3" t="inlineStr">
+      <c r="G113" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H113" s="4" t="inlineStr">
         <is>
           <t>execute_order applies LTP-based stop-loss guardrails and forwards trigger_price to Zerodha with appropriate pricing rules for SL vs SL-M.</t>
         </is>
       </c>
-      <c r="I113" s="3" t="inlineStr">
+      <c r="I113" s="4" t="inlineStr">
         <is>
           <t>Further tuning of guardrail rules can be done once real-world usage feedback is collected.</t>
         </is>
       </c>
     </row>
-    <row r="114" ht="41.25" customHeight="1" s="4">
-      <c r="A114" s="3" t="inlineStr">
+    <row r="114" ht="41.25" customHeight="1" s="5">
+      <c r="A114" s="4" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B114" s="3" t="inlineStr">
+      <c r="B114" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C114" s="3" t="inlineStr">
+      <c r="C114" s="4" t="inlineStr">
         <is>
           <t>Funds and margin preview for edited orders</t>
         </is>
       </c>
-      <c r="D114" s="3" t="inlineStr">
+      <c r="D114" s="4" t="inlineStr">
         <is>
           <t>S14_G02_TB001</t>
         </is>
       </c>
-      <c r="E114" s="3" t="inlineStr">
+      <c r="E114" s="4" t="inlineStr">
         <is>
           <t>Wrap Zerodha margins and order_margins APIs in the backend and expose endpoints to fetch available funds and a margin/charges preview for a hypothetical order.</t>
         </is>
       </c>
-      <c r="F114" s="3" t="inlineStr">
+      <c r="F114" s="4" t="inlineStr">
         <is>
           <t>Focus first on the equity segment for Zerodha; later sprints can extend to derivatives or other brokers.</t>
         </is>
       </c>
-      <c r="G114" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H114" s="3" t="inlineStr">
+      <c r="G114" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H114" s="4" t="inlineStr">
         <is>
           <t>Zerodha margins and order_margins are wrapped by new /api/zerodha/margins and /api/zerodha/order-preview endpoints for funds and charges preview.</t>
         </is>
       </c>
-      <c r="I114" s="3" t="inlineStr">
+      <c r="I114" s="4" t="inlineStr">
         <is>
           <t>Current implementation focuses on equity segment; derivatives and other brokers can be added later.</t>
         </is>
       </c>
     </row>
-    <row r="115" ht="41.25" customHeight="1" s="4">
-      <c r="A115" s="3" t="inlineStr">
+    <row r="115" ht="41.25" customHeight="1" s="5">
+      <c r="A115" s="4" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B115" s="3" t="inlineStr">
+      <c r="B115" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C115" s="3" t="inlineStr">
+      <c r="C115" s="4" t="inlineStr">
         <is>
           <t>Funds and margin preview for edited orders</t>
         </is>
       </c>
-      <c r="D115" s="3" t="inlineStr">
+      <c r="D115" s="4" t="inlineStr">
         <is>
           <t>S14_G02_TF002</t>
         </is>
       </c>
-      <c r="E115" s="3" t="inlineStr">
+      <c r="E115" s="4" t="inlineStr">
         <is>
           <t>Enhance the Waiting Queue edit dialog to display Required funds (incl. charges) and Available funds, updating dynamically as qty/price/type change.</t>
         </is>
       </c>
-      <c r="F115" s="3" t="inlineStr">
+      <c r="F115" s="4" t="inlineStr">
         <is>
           <t>Uses the new Zerodha preview APIs to recompute required margin after each significant edit, with warnings when funds are insufficient.</t>
         </is>
       </c>
-      <c r="G115" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H115" s="3" t="inlineStr">
+      <c r="G115" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H115" s="4" t="inlineStr">
         <is>
           <t>Queue edit dialog now has a Funds &amp; charges panel that calls the new preview APIs and shows Required vs Available amounts.</t>
         </is>
       </c>
-      <c r="I115" s="3" t="inlineStr">
+      <c r="I115" s="4" t="inlineStr">
         <is>
           <t>Funds preview is on-demand via Recalculate; future work may auto-refresh as fields change.</t>
         </is>
       </c>
     </row>
-    <row r="116" ht="54.75" customHeight="1" s="4">
-      <c r="A116" s="3" t="inlineStr">
+    <row r="116" ht="54.75" customHeight="1" s="5">
+      <c r="A116" s="4" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
-      <c r="B116" s="3" t="inlineStr">
+      <c r="B116" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C116" s="3" t="inlineStr">
+      <c r="C116" s="4" t="inlineStr">
         <is>
           <t>Queue edit UX polish and stop-loss helpers</t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="D116" s="4" t="inlineStr">
         <is>
           <t>S14_G03_TF001</t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
+      <c r="E116" s="4" t="inlineStr">
         <is>
           <t>Refactor the edit queue order dialog into clear sections (Quantity &amp; price, Stop-loss, Product &amp; preferences, Funds) and add fields for trigger price and trigger percent.</t>
         </is>
       </c>
-      <c r="F116" s="3" t="inlineStr">
+      <c r="F116" s="4" t="inlineStr">
         <is>
           <t>Trigger percent will be entered as a positive or negative percentage relative to LTP and used to derive trigger_price with inline preview.</t>
         </is>
       </c>
-      <c r="G116" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H116" s="3" t="inlineStr">
+      <c r="G116" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H116" s="4" t="inlineStr">
         <is>
           <t>Queue edit dialog now has structured sections, BUY/SELL toggles, full order type support (MARKET/LIMIT/SL/SL-M), and complementary trigger price/percent fields with LTP-aware helpers.</t>
         </is>
       </c>
-      <c r="I116" s="3" t="inlineStr">
+      <c r="I116" s="4" t="inlineStr">
         <is>
           <t>Future refinements may include more granular guidance for SL placement and inline warnings when trigger levels are too close to LTP.</t>
         </is>
       </c>
     </row>
-    <row r="117" ht="41.25" customHeight="1" s="4">
-      <c r="A117" s="3" t="inlineStr">
+    <row r="117" ht="41.25" customHeight="1" s="5">
+      <c r="A117" s="4" t="inlineStr">
         <is>
           <t>S15</t>
         </is>
       </c>
-      <c r="B117" s="3" t="inlineStr">
+      <c r="B117" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C117" s="3" t="inlineStr">
+      <c r="C117" s="4" t="inlineStr">
         <is>
           <t>Zerodha GTT order support</t>
         </is>
       </c>
-      <c r="D117" s="3" t="inlineStr">
+      <c r="D117" s="4" t="inlineStr">
         <is>
           <t>S15_G01_TB001</t>
         </is>
       </c>
-      <c r="E117" s="3" t="inlineStr">
+      <c r="E117" s="4" t="inlineStr">
         <is>
           <t>Design how SigmaTrader will map queue orders and preferences into Zerodha GTT single-leg orders (trigger values, last_price source, and order payload).</t>
         </is>
       </c>
-      <c r="F117" s="3" t="inlineStr">
+      <c r="F117" s="4" t="inlineStr">
         <is>
           <t>GTT design should clarify when to use GTT vs regular orders, how to represent GTT status in SigmaTrader, and how TradingView alerts can request GTT creation.</t>
         </is>
       </c>
-      <c r="G117" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H117" s="3" t="inlineStr">
+      <c r="G117" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H117" s="4" t="inlineStr">
         <is>
           <t>Designed single-leg equity GTT support by mapping queue orders (LIMIT + optional trigger price) to Zerodha GTTs using trigger_id as the broker reference.</t>
         </is>
       </c>
-      <c r="I117" s="3" t="inlineStr">
+      <c r="I117" s="4" t="inlineStr">
         <is>
           <t>Advanced patterns like OCO or SL-GTT are deferred; current scope focuses on simple entry GTTs.</t>
         </is>
       </c>
     </row>
-    <row r="118" ht="54.75" customHeight="1" s="4">
-      <c r="A118" s="3" t="inlineStr">
+    <row r="118" ht="54.75" customHeight="1" s="5">
+      <c r="A118" s="4" t="inlineStr">
         <is>
           <t>S15</t>
         </is>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B118" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C118" s="3" t="inlineStr">
+      <c r="C118" s="4" t="inlineStr">
         <is>
           <t>Zerodha GTT order support</t>
         </is>
       </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="D118" s="4" t="inlineStr">
         <is>
           <t>S15_G01_TB002</t>
         </is>
       </c>
-      <c r="E118" s="3" t="inlineStr">
+      <c r="E118" s="4" t="inlineStr">
         <is>
           <t>Implement backend support for placing, listing, and cancelling Zerodha GTTs using KiteConnect place_gtt / get_gtts / delete_gtt, wired to per-user broker connections.</t>
         </is>
       </c>
-      <c r="F118" s="3" t="inlineStr">
+      <c r="F118" s="4" t="inlineStr">
         <is>
           <t>Initial focus on single-leg GTTs for equity; OCO/advanced patterns can be added later.</t>
         </is>
       </c>
-      <c r="G118" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H118" s="3" t="inlineStr">
+      <c r="G118" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H118" s="4" t="inlineStr">
         <is>
           <t>Backend now wraps KiteConnect place_gtt/get_gtts/delete_gtt via ZerodhaClient and routes GTT-enabled executions through a dedicated branch in execute_order.</t>
         </is>
       </c>
-      <c r="I118" s="3" t="inlineStr">
+      <c r="I118" s="4" t="inlineStr">
         <is>
           <t>GTT placement errors are surfaced as HTTP 502 with clear messages and recorded in system_events.</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="41.25" customHeight="1" s="4">
-      <c r="A119" s="3" t="inlineStr">
+    <row r="119" ht="41.25" customHeight="1" s="5">
+      <c r="A119" s="4" t="inlineStr">
         <is>
           <t>S15</t>
         </is>
       </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="B119" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C119" s="3" t="inlineStr">
+      <c r="C119" s="4" t="inlineStr">
         <is>
           <t>Zerodha GTT order support</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="D119" s="4" t="inlineStr">
         <is>
           <t>S15_G01_TF003</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr">
+      <c r="E119" s="4" t="inlineStr">
         <is>
           <t>Extend the queue edit and manual order flows to allow creating GTT orders (instead of or in addition to regular orders) when the user selects a GTT option.</t>
         </is>
       </c>
-      <c r="F119" s="3" t="inlineStr">
+      <c r="F119" s="4" t="inlineStr">
         <is>
           <t>The existing "Convert to GTT" checkbox will be repurposed into a concrete GTT mode that creates or updates real GTTs at Zerodha rather than acting as a passive preference.</t>
         </is>
       </c>
-      <c r="G119" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H119" s="3" t="inlineStr">
+      <c r="G119" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H119" s="4" t="inlineStr">
         <is>
           <t>Queue edit dialog exposes a "Place as GTT at Zerodha" checkbox that forces LIMIT order_type when enabled and sends gtt=true to the backend.</t>
         </is>
       </c>
-      <c r="I119" s="3" t="inlineStr">
+      <c r="I119" s="4" t="inlineStr">
         <is>
           <t>UI currently supports creating single-leg entry GTTs; listing/cancelling GTTs from SigmaTrader can be added later.</t>
         </is>
       </c>
     </row>
-    <row r="120" ht="55.2" customHeight="1" s="4">
-      <c r="A120" s="3" t="inlineStr">
+    <row r="120" ht="54.75" customHeight="1" s="5">
+      <c r="A120" s="4" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="B120" s="4" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C120" s="3" t="inlineStr">
+      <c r="C120" s="4" t="inlineStr">
         <is>
           <t>Paper trading architecture and configuration</t>
         </is>
       </c>
-      <c r="D120" s="3" t="inlineStr">
+      <c r="D120" s="4" t="inlineStr">
         <is>
           <t>S16_G01_TB001</t>
         </is>
       </c>
-      <c r="E120" s="3" t="inlineStr">
+      <c r="E120" s="4" t="inlineStr">
         <is>
           <t>Design paper trading execution targets (e.g., LIVE vs PAPER) and per-user/per-strategy configuration, including a selectable poll interval between 15 seconds and 4 hours.</t>
         </is>
       </c>
-      <c r="F120" s="3" t="inlineStr">
+      <c r="F120" s="4" t="inlineStr">
         <is>
           <t>Paper mode will reuse existing Order/Risk/Analytics models; only execution routing and price monitoring change.</t>
         </is>
       </c>
-      <c r="G120" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H120" s="3" t="inlineStr">
+      <c r="G120" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H120" s="4" t="inlineStr">
         <is>
           <t>Strategies now have execution_target (LIVE/PAPER) and an optional paper_poll_interval_sec, persisted via Alembic 0012.</t>
         </is>
       </c>
-      <c r="I120" s="3" t="inlineStr">
+      <c r="I120" s="4" t="inlineStr">
         <is>
           <t>UI wiring and per-user overrides will be handled in S16/G03; current config is API/DB driven.</t>
         </is>
       </c>
     </row>
-    <row r="121" ht="55.2" customHeight="1" s="4">
-      <c r="A121" s="3" t="inlineStr">
+    <row r="121" ht="54.75" customHeight="1" s="5">
+      <c r="A121" s="4" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B121" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
+      <c r="C121" s="4" t="inlineStr">
         <is>
           <t>Backend paper execution engine and price polling</t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="D121" s="4" t="inlineStr">
         <is>
           <t>S16_G02_TB001</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr">
+      <c r="E121" s="4" t="inlineStr">
         <is>
           <t>Implement a paper broker engine that manages simulated orders and periodically polls Zerodha LTP for symbols with open paper orders, filling LIMIT/SL/SL-M orders when prices cross configured levels.</t>
         </is>
       </c>
-      <c r="F121" s="3" t="inlineStr">
+      <c r="F121" s="4" t="inlineStr">
         <is>
           <t>Price monitoring will be based on LTP polling at the user-selected interval rather than a full order book simulation.</t>
         </is>
       </c>
-      <c r="G121" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H121" s="3" t="inlineStr">
+      <c r="G121" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H121" s="4" t="inlineStr">
         <is>
           <t>Paper trading engine added: simulated orders for strategies with execution_target=PAPER are filled via LTP-based rules in poll_paper_orders.</t>
         </is>
       </c>
-      <c r="I121" s="3" t="inlineStr">
+      <c r="I121" s="4" t="inlineStr">
         <is>
           <t>Initial engine supports MARKET and LIMIT fills; SL/SL-M logic can be added later if needed.</t>
         </is>
       </c>
     </row>
-    <row r="122" ht="55.2" customHeight="1" s="4">
-      <c r="A122" s="3" t="inlineStr">
+    <row r="122" ht="54.75" customHeight="1" s="5">
+      <c r="A122" s="4" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B122" s="3" t="inlineStr">
+      <c r="B122" s="4" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C122" s="3" t="inlineStr">
+      <c r="C122" s="4" t="inlineStr">
         <is>
           <t>Backend paper execution engine and price polling</t>
         </is>
       </c>
-      <c r="D122" s="3" t="inlineStr">
+      <c r="D122" s="4" t="inlineStr">
         <is>
           <t>S16_G02_TB002</t>
         </is>
       </c>
-      <c r="E122" s="3" t="inlineStr">
+      <c r="E122" s="4" t="inlineStr">
         <is>
           <t>Route TradingView AUTO orders and manual queue execution through the paper engine when the strategy/user is configured for PAPER, avoiding any real Zerodha calls and marking orders as simulated.</t>
         </is>
       </c>
-      <c r="F122" s="3" t="inlineStr">
+      <c r="F122" s="4" t="inlineStr">
         <is>
           <t>Simulated orders will use Order.simulated = True and separate status transitions while sharing the same analytics pipeline.</t>
         </is>
       </c>
-      <c r="G122" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H122" s="3" t="inlineStr">
+      <c r="G122" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H122" s="4" t="inlineStr">
         <is>
           <t>AUTO and manual executions for PAPER strategies are routed to submit_paper_order instead of Zerodha, and a /api/paper/poll endpoint runs fill passes.</t>
         </is>
       </c>
-      <c r="I122" s="3" t="inlineStr">
+      <c r="I122" s="4" t="inlineStr">
         <is>
           <t>External scheduler or manual calls control the poll frequency; no background scheduler is wired into the app yet.</t>
         </is>
       </c>
     </row>
-    <row r="123" ht="41.75" customHeight="1" s="4">
-      <c r="A123" s="3" t="inlineStr">
+    <row r="123" ht="41.25" customHeight="1" s="5">
+      <c r="A123" s="4" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B123" s="3" t="inlineStr">
+      <c r="B123" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
+      <c r="C123" s="4" t="inlineStr">
         <is>
           <t>Paper mode UI and analytics integration</t>
         </is>
       </c>
-      <c r="D123" s="3" t="inlineStr">
+      <c r="D123" s="4" t="inlineStr">
         <is>
           <t>S16_G03_TF001</t>
         </is>
       </c>
-      <c r="E123" s="3" t="inlineStr">
+      <c r="E123" s="4" t="inlineStr">
         <is>
           <t>Extend Settings/Strategies UI to let the user select LIVE vs PAPER execution per strategy (and optional default per user), along with the desired poll interval.</t>
         </is>
       </c>
-      <c r="F123" s="3" t="inlineStr">
+      <c r="F123" s="4" t="inlineStr">
         <is>
           <t>Initial UI can be a simple dropdown or radio group for execution mode plus a select for poll intervals (e.g., 15s, 30s, 1m, 5m, 15m, 1h, 4h).</t>
         </is>
       </c>
-      <c r="G123" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H123" s="3" t="inlineStr">
+      <c r="G123" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H123" s="4" t="inlineStr">
         <is>
           <t>Settings page now surfaces per-strategy execution_target (LIVE/PAPER) and paper_poll_interval_sec, making paper mode configuration discoverable in the UI.</t>
         </is>
       </c>
-      <c r="I123" s="3" t="inlineStr">
+      <c r="I123" s="4" t="inlineStr">
         <is>
           <t>Poll interval is still enforced externally via /api/paper/poll; future work may wire this into a scheduler.</t>
         </is>
       </c>
     </row>
-    <row r="124" ht="41.75" customHeight="1" s="4">
-      <c r="A124" s="3" t="inlineStr">
+    <row r="124" ht="41.25" customHeight="1" s="5">
+      <c r="A124" s="4" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B124" s="3" t="inlineStr">
+      <c r="B124" s="4" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C124" s="3" t="inlineStr">
+      <c r="C124" s="4" t="inlineStr">
         <is>
           <t>Paper mode UI and analytics integration</t>
         </is>
       </c>
-      <c r="D124" s="3" t="inlineStr">
+      <c r="D124" s="4" t="inlineStr">
         <is>
           <t>S16_G03_TF002</t>
         </is>
       </c>
-      <c r="E124" s="3" t="inlineStr">
+      <c r="E124" s="4" t="inlineStr">
         <is>
           <t>Update Queue, Orders, and Analytics views to label simulated paper trades clearly and allow filtering them in/out of P&amp;L and performance charts.</t>
         </is>
       </c>
-      <c r="F124" s="3" t="inlineStr">
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>UI will likely show a small PAPER / SIM tag and default analytics to include or exclude paper trades depending on user preference.</t>
         </is>
       </c>
-      <c r="G124" s="3" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H124" s="3" t="inlineStr">
+      <c r="G124" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H124" s="4" t="inlineStr">
         <is>
           <t>Orders and Analytics UIs now distinguish simulated (paper) trades, with toggles to show/hide them and an option to include them in analytics summary and trades.</t>
         </is>
       </c>
-      <c r="I124" s="3" t="inlineStr">
+      <c r="I124" s="4" t="inlineStr">
         <is>
           <t>Paper trades remain excluded from analytics by default; users can opt in via the new checkbox.</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="0" t="inlineStr">
+    <row r="125" ht="15" customHeight="1" s="5">
+      <c r="A125" s="7" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B125" s="0" t="inlineStr">
+      <c r="B125" s="7" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C125" s="0" t="inlineStr">
+      <c r="C125" s="7" t="inlineStr">
         <is>
           <t>Paper mode market-hours awareness</t>
         </is>
       </c>
-      <c r="D125" s="0" t="inlineStr">
+      <c r="D125" s="7" t="inlineStr">
         <is>
           <t>S16_G04_TB001</t>
         </is>
       </c>
-      <c r="E125" s="0" t="inlineStr">
+      <c r="E125" s="7" t="inlineStr">
         <is>
           <t>Introduce a market-hours helper (e.g., is_market_open_now) that models NSE/BSE trading sessions with local rules (weekday, 09:15–15:30 IST) and a configurable holiday calendar.</t>
         </is>
       </c>
-      <c r="F125" s="0" t="inlineStr">
+      <c r="F125" s="7" t="inlineStr">
         <is>
           <t>Holiday dates will be loaded from a local JSON config (e.g., indian_holidays.json) rather than relying on live APIs.</t>
         </is>
       </c>
-      <c r="G125" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" s="7" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H125" s="7" t="inlineStr">
         <is>
           <t>Added core.market_hours.is_market_open_now() modelling NSE/BSE trading hours (weekday, 09:15–15:30 IST) with optional holiday overrides from indian_holidays.json.</t>
         </is>
       </c>
-      <c r="I125" s="0" t="inlineStr">
+      <c r="I125" s="7" t="inlineStr">
         <is>
           <t>MIS auto square-off nuances are not yet modelled; both MIS and CNC share the same session window for now.</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="0" t="inlineStr">
+    <row r="126" ht="15" customHeight="1" s="5">
+      <c r="A126" s="7" t="inlineStr">
         <is>
           <t>S16</t>
         </is>
       </c>
-      <c r="B126" s="0" t="inlineStr">
+      <c r="B126" s="7" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C126" s="0" t="inlineStr">
+      <c r="C126" s="7" t="inlineStr">
         <is>
           <t>Paper mode market-hours awareness</t>
         </is>
       </c>
-      <c r="D126" s="0" t="inlineStr">
+      <c r="D126" s="7" t="inlineStr">
         <is>
           <t>S16_G04_TB002</t>
         </is>
       </c>
-      <c r="E126" s="0" t="inlineStr">
+      <c r="E126" s="7" t="inlineStr">
         <is>
           <t>Apply market-hours checks to paper execution: fail new paper orders placed outside market hours and skip paper fill logic when the market is closed.</t>
         </is>
       </c>
-      <c r="F126" s="0" t="inlineStr">
+      <c r="F126" s="7" t="inlineStr">
         <is>
           <t>When is_market_open_now is false, PAPER executions will set status=FAILED with a clear reason instead of simulating fills on stale LTP, while GTT flows remain allowed.</t>
         </is>
       </c>
-      <c r="G126" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" s="7" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H126" s="7" t="inlineStr">
         <is>
           <t>Paper execution now fails new orders when the market is closed and skips fill logic in poll_paper_orders outside trading hours; AUTO paper orders record a clear rejected event.</t>
         </is>
       </c>
-      <c r="I126" s="0" t="inlineStr">
+      <c r="I126" s="7" t="inlineStr">
         <is>
           <t>Behaviour for GTT remains unchanged (allowed off-hours); regular LIVE orders continue to rely on Zerodha errors for market-closed handling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="55.2" customHeight="1" s="5">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>Orders/Paper mode</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>Paper LIVE/PAPER routing for orders without strategy_id</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>SI_IR_0001</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t>Orders executed from the queue without a strategy_id were still routed to LIVE Zerodha execution even when the only configured strategy had Execution Target = PAPER.</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>Fix was to derive execution_target from the attached strategy when present, and otherwise fall back to the single configured strategy so that simple setups still respect PAPER vs LIVE.</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H127" s="4" t="inlineStr">
+        <is>
+          <t>This ensures manual and AUTO executions honour paper mode even for legacy orders not linked to a strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="55.2" customHeight="1" s="5">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>Orders/Paper mode</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>Paper orders showing Zerodha broker id in history</t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t>SI_IR_0002</t>
+        </is>
+      </c>
+      <c r="E128" s="4" t="inlineStr">
+        <is>
+          <t>Simulated (paper) orders in the Orders view were displaying Zerodha broker_account_id/zerodha_order_id in the Broker ID column, making it hard to distinguish live vs paper.</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>UI now renders Broker ID as "PAPER" whenever order.simulated is true, and only displays Zerodha identifiers for live orders.</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H128" s="4" t="inlineStr">
+        <is>
+          <t>Combined with the status suffix "(PAPER)", this makes paper executions clearly identifiable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="41.75" customHeight="1" s="5">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>Settings/Paper config</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>Paper poll interval UX &amp; validation</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>SI_IR_0003</t>
+        </is>
+      </c>
+      <c r="E129" s="4" t="inlineStr">
+        <is>
+          <t>Editing paper_poll_interval_sec triggered backend 422 errors on each keypress (e.g. typing 6 before 60) and surfaced raw Pydantic error JSON to the user.</t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>Introduced per-strategy draft values so typing does not call the backend until blur/Enter, and mapped backend 422s into a friendly message: "Paper poll interval must be between 15 and 14400 seconds."</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H129" s="4" t="inlineStr">
+        <is>
+          <t>The Strategies table now shows 15–14400 sec as helper text and accepts blank (default) or validated numeric intervals without spamming errors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B130" s="7" t="inlineStr">
+        <is>
+          <t>Settings/Broker UI</t>
+        </is>
+      </c>
+      <c r="C130" s="7" t="inlineStr">
+        <is>
+          <t>Merge Zerodha connection + broker config into a single broker-centric block</t>
+        </is>
+      </c>
+      <c r="D130" s="7" t="inlineStr">
+        <is>
+          <t>SI_IR_0004</t>
+        </is>
+      </c>
+      <c r="E130" s="7" t="inlineStr">
+        <is>
+          <t>Refactor Settings so Zerodha Connection and Broker Configuration appear as one combined broker card, grouping login/status and credentials together under the selected broker.</t>
+        </is>
+      </c>
+      <c r="F130" s="7" t="inlineStr">
+        <is>
+          <t>Keeps the layout broker-centric and prepares for future brokers (e.g., Fyers, AngelOne) that can plug their own connection + credential sections into the same pattern.</t>
+        </is>
+      </c>
+      <c r="G130" s="7" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Settings now shows a single broker-centric card that combines Zerodha connection status/login with per-user broker secrets under the selected broker.</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Future brokers (e.g., Fyers, AngelOne) can plug into the same card with their own connection controls.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="728">
   <si>
     <t xml:space="preserve">sprint#</t>
   </si>
@@ -2105,6 +2105,105 @@
   </si>
   <si>
     <t xml:space="preserve">Add richer analytics columns (RSI/volatility) and index cards later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicator-based alerts &amp; holdings analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17_G03_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design indicator_rule schema and alert condition model on top of candles store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicatorRule schema and JSON-based condition model defined on top of the candles store for indicator-driven alerts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend schema for additional indicators (VWAP, MA cross) as needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17_G03_TB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add ORM models + Alembic migration for indicator_rules and alert/source fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alembic migration creates indicator_rules table and links alerts via rule_id and source=INTERNAL_INDICATOR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify migrations on non-dev databases when rolling out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17_G03_TB003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement indicator engine to compute RSI, MAs, volatility, ATR, and performance windows from candles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicator_alerts service computes RSI, moving averages, volatility, ATR, performance windows, and volume ratios using market_data.load_series.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add more indicators (e.g., VWAP, MA cross) and unit benchmarks if required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17_G03_TB004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement rule evaluation + alert/order creation pipeline using existing risk engine and orders API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule evaluation engine resolves HOLDINGS universe, evaluates conditions with AND/OR logic, records INTERNAL_INDICATOR alerts, and enqueues optional WAITING orders (SELL_PERCENT / BUY_QUANTITY).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tighten risk-engine integration once live trading usage grows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17_G03_TB005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add scheduler / evaluation endpoint to run indicator rules periodically in IST market hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background scheduler thread evaluates enabled indicator rules every few minutes in IST; evaluate_indicator_rules_once() is available for manual runs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider external scheduler/cron wiring for multi-process deployments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17_G03_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expose indicator columns (RSI, MA%, volatility, performance) in Holdings DataGrid with filtering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holdings DataGrid now derives RSI(14), 1M/1Y price performance, volatility 20D%, ATR(14)%, and volume-vs-20D-average columns from OHLCV history with numeric filters and negative-value highlighting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine-tune default column visibility and add additional windows if desired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17_G03_TF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add TradingView-style Alert modal on Holdings rows to create/edit indicator rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Holdings row exposes an Alert button that opens a modal to configure indicator rules (indicator, operator, thresholds, period/window, trigger mode, and action type) backed by /api/indicator-alerts CRUD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend modal to support multi-condition rules and per-rule naming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17_G03_TF003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface fired indicator alerts and resulting WAITING orders in Alerts panel and Queue view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fired indicator rules create INTERNAL_INDICATOR alerts and corresponding WAITING orders that flow through the existing queue and execution pipeline alongside TradingView alerts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add explicit UI badges/filters to distinguish indicator-based entries in the queue.</t>
   </si>
 </sst>
 </file>
@@ -2466,10 +2565,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C130" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C138" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6269,6 +6368,214 @@
         <v>694</v>
       </c>
     </row>
+    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="799">
   <si>
     <t xml:space="preserve">sprint#</t>
   </si>
@@ -2332,10 +2332,10 @@
     <t xml:space="preserve">Current Alerts page focuses on indicator rules; TradingView alerts integration will follow later.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alerts page added with DataGrid listing indicator rules, strategy linkage, timeframe, action, enabled status, and timestamps, plus room for future filters/actions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augment Alerts page with TradingView alerts, richer filters, and pause/edit actions.</t>
+    <t xml:space="preserve">Alerts page lists indicator rules with strategy linkage, status, timestamps, and now includes edit/pause/delete management actions for internal alerts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate TradingView alerts into the Alerts page and add richer filters and bulk actions.</t>
   </si>
   <si>
     <t xml:space="preserve">S18_G03_TF003</t>
@@ -2354,6 +2354,69 @@
   </si>
   <si>
     <t xml:space="preserve">Implement per-symbol alert chip/badge showing active rule count and quick access panel, wired to indicator_rules and Alerts page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSL-backed indicator alerts end-to-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S18_G04_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend indicator alert API/model so rules can optionally carry a dsl_expression that is parsed into expression_json while keeping conditions_json backward compatible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds directly on the S18/G01 expression engine and keeps existing single-condition alerts working unchanged.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicator_rules now support optional dsl_expression; create/update APIs parse DSL into expression_json while keeping conditions_json for backwards compatibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider allowing rules that rely solely on expression_json without placeholder conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S18_G04_TB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire expression_json evaluation into the indicator alert scheduler so rules backed by the AST drive firing logic, with a safe fallback to legacy condition-based evaluation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduler chooses expression_json when present and falls back to existing conditions_json logic to avoid breaking older rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicator alert scheduler evaluates expression_json-backed rules via the AST engine and falls back to legacy per-condition logic when no expression is present, updating last_evaluated_at for each rule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tune scheduling/logging and consolidate metrics for expression vs legacy rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S18_G04_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Simple/DSL mode toggle and DSL editor to the indicator alert dialog, with inline validation and parse errors surfaced from the backend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI will keep the current single-condition builder as the Simple mode and introduce a DSL textarea tab that talks to a small /api/indicator-alerts/parse endpoint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holdings alert dialog now has Simple/DSL tabs; DSL mode sends dsl_expression to the backend and uses the same trigger/action settings as the simple builder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional: add live DSL validation/preview endpoint and nicer formatting helpers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S18_G04_TF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load and display existing DSL-backed rules in Holdings and Alerts views, including showing the compiled DSL text and allowing edits via the DSL editor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus first on read/edit for per-symbol indicator rules; group/basket DSL support can follow later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSL-backed rules are surfaced in Holdings (Existing alerts list) and on the Alerts page, which now supports editing enabled/trigger mode and updating DSL text, plus delete actions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expose DSL snippets directly in the Alerts grid and add deeper filters (e.g., by strategy or DSL presence).</t>
   </si>
 </sst>
 </file>
@@ -2715,10 +2778,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C151" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E155" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6726,7 +6789,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>728</v>
       </c>
@@ -6755,7 +6818,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>728</v>
       </c>
@@ -6784,7 +6847,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>728</v>
       </c>
@@ -6813,7 +6876,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>728</v>
       </c>
@@ -6842,7 +6905,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>728</v>
       </c>
@@ -6871,7 +6934,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>728</v>
       </c>
@@ -6900,7 +6963,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>728</v>
       </c>
@@ -6929,7 +6992,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>728</v>
       </c>
@@ -6958,7 +7021,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>728</v>
       </c>
@@ -6985,6 +7048,122 @@
       </c>
       <c r="I152" s="1" t="s">
         <v>777</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A155" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D162" activeCellId="0" sqref="D162"/>
@@ -7871,6 +7871,174 @@
         </is>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>S20</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Holdings trade sizing &amp; risk controls</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>S20_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Expose a lightweight portfolio summary (live equity and per-symbol position values) to support % of portfolio and risk-based sizing calculations.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Reuses existing holdings/positions data; initial implementation can be an internal helper or small API endpoint without full reporting UI.</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Provides a single source of truth for total portfolio value and per-position notional used by sizing modes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>S20</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Holdings trade sizing &amp; risk controls</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>S20_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Extend Buy/Sell dialog with unified sizing modes (Qty, Amount, % of position, % of portfolio) and consistent auto-calculation between them.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Builds on the current Qty/Amount/% of position behaviour, adding a % of portfolio mode that derives target notional from portfolio value.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Keeps day-to-day trading simple while enabling portfolio-level rebalancing directly from the holdings dialog.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>S20</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Holdings trade sizing &amp; risk controls</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>S20_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Add backend helper to compute risk-based position size from entry price, stop level, and risk budget (₹ or % of portfolio).</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Implemented as a pure function/service that can be reused later by strategies or analytics; no execution decisions are automated in this phase.</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Encodes the core risk per share and max-loss sizing formulas in one validated place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>S20</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Holdings trade sizing &amp; risk controls</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>S20_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Introduce a Risk sizing mode in the Buy/Sell dialog that lets the user specify risk budget and stop price and shows derived qty/amount and expected max loss.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Risk mode is optional and advanced; it calls the backend helper for calculations but still requires the user to confirm and submit orders manually.</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Makes it easier to keep per-trade downside consistent without changing the existing order-routing pipeline.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C161" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E169" activeCellId="0" sqref="1:1048576"/>
@@ -8165,6 +8165,174 @@
         </is>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Custom bracket orders (primary + follow-up GTT legs)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>S21_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Design and implement backend helper/flow to create paired manual orders (primary + LIMIT GTT leg) given side, qty, effective price, and MTP.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Keeps invariant that each leg is a normal WAITING manual order; does not introduce broker-specific bracket types.</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Provides a single place to compute P_target/P_reentry and create the extra GTT order consistently for both BUY and SELL.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Custom bracket orders (primary + follow-up GTT legs)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>S21_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Extend Holdings Buy/Sell dialog with a Bracket section that lets the user enable a follow-up GTT leg, pre-fills MTP% from current appreciation, and previews the derived target price.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Bracket invocation remains manual; dialog simply creates two manual orders via the existing orders API.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Makes it easy to add profit-target or re-entry GTT orders alongside normal trades without changing queue semantics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Custom bracket orders (primary + follow-up GTT legs)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>S21_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Highlight bracket-related information in the Queue and Orders grids (order_type, trigger_price, GTT flag) and optionally tag bracket legs for easier identification.</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Builds on the existing DataGrid-based queue and orders views added earlier.</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Improves transparency so you can quickly see which waiting orders are bracket legs and how they are configured.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Bracket-order backtesting using Kite OHLCV</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>S21_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Add a backend console script that pulls OHLCV via the existing market-data layer and simulates the custom bracket logic over a given symbol, timeframe, and lookback.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Focus initial experiments on BSE and NETWEB over the last month but keep the script parameterised for any symbol.</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Enables quantitative evaluation of how often the MTP-based bracket legs would have been filled and the resulting P&amp;L and drawdowns.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,9 +359,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C161" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C164" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E169" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
     </row>
-    <row r="167" ht="41.75" customHeight="1" s="4">
+    <row r="167" ht="41.25" customHeight="1" s="4">
       <c r="A167" s="3" t="inlineStr">
         <is>
           <t>S20</t>
@@ -7913,7 +7913,7 @@
         </is>
       </c>
     </row>
-    <row r="168" ht="41.75" customHeight="1" s="4">
+    <row r="168" ht="41.25" customHeight="1" s="4">
       <c r="A168" s="3" t="inlineStr">
         <is>
           <t>S20</t>
@@ -7955,7 +7955,7 @@
         </is>
       </c>
     </row>
-    <row r="169" ht="41.75" customHeight="1" s="4">
+    <row r="169" ht="41.25" customHeight="1" s="4">
       <c r="A169" s="3" t="inlineStr">
         <is>
           <t>S20</t>
@@ -7997,7 +7997,7 @@
         </is>
       </c>
     </row>
-    <row r="170" ht="41.75" customHeight="1" s="4">
+    <row r="170" ht="41.25" customHeight="1" s="4">
       <c r="A170" s="3" t="inlineStr">
         <is>
           <t>S20</t>
@@ -8039,7 +8039,7 @@
         </is>
       </c>
     </row>
-    <row r="171" ht="41.75" customHeight="1" s="4">
+    <row r="171" ht="41.25" customHeight="1" s="4">
       <c r="A171" s="3" t="inlineStr">
         <is>
           <t>S20</t>
@@ -8081,7 +8081,7 @@
         </is>
       </c>
     </row>
-    <row r="172" ht="41.75" customHeight="1" s="4">
+    <row r="172" ht="41.25" customHeight="1" s="4">
       <c r="A172" s="3" t="inlineStr">
         <is>
           <t>S20</t>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
     </row>
-    <row r="173" ht="41.75" customHeight="1" s="4">
+    <row r="173" ht="41.25" customHeight="1" s="4">
       <c r="A173" s="3" t="inlineStr">
         <is>
           <t>S20</t>
@@ -8165,171 +8165,255 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="174" ht="41.75" customHeight="1" s="4">
+      <c r="A174" s="3" t="inlineStr">
         <is>
           <t>S21</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="3" t="inlineStr">
         <is>
           <t>Custom bracket orders (primary + follow-up GTT legs)</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D174" s="3" t="inlineStr">
         <is>
           <t>S21_G01_TB001</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E174" s="3" t="inlineStr">
         <is>
           <t>Design and implement backend helper/flow to create paired manual orders (primary + LIMIT GTT leg) given side, qty, effective price, and MTP.</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="3" t="inlineStr">
         <is>
           <t>Keeps invariant that each leg is a normal WAITING manual order; does not introduce broker-specific bracket types.</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="G174" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H174" s="3" t="inlineStr">
+        <is>
+          <t>Bracket pairing implemented by creating a second LIMIT+GTT manual order from the frontend using existing /api/orders/, avoiding extra backend helper complexity in this phase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="55.2" customHeight="1" s="4">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>Custom bracket orders (primary + follow-up GTT legs)</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>S21_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>Extend Holdings Buy/Sell dialog with a Bracket section that lets the user enable a follow-up GTT leg, pre-fills MTP% from current appreciation, and previews the derived target price.</t>
+        </is>
+      </c>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>Bracket invocation remains manual; dialog simply creates two manual orders via the existing orders API.</t>
+        </is>
+      </c>
+      <c r="G175" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H175" s="3" t="inlineStr">
+        <is>
+          <t>Holdings Buy/Sell dialog now has a Bracket section with enable checkbox, MTP% field, and live GTT price preview.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="41.75" customHeight="1" s="4">
+      <c r="A176" s="3" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>Custom bracket orders (primary + follow-up GTT legs)</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>S21_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>Highlight bracket-related information in the Queue and Orders grids (order_type, trigger_price, GTT flag) and optionally tag bracket legs for easier identification.</t>
+        </is>
+      </c>
+      <c r="F176" s="3" t="inlineStr">
+        <is>
+          <t>Builds on the existing DataGrid-based queue and orders views added earlier.</t>
+        </is>
+      </c>
+      <c r="G176" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H176" s="3" t="inlineStr">
+        <is>
+          <t>Queue and Orders grids converted to DataGrid and now expose order_type, trigger_price, and GTT flags clearly (e.g. LIMIT (GTT)).</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="55.2" customHeight="1" s="4">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>Bracket-order backtesting using Kite OHLCV</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>S21_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>Add a backend console script that pulls OHLCV via the existing market-data layer and simulates the custom bracket logic over a given symbol, timeframe, and lookback.</t>
+        </is>
+      </c>
+      <c r="F177" s="3" t="inlineStr">
+        <is>
+          <t>Focus initial experiments on BSE and NETWEB over the last month but keep the script parameterised for any symbol.</t>
+        </is>
+      </c>
+      <c r="G177" s="3" t="inlineStr">
         <is>
           <t>planned</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Provides a single place to compute P_target/P_reentry and create the extra GTT order consistently for both BUY and SELL.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="H177" s="3" t="inlineStr">
+        <is>
+          <t>Enables quantitative evaluation of how often the MTP-based bracket legs would have been filled and the resulting P&amp;L and drawdowns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="41.75" customHeight="1" s="4">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>S21</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B178" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C178" s="3" t="inlineStr">
         <is>
           <t>Custom bracket orders (primary + follow-up GTT legs)</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>S21_G01_TF001</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Extend Holdings Buy/Sell dialog with a Bracket section that lets the user enable a follow-up GTT leg, pre-fills MTP% from current appreciation, and previews the derived target price.</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Bracket invocation remains manual; dialog simply creates two manual orders via the existing orders API.</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Makes it easy to add profit-target or re-entry GTT orders alongside normal trades without changing queue semantics.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>S21_G01_TF003</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>Refine SELL-side default MTP logic so that it mirrors positive Today P&amp;L% only above a small threshold and clamps to a reasonable min/max band.</t>
+        </is>
+      </c>
+      <c r="F178" s="3" t="inlineStr">
+        <is>
+          <t>Implements a 3% appreciation threshold with 3–20% clamps instead of always using raw gain.</t>
+        </is>
+      </c>
+      <c r="G178" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H178" s="3" t="inlineStr">
+        <is>
+          <t>Uses today_pnl_percent from holdings with a 3% threshold and 3–20% clamps, instead of raw gain vs average price.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>S21</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Custom bracket orders (primary + follow-up GTT legs)</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>S21_G01_TF002</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Highlight bracket-related information in the Queue and Orders grids (order_type, trigger_price, GTT flag) and optionally tag bracket legs for easier identification.</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Builds on the existing DataGrid-based queue and orders views added earlier.</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Improves transparency so you can quickly see which waiting orders are bracket legs and how they are configured.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>S21</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Bracket-order backtesting using Kite OHLCV</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>S21_G02_TB001</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Add a backend console script that pulls OHLCV via the existing market-data layer and simulates the custom bracket logic over a given symbol, timeframe, and lookback.</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Focus initial experiments on BSE and NETWEB over the last month but keep the script parameterised for any symbol.</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Enables quantitative evaluation of how often the MTP-based bracket legs would have been filled and the resulting P&amp;L and drawdowns.</t>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Portfolio improvement guidelines &amp; triage framework</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>S21_G03_TD001</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Document practical portfolio-stabilisation and profit-framework suggestions (A/B/C buckets, bracket use, risk sizing) in pf_improvement_suggestions.md.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Pure documentation/design task; no code changes beyond the new markdown file.</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Provides a reference playbook for using SigmaTrader tools to manage existing losers and structure new trades systematically.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,10 +359,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C164" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E169" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C173" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E179" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -8165,7 +8165,7 @@
         </is>
       </c>
     </row>
-    <row r="174" ht="41.75" customHeight="1" s="4">
+    <row r="174" ht="41.25" customHeight="1" s="4">
       <c r="A174" s="3" t="inlineStr">
         <is>
           <t>S21</t>
@@ -8207,7 +8207,7 @@
         </is>
       </c>
     </row>
-    <row r="175" ht="55.2" customHeight="1" s="4">
+    <row r="175" ht="54.75" customHeight="1" s="4">
       <c r="A175" s="3" t="inlineStr">
         <is>
           <t>S21</t>
@@ -8249,7 +8249,7 @@
         </is>
       </c>
     </row>
-    <row r="176" ht="41.75" customHeight="1" s="4">
+    <row r="176" ht="41.25" customHeight="1" s="4">
       <c r="A176" s="3" t="inlineStr">
         <is>
           <t>S21</t>
@@ -8291,7 +8291,7 @@
         </is>
       </c>
     </row>
-    <row r="177" ht="55.2" customHeight="1" s="4">
+    <row r="177" ht="54.75" customHeight="1" s="4">
       <c r="A177" s="3" t="inlineStr">
         <is>
           <t>S21</t>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="41.75" customHeight="1" s="4">
+    <row r="178" ht="41.25" customHeight="1" s="4">
       <c r="A178" s="3" t="inlineStr">
         <is>
           <t>S21</t>
@@ -8375,45 +8375,267 @@
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="179" ht="41.75" customHeight="1" s="4">
+      <c r="A179" s="3" t="inlineStr">
         <is>
           <t>S21</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="3" t="inlineStr">
         <is>
           <t>Portfolio improvement guidelines &amp; triage framework</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D179" s="3" t="inlineStr">
         <is>
           <t>S21_G03_TD001</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E179" s="3" t="inlineStr">
         <is>
           <t>Document practical portfolio-stabilisation and profit-framework suggestions (A/B/C buckets, bracket use, risk sizing) in pf_improvement_suggestions.md.</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F179" s="3" t="inlineStr">
         <is>
           <t>Pure documentation/design task; no code changes beyond the new markdown file.</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H179" s="3" t="inlineStr">
         <is>
           <t>Provides a reference playbook for using SigmaTrader tools to manage existing losers and structure new trades systematically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="41.75" customHeight="1" s="4">
+      <c r="A180" s="3" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>Holdings screener &amp; batch actions</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>S22_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>Replace Holdings advanced filters with a Screener panel (builder mode) that supports multiple conditions with AND/OR and persists as a saved screener definition.</t>
+        </is>
+      </c>
+      <c r="G180" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H180" s="3" t="inlineStr">
+        <is>
+          <t>First iteration uses client-side evaluation on the existing holdings payload and reuses DataGrid filtering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="41.75" customHeight="1" s="4">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>Holdings screener &amp; batch actions</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>S22_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>Add a DSL mode to the Holdings screener that lets users write filter expressions using the indicator/alert DSL and validates them via the existing DSL parser.</t>
+        </is>
+      </c>
+      <c r="G181" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H181" s="3" t="inlineStr">
+        <is>
+          <t>Keeps DSL syntax consistent with indicator alerts while limiting evaluation to metrics already computed for holdings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="55.2" customHeight="1" s="4">
+      <c r="A182" s="3" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>Holdings screener &amp; batch actions</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>S22_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>Expose a backend helper or endpoint to evaluate DSL-based screener expressions against the user’s holdings, reusing the alert expression engine and indicator metrics.</t>
+        </is>
+      </c>
+      <c r="G182" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H182" s="3" t="inlineStr">
+        <is>
+          <t>Provides a single place to evaluate more complex screeners and keeps client logic simple.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="41.75" customHeight="1" s="4">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>Groups/baskets &amp; basic watchlists (Phase 1)</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>S22_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>Add schema and ORM models for groups and group_members to represent named baskets, watchlists, and model portfolios.</t>
+        </is>
+      </c>
+      <c r="G183" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H183" s="3" t="inlineStr">
+        <is>
+          <t>Sets up data structures to attach symbols and optional target weights to user-defined groups.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="41.75" customHeight="1" s="4">
+      <c r="A184" s="3" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>Groups/baskets &amp; basic watchlists (Phase 1)</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t>S22_G02_TF001</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>Add a Groups page to create and edit groups, manage member symbols, and assign equal or custom target weights.</t>
+        </is>
+      </c>
+      <c r="G184" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H184" s="3" t="inlineStr">
+        <is>
+          <t>Provides a base UI for constructing candidate portfolios and watchlists independent of current holdings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="55.2" customHeight="1" s="4">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>Groups/baskets &amp; basic watchlists (Phase 1)</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>S22_G02_TF002</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>Integrate group membership into Holdings so rows can be tagged with groups and filtered by group, and add an action to allocate a fixed amount equally across a selected group via queued orders.</t>
+        </is>
+      </c>
+      <c r="G185" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H185" s="3" t="inlineStr">
+        <is>
+          <t>Reuses the existing Buy/Sell dialog and manual queue to implement basket-level investment flows.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -8556,12 +8556,12 @@
       </c>
       <c r="G183" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H183" s="3" t="inlineStr">
         <is>
-          <t>Sets up data structures to attach symbols and optional target weights to user-defined groups.</t>
+          <t>DB models + APIs for groups/group_members present.</t>
         </is>
       </c>
     </row>
@@ -8593,12 +8593,12 @@
       </c>
       <c r="G184" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H184" s="3" t="inlineStr">
         <is>
-          <t>Provides a base UI for constructing candidate portfolios and watchlists independent of current holdings.</t>
+          <t>Groups page supports create/edit, members, weights, bulk add.</t>
         </is>
       </c>
     </row>
@@ -8630,12 +8630,12 @@
       </c>
       <c r="G185" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H185" s="3" t="inlineStr">
         <is>
-          <t>Reuses the existing Buy/Sell dialog and manual queue to implement basket-level investment flows.</t>
+          <t>Holdings integrates group tags; allocate flow queues orders.</t>
         </is>
       </c>
     </row>
@@ -8670,7 +8670,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H186" s="0" t="inlineStr">
         <is>
           <t>Universe types + holdings adapter in place.</t>
         </is>
@@ -8707,7 +8707,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="H187" s="0" t="inlineStr">
         <is>
           <t>UniverseGrid extracted and reused by HoldingsPage.</t>
         </is>
@@ -8744,7 +8744,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="H188" s="0" t="inlineStr">
         <is>
           <t>HoldingsPage now uses UniverseGrid adapter.</t>
         </is>
@@ -8781,7 +8781,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="H189" s="0" t="inlineStr">
         <is>
           <t>Universe picker supports holdings + group universes.</t>
         </is>
@@ -8818,7 +8818,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H190" s="0" t="inlineStr">
         <is>
           <t>Group universe loads members + holdings overlay; Groups open-in-grid.</t>
         </is>
@@ -8855,7 +8855,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H191" s="0" t="inlineStr">
         <is>
           <t>Bulk trade generalized; per-holding sizing/overrides preserved.</t>
         </is>
@@ -8892,7 +8892,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H192" s="0" t="inlineStr">
         <is>
           <t>CNC SELL clamps to holdings qty; MIS shorts allowed; bulk price per symbol + regression test.</t>
         </is>
@@ -8926,7 +8926,12 @@
       </c>
       <c r="G193" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Added group member reference qty/price + PORTFOLIO kind; migration 0023.</t>
         </is>
       </c>
     </row>
@@ -8958,7 +8963,12 @@
       </c>
       <c r="G194" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Holdings/UniverseGrid shows ref qty/price, amount required, P&amp;L since; GroupsPage edits ref fields.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,10 +359,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A179" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C183" activeCellId="0" sqref="C183"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B195" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -8639,7 +8639,7 @@
         </is>
       </c>
     </row>
-    <row r="186" ht="28.35" customHeight="1" s="4">
+    <row r="186" ht="27.75" customHeight="1" s="4">
       <c r="A186" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8670,13 +8670,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H186" s="0" t="inlineStr">
+      <c r="H186" s="3" t="inlineStr">
         <is>
           <t>Universe types + holdings adapter in place.</t>
         </is>
       </c>
     </row>
-    <row r="187" ht="41.75" customHeight="1" s="4">
+    <row r="187" ht="41.25" customHeight="1" s="4">
       <c r="A187" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8707,13 +8707,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H187" s="0" t="inlineStr">
+      <c r="H187" s="3" t="inlineStr">
         <is>
           <t>UniverseGrid extracted and reused by HoldingsPage.</t>
         </is>
       </c>
     </row>
-    <row r="188" ht="28.35" customHeight="1" s="4">
+    <row r="188" ht="27.75" customHeight="1" s="4">
       <c r="A188" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8744,13 +8744,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H188" s="0" t="inlineStr">
+      <c r="H188" s="3" t="inlineStr">
         <is>
           <t>HoldingsPage now uses UniverseGrid adapter.</t>
         </is>
       </c>
     </row>
-    <row r="189" ht="28.35" customHeight="1" s="4">
+    <row r="189" ht="27.75" customHeight="1" s="4">
       <c r="A189" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8781,13 +8781,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H189" s="0" t="inlineStr">
+      <c r="H189" s="3" t="inlineStr">
         <is>
           <t>Universe picker supports holdings + group universes.</t>
         </is>
       </c>
     </row>
-    <row r="190" ht="28.35" customHeight="1" s="4">
+    <row r="190" ht="27.75" customHeight="1" s="4">
       <c r="A190" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8818,13 +8818,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H190" s="0" t="inlineStr">
+      <c r="H190" s="3" t="inlineStr">
         <is>
           <t>Group universe loads members + holdings overlay; Groups open-in-grid.</t>
         </is>
       </c>
     </row>
-    <row r="191" ht="28.35" customHeight="1" s="4">
+    <row r="191" ht="27.75" customHeight="1" s="4">
       <c r="A191" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8855,13 +8855,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H191" s="0" t="inlineStr">
+      <c r="H191" s="3" t="inlineStr">
         <is>
           <t>Bulk trade generalized; per-holding sizing/overrides preserved.</t>
         </is>
       </c>
     </row>
-    <row r="192" ht="28.35" customHeight="1" s="4">
+    <row r="192" ht="27.75" customHeight="1" s="4">
       <c r="A192" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8892,13 +8892,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H192" s="0" t="inlineStr">
+      <c r="H192" s="3" t="inlineStr">
         <is>
           <t>CNC SELL clamps to holdings qty; MIS shorts allowed; bulk price per symbol + regression test.</t>
         </is>
       </c>
     </row>
-    <row r="193" ht="28.35" customHeight="1" s="4">
+    <row r="193" ht="27.75" customHeight="1" s="4">
       <c r="A193" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8929,13 +8929,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="H193" s="3" t="inlineStr">
         <is>
           <t>Added group member reference qty/price + PORTFOLIO kind; migration 0023.</t>
         </is>
       </c>
     </row>
-    <row r="194" ht="28.35" customHeight="1" s="4">
+    <row r="194" ht="27.75" customHeight="1" s="4">
       <c r="A194" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -8966,9 +8966,157 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H194" s="3" t="inlineStr">
         <is>
           <t>Holdings/UniverseGrid shows ref qty/price, amount required, P&amp;L since; GroupsPage edits ref fields.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="41.75" customHeight="1" s="4">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>Trade dialog execution routing (manual/auto + live/paper)</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>S23_G05_TB001</t>
+        </is>
+      </c>
+      <c r="E195" s="3" t="inlineStr">
+        <is>
+          <t>Add per-order execution_target (LIVE/PAPER) and extend order create/execute flow to support AUTO (send now) vs MANUAL (queue) with audit trail.</t>
+        </is>
+      </c>
+      <c r="G195" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H195" s="3" t="inlineStr">
+        <is>
+          <t>Supports trade dialogs; auto skips Waiting Queue but persists in Orders history.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="41.75" customHeight="1" s="4">
+      <c r="A196" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>Trade dialog execution routing (manual/auto + live/paper)</t>
+        </is>
+      </c>
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t>S23_G05_TF001</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="inlineStr">
+        <is>
+          <t>Add Mode (MANUAL/AUTO) + Execution Target (LIVE/PAPER) controls to per-symbol and bulk buy/sell dialogs; default MANUAL + LIVE; confirm on AUTO+LIVE.</t>
+        </is>
+      </c>
+      <c r="G196" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H196" s="3" t="inlineStr">
+        <is>
+          <t>AUTO executes immediately; MANUAL enqueues. Bulk executes sequentially with progress.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="28.35" customHeight="1" s="4">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>Trade dialog execution routing (manual/auto + live/paper)</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>S23_G05_TF002</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr">
+        <is>
+          <t>Add columns to show order mode + execution_target in Orders/Queue UIs and enable quick filtering.</t>
+        </is>
+      </c>
+      <c r="G197" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H197" s="3" t="inlineStr">
+        <is>
+          <t>Queue primarily shows MANUAL, but mode column helps audit and debugging.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="41.75" customHeight="1" s="4">
+      <c r="A198" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>Trade dialog execution routing (manual/auto + live/paper)</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>S23_G05_TF003</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>Add Settings defaults for trade dialogs (default mode + default execution target) and persist in localStorage/server config as appropriate.</t>
+        </is>
+      </c>
+      <c r="G198" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H198" s="3" t="inlineStr">
+        <is>
+          <t>Keeps UX safe by default; user can opt-in to AUTO/LIVE.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,10 +359,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B195" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A200" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C207" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -8972,7 +8972,7 @@
         </is>
       </c>
     </row>
-    <row r="195" ht="41.75" customHeight="1" s="4">
+    <row r="195" ht="41.25" customHeight="1" s="4">
       <c r="A195" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -9009,7 +9009,7 @@
         </is>
       </c>
     </row>
-    <row r="196" ht="41.75" customHeight="1" s="4">
+    <row r="196" ht="41.25" customHeight="1" s="4">
       <c r="A196" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
     </row>
-    <row r="197" ht="28.35" customHeight="1" s="4">
+    <row r="197" ht="27.75" customHeight="1" s="4">
       <c r="A197" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
     </row>
-    <row r="198" ht="41.75" customHeight="1" s="4">
+    <row r="198" ht="41.25" customHeight="1" s="4">
       <c r="A198" s="3" t="inlineStr">
         <is>
           <t>S23</t>
@@ -9117,6 +9117,619 @@
       <c r="H198" s="3" t="inlineStr">
         <is>
           <t>Keeps UX safe by default; user can opt-in to AUTO/LIVE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="55.2" customHeight="1" s="4">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TB001</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>Define AlertDefinition + AlertEvent schemas/models (target symbol/universe, variables, condition DSL, trigger_mode, evaluation_cadence, time constraints) and CRUD APIs.</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>New v3 tables + APIs under /api/alerts-v3; alert targets: SYMBOL/HOLDINGS/GROUP.</t>
+        </is>
+      </c>
+      <c r="G199" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H199" s="3" t="inlineStr">
+        <is>
+          <t>Added AlertDefinition/CustomIndicator/AlertEvent models + CRUD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="41.75" customHeight="1" s="4">
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TB002</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>Implement per-alert evaluation cadence scheduler using latest completed bars for each referenced timeframe; enforce missing-data=false rule.</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Scheduler runs every ~15s and skips alerts until cadence due; uses latest available bars in DB.</t>
+        </is>
+      </c>
+      <c r="G200" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H200" s="3" t="inlineStr">
+        <is>
+          <t>Per-alert cadence evaluation implemented; missing-data returns false.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="41.75" customHeight="1" s="4">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TB003</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>Implement event operators semantics: CROSSES_ABOVE/BELOW and MOVING_UP/DOWN (numeric RHS only) with now/prev rules.</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Supports aliases CROSSING_* -&gt; CROSSES_*.</t>
+        </is>
+      </c>
+      <c r="G201" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H201" s="3" t="inlineStr">
+        <is>
+          <t>CROSSES_ABOVE/BELOW + MOVING_UP/DOWN (numeric RHS) implemented.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="41.75" customHeight="1" s="4">
+      <c r="A202" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TB004</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>Add metrics/columns as operands (TODAY_PNL_PCT, PNL_PCT, INVESTED, CURRENT_VALUE, etc.) accessible in expressions and snapshots.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Metrics computed from Position + 1d candles; prev values approximated.</t>
+        </is>
+      </c>
+      <c r="G202" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H202" s="3" t="inlineStr">
+        <is>
+          <t>Added metric operands (TODAY_PNL_PCT, PNL_PCT, etc).</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Enhance snapshot to include per-variable values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="41.75" customHeight="1" s="4">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TB005</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>Custom indicators backend (Phase A): model + CRUD + validation + allowed function set (A MVP surface) + compilation/cache hooks.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Phase A function allowlist enforced at compile time; recursion not supported.</t>
+        </is>
+      </c>
+      <c r="G203" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H203" s="3" t="inlineStr">
+        <is>
+          <t>Custom indicators CRUD + validation + compilation implemented.</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Add preview endpoint/UI for formula values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="41.75" customHeight="1" s="4">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TB006</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>Add evaluation/test endpoints for “Test on last bar” preview (return per-symbol TRUE/FALSE + snapshot + missing-data reasons).</t>
+        </is>
+      </c>
+      <c r="G204" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H204" s="3" t="inlineStr">
+        <is>
+          <t>Not implemented yet.</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Add test/preview endpoint returning per-symbol evaluation + snapshot/missing-data reason.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="41.75" customHeight="1" s="4">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TB007</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="inlineStr">
+        <is>
+          <t>Backend tests: condition builder DSL serialization, operator semantics, per-alert cadence scheduling, custom indicator validation guardrails.</t>
+        </is>
+      </c>
+      <c r="G205" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H205" s="3" t="inlineStr">
+        <is>
+          <t>Added backend regression tests for v3 parser/compiler/evaluator + API.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="28.35" customHeight="1" s="4">
+      <c r="A206" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TF001</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>Build Alerts module page with tabs: Alerts / Indicators / Events; add routing + navigation entry.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Implemented inside existing Alerts page as tabs; kept Legacy tab.</t>
+        </is>
+      </c>
+      <c r="G206" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H206" s="3" t="inlineStr">
+        <is>
+          <t>Alerts page now has tabs: Alerts/Indicators/Events/Legacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="41.75" customHeight="1" s="4">
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TF002</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="inlineStr">
+        <is>
+          <t>Implement Create/Edit Alert wizard: Target → Variables → Conditions → Trigger settings; store canonical DSL string; show read-only DSL preview.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Implemented as a single Create/Edit dialog (not multi-step wizard).</t>
+        </is>
+      </c>
+      <c r="G207" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H207" s="3" t="inlineStr">
+        <is>
+          <t>Create/Edit alert via dialog; variables defined as name+DSL.</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Add multi-step wizard + target/group picker UI.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="41.75" customHeight="1" s="4">
+      <c r="A208" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TF003</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>Condition builder UI: operand pickers (Variable/Metric/Constant), operators (relational + event), AND/OR join, add/remove rows.</t>
+        </is>
+      </c>
+      <c r="G208" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H208" s="3" t="inlineStr">
+        <is>
+          <t>Not implemented; using free-form DSL for conditions.</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Build condition builder UI with operand pickers and AND/OR joining.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="41.75" customHeight="1" s="4">
+      <c r="A209" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D209" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TF004</t>
+        </is>
+      </c>
+      <c r="E209" s="3" t="inlineStr">
+        <is>
+          <t>Variables UI: indicator variable rows + metric variable support; hide/disable Bars/Length for PRICE/VOLUME primitives.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Variable UI currently DSL-only; no structured indicator/metric variable rows yet.</t>
+        </is>
+      </c>
+      <c r="G209" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H209" s="3" t="inlineStr">
+        <is>
+          <t>Not implemented.</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Add structured variable builder (indicator/metric) + hide non-applicable fields.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="41.75" customHeight="1" s="4">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D210" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TF005</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>Indicators tab UI: custom indicator list + create/edit dialog with formula builder and allowed-function guidance (Phase A).</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Formula is free-form DSL textarea; no interactive builder/preview.</t>
+        </is>
+      </c>
+      <c r="G210" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H210" s="3" t="inlineStr">
+        <is>
+          <t>Indicators tab supports custom indicator CRUD.</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Add guided builder + preview.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="28.35" customHeight="1" s="4">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TF006</t>
+        </is>
+      </c>
+      <c r="E211" s="3" t="inlineStr">
+        <is>
+          <t>Events tab UI: list/filter alert events and display snapshots/reasons; link back to alert definition.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Events tab lists events; snapshot drilldown not shown yet.</t>
+        </is>
+      </c>
+      <c r="G211" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H211" s="3" t="inlineStr">
+        <is>
+          <t>Events tab implemented (basic list).</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Show snapshot JSON + link back to alert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="28.35" customHeight="1" s="4">
+      <c r="A212" s="3" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
+        <is>
+          <t>Alerts refactor v3: indicator-first alerts over universes (see docs/alerts_refactor_v3.md)</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
+        <is>
+          <t>S23_G06_TF007</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>Frontend tests: wizard flow smoke test + condition builder serialization + selected-rows→group guidance.</t>
+        </is>
+      </c>
+      <c r="G212" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H212" s="3" t="inlineStr">
+        <is>
+          <t>Not implemented.</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Add minimal frontend tests for v3 alerts UI.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -9146,7 +9146,7 @@
           <t>Define AlertDefinition + AlertEvent schemas/models (target symbol/universe, variables, condition DSL, trigger_mode, evaluation_cadence, time constraints) and CRUD APIs.</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F199" s="0" t="inlineStr">
         <is>
           <t>New v3 tables + APIs under /api/alerts-v3; alert targets: SYMBOL/HOLDINGS/GROUP.</t>
         </is>
@@ -9188,7 +9188,7 @@
           <t>Implement per-alert evaluation cadence scheduler using latest completed bars for each referenced timeframe; enforce missing-data=false rule.</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F200" s="0" t="inlineStr">
         <is>
           <t>Scheduler runs every ~15s and skips alerts until cadence due; uses latest available bars in DB.</t>
         </is>
@@ -9230,7 +9230,7 @@
           <t>Implement event operators semantics: CROSSES_ABOVE/BELOW and MOVING_UP/DOWN (numeric RHS only) with now/prev rules.</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F201" s="0" t="inlineStr">
         <is>
           <t>Supports aliases CROSSING_* -&gt; CROSSES_*.</t>
         </is>
@@ -9272,7 +9272,7 @@
           <t>Add metrics/columns as operands (TODAY_PNL_PCT, PNL_PCT, INVESTED, CURRENT_VALUE, etc.) accessible in expressions and snapshots.</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="F202" s="0" t="inlineStr">
         <is>
           <t>Metrics computed from Position + 1d candles; prev values approximated.</t>
         </is>
@@ -9287,7 +9287,7 @@
           <t>Added metric operands (TODAY_PNL_PCT, PNL_PCT, etc).</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
+      <c r="I202" s="0" t="inlineStr">
         <is>
           <t>Enhance snapshot to include per-variable values.</t>
         </is>
@@ -9319,7 +9319,7 @@
           <t>Custom indicators backend (Phase A): model + CRUD + validation + allowed function set (A MVP surface) + compilation/cache hooks.</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="F203" s="0" t="inlineStr">
         <is>
           <t>Phase A function allowlist enforced at compile time; recursion not supported.</t>
         </is>
@@ -9334,7 +9334,7 @@
           <t>Custom indicators CRUD + validation + compilation implemented.</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
+      <c r="I203" s="0" t="inlineStr">
         <is>
           <t>Add preview endpoint/UI for formula values.</t>
         </is>
@@ -9368,19 +9368,15 @@
       </c>
       <c r="G204" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H204" s="3" t="inlineStr">
         <is>
-          <t>Not implemented yet.</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>Add test/preview endpoint returning per-symbol evaluation + snapshot/missing-data reason.</t>
-        </is>
-      </c>
+          <t>Added POST /api/alerts-v3/test (limit param) to compile + evaluate v3 expression per target symbol and return matched + snapshot + bar_time + error.</t>
+        </is>
+      </c>
+      <c r="I204" s="0" t="n"/>
     </row>
     <row r="205" ht="41.75" customHeight="1" s="4">
       <c r="A205" s="3" t="inlineStr">
@@ -9445,7 +9441,7 @@
           <t>Build Alerts module page with tabs: Alerts / Indicators / Events; add routing + navigation entry.</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F206" s="0" t="inlineStr">
         <is>
           <t>Implemented inside existing Alerts page as tabs; kept Legacy tab.</t>
         </is>
@@ -9487,7 +9483,7 @@
           <t>Implement Create/Edit Alert wizard: Target → Variables → Conditions → Trigger settings; store canonical DSL string; show read-only DSL preview.</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F207" s="0" t="inlineStr">
         <is>
           <t>Implemented as a single Create/Edit dialog (not multi-step wizard).</t>
         </is>
@@ -9502,7 +9498,7 @@
           <t>Create/Edit alert via dialog; variables defined as name+DSL.</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
+      <c r="I207" s="0" t="inlineStr">
         <is>
           <t>Add multi-step wizard + target/group picker UI.</t>
         </is>
@@ -9544,7 +9540,7 @@
           <t>Not implemented; using free-form DSL for conditions.</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
+      <c r="I208" s="0" t="inlineStr">
         <is>
           <t>Build condition builder UI with operand pickers and AND/OR joining.</t>
         </is>
@@ -9576,7 +9572,7 @@
           <t>Variables UI: indicator variable rows + metric variable support; hide/disable Bars/Length for PRICE/VOLUME primitives.</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F209" s="0" t="inlineStr">
         <is>
           <t>Variable UI currently DSL-only; no structured indicator/metric variable rows yet.</t>
         </is>
@@ -9591,7 +9587,7 @@
           <t>Not implemented.</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
+      <c r="I209" s="0" t="inlineStr">
         <is>
           <t>Add structured variable builder (indicator/metric) + hide non-applicable fields.</t>
         </is>
@@ -9623,7 +9619,7 @@
           <t>Indicators tab UI: custom indicator list + create/edit dialog with formula builder and allowed-function guidance (Phase A).</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="0" t="inlineStr">
         <is>
           <t>Formula is free-form DSL textarea; no interactive builder/preview.</t>
         </is>
@@ -9638,7 +9634,7 @@
           <t>Indicators tab supports custom indicator CRUD.</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
+      <c r="I210" s="0" t="inlineStr">
         <is>
           <t>Add guided builder + preview.</t>
         </is>
@@ -9670,11 +9666,7 @@
           <t>Events tab UI: list/filter alert events and display snapshots/reasons; link back to alert definition.</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Events tab lists events; snapshot drilldown not shown yet.</t>
-        </is>
-      </c>
+      <c r="F211" s="0" t="n"/>
       <c r="G211" s="3" t="inlineStr">
         <is>
           <t>implemented</t>
@@ -9682,14 +9674,10 @@
       </c>
       <c r="H211" s="3" t="inlineStr">
         <is>
-          <t>Events tab implemented (basic list).</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>Show snapshot JSON + link back to alert.</t>
-        </is>
-      </c>
+          <t>Events tab now includes snapshot drilldown (Details dialog) showing snapshot JSON and an Open alert action linking back to the alert editor.</t>
+        </is>
+      </c>
+      <c r="I211" s="0" t="n"/>
     </row>
     <row r="212" ht="28.35" customHeight="1" s="4">
       <c r="A212" s="3" t="inlineStr">
@@ -9727,7 +9715,7 @@
           <t>Not implemented.</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
+      <c r="I212" s="0" t="inlineStr">
         <is>
           <t>Add minimal frontend tests for v3 alerts UI.</t>
         </is>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -9532,19 +9532,15 @@
       </c>
       <c r="G208" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H208" s="3" t="inlineStr">
         <is>
-          <t>Not implemented; using free-form DSL for conditions.</t>
-        </is>
-      </c>
-      <c r="I208" s="0" t="inlineStr">
-        <is>
-          <t>Build condition builder UI with operand pickers and AND/OR joining.</t>
-        </is>
-      </c>
+          <t>Added Condition Builder tab (row-based LHS/op/RHS with AND/OR match mode) plus DSL preview; kept Advanced (DSL) textbox as fallback.</t>
+        </is>
+      </c>
+      <c r="I208" s="0" t="n"/>
     </row>
     <row r="209" ht="41.75" customHeight="1" s="4">
       <c r="A209" s="3" t="inlineStr">
@@ -9572,26 +9568,18 @@
           <t>Variables UI: indicator variable rows + metric variable support; hide/disable Bars/Length for PRICE/VOLUME primitives.</t>
         </is>
       </c>
-      <c r="F209" s="0" t="inlineStr">
-        <is>
-          <t>Variable UI currently DSL-only; no structured indicator/metric variable rows yet.</t>
-        </is>
-      </c>
+      <c r="F209" s="0" t="n"/>
       <c r="G209" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H209" s="3" t="inlineStr">
         <is>
-          <t>Not implemented.</t>
-        </is>
-      </c>
-      <c r="I209" s="0" t="inlineStr">
-        <is>
-          <t>Add structured variable builder (indicator/metric) + hide non-applicable fields.</t>
-        </is>
-      </c>
+          <t>Replaced variables DSL-only UI with structured variable builder (Type selector: Metric/Price/OHLCV/indicators/RET/ATR/Custom/DSL) showing relevant params and keeping DSL option.</t>
+        </is>
+      </c>
+      <c r="I209" s="0" t="n"/>
     </row>
     <row r="210" ht="41.75" customHeight="1" s="4">
       <c r="A210" s="3" t="inlineStr">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1062">
   <si>
     <t xml:space="preserve">sprint#</t>
   </si>
@@ -3080,6 +3080,132 @@
   </si>
   <si>
     <t xml:space="preserve">Add minimal frontend tests for v3 alerts UI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groups improvement: watchlist CSV import with dynamic columns (see docs/groups_improvement.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend: Add DB tables/models for group import datasets (schema + per-symbol values) and link dataset to a group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added GroupImport/GroupImportValue models + Alembic migration 0032.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend: Implement symbol normalization + broker instrument resolution for NSE/BSE; skip/reject rows that do not resolve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented symbol normalization + broker instrument validation using market_instruments (+ optional Kite fallback).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TB003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend: Enforce import column restrictions (no OHLCV/price/volume/performance/indicator-derived columns); return polite reasons for skipped columns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforced disallowed import columns (OHLCV/perf/indicators/ratios) in backend + UI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TB004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend: Add group import API endpoint to create group + dataset from uploaded/parsed CSV with mapping/selection instructions; support “replace vs keep existing dataset”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added POST /api/groups/import/watchlist with conflict handling (ERROR/REPLACE_DATASET/REPLACE_GROUP).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TB005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend: Add read endpoint(s) to return dataset schema + values for a group so Holdings/Groups grid can render dynamic columns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added GET /api/groups/{id}/dataset and /dataset/values for dynamic column rendering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TB006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend: Tests for symbol resolution, restricted columns, and import endpoint behaviors (duplicate headers, collisions, replace semantics).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added backend tests covering restrictions, unresolved symbols, and replace semantics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend: Add “Import watchlist (CSV)” wizard on Groups page: upload → preview → map symbol/exchange → choose columns → create group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added Groups page CSV import wizard (upload → map → select columns → import).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend: Render dynamic dataset columns in Holdings/Groups grid views only when selected group has an attached dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holdings group view now loads dataset and renders dynamic DataGrid columns for imported metadata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G01_TF003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend: Show import summary with skipped symbols/columns + reasons; provide “replace dataset” confirmation for existing group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import dialog shows summary (imported/skipped) and links to open imported group in holdings grid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groups improvement (phase 2): XLSX support + portfolio import mappings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G02_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend: Add XLSX import support (parse on backend) and reuse the same dataset creation pipeline as CSV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship after CSV flow is stable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G02_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend: Accept .xlsx in import wizard and upload to backend for parsing; keep mapping/selection UX unchanged.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid heavy client-side XLSX parsing initially.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G02_TB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend: Add portfolio group kind + portfolio fields storage (qty, avg_buy_price, buy_date, target_weight) keyed by (group, instrument).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep watchlist datasets separate from portfolio fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24_G02_TF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend: Portfolio import mapping UI (map file columns to qty/avg_buy/buy_date/weight) + validation; still allow extra dynamic columns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 2/3 work; requires clear portfolio UX.</t>
   </si>
 </sst>
 </file>
@@ -3176,7 +3302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3187,10 +3313,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3445,10 +3567,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G212" activeCellId="0" sqref="G212"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A215" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C216" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8884,7 +9006,7 @@
       <c r="E199" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F199" s="1" t="s">
         <v>967</v>
       </c>
       <c r="G199" s="1" t="s">
@@ -8910,7 +9032,7 @@
       <c r="E200" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F200" s="1" t="s">
         <v>971</v>
       </c>
       <c r="G200" s="1" t="s">
@@ -8936,7 +9058,7 @@
       <c r="E201" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="F201" s="1" t="s">
         <v>975</v>
       </c>
       <c r="G201" s="1" t="s">
@@ -8962,7 +9084,7 @@
       <c r="E202" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F202" s="1" t="s">
         <v>979</v>
       </c>
       <c r="G202" s="1" t="s">
@@ -8971,7 +9093,7 @@
       <c r="H202" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="I202" s="3" t="s">
+      <c r="I202" s="1" t="s">
         <v>981</v>
       </c>
     </row>
@@ -8991,7 +9113,7 @@
       <c r="E203" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="F203" s="1" t="s">
         <v>984</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -9000,7 +9122,7 @@
       <c r="H203" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="I203" s="3" t="s">
+      <c r="I203" s="1" t="s">
         <v>986</v>
       </c>
     </row>
@@ -9026,7 +9148,6 @@
       <c r="H204" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="I204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
@@ -9067,7 +9188,7 @@
       <c r="E206" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="F206" s="1" t="s">
         <v>995</v>
       </c>
       <c r="G206" s="1" t="s">
@@ -9093,7 +9214,7 @@
       <c r="E207" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="F207" s="1" t="s">
         <v>999</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -9102,7 +9223,7 @@
       <c r="H207" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="I207" s="3" t="s">
+      <c r="I207" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -9128,7 +9249,6 @@
       <c r="H208" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="I208" s="3"/>
     </row>
     <row r="209" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
@@ -9146,14 +9266,12 @@
       <c r="E209" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="F209" s="3"/>
       <c r="G209" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="I209" s="3"/>
     </row>
     <row r="210" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
@@ -9171,7 +9289,7 @@
       <c r="E210" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F210" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="G210" s="1" t="s">
@@ -9180,7 +9298,7 @@
       <c r="H210" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="I210" s="3" t="s">
+      <c r="I210" s="1" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -9200,14 +9318,12 @@
       <c r="E211" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="F211" s="3"/>
       <c r="G211" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="I211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
@@ -9231,8 +9347,307 @@
       <c r="H212" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="I212" s="3" t="s">
+      <c r="I212" s="1" t="s">
         <v>1019</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>1061</v>
       </c>
     </row>
   </sheetData>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -10252,7 +10252,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H227" s="0" t="inlineStr">
         <is>
           <t>Added AlertDefinition.broker_name + symbol with Alembic migration 0034; normalized HOLDINGS target_ref to HOLDINGS and updated API schemas.</t>
         </is>
@@ -10289,7 +10289,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H228" s="0" t="inlineStr">
         <is>
           <t>Updated alerts v3 evaluation to be broker-aware for HOLDINGS/holdings metrics; BUY/SELL alerts now create broker-bound Orders and support AUTO execution.</t>
         </is>
@@ -10326,7 +10326,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H229" s="0" t="inlineStr">
         <is>
           <t>Updated Alerts UI to choose broker and store broker_name/symbol/exchange fields; refreshed labels and services/types.</t>
         </is>
@@ -10360,7 +10360,12 @@
       </c>
       <c r="G230" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Added canonical instrument models/tables (securities/listings/broker_instruments) with Alembic migration 0035 and legacy backfill from market_instruments.</t>
         </is>
       </c>
     </row>
@@ -10392,7 +10397,12 @@
       </c>
       <c r="G231" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Implemented instrument master ingestion (Zerodha via Kite instruments; AngelOne via SmartAPI scrip master URL) with background scheduler + /api/instruments/sync.</t>
         </is>
       </c>
     </row>
@@ -10424,7 +10434,12 @@
       </c>
       <c r="G232" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Refactored group imports and market data token lookup to use canonical listings + broker_instruments mapping; market symbol search now uses listings.</t>
         </is>
       </c>
     </row>
@@ -10456,7 +10471,12 @@
       </c>
       <c r="G233" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Introduced canonical market data broker setting (default zerodha), market status endpoint /api/market/status, and surfaced status chip in Settings.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -10363,7 +10363,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H230" s="0" t="inlineStr">
         <is>
           <t>Added canonical instrument models/tables (securities/listings/broker_instruments) with Alembic migration 0035 and legacy backfill from market_instruments.</t>
         </is>
@@ -10400,7 +10400,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H231" s="0" t="inlineStr">
         <is>
           <t>Implemented instrument master ingestion (Zerodha via Kite instruments; AngelOne via SmartAPI scrip master URL) with background scheduler + /api/instruments/sync.</t>
         </is>
@@ -10437,7 +10437,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H232" s="0" t="inlineStr">
         <is>
           <t>Refactored group imports and market data token lookup to use canonical listings + broker_instruments mapping; market symbol search now uses listings.</t>
         </is>
@@ -10474,7 +10474,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H233" s="0" t="inlineStr">
         <is>
           <t>Introduced canonical market data broker setting (default zerodha), market status endpoint /api/market/status, and surfaced status chip in Settings.</t>
         </is>
@@ -10508,7 +10508,12 @@
       </c>
       <c r="G234" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Added SmartAPI env aliases + broker secrets fallback for angelone.</t>
         </is>
       </c>
     </row>
@@ -10538,9 +10543,19 @@
           <t>Backend: Implement SmartAPI client adapter + connect/status endpoints; store encrypted JSON session blob + expiry; require OTP/PIN during connect.</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Implemented minimal SmartAPI client via httpx; session stored encrypted as JSON (no background refresh).</t>
+        </is>
+      </c>
       <c r="G235" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Added /api/angelone/connect + /api/angelone/status; stores encrypted jwt/refresh/feed tokens.</t>
         </is>
       </c>
     </row>
@@ -10572,7 +10587,12 @@
       </c>
       <c r="G236" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Added AngelOne order placement + /api/orders/sync support with status/error mapping.</t>
         </is>
       </c>
     </row>
@@ -10604,7 +10624,12 @@
       </c>
       <c r="G237" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Added broker_name-scoped holdings + positions sync for AngelOne; positions snapshots now broker-scoped.</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10661,12 @@
       </c>
       <c r="G238" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Settings: AngelOne connect card + connected status chip.</t>
         </is>
       </c>
     </row>
@@ -10668,7 +10698,12 @@
       </c>
       <c r="G239" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Holdings: optional Holdings (AngelOne) universe when connected; Positions: broker filter sent to API.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -10511,7 +10511,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H234" s="0" t="inlineStr">
         <is>
           <t>Added SmartAPI env aliases + broker secrets fallback for angelone.</t>
         </is>
@@ -10543,7 +10543,7 @@
           <t>Backend: Implement SmartAPI client adapter + connect/status endpoints; store encrypted JSON session blob + expiry; require OTP/PIN during connect.</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F235" s="0" t="inlineStr">
         <is>
           <t>Implemented minimal SmartAPI client via httpx; session stored encrypted as JSON (no background refresh).</t>
         </is>
@@ -10553,7 +10553,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="H235" s="0" t="inlineStr">
         <is>
           <t>Added /api/angelone/connect + /api/angelone/status; stores encrypted jwt/refresh/feed tokens.</t>
         </is>
@@ -10590,7 +10590,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="H236" s="0" t="inlineStr">
         <is>
           <t>Added AngelOne order placement + /api/orders/sync support with status/error mapping.</t>
         </is>
@@ -10627,7 +10627,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H237" s="0" t="inlineStr">
         <is>
           <t>Added broker_name-scoped holdings + positions sync for AngelOne; positions snapshots now broker-scoped.</t>
         </is>
@@ -10664,7 +10664,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="H238" s="0" t="inlineStr">
         <is>
           <t>Settings: AngelOne connect card + connected status chip.</t>
         </is>
@@ -10701,7 +10701,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H239" s="0" t="inlineStr">
         <is>
           <t>Holdings: optional Holdings (AngelOne) universe when connected; Positions: broker filter sent to API.</t>
         </is>
@@ -10733,9 +10733,19 @@
           <t>Backend: Add conditional_orders model + state machine; persist triggers and broker-bound execution params; survive restarts.</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Implemented synthetic conditional orders by extending `orders` (synthetic_gtt + trigger metadata) instead of creating a separate conditional_orders table.</t>
+        </is>
+      </c>
       <c r="G240" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Added migration 0037 + order fields to persist conditional state (armed/checked/triggered) and survive restarts.</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10777,12 @@
       </c>
       <c r="G241" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Added synthetic-gtt scheduler: evaluates armed conditional orders (prefers Zerodha LTP, falls back to destination broker), then executes as normal broker order on trigger.</t>
         </is>
       </c>
     </row>
@@ -10799,7 +10814,17 @@
       </c>
       <c r="G242" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Basic follow-up conditional orders work; full OCO / bracket stop-loss orchestration is not implemented yet.</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Add linked legs (OCO), cancellation rules, and synthetic stop-loss/target pairing per broker capabilities.</t>
         </is>
       </c>
     </row>
@@ -10829,9 +10854,19 @@
           <t>Frontend: Queue UI: expose “Broker GTT (Zerodha)” vs “Server-side conditional (SigmaTrader)” clearly; allow creating synthetic bracket orders for non-GTT brokers.</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Reused existing GTT UX but clarified labels; non-Zerodha uses SigmaTrader-managed conditional orders (synthetic_gtt).</t>
+        </is>
+      </c>
       <c r="G243" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Holdings/Queue/Alerts UI now supports conditional orders for AngelOne; Queue Execute arms conditional orders and keeps them in WAITING (ARMED).</t>
         </is>
       </c>
     </row>
@@ -10863,7 +10898,17 @@
       </c>
       <c r="G244" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Minimal monitoring added in Queue (WAITING (ARMED), Cond=Sigma).</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Add global health/paused indicators for synthetic-gtt engine + per-order last_checked/last_seen display and warnings.</t>
         </is>
       </c>
     </row>
@@ -10895,7 +10940,12 @@
       </c>
       <c r="G245" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Dashboard supports holdings overlay per broker via checkboxes; backend computes separate holdings series per selected broker.</t>
         </is>
       </c>
     </row>
@@ -10927,7 +10977,12 @@
       </c>
       <c r="G246" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Dashboard persists holdings broker selection (localStorage) and indices cache key includes broker selection to avoid unnecessary refreshes.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,10 +359,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C227" activeCellId="0" sqref="C227"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E252" activeCellId="0" sqref="E252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -10036,7 +10036,7 @@
         </is>
       </c>
     </row>
-    <row r="222" ht="41.75" customHeight="1" s="4">
+    <row r="222" ht="41.25" customHeight="1" s="4">
       <c r="A222" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10184,7 +10184,7 @@
         </is>
       </c>
     </row>
-    <row r="226" ht="41.75" customHeight="1" s="4">
+    <row r="226" ht="41.25" customHeight="1" s="4">
       <c r="A226" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10221,7 +10221,7 @@
         </is>
       </c>
     </row>
-    <row r="227" ht="41.75" customHeight="1" s="4">
+    <row r="227" ht="41.25" customHeight="1" s="4">
       <c r="A227" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10252,13 +10252,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H227" s="0" t="inlineStr">
+      <c r="H227" s="3" t="inlineStr">
         <is>
           <t>Added AlertDefinition.broker_name + symbol with Alembic migration 0034; normalized HOLDINGS target_ref to HOLDINGS and updated API schemas.</t>
         </is>
       </c>
     </row>
-    <row r="228" ht="55.2" customHeight="1" s="4">
+    <row r="228" ht="54.75" customHeight="1" s="4">
       <c r="A228" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10289,13 +10289,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H228" s="0" t="inlineStr">
+      <c r="H228" s="3" t="inlineStr">
         <is>
           <t>Updated alerts v3 evaluation to be broker-aware for HOLDINGS/holdings metrics; BUY/SELL alerts now create broker-bound Orders and support AUTO execution.</t>
         </is>
       </c>
     </row>
-    <row r="229" ht="41.75" customHeight="1" s="4">
+    <row r="229" ht="41.25" customHeight="1" s="4">
       <c r="A229" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10326,13 +10326,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H229" s="0" t="inlineStr">
+      <c r="H229" s="3" t="inlineStr">
         <is>
           <t>Updated Alerts UI to choose broker and store broker_name/symbol/exchange fields; refreshed labels and services/types.</t>
         </is>
       </c>
     </row>
-    <row r="230" ht="41.75" customHeight="1" s="4">
+    <row r="230" ht="41.25" customHeight="1" s="4">
       <c r="A230" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10363,13 +10363,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H230" s="0" t="inlineStr">
+      <c r="H230" s="3" t="inlineStr">
         <is>
           <t>Added canonical instrument models/tables (securities/listings/broker_instruments) with Alembic migration 0035 and legacy backfill from market_instruments.</t>
         </is>
       </c>
     </row>
-    <row r="231" ht="41.75" customHeight="1" s="4">
+    <row r="231" ht="41.25" customHeight="1" s="4">
       <c r="A231" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10400,13 +10400,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H231" s="0" t="inlineStr">
+      <c r="H231" s="3" t="inlineStr">
         <is>
           <t>Implemented instrument master ingestion (Zerodha via Kite instruments; AngelOne via SmartAPI scrip master URL) with background scheduler + /api/instruments/sync.</t>
         </is>
       </c>
     </row>
-    <row r="232" ht="55.2" customHeight="1" s="4">
+    <row r="232" ht="54.75" customHeight="1" s="4">
       <c r="A232" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10437,13 +10437,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H232" s="0" t="inlineStr">
+      <c r="H232" s="3" t="inlineStr">
         <is>
           <t>Refactored group imports and market data token lookup to use canonical listings + broker_instruments mapping; market symbol search now uses listings.</t>
         </is>
       </c>
     </row>
-    <row r="233" ht="41.75" customHeight="1" s="4">
+    <row r="233" ht="41.25" customHeight="1" s="4">
       <c r="A233" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10474,13 +10474,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H233" s="0" t="inlineStr">
+      <c r="H233" s="3" t="inlineStr">
         <is>
           <t>Introduced canonical market data broker setting (default zerodha), market status endpoint /api/market/status, and surfaced status chip in Settings.</t>
         </is>
       </c>
     </row>
-    <row r="234" ht="41.75" customHeight="1" s="4">
+    <row r="234" ht="41.25" customHeight="1" s="4">
       <c r="A234" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10511,13 +10511,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H234" s="0" t="inlineStr">
+      <c r="H234" s="3" t="inlineStr">
         <is>
           <t>Added SmartAPI env aliases + broker secrets fallback for angelone.</t>
         </is>
       </c>
     </row>
-    <row r="235" ht="41.75" customHeight="1" s="4">
+    <row r="235" ht="41.25" customHeight="1" s="4">
       <c r="A235" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10543,7 +10543,7 @@
           <t>Backend: Implement SmartAPI client adapter + connect/status endpoints; store encrypted JSON session blob + expiry; require OTP/PIN during connect.</t>
         </is>
       </c>
-      <c r="F235" s="0" t="inlineStr">
+      <c r="F235" s="3" t="inlineStr">
         <is>
           <t>Implemented minimal SmartAPI client via httpx; session stored encrypted as JSON (no background refresh).</t>
         </is>
@@ -10553,13 +10553,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H235" s="0" t="inlineStr">
+      <c r="H235" s="3" t="inlineStr">
         <is>
           <t>Added /api/angelone/connect + /api/angelone/status; stores encrypted jwt/refresh/feed tokens.</t>
         </is>
       </c>
     </row>
-    <row r="236" ht="41.75" customHeight="1" s="4">
+    <row r="236" ht="41.25" customHeight="1" s="4">
       <c r="A236" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10590,13 +10590,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H236" s="0" t="inlineStr">
+      <c r="H236" s="3" t="inlineStr">
         <is>
           <t>Added AngelOne order placement + /api/orders/sync support with status/error mapping.</t>
         </is>
       </c>
     </row>
-    <row r="237" ht="41.75" customHeight="1" s="4">
+    <row r="237" ht="41.25" customHeight="1" s="4">
       <c r="A237" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10627,13 +10627,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H237" s="0" t="inlineStr">
+      <c r="H237" s="3" t="inlineStr">
         <is>
           <t>Added broker_name-scoped holdings + positions sync for AngelOne; positions snapshots now broker-scoped.</t>
         </is>
       </c>
     </row>
-    <row r="238" ht="28.35" customHeight="1" s="4">
+    <row r="238" ht="27.75" customHeight="1" s="4">
       <c r="A238" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10664,13 +10664,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H238" s="0" t="inlineStr">
+      <c r="H238" s="3" t="inlineStr">
         <is>
           <t>Settings: AngelOne connect card + connected status chip.</t>
         </is>
       </c>
     </row>
-    <row r="239" ht="41.75" customHeight="1" s="4">
+    <row r="239" ht="41.25" customHeight="1" s="4">
       <c r="A239" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10701,13 +10701,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H239" s="0" t="inlineStr">
+      <c r="H239" s="3" t="inlineStr">
         <is>
           <t>Holdings: optional Holdings (AngelOne) universe when connected; Positions: broker filter sent to API.</t>
         </is>
       </c>
     </row>
-    <row r="240" ht="41.75" customHeight="1" s="4">
+    <row r="240" ht="41.25" customHeight="1" s="4">
       <c r="A240" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10733,7 +10733,7 @@
           <t>Backend: Add conditional_orders model + state machine; persist triggers and broker-bound execution params; survive restarts.</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="F240" s="3" t="inlineStr">
         <is>
           <t>Implemented synthetic conditional orders by extending `orders` (synthetic_gtt + trigger metadata) instead of creating a separate conditional_orders table.</t>
         </is>
@@ -10743,13 +10743,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H240" s="3" t="inlineStr">
         <is>
           <t>Added migration 0037 + order fields to persist conditional state (armed/checked/triggered) and survive restarts.</t>
         </is>
       </c>
     </row>
-    <row r="241" ht="55.2" customHeight="1" s="4">
+    <row r="241" ht="54.75" customHeight="1" s="4">
       <c r="A241" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10780,13 +10780,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="H241" s="3" t="inlineStr">
         <is>
           <t>Added synthetic-gtt scheduler: evaluates armed conditional orders (prefers Zerodha LTP, falls back to destination broker), then executes as normal broker order on trigger.</t>
         </is>
       </c>
     </row>
-    <row r="242" ht="41.75" customHeight="1" s="4">
+    <row r="242" ht="41.25" customHeight="1" s="4">
       <c r="A242" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10817,18 +10817,18 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H242" s="3" t="inlineStr">
         <is>
           <t>Basic follow-up conditional orders work; full OCO / bracket stop-loss orchestration is not implemented yet.</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr">
+      <c r="I242" s="3" t="inlineStr">
         <is>
           <t>Add linked legs (OCO), cancellation rules, and synthetic stop-loss/target pairing per broker capabilities.</t>
         </is>
       </c>
     </row>
-    <row r="243" ht="41.75" customHeight="1" s="4">
+    <row r="243" ht="41.25" customHeight="1" s="4">
       <c r="A243" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10854,7 +10854,7 @@
           <t>Frontend: Queue UI: expose “Broker GTT (Zerodha)” vs “Server-side conditional (SigmaTrader)” clearly; allow creating synthetic bracket orders for non-GTT brokers.</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F243" s="3" t="inlineStr">
         <is>
           <t>Reused existing GTT UX but clarified labels; non-Zerodha uses SigmaTrader-managed conditional orders (synthetic_gtt).</t>
         </is>
@@ -10864,13 +10864,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H243" s="3" t="inlineStr">
         <is>
           <t>Holdings/Queue/Alerts UI now supports conditional orders for AngelOne; Queue Execute arms conditional orders and keeps them in WAITING (ARMED).</t>
         </is>
       </c>
     </row>
-    <row r="244" ht="41.75" customHeight="1" s="4">
+    <row r="244" ht="41.25" customHeight="1" s="4">
       <c r="A244" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10901,18 +10901,18 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H244" s="3" t="inlineStr">
         <is>
           <t>Minimal monitoring added in Queue (WAITING (ARMED), Cond=Sigma).</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr">
+      <c r="I244" s="3" t="inlineStr">
         <is>
           <t>Add global health/paused indicators for synthetic-gtt engine + per-order last_checked/last_seen display and warnings.</t>
         </is>
       </c>
     </row>
-    <row r="245" ht="41.75" customHeight="1" s="4">
+    <row r="245" ht="41.25" customHeight="1" s="4">
       <c r="A245" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10943,13 +10943,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="H245" s="3" t="inlineStr">
         <is>
           <t>Dashboard supports holdings overlay per broker via checkboxes; backend computes separate holdings series per selected broker.</t>
         </is>
       </c>
     </row>
-    <row r="246" ht="28.35" customHeight="1" s="4">
+    <row r="246" ht="27.75" customHeight="1" s="4">
       <c r="A246" s="3" t="inlineStr">
         <is>
           <t>S25</t>
@@ -10980,9 +10980,329 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="H246" s="3" t="inlineStr">
         <is>
           <t>Dashboard persists holdings broker selection (localStorage) and indices cache key includes broker selection to avoid unnecessary refreshes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247" ht="41.75" customHeight="1" s="4">
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="inlineStr">
+        <is>
+          <t>Strategy saving &amp; reuse (DSL V3)</t>
+        </is>
+      </c>
+      <c r="D247" s="3" t="inlineStr">
+        <is>
+          <t>S26_G01_TD001</t>
+        </is>
+      </c>
+      <c r="E247" s="3" t="inlineStr">
+        <is>
+          <t>Document strategy saving/reuse design (parameterization, multi-output, versioning, sharing) and key decisions.</t>
+        </is>
+      </c>
+      <c r="F247" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G247" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H247" s="3" t="inlineStr">
+        <is>
+          <t>Added docs/strategy_saving.md capturing feasibility, UX/BE design, and decisions (parameterizable YES, multi-output YES, export/import desired).</t>
+        </is>
+      </c>
+    </row>
+    <row r="248" ht="41.75" customHeight="1" s="4">
+      <c r="A248" s="3" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B248" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C248" s="3" t="inlineStr">
+        <is>
+          <t>Strategy saving &amp; reuse (DSL V3)</t>
+        </is>
+      </c>
+      <c r="D248" s="3" t="inlineStr">
+        <is>
+          <t>S26_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E248" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add SavedSignalStrategyV3 model with versioning + tags/regime + outputs + compatibility metadata; CRUD APIs; export/import endpoints.</t>
+        </is>
+      </c>
+      <c r="G248" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Added SignalStrategy + SignalStrategyVersion models, Alembic migration, and /api/signal-strategies CRUD + versioning + export/import + usage counts.</t>
+        </is>
+      </c>
+      <c r="I248" s="3" t="n"/>
+    </row>
+    <row r="249" ht="41.75" customHeight="1" s="4">
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="inlineStr">
+        <is>
+          <t>Strategy saving &amp; reuse (DSL V3)</t>
+        </is>
+      </c>
+      <c r="D249" s="3" t="inlineStr">
+        <is>
+          <t>S26_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E249" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Support parameter overrides per usage (Alert/Screener/Dashboard) with validation and compile-time type checking.</t>
+        </is>
+      </c>
+      <c r="G249" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Added DSL param substitution support across Alerts V3/Screener V3/Dashboard analytics requests; params flow through compiler/evaluator with type coercion.</t>
+        </is>
+      </c>
+      <c r="I249" s="3" t="n"/>
+    </row>
+    <row r="250" ht="41.75" customHeight="1" s="4">
+      <c r="A250" s="3" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B250" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="inlineStr">
+        <is>
+          <t>Strategy saving &amp; reuse (DSL V3)</t>
+        </is>
+      </c>
+      <c r="D250" s="3" t="inlineStr">
+        <is>
+          <t>S26_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Wire saved strategies into Alerts V3 + Screener V3 (linking, pinning by version, usage tracking, collision detection).</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Simplified v1 to replace-only when applying saved strategy (no merge/collision flow).</t>
+        </is>
+      </c>
+      <c r="G250" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Wired strategy version/output/params into Alerts V3 (create/update) and Screener V3 run; DB stores pinned version + materialized params for traceability.</t>
+        </is>
+      </c>
+      <c r="I250" s="3" t="inlineStr">
+        <is>
+          <t>Collision-aware merge/rename UX is not implemented (v1 is replace-only).</t>
+        </is>
+      </c>
+    </row>
+    <row r="251" ht="41.75" customHeight="1" s="4">
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>Strategy saving &amp; reuse (DSL V3)</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>S26_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Add Alerts → Strategies tab (register) with create/edit/duplicate, tags/regime filters, and “used by” visibility; integrate picker into Create Alert.</t>
+        </is>
+      </c>
+      <c r="G251" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Added Alerts → Strategies tab for create/edit/version/export/import; Create/Edit Alert supports linking to a saved strategy version + output + params.</t>
+        </is>
+      </c>
+      <c r="I251" s="3" t="n"/>
+    </row>
+    <row r="252" ht="41.75" customHeight="1" s="4">
+      <c r="A252" s="3" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>Strategy saving &amp; reuse (DSL V3)</t>
+        </is>
+      </c>
+      <c r="D252" s="3" t="inlineStr">
+        <is>
+          <t>S26_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Screener + Dashboard integration (load/apply saved strategy, select outputs to plot, type-based plotting: numeric curve vs boolean markers).</t>
+        </is>
+      </c>
+      <c r="G252" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Added Screener saved-strategy selector + params and passes linkage to backend; Dashboard “Load strategy” dialog applies variables (hidden) + overlays + params and sets signal DSL.</t>
+        </is>
+      </c>
+      <c r="I252" s="3" t="n"/>
+    </row>
+    <row r="253" ht="41.75" customHeight="1" s="4">
+      <c r="A253" s="3" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="inlineStr">
+        <is>
+          <t>Strategy saving &amp; reuse (DSL V3)</t>
+        </is>
+      </c>
+      <c r="D253" s="3" t="inlineStr">
+        <is>
+          <t>S26_G01_TF003</t>
+        </is>
+      </c>
+      <c r="E253" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Naming collision UX when merging strategy variables into existing alert (warn, rename, continue/cancel).</t>
+        </is>
+      </c>
+      <c r="G253" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Not implemented: v1 applies strategies by replacement (no merge), so variable-name collision detection/rename flow is deferred.</t>
+        </is>
+      </c>
+      <c r="I253" s="3" t="inlineStr">
+        <is>
+          <t>If/when we add a “merge into existing alert” mode, implement collision detection + rename UX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254" ht="28.35" customHeight="1" s="4">
+      <c r="A254" s="3" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="inlineStr">
+        <is>
+          <t>Strategy saving &amp; reuse (DSL V3)</t>
+        </is>
+      </c>
+      <c r="D254" s="3" t="inlineStr">
+        <is>
+          <t>S26_G01_TD002</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="inlineStr">
+        <is>
+          <t>Design global template packs and export/import format (JSON schema, versioning, signature/metadata).</t>
+        </is>
+      </c>
+      <c r="G254" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I254" s="3" t="inlineStr">
+        <is>
+          <t>Decide on public/global packs vs file-only import/export for v1.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E252" activeCellId="0" sqref="E252"/>
@@ -11059,7 +11059,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="H248" s="0" t="inlineStr">
         <is>
           <t>Added SignalStrategy + SignalStrategyVersion models, Alembic migration, and /api/signal-strategies CRUD + versioning + export/import + usage counts.</t>
         </is>
@@ -11097,7 +11097,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="H249" s="0" t="inlineStr">
         <is>
           <t>Added DSL param substitution support across Alerts V3/Screener V3/Dashboard analytics requests; params flow through compiler/evaluator with type coercion.</t>
         </is>
@@ -11130,7 +11130,7 @@
           <t>Backend: Wire saved strategies into Alerts V3 + Screener V3 (linking, pinning by version, usage tracking, collision detection).</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="F250" s="0" t="inlineStr">
         <is>
           <t>Simplified v1 to replace-only when applying saved strategy (no merge/collision flow).</t>
         </is>
@@ -11140,7 +11140,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="H250" s="0" t="inlineStr">
         <is>
           <t>Wired strategy version/output/params into Alerts V3 (create/update) and Screener V3 run; DB stores pinned version + materialized params for traceability.</t>
         </is>
@@ -11182,7 +11182,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="H251" s="0" t="inlineStr">
         <is>
           <t>Added Alerts → Strategies tab for create/edit/version/export/import; Create/Edit Alert supports linking to a saved strategy version + output + params.</t>
         </is>
@@ -11220,7 +11220,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H252" s="0" t="inlineStr">
         <is>
           <t>Added Screener saved-strategy selector + params and passes linkage to backend; Dashboard “Load strategy” dialog applies variables (hidden) + overlays + params and sets signal DSL.</t>
         </is>
@@ -11258,7 +11258,7 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H253" s="0" t="inlineStr">
         <is>
           <t>Not implemented: v1 applies strategies by replacement (no merge), so variable-name collision detection/rename flow is deferred.</t>
         </is>
@@ -11303,6 +11303,164 @@
       <c r="I254" s="3" t="inlineStr">
         <is>
           <t>Decide on public/global packs vs file-only import/export for v1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>Screener: run history &amp; retention</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>S26_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Add Screener V3 run history APIs (list/delete/cleanup) and enrich run read model with query metadata (targets, variables, DSL).</t>
+        </is>
+      </c>
+      <c r="F255" s="0" t="inlineStr">
+        <is>
+          <t>Retention cleanup applies max_days then max_runs; heavy rows remain opt-in via include_rows.</t>
+        </is>
+      </c>
+      <c r="G255" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H255" s="0" t="inlineStr">
+        <is>
+          <t>Added /api/screener-v3/runs list/delete + /runs/cleanup; run payload now includes include_holdings/group_ids/variables/condition_dsl for reloading past runs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>Screener: run history &amp; retention</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>S26_G02_TF001</t>
+        </is>
+      </c>
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t>Frontend: Add Results/Runs tabs on Screener; runs table with View/Load/Delete; retention controls and optional auto-cleanup.</t>
+        </is>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
+        <is>
+          <t>Retention settings stored in localStorage (user-managed).</t>
+        </is>
+      </c>
+      <c r="G256" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H256" s="0" t="inlineStr">
+        <is>
+          <t>Screener right panel now supports Runs tab; clicking Run # opens history; retention cleanup can be run manually or automatically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>Screener: run history &amp; retention</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="inlineStr">
+        <is>
+          <t>S26_G02_TT001</t>
+        </is>
+      </c>
+      <c r="E257" s="0" t="inlineStr">
+        <is>
+          <t>Tests: Add coverage for Screener run list/delete/cleanup endpoints and ensure lint/build passes.</t>
+        </is>
+      </c>
+      <c r="G257" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H257" s="0" t="inlineStr">
+        <is>
+          <t>Added backend/tests/test_screener_runs_api.py and verified ruff/pytest + frontend build.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Screener: run history &amp; retention</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>S26_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Backend: Ensure screener run timestamps are UTC-aware so UI displays correct local time (IST +5:30).</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Normalized ScreenerRun created_at/started_at/finished_at to UTC when serializing.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E252" activeCellId="0" sqref="E252"/>
@@ -11428,39 +11428,113 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
+      <c r="A258" s="0" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="0" t="inlineStr">
         <is>
           <t>Screener: run history &amp; retention</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="D258" s="0" t="inlineStr">
         <is>
           <t>S26_G02_TB002</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" s="0" t="inlineStr">
         <is>
           <t>Backend: Ensure screener run timestamps are UTC-aware so UI displays correct local time (IST +5:30).</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H258" s="0" t="inlineStr">
         <is>
           <t>Normalized ScreenerRun created_at/started_at/finished_at to UTC when serializing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>System Events UX + retention</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>S26_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Frontend: Make System Events grid match Holdings-style toolbar/layout and add retention-days control (default 7) with cleanup button.</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Switched to UniverseGrid (GridToolbar with quick filter/columns/density/export) and added retention-days input + cleanup/refresh controls.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>System Events UX + retention</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>S26_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Backend: Add /api/system-events/cleanup to delete events older than N days (default 7) and add tests.</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Added cleanup endpoint + request/response schemas and test coverage for retention delete.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,10 +359,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E252" activeCellId="0" sqref="E252"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E259" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -10986,7 +10986,7 @@
         </is>
       </c>
     </row>
-    <row r="247" ht="41.75" customHeight="1" s="4">
+    <row r="247" ht="41.25" customHeight="1" s="4">
       <c r="A247" s="3" t="inlineStr">
         <is>
           <t>S26</t>
@@ -11028,7 +11028,7 @@
         </is>
       </c>
     </row>
-    <row r="248" ht="41.75" customHeight="1" s="4">
+    <row r="248" ht="41.25" customHeight="1" s="4">
       <c r="A248" s="3" t="inlineStr">
         <is>
           <t>S26</t>
@@ -11059,14 +11059,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H248" s="0" t="inlineStr">
+      <c r="H248" s="3" t="inlineStr">
         <is>
           <t>Added SignalStrategy + SignalStrategyVersion models, Alembic migration, and /api/signal-strategies CRUD + versioning + export/import + usage counts.</t>
         </is>
       </c>
-      <c r="I248" s="3" t="n"/>
-    </row>
-    <row r="249" ht="41.75" customHeight="1" s="4">
+    </row>
+    <row r="249" ht="41.25" customHeight="1" s="4">
       <c r="A249" s="3" t="inlineStr">
         <is>
           <t>S26</t>
@@ -11097,14 +11096,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H249" s="0" t="inlineStr">
+      <c r="H249" s="3" t="inlineStr">
         <is>
           <t>Added DSL param substitution support across Alerts V3/Screener V3/Dashboard analytics requests; params flow through compiler/evaluator with type coercion.</t>
         </is>
       </c>
-      <c r="I249" s="3" t="n"/>
-    </row>
-    <row r="250" ht="41.75" customHeight="1" s="4">
+    </row>
+    <row r="250" ht="41.25" customHeight="1" s="4">
       <c r="A250" s="3" t="inlineStr">
         <is>
           <t>S26</t>
@@ -11130,7 +11128,7 @@
           <t>Backend: Wire saved strategies into Alerts V3 + Screener V3 (linking, pinning by version, usage tracking, collision detection).</t>
         </is>
       </c>
-      <c r="F250" s="0" t="inlineStr">
+      <c r="F250" s="3" t="inlineStr">
         <is>
           <t>Simplified v1 to replace-only when applying saved strategy (no merge/collision flow).</t>
         </is>
@@ -11140,7 +11138,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H250" s="0" t="inlineStr">
+      <c r="H250" s="3" t="inlineStr">
         <is>
           <t>Wired strategy version/output/params into Alerts V3 (create/update) and Screener V3 run; DB stores pinned version + materialized params for traceability.</t>
         </is>
@@ -11151,7 +11149,7 @@
         </is>
       </c>
     </row>
-    <row r="251" ht="41.75" customHeight="1" s="4">
+    <row r="251" ht="41.25" customHeight="1" s="4">
       <c r="A251" s="3" t="inlineStr">
         <is>
           <t>S26</t>
@@ -11182,14 +11180,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H251" s="0" t="inlineStr">
+      <c r="H251" s="3" t="inlineStr">
         <is>
           <t>Added Alerts → Strategies tab for create/edit/version/export/import; Create/Edit Alert supports linking to a saved strategy version + output + params.</t>
         </is>
       </c>
-      <c r="I251" s="3" t="n"/>
-    </row>
-    <row r="252" ht="41.75" customHeight="1" s="4">
+    </row>
+    <row r="252" ht="41.25" customHeight="1" s="4">
       <c r="A252" s="3" t="inlineStr">
         <is>
           <t>S26</t>
@@ -11220,14 +11217,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H252" s="0" t="inlineStr">
+      <c r="H252" s="3" t="inlineStr">
         <is>
           <t>Added Screener saved-strategy selector + params and passes linkage to backend; Dashboard “Load strategy” dialog applies variables (hidden) + overlays + params and sets signal DSL.</t>
         </is>
       </c>
-      <c r="I252" s="3" t="n"/>
-    </row>
-    <row r="253" ht="41.75" customHeight="1" s="4">
+    </row>
+    <row r="253" ht="41.25" customHeight="1" s="4">
       <c r="A253" s="3" t="inlineStr">
         <is>
           <t>S26</t>
@@ -11258,7 +11254,7 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="H253" s="0" t="inlineStr">
+      <c r="H253" s="3" t="inlineStr">
         <is>
           <t>Not implemented: v1 applies strategies by replacement (no merge), so variable-name collision detection/rename flow is deferred.</t>
         </is>
@@ -11269,7 +11265,7 @@
         </is>
       </c>
     </row>
-    <row r="254" ht="28.35" customHeight="1" s="4">
+    <row r="254" ht="27.75" customHeight="1" s="4">
       <c r="A254" s="3" t="inlineStr">
         <is>
           <t>S26</t>
@@ -11306,235 +11302,1045 @@
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="0" t="inlineStr">
+    <row r="255" ht="41.75" customHeight="1" s="4">
+      <c r="A255" s="3" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B255" s="0" t="inlineStr">
+      <c r="B255" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C255" s="0" t="inlineStr">
+      <c r="C255" s="3" t="inlineStr">
         <is>
           <t>Screener: run history &amp; retention</t>
         </is>
       </c>
-      <c r="D255" s="0" t="inlineStr">
+      <c r="D255" s="3" t="inlineStr">
         <is>
           <t>S26_G02_TB001</t>
         </is>
       </c>
-      <c r="E255" s="0" t="inlineStr">
+      <c r="E255" s="3" t="inlineStr">
         <is>
           <t>Backend: Add Screener V3 run history APIs (list/delete/cleanup) and enrich run read model with query metadata (targets, variables, DSL).</t>
         </is>
       </c>
-      <c r="F255" s="0" t="inlineStr">
+      <c r="F255" s="3" t="inlineStr">
         <is>
           <t>Retention cleanup applies max_days then max_runs; heavy rows remain opt-in via include_rows.</t>
         </is>
       </c>
-      <c r="G255" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H255" s="0" t="inlineStr">
+      <c r="G255" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H255" s="3" t="inlineStr">
         <is>
           <t>Added /api/screener-v3/runs list/delete + /runs/cleanup; run payload now includes include_holdings/group_ids/variables/condition_dsl for reloading past runs.</t>
         </is>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="0" t="inlineStr">
+    <row r="256" ht="41.75" customHeight="1" s="4">
+      <c r="A256" s="3" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B256" s="0" t="inlineStr">
+      <c r="B256" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C256" s="0" t="inlineStr">
+      <c r="C256" s="3" t="inlineStr">
         <is>
           <t>Screener: run history &amp; retention</t>
         </is>
       </c>
-      <c r="D256" s="0" t="inlineStr">
+      <c r="D256" s="3" t="inlineStr">
         <is>
           <t>S26_G02_TF001</t>
         </is>
       </c>
-      <c r="E256" s="0" t="inlineStr">
+      <c r="E256" s="3" t="inlineStr">
         <is>
           <t>Frontend: Add Results/Runs tabs on Screener; runs table with View/Load/Delete; retention controls and optional auto-cleanup.</t>
         </is>
       </c>
-      <c r="F256" s="0" t="inlineStr">
+      <c r="F256" s="3" t="inlineStr">
         <is>
           <t>Retention settings stored in localStorage (user-managed).</t>
         </is>
       </c>
-      <c r="G256" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H256" s="0" t="inlineStr">
+      <c r="G256" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H256" s="3" t="inlineStr">
         <is>
           <t>Screener right panel now supports Runs tab; clicking Run # opens history; retention cleanup can be run manually or automatically.</t>
         </is>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="0" t="inlineStr">
+    <row r="257" ht="28.35" customHeight="1" s="4">
+      <c r="A257" s="3" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B257" s="0" t="inlineStr">
+      <c r="B257" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C257" s="0" t="inlineStr">
+      <c r="C257" s="3" t="inlineStr">
         <is>
           <t>Screener: run history &amp; retention</t>
         </is>
       </c>
-      <c r="D257" s="0" t="inlineStr">
+      <c r="D257" s="3" t="inlineStr">
         <is>
           <t>S26_G02_TT001</t>
         </is>
       </c>
-      <c r="E257" s="0" t="inlineStr">
+      <c r="E257" s="3" t="inlineStr">
         <is>
           <t>Tests: Add coverage for Screener run list/delete/cleanup endpoints and ensure lint/build passes.</t>
         </is>
       </c>
-      <c r="G257" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H257" s="0" t="inlineStr">
+      <c r="G257" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H257" s="3" t="inlineStr">
         <is>
           <t>Added backend/tests/test_screener_runs_api.py and verified ruff/pytest + frontend build.</t>
         </is>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="0" t="inlineStr">
+    <row r="258" ht="28.35" customHeight="1" s="4">
+      <c r="A258" s="3" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B258" s="0" t="inlineStr">
+      <c r="B258" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C258" s="0" t="inlineStr">
+      <c r="C258" s="3" t="inlineStr">
         <is>
           <t>Screener: run history &amp; retention</t>
         </is>
       </c>
-      <c r="D258" s="0" t="inlineStr">
+      <c r="D258" s="3" t="inlineStr">
         <is>
           <t>S26_G02_TB002</t>
         </is>
       </c>
-      <c r="E258" s="0" t="inlineStr">
+      <c r="E258" s="3" t="inlineStr">
         <is>
           <t>Backend: Ensure screener run timestamps are UTC-aware so UI displays correct local time (IST +5:30).</t>
         </is>
       </c>
-      <c r="G258" s="0" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H258" s="0" t="inlineStr">
+      <c r="G258" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H258" s="3" t="inlineStr">
         <is>
           <t>Normalized ScreenerRun created_at/started_at/finished_at to UTC when serializing.</t>
         </is>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+    <row r="259" ht="41.75" customHeight="1" s="4">
+      <c r="A259" s="3" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="3" t="inlineStr">
         <is>
           <t>System Events UX + retention</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="D259" s="3" t="inlineStr">
         <is>
           <t>S26_G03_TF001</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E259" s="3" t="inlineStr">
         <is>
           <t>Frontend: Make System Events grid match Holdings-style toolbar/layout and add retention-days control (default 7) with cleanup button.</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H259" s="3" t="inlineStr">
         <is>
           <t>Switched to UniverseGrid (GridToolbar with quick filter/columns/density/export) and added retention-days input + cleanup/refresh controls.</t>
         </is>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+    <row r="260" ht="28.35" customHeight="1" s="4">
+      <c r="A260" s="3" t="inlineStr">
         <is>
           <t>S26</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="3" t="inlineStr">
         <is>
           <t>System Events UX + retention</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
+      <c r="D260" s="3" t="inlineStr">
         <is>
           <t>S26_G03_TB001</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
+      <c r="E260" s="3" t="inlineStr">
         <is>
           <t>Backend: Add /api/system-events/cleanup to delete events older than N days (default 7) and add tests.</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H260" s="3" t="inlineStr">
         <is>
           <t>Added cleanup endpoint + request/response schemas and test coverage for retention delete.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261" ht="41.75" customHeight="1" s="4">
+      <c r="A261" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="inlineStr">
+        <is>
+          <t>Portfolio rebalance v1: target-weight + budget</t>
+        </is>
+      </c>
+      <c r="D261" s="3" t="inlineStr">
+        <is>
+          <t>S27_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E261" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add DB schema for portfolio rebalance (policy + schedule + run history + run orders) scoped to user and group.</t>
+        </is>
+      </c>
+      <c r="F261" s="3" t="inlineStr">
+        <is>
+          <t>See docs/portfolio_rebalancing.md. Keep policy snapshot per run for audit.</t>
+        </is>
+      </c>
+      <c r="G261" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H261" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance schema added (policy/schedule/run/run_orders) + Alembic migration 0040.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262" ht="41.75" customHeight="1" s="4">
+      <c r="A262" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="inlineStr">
+        <is>
+          <t>Portfolio rebalance v1: target-weight + budget</t>
+        </is>
+      </c>
+      <c r="D262" s="3" t="inlineStr">
+        <is>
+          <t>S27_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Implement rebalance computation engine (live weights, drift bands, budget scaling, qty rounding, min trade value, max trades).</t>
+        </is>
+      </c>
+      <c r="F262" s="3" t="inlineStr">
+        <is>
+          <t>Supports broker-scoped runs (Zerodha/AngelOne) and “Both (run separately)”.</t>
+        </is>
+      </c>
+      <c r="G262" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H262" s="3" t="inlineStr">
+        <is>
+          <t>Deterministic target-weight rebalance engine with drift bands, budget scaling, qty rounding, min trade value, max trades, and before/after drift metrics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263" ht="41.75" customHeight="1" s="4">
+      <c r="A263" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B263" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C263" s="3" t="inlineStr">
+        <is>
+          <t>Portfolio rebalance v1: target-weight + budget</t>
+        </is>
+      </c>
+      <c r="D263" s="3" t="inlineStr">
+        <is>
+          <t>S27_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E263" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add /api/rebalance/preview endpoint returning proposed trades + summary metrics (turnover, drift reduced, budget used).</t>
+        </is>
+      </c>
+      <c r="F263" s="3" t="inlineStr">
+        <is>
+          <t>Input: group_id, broker_name, budget_pct/amount, bands, constraints.</t>
+        </is>
+      </c>
+      <c r="G263" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H263" s="3" t="inlineStr">
+        <is>
+          <t>Added /api/rebalance/preview returning per-broker proposals + summary + warnings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264" ht="41.75" customHeight="1" s="4">
+      <c r="A264" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="inlineStr">
+        <is>
+          <t>Portfolio rebalance v1: target-weight + budget</t>
+        </is>
+      </c>
+      <c r="D264" s="3" t="inlineStr">
+        <is>
+          <t>S27_G01_TB004</t>
+        </is>
+      </c>
+      <c r="E264" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add /api/rebalance/execute endpoint to create orders (manual queue or AUTO) and persist run history + order mapping.</t>
+        </is>
+      </c>
+      <c r="F264" s="3" t="inlineStr">
+        <is>
+          <t>Idempotency key recommended; store execution results/status per order.</t>
+        </is>
+      </c>
+      <c r="G264" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H264" s="3" t="inlineStr">
+        <is>
+          <t>Added /api/rebalance/execute to create orders (MANUAL/AUTO) and persist RebalanceRun + RebalanceRunOrder mappings; idempotency supported.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265" ht="41.75" customHeight="1" s="4">
+      <c r="A265" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C265" s="3" t="inlineStr">
+        <is>
+          <t>Portfolio rebalance v1: target-weight + budget</t>
+        </is>
+      </c>
+      <c r="D265" s="3" t="inlineStr">
+        <is>
+          <t>S27_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E265" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Add Rebalance panel on portfolio group views (next rebalance, last rebalance, broker scope, preview/run/history).</t>
+        </is>
+      </c>
+      <c r="F265" s="3" t="inlineStr">
+        <is>
+          <t>Surface core knobs: budget %, drift bands, max trades, min trade value.</t>
+        </is>
+      </c>
+      <c r="G265" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H265" s="3" t="inlineStr">
+        <is>
+          <t>Added Rebalance action for PORTFOLIO groups in Groups page with preview/run/history workflow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266" ht="41.75" customHeight="1" s="4">
+      <c r="A266" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C266" s="3" t="inlineStr">
+        <is>
+          <t>Portfolio rebalance v1: target-weight + budget</t>
+        </is>
+      </c>
+      <c r="D266" s="3" t="inlineStr">
+        <is>
+          <t>S27_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Rebalance preview dialog (proposed buys/sells, before/after weights, budget scaling, warnings, confirm).</t>
+        </is>
+      </c>
+      <c r="F266" s="3" t="inlineStr">
+        <is>
+          <t>Reuse existing order UX patterns; confirm can route to manual queue or AUTO broker.</t>
+        </is>
+      </c>
+      <c r="G266" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H266" s="3" t="inlineStr">
+        <is>
+          <t>Preview dialog shows proposed buys/sells, before/after drift summary, warnings, and confirm actions (manual queue or AUTO).</t>
+        </is>
+      </c>
+    </row>
+    <row r="267" ht="41.75" customHeight="1" s="4">
+      <c r="A267" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr">
+        <is>
+          <t>Portfolio rebalance v1: target-weight + budget</t>
+        </is>
+      </c>
+      <c r="D267" s="3" t="inlineStr">
+        <is>
+          <t>S27_G01_TF003</t>
+        </is>
+      </c>
+      <c r="E267" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Rebalance history tab/table + run detail (inputs snapshot, proposed orders, execution status/errors).</t>
+        </is>
+      </c>
+      <c r="F267" s="3" t="inlineStr">
+        <is>
+          <t>Link to Orders/Queue filtered by rebalance run id.</t>
+        </is>
+      </c>
+      <c r="G267" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H267" s="3" t="inlineStr">
+        <is>
+          <t>History tab lists recent runs and run-order details (order ids, symbols, qty, status).</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Optional: add Orders/Queue filtering by rebalance run id.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268" ht="41.75" customHeight="1" s="4">
+      <c r="A268" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr">
+        <is>
+          <t>Portfolio rebalance v1: target-weight + budget</t>
+        </is>
+      </c>
+      <c r="D268" s="3" t="inlineStr">
+        <is>
+          <t>S27_G01_TT001</t>
+        </is>
+      </c>
+      <c r="E268" s="3" t="inlineStr">
+        <is>
+          <t>Tests: Add backend tests for preview/execute endpoints (budget scaling, band gating, rounding, max trades, broker-scope).</t>
+        </is>
+      </c>
+      <c r="G268" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H268" s="3" t="inlineStr">
+        <is>
+          <t>Added backend tests for preview/execute (budget scaling + idempotency) with broker calls monkeypatched.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269" ht="55.2" customHeight="1" s="4">
+      <c r="A269" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance scheduling + next opportunity</t>
+        </is>
+      </c>
+      <c r="D269" s="3" t="inlineStr">
+        <is>
+          <t>S27_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E269" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Implement schedule model + next_rebalance_at computation (weekly/monthly/quarterly/custom days, timezone Asia/Kolkata).</t>
+        </is>
+      </c>
+      <c r="F269" s="3" t="inlineStr">
+        <is>
+          <t>No auto-execution in v1; just compute/display next opportunity.</t>
+        </is>
+      </c>
+      <c r="G269" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H269" s="3" t="inlineStr">
+        <is>
+          <t>Schedule stored per portfolio group; next opportunity computed consistently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270" ht="41.75" customHeight="1" s="4">
+      <c r="A270" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B270" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C270" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance scheduling + next opportunity</t>
+        </is>
+      </c>
+      <c r="D270" s="3" t="inlineStr">
+        <is>
+          <t>S27_G02_TF001</t>
+        </is>
+      </c>
+      <c r="E270" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Schedule editor in Rebalance panel (frequency, time, timezone) + display next/last rebalance timestamps.</t>
+        </is>
+      </c>
+      <c r="G270" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H270" s="3" t="inlineStr">
+        <is>
+          <t>User can configure schedule and see next rebalance date/opportunity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271" ht="28.35" customHeight="1" s="4">
+      <c r="A271" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B271" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C271" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance scheduling + next opportunity</t>
+        </is>
+      </c>
+      <c r="D271" s="3" t="inlineStr">
+        <is>
+          <t>S27_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E271" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Expose schedule/policy read+update endpoints for portfolio groups (GET/PUT).</t>
+        </is>
+      </c>
+      <c r="G271" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H271" s="3" t="inlineStr">
+        <is>
+          <t>FE can persist schedule/policy config per group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272" ht="41.75" customHeight="1" s="4">
+      <c r="A272" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B272" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C272" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance scheduling + next opportunity</t>
+        </is>
+      </c>
+      <c r="D272" s="3" t="inlineStr">
+        <is>
+          <t>S27_G02_TB003</t>
+        </is>
+      </c>
+      <c r="E272" s="3" t="inlineStr">
+        <is>
+          <t>Backend (optional): Add background scheduler (disabled by default) to auto-run rebalance previews/notifications and/or execute when enabled.</t>
+        </is>
+      </c>
+      <c r="F272" s="3" t="inlineStr">
+        <is>
+          <t>Defer if needed; keep behind settings flag.</t>
+        </is>
+      </c>
+      <c r="G272" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H272" s="3" t="inlineStr">
+        <is>
+          <t>Foundation for automated periodic rebalancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273" ht="41.75" customHeight="1" s="4">
+      <c r="A273" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C273" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance v2: signal/strategy-driven rotation</t>
+        </is>
+      </c>
+      <c r="D273" s="3" t="inlineStr">
+        <is>
+          <t>S27_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E273" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Extend rebalance engine to support signal-driven targets (use saved Strategy output to rank universe and derive weights).</t>
+        </is>
+      </c>
+      <c r="F273" s="3" t="inlineStr">
+        <is>
+          <t>Inputs: strategy_id/version/output, candidate universe group/screener run, top-N, weighting scheme.</t>
+        </is>
+      </c>
+      <c r="G273" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H273" s="3" t="inlineStr">
+        <is>
+          <t>Preview returns target weights derived from strategy + resulting trades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274" ht="41.75" customHeight="1" s="4">
+      <c r="A274" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B274" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C274" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance v2: signal/strategy-driven rotation</t>
+        </is>
+      </c>
+      <c r="D274" s="3" t="inlineStr">
+        <is>
+          <t>S27_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E274" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Add “Signal-driven rebalance” mode UI (select strategy/version/output, candidate universe, top-N, weighting scheme).</t>
+        </is>
+      </c>
+      <c r="G274" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H274" s="3" t="inlineStr">
+        <is>
+          <t>User can rotate portfolio using strategy signals with preview/run flow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275" ht="41.75" customHeight="1" s="4">
+      <c r="A275" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B275" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C275" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance v2: signal/strategy-driven rotation</t>
+        </is>
+      </c>
+      <c r="D275" s="3" t="inlineStr">
+        <is>
+          <t>S27_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E275" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add replacement rules (sell criteria, eligibility filters, min liquidity/price, blacklist/whitelist) and audit reasons.</t>
+        </is>
+      </c>
+      <c r="F275" s="3" t="inlineStr">
+        <is>
+          <t>Keep knobs configurable per policy.</t>
+        </is>
+      </c>
+      <c r="G275" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H275" s="3" t="inlineStr">
+        <is>
+          <t>Rotation decisions are explainable and consistent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276" ht="28.35" customHeight="1" s="4">
+      <c r="A276" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B276" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C276" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance v2: signal/strategy-driven rotation</t>
+        </is>
+      </c>
+      <c r="D276" s="3" t="inlineStr">
+        <is>
+          <t>S27_G03_TT001</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="inlineStr">
+        <is>
+          <t>Tests: Coverage for strategy-driven target derivation + replacement rules and constraints.</t>
+        </is>
+      </c>
+      <c r="G276" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H276" s="3" t="inlineStr">
+        <is>
+          <t>Ensure deterministic outputs given fixed candle inputs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277" ht="41.75" customHeight="1" s="4">
+      <c r="A277" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance v3: risk-based (risk parity / contributions)</t>
+        </is>
+      </c>
+      <c r="D277" s="3" t="inlineStr">
+        <is>
+          <t>S27_G04_TB001</t>
+        </is>
+      </c>
+      <c r="E277" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Compute/caches covariance matrix from price history and per-asset risk metrics needed for risk contribution.</t>
+        </is>
+      </c>
+      <c r="F277" s="3" t="inlineStr">
+        <is>
+          <t>Use 6M–1Y windows; cache keyed by date/window/universe.</t>
+        </is>
+      </c>
+      <c r="G277" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H277" s="3" t="inlineStr">
+        <is>
+          <t>Covariance inputs available for optimizer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278" ht="41.75" customHeight="1" s="4">
+      <c r="A278" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B278" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C278" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance v3: risk-based (risk parity / contributions)</t>
+        </is>
+      </c>
+      <c r="D278" s="3" t="inlineStr">
+        <is>
+          <t>S27_G04_TB002</t>
+        </is>
+      </c>
+      <c r="E278" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Implement risk-based optimizer (risk parity / equal risk contribution) with constraints (max weight, max trades, budget).</t>
+        </is>
+      </c>
+      <c r="F278" s="3" t="inlineStr">
+        <is>
+          <t>Start with a simple iterative solver; avoid heavy deps in v1.</t>
+        </is>
+      </c>
+      <c r="G278" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H278" s="3" t="inlineStr">
+        <is>
+          <t>Target weights produced from risk objective; preview returns resulting trades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279" ht="41.75" customHeight="1" s="4">
+      <c r="A279" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B279" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C279" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance v3: risk-based (risk parity / contributions)</t>
+        </is>
+      </c>
+      <c r="D279" s="3" t="inlineStr">
+        <is>
+          <t>S27_G04_TF001</t>
+        </is>
+      </c>
+      <c r="E279" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Add “Risk-based rebalance” mode UI (window, constraints, objective) within the same preview/run workflow.</t>
+        </is>
+      </c>
+      <c r="G279" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H279" s="3" t="inlineStr">
+        <is>
+          <t>Risk-based rebalance is configurable and consistent with other modes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280" ht="28.35" customHeight="1" s="4">
+      <c r="A280" s="3" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="B280" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C280" s="3" t="inlineStr">
+        <is>
+          <t>Rebalance v3: risk-based (risk parity / contributions)</t>
+        </is>
+      </c>
+      <c r="D280" s="3" t="inlineStr">
+        <is>
+          <t>S27_G04_TT001</t>
+        </is>
+      </c>
+      <c r="E280" s="3" t="inlineStr">
+        <is>
+          <t>Tests: Add unit tests for covariance estimation + optimizer sanity checks + performance guardrails.</t>
+        </is>
+      </c>
+      <c r="G280" s="3" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H280" s="3" t="inlineStr">
+        <is>
+          <t>Confident correctness and reasonable runtime.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -11827,7 +11827,7 @@
           <t>History tab lists recent runs and run-order details (order ids, symbols, qty, status).</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr">
+      <c r="I267" s="0" t="inlineStr">
         <is>
           <t>Optional: add Orders/Queue filtering by rebalance run id.</t>
         </is>
@@ -11903,12 +11903,12 @@
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H269" s="3" t="inlineStr">
         <is>
-          <t>Schedule stored per portfolio group; next opportunity computed consistently.</t>
+          <t>Implemented schedule config + next_run_at computation (weekly/monthly/quarterly/custom days, Asia/Kolkata, weekend roll).</t>
         </is>
       </c>
     </row>
@@ -11940,12 +11940,12 @@
       </c>
       <c r="G270" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H270" s="3" t="inlineStr">
         <is>
-          <t>User can configure schedule and see next rebalance date/opportunity.</t>
+          <t>Added Schedule tab in Rebalance dialog to edit frequency/time/timezone and show next/last timestamps (PORTFOLIO groups only).</t>
         </is>
       </c>
     </row>
@@ -11977,12 +11977,12 @@
       </c>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H271" s="3" t="inlineStr">
         <is>
-          <t>FE can persist schedule/policy config per group.</t>
+          <t>Added /api/rebalance/schedule GET/PUT for PORTFOLIO groups; auto-creates default policy+schedule per user+group.</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="H272" s="3" t="inlineStr">
         <is>
-          <t>Foundation for automated periodic rebalancing.</t>
+          <t>Deferred: background scheduler/auto-run (kept behind future flag).</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -12056,17 +12056,17 @@
       </c>
       <c r="F273" s="3" t="inlineStr">
         <is>
-          <t>Inputs: strategy_id/version/output, candidate universe group/screener run, top-N, weighting scheme.</t>
+          <t>Implemented using signal_strategy_version_id + OVERLAY output for ranking; default universe = rebalance group when not provided.</t>
         </is>
       </c>
       <c r="G273" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H273" s="3" t="inlineStr">
         <is>
-          <t>Preview returns target weights derived from strategy + resulting trades.</t>
+          <t>Added SIGNAL_ROTATION rebalance_method to /api/rebalance/preview+execute; derives target weights from strategy output across a universe group or screener run and feeds them into existing target-weight rebalance planner.</t>
         </is>
       </c>
     </row>
@@ -12098,12 +12098,12 @@
       </c>
       <c r="G274" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H274" s="3" t="inlineStr">
         <is>
-          <t>User can rotate portfolio using strategy signals with preview/run flow.</t>
+          <t>Rebalance dialog (PORTFOLIO groups) now supports “Signal-driven rotation”: pick strategy/version/OVERLAY output, universe group or screener run id, top-N, weighting, and filters; uses same preview/execute flow.</t>
         </is>
       </c>
     </row>
@@ -12135,17 +12135,17 @@
       </c>
       <c r="F275" s="3" t="inlineStr">
         <is>
-          <t>Keep knobs configurable per policy.</t>
+          <t>Knobs are configurable per request and captured in run snapshots; policy persistence can be added later.</t>
         </is>
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H275" s="3" t="inlineStr">
         <is>
-          <t>Rotation decisions are explainable and consistent.</t>
+          <t>Added replacement/eligibility knobs (sell_not_in_top_n, min_price, min_avg_volume_20d, whitelist/blacklist, require_positive_score) and audit metadata in trade.reason + derived_targets.</t>
         </is>
       </c>
     </row>
@@ -12177,12 +12177,12 @@
       </c>
       <c r="G276" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H276" s="3" t="inlineStr">
         <is>
-          <t>Ensure deterministic outputs given fixed candle inputs.</t>
+          <t>Added deterministic API tests for signal-rotation target derivation, blacklist constraint, and rotation audit fields (seeded candles + stubbed holdings).</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -12214,17 +12214,17 @@
       </c>
       <c r="F277" s="3" t="inlineStr">
         <is>
-          <t>Use 6M–1Y windows; cache keyed by date/window/universe.</t>
+          <t>Cache stored in DB table risk_covariance_cache (JSON matrices) keyed by universe/timeframe/window/as_of; uses aligned 1d candles and simple returns.</t>
         </is>
       </c>
       <c r="G277" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H277" s="3" t="inlineStr">
         <is>
-          <t>Covariance inputs available for optimizer.</t>
+          <t>Added covariance estimation + caching service for risk parity rebalancing (6M/1Y windows) using candles history.</t>
         </is>
       </c>
     </row>
@@ -12256,17 +12256,17 @@
       </c>
       <c r="F278" s="3" t="inlineStr">
         <is>
-          <t>Start with a simple iterative solver; avoid heavy deps in v1.</t>
+          <t>Optimizer implemented in pure Python (no numpy); supports min/max weight bounds; integrated as rebalance_method=RISK_PARITY.</t>
         </is>
       </c>
       <c r="G278" s="3" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H278" s="3" t="inlineStr">
         <is>
-          <t>Target weights produced from risk objective; preview returns resulting trades.</t>
+          <t>Implemented equal risk contribution (risk parity/ERC) weight solver with constraints and integrated into /api/rebalance/preview+execute; preview returns derived risk targets + diagnostics.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E259" activeCellId="0" sqref="1:1048576"/>
@@ -12344,6 +12344,703 @@
         </is>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C281" s="0" t="inlineStr">
+        <is>
+          <t>Backtesting foundation (page + runs + EOD data)</t>
+        </is>
+      </c>
+      <c r="D281" s="0" t="inlineStr">
+        <is>
+          <t>S28_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E281" s="0" t="inlineStr">
+        <is>
+          <t>Frontend: Add Backtesting page in sidebar (below Alerts) with 3 tabs (Signal/Portfolio/Execution) and a split layout (Inputs vs Results).</t>
+        </is>
+      </c>
+      <c r="G281" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Backtesting page added (/backtesting) with 3 tabs + help dialog.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C282" s="0" t="inlineStr">
+        <is>
+          <t>Backtesting foundation (page + runs + EOD data)</t>
+        </is>
+      </c>
+      <c r="D282" s="0" t="inlineStr">
+        <is>
+          <t>S28_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E282" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Add DB schema for backtest runs (config snapshot + timestamps + status) and API endpoints to create/list/get runs.</t>
+        </is>
+      </c>
+      <c r="G282" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Backtest run table + CRUD endpoints added.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C283" s="0" t="inlineStr">
+        <is>
+          <t>Backtesting foundation (page + runs + EOD data)</t>
+        </is>
+      </c>
+      <c r="D283" s="0" t="inlineStr">
+        <is>
+          <t>S28_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E283" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Implement EOD candle loader for a selected universe (Holdings/Group/Both) with strict “as-of” semantics (no lookahead) and caching.</t>
+        </is>
+      </c>
+      <c r="G283" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>EOD candle loader implemented (aligned close matrix) + endpoint.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C284" s="0" t="inlineStr">
+        <is>
+          <t>Backtesting foundation (page + runs + EOD data)</t>
+        </is>
+      </c>
+      <c r="D284" s="0" t="inlineStr">
+        <is>
+          <t>S28_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E284" s="0" t="inlineStr">
+        <is>
+          <t>Frontend: Add “Runs” panel (recent runs/history), ability to rerun with the same config, and basic compare (A vs B) scaffolding.</t>
+        </is>
+      </c>
+      <c r="G284" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Runs panel added (history + rerun scaffolding).</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C285" s="0" t="inlineStr">
+        <is>
+          <t>Backtesting foundation (page + runs + EOD data)</t>
+        </is>
+      </c>
+      <c r="D285" s="0" t="inlineStr">
+        <is>
+          <t>S28_G01_TT001</t>
+        </is>
+      </c>
+      <c r="E285" s="0" t="inlineStr">
+        <is>
+          <t>Tests: Add backend tests for backtest run CRUD + candle loader invariants (no-lookahead, deterministic results for fixed inputs).</t>
+        </is>
+      </c>
+      <c r="G285" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Backend tests added for runs + candle loader.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C286" s="0" t="inlineStr">
+        <is>
+          <t>Signal backtest (EOD)</t>
+        </is>
+      </c>
+      <c r="D286" s="0" t="inlineStr">
+        <is>
+          <t>S28_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E286" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Implement Signal backtest endpoint (DSL condition and/or ranking) producing hit-rate + forward-return distributions (1D/5D/20D).</t>
+        </is>
+      </c>
+      <c r="G286" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C287" s="0" t="inlineStr">
+        <is>
+          <t>Signal backtest (EOD)</t>
+        </is>
+      </c>
+      <c r="D287" s="0" t="inlineStr">
+        <is>
+          <t>S28_G02_TF001</t>
+        </is>
+      </c>
+      <c r="E287" s="0" t="inlineStr">
+        <is>
+          <t>Frontend: Signal backtest tab UI (universe, date range, DSL/ranking input, forward windows) + results (summary + distributions).</t>
+        </is>
+      </c>
+      <c r="G287" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C288" s="0" t="inlineStr">
+        <is>
+          <t>Signal backtest (EOD)</t>
+        </is>
+      </c>
+      <c r="D288" s="0" t="inlineStr">
+        <is>
+          <t>S28_G02_TT001</t>
+        </is>
+      </c>
+      <c r="E288" s="0" t="inlineStr">
+        <is>
+          <t>Tests: Validate signal backtest metrics on small synthetic datasets and guard against lookahead bias.</t>
+        </is>
+      </c>
+      <c r="G288" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C289" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v1 (target weights)</t>
+        </is>
+      </c>
+      <c r="D289" s="0" t="inlineStr">
+        <is>
+          <t>S28_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E289" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Implement portfolio simulator (EOD) with rebalance cadence, budget/max-trades/min-trade constraints, and simple costs/slippage model.</t>
+        </is>
+      </c>
+      <c r="G289" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C290" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v1 (target weights)</t>
+        </is>
+      </c>
+      <c r="D290" s="0" t="inlineStr">
+        <is>
+          <t>S28_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E290" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Implement Target-weights portfolio backtest (use portfolio group target weights) returning equity curve, drawdowns, turnover, and rebalance actions.</t>
+        </is>
+      </c>
+      <c r="G290" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C291" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v1 (target weights)</t>
+        </is>
+      </c>
+      <c r="D291" s="0" t="inlineStr">
+        <is>
+          <t>S28_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E291" s="0" t="inlineStr">
+        <is>
+          <t>Frontend: Portfolio backtest tab (Target weights mode) + results views (equity/drawdown charts, turnover, action list, contributors).</t>
+        </is>
+      </c>
+      <c r="G291" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C292" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v1 (target weights)</t>
+        </is>
+      </c>
+      <c r="D292" s="0" t="inlineStr">
+        <is>
+          <t>S28_G03_TT001</t>
+        </is>
+      </c>
+      <c r="E292" s="0" t="inlineStr">
+        <is>
+          <t>Tests: Portfolio simulator invariants (cash/position accounting, constraints respected, deterministic outputs).</t>
+        </is>
+      </c>
+      <c r="G292" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C293" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v2 (rotation)</t>
+        </is>
+      </c>
+      <c r="D293" s="0" t="inlineStr">
+        <is>
+          <t>S28_G04_TB001</t>
+        </is>
+      </c>
+      <c r="E293" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Implement rotation target derivation (Top-N selection + weighting) using DSL/strategy outputs and eligibility filters; plug into portfolio backtest.</t>
+        </is>
+      </c>
+      <c r="G293" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C294" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v2 (rotation)</t>
+        </is>
+      </c>
+      <c r="D294" s="0" t="inlineStr">
+        <is>
+          <t>S28_G04_TF001</t>
+        </is>
+      </c>
+      <c r="E294" s="0" t="inlineStr">
+        <is>
+          <t>Frontend: Rotation mode UI (ranking source, Top-N, weighting, cadence) + compare vs Target-weights baseline.</t>
+        </is>
+      </c>
+      <c r="G294" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C295" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v2 (rotation)</t>
+        </is>
+      </c>
+      <c r="D295" s="0" t="inlineStr">
+        <is>
+          <t>S28_G04_TT001</t>
+        </is>
+      </c>
+      <c r="E295" s="0" t="inlineStr">
+        <is>
+          <t>Tests: Rotation selection stability + turnover bounds + filter correctness.</t>
+        </is>
+      </c>
+      <c r="G295" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C296" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v3 (risk parity)</t>
+        </is>
+      </c>
+      <c r="D296" s="0" t="inlineStr">
+        <is>
+          <t>S28_G05_TB001</t>
+        </is>
+      </c>
+      <c r="E296" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Implement risk-parity target derivation for backtests (window/lookback + constraints) using covariance/risk metrics with EOD candles.</t>
+        </is>
+      </c>
+      <c r="G296" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C297" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v3 (risk parity)</t>
+        </is>
+      </c>
+      <c r="D297" s="0" t="inlineStr">
+        <is>
+          <t>S28_G05_TF001</t>
+        </is>
+      </c>
+      <c r="E297" s="0" t="inlineStr">
+        <is>
+          <t>Frontend: Risk parity mode UI (window, constraints) + reporting focused on risk-adjusted outcomes and drawdowns.</t>
+        </is>
+      </c>
+      <c r="G297" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C298" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio backtest v3 (risk parity)</t>
+        </is>
+      </c>
+      <c r="D298" s="0" t="inlineStr">
+        <is>
+          <t>S28_G05_TT001</t>
+        </is>
+      </c>
+      <c r="E298" s="0" t="inlineStr">
+        <is>
+          <t>Tests: Risk parity weight sanity checks and stability (constraints applied, non-negative weights, sum-to-1 within tolerance).</t>
+        </is>
+      </c>
+      <c r="G298" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C299" s="0" t="inlineStr">
+        <is>
+          <t>Execution backtest (EOD friction model)</t>
+        </is>
+      </c>
+      <c r="D299" s="0" t="inlineStr">
+        <is>
+          <t>S28_G06_TB001</t>
+        </is>
+      </c>
+      <c r="E299" s="0" t="inlineStr">
+        <is>
+          <t>Backend: Add execution friction layer (fill timing: close vs next open, slippage bps, simple charges) to portfolio backtests.</t>
+        </is>
+      </c>
+      <c r="G299" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C300" s="0" t="inlineStr">
+        <is>
+          <t>Execution backtest (EOD friction model)</t>
+        </is>
+      </c>
+      <c r="D300" s="0" t="inlineStr">
+        <is>
+          <t>S28_G06_TF001</t>
+        </is>
+      </c>
+      <c r="E300" s="0" t="inlineStr">
+        <is>
+          <t>Frontend: Execution backtest tab (select base portfolio config + friction knobs) with “ideal vs realistic” comparison.</t>
+        </is>
+      </c>
+      <c r="G300" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C301" s="0" t="inlineStr">
+        <is>
+          <t>Execution backtest (EOD friction model)</t>
+        </is>
+      </c>
+      <c r="D301" s="0" t="inlineStr">
+        <is>
+          <t>S28_G06_TT001</t>
+        </is>
+      </c>
+      <c r="E301" s="0" t="inlineStr">
+        <is>
+          <t>Tests: Execution friction impacts (cost reduces returns; no negative-cash violations; deterministic).</t>
+        </is>
+      </c>
+      <c r="G301" s="0" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -12375,7 +12375,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
+      <c r="H281" s="0" t="inlineStr">
         <is>
           <t>Backtesting page added (/backtesting) with 3 tabs + help dialog.</t>
         </is>
@@ -12412,7 +12412,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
+      <c r="H282" s="0" t="inlineStr">
         <is>
           <t>Backtest run table + CRUD endpoints added.</t>
         </is>
@@ -12449,7 +12449,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="H283" s="0" t="inlineStr">
         <is>
           <t>EOD candle loader implemented (aligned close matrix) + endpoint.</t>
         </is>
@@ -12486,7 +12486,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="H284" s="0" t="inlineStr">
         <is>
           <t>Runs panel added (history + rerun scaffolding).</t>
         </is>
@@ -12523,7 +12523,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
+      <c r="H285" s="0" t="inlineStr">
         <is>
           <t>Backend tests added for runs + candle loader.</t>
         </is>
@@ -12557,7 +12557,12 @@
       </c>
       <c r="G286" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Signal backtest engine implemented (DSL + ranking) with forward-return distributions.</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12594,12 @@
       </c>
       <c r="G287" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Signal Backtest tab UI implemented with presets and results table.</t>
         </is>
       </c>
     </row>
@@ -12621,7 +12631,12 @@
       </c>
       <c r="G288" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Backend tests added for signal metrics; pytest/ruff/build verified.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -12560,7 +12560,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
+      <c r="H286" s="0" t="inlineStr">
         <is>
           <t>Signal backtest engine implemented (DSL + ranking) with forward-return distributions.</t>
         </is>
@@ -12597,7 +12597,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
+      <c r="H287" s="0" t="inlineStr">
         <is>
           <t>Signal Backtest tab UI implemented with presets and results table.</t>
         </is>
@@ -12634,7 +12634,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
+      <c r="H288" s="0" t="inlineStr">
         <is>
           <t>Backend tests added for signal metrics; pytest/ruff/build verified.</t>
         </is>
@@ -12668,7 +12668,12 @@
       </c>
       <c r="G289" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>EOD portfolio simulator implemented with cadence, budget/max-trades/min-trade, slippage+charges.</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12705,12 @@
       </c>
       <c r="G290" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Target-weights backtest implemented using portfolio group target weights; returns equity/drawdown/actions.</t>
         </is>
       </c>
     </row>
@@ -12732,7 +12742,12 @@
       </c>
       <c r="G291" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Portfolio Backtest tab implemented with presets + equity/drawdown charts + actions table.</t>
         </is>
       </c>
     </row>
@@ -12764,7 +12779,12 @@
       </c>
       <c r="G292" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Backend test added for target-weights run invariants; pytest/ruff/build verified.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -12671,7 +12671,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
+      <c r="H289" s="0" t="inlineStr">
         <is>
           <t>EOD portfolio simulator implemented with cadence, budget/max-trades/min-trade, slippage+charges.</t>
         </is>
@@ -12708,7 +12708,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
+      <c r="H290" s="0" t="inlineStr">
         <is>
           <t>Target-weights backtest implemented using portfolio group target weights; returns equity/drawdown/actions.</t>
         </is>
@@ -12745,7 +12745,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
+      <c r="H291" s="0" t="inlineStr">
         <is>
           <t>Portfolio Backtest tab implemented with presets + equity/drawdown charts + actions table.</t>
         </is>
@@ -12782,7 +12782,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
+      <c r="H292" s="0" t="inlineStr">
         <is>
           <t>Backend test added for target-weights run invariants; pytest/ruff/build verified.</t>
         </is>
@@ -12816,7 +12816,12 @@
       </c>
       <c r="G293" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Rotation target derivation implemented (Top-N momentum + eligible DSL filter) and integrated into portfolio backtest.</t>
         </is>
       </c>
     </row>
@@ -12848,7 +12853,12 @@
       </c>
       <c r="G294" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Rotation mode UI added with presets and run comparison overlay.</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12890,12 @@
       </c>
       <c r="G295" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Backend test added for rotation Top-N; pytest/ruff/build verified.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -12819,7 +12819,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
+      <c r="H293" s="0" t="inlineStr">
         <is>
           <t>Rotation target derivation implemented (Top-N momentum + eligible DSL filter) and integrated into portfolio backtest.</t>
         </is>
@@ -12856,7 +12856,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
+      <c r="H294" s="0" t="inlineStr">
         <is>
           <t>Rotation mode UI added with presets and run comparison overlay.</t>
         </is>
@@ -12893,7 +12893,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
+      <c r="H295" s="0" t="inlineStr">
         <is>
           <t>Backend test added for rotation Top-N; pytest/ruff/build verified.</t>
         </is>
@@ -12927,7 +12927,12 @@
       </c>
       <c r="G296" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Risk parity target derivation added (rolling covariance + ERC solver + bounds) integrated into portfolio backtest.</t>
         </is>
       </c>
     </row>
@@ -12959,7 +12964,12 @@
       </c>
       <c r="G297" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Risk parity mode UI added with presets and reporting focused on drawdowns.</t>
         </is>
       </c>
     </row>
@@ -12991,7 +13001,12 @@
       </c>
       <c r="G298" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Backend test added for risk parity weight sanity; pytest/ruff/build verified.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -12930,7 +12930,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
+      <c r="H296" s="0" t="inlineStr">
         <is>
           <t>Risk parity target derivation added (rolling covariance + ERC solver + bounds) integrated into portfolio backtest.</t>
         </is>
@@ -12967,7 +12967,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
+      <c r="H297" s="0" t="inlineStr">
         <is>
           <t>Risk parity mode UI added with presets and reporting focused on drawdowns.</t>
         </is>
@@ -13004,7 +13004,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
+      <c r="H298" s="0" t="inlineStr">
         <is>
           <t>Backend test added for risk parity weight sanity; pytest/ruff/build verified.</t>
         </is>
@@ -13038,7 +13038,12 @@
       </c>
       <c r="G299" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Added fill timing (CLOSE vs NEXT_OPEN) + open/close EOD loader; modeled slippage/charges on fills and exposed via portfolio config.</t>
         </is>
       </c>
     </row>
@@ -13070,7 +13075,12 @@
       </c>
       <c r="G300" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Execution tab added: select base PORTFOLIO run, presets, friction knobs, and ideal-vs-realistic equity overlay.</t>
         </is>
       </c>
     </row>
@@ -13102,7 +13112,12 @@
       </c>
       <c r="G301" s="0" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Added API tests ensuring execution costs reduce end equity and run stays deterministic.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,9 +359,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A278" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A326" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C300" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
@@ -12344,7 +12344,7 @@
         </is>
       </c>
     </row>
-    <row r="281" ht="41.75" customHeight="1" s="4">
+    <row r="281" ht="41.25" customHeight="1" s="4">
       <c r="A281" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
     </row>
-    <row r="282" ht="41.75" customHeight="1" s="4">
+    <row r="282" ht="41.25" customHeight="1" s="4">
       <c r="A282" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12418,7 +12418,7 @@
         </is>
       </c>
     </row>
-    <row r="283" ht="41.75" customHeight="1" s="4">
+    <row r="283" ht="41.25" customHeight="1" s="4">
       <c r="A283" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12455,7 +12455,7 @@
         </is>
       </c>
     </row>
-    <row r="284" ht="41.75" customHeight="1" s="4">
+    <row r="284" ht="41.25" customHeight="1" s="4">
       <c r="A284" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12492,7 +12492,7 @@
         </is>
       </c>
     </row>
-    <row r="285" ht="41.75" customHeight="1" s="4">
+    <row r="285" ht="41.25" customHeight="1" s="4">
       <c r="A285" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12529,7 +12529,7 @@
         </is>
       </c>
     </row>
-    <row r="286" ht="41.75" customHeight="1" s="4">
+    <row r="286" ht="41.25" customHeight="1" s="4">
       <c r="A286" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12566,7 +12566,7 @@
         </is>
       </c>
     </row>
-    <row r="287" ht="41.75" customHeight="1" s="4">
+    <row r="287" ht="41.25" customHeight="1" s="4">
       <c r="A287" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12603,7 +12603,7 @@
         </is>
       </c>
     </row>
-    <row r="288" ht="28.35" customHeight="1" s="4">
+    <row r="288" ht="27.75" customHeight="1" s="4">
       <c r="A288" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12640,7 +12640,7 @@
         </is>
       </c>
     </row>
-    <row r="289" ht="41.75" customHeight="1" s="4">
+    <row r="289" ht="41.25" customHeight="1" s="4">
       <c r="A289" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12677,7 +12677,7 @@
         </is>
       </c>
     </row>
-    <row r="290" ht="41.75" customHeight="1" s="4">
+    <row r="290" ht="41.25" customHeight="1" s="4">
       <c r="A290" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
     </row>
-    <row r="291" ht="41.75" customHeight="1" s="4">
+    <row r="291" ht="41.25" customHeight="1" s="4">
       <c r="A291" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12751,7 +12751,7 @@
         </is>
       </c>
     </row>
-    <row r="292" ht="41.75" customHeight="1" s="4">
+    <row r="292" ht="41.25" customHeight="1" s="4">
       <c r="A292" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12788,7 +12788,7 @@
         </is>
       </c>
     </row>
-    <row r="293" ht="41.75" customHeight="1" s="4">
+    <row r="293" ht="41.25" customHeight="1" s="4">
       <c r="A293" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12825,7 +12825,7 @@
         </is>
       </c>
     </row>
-    <row r="294" ht="41.75" customHeight="1" s="4">
+    <row r="294" ht="41.25" customHeight="1" s="4">
       <c r="A294" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
     </row>
-    <row r="295" ht="28.35" customHeight="1" s="4">
+    <row r="295" ht="27.75" customHeight="1" s="4">
       <c r="A295" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12899,7 +12899,7 @@
         </is>
       </c>
     </row>
-    <row r="296" ht="41.75" customHeight="1" s="4">
+    <row r="296" ht="41.25" customHeight="1" s="4">
       <c r="A296" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12936,7 +12936,7 @@
         </is>
       </c>
     </row>
-    <row r="297" ht="41.75" customHeight="1" s="4">
+    <row r="297" ht="41.25" customHeight="1" s="4">
       <c r="A297" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -12973,7 +12973,7 @@
         </is>
       </c>
     </row>
-    <row r="298" ht="41.75" customHeight="1" s="4">
+    <row r="298" ht="41.25" customHeight="1" s="4">
       <c r="A298" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -13010,7 +13010,7 @@
         </is>
       </c>
     </row>
-    <row r="299" ht="41.75" customHeight="1" s="4">
+    <row r="299" ht="41.25" customHeight="1" s="4">
       <c r="A299" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
     </row>
-    <row r="300" ht="41.75" customHeight="1" s="4">
+    <row r="300" ht="41.25" customHeight="1" s="4">
       <c r="A300" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -13084,7 +13084,7 @@
         </is>
       </c>
     </row>
-    <row r="301" ht="28.35" customHeight="1" s="4">
+    <row r="301" ht="27.75" customHeight="1" s="4">
       <c r="A301" s="3" t="inlineStr">
         <is>
           <t>S28</t>
@@ -13121,7 +13121,7 @@
         </is>
       </c>
     </row>
-    <row r="302" ht="28.35" customHeight="1" s="4">
+    <row r="302" ht="27.75" customHeight="1" s="4">
       <c r="A302" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13153,7 +13153,7 @@
         </is>
       </c>
     </row>
-    <row r="303" ht="41.75" customHeight="1" s="4">
+    <row r="303" ht="41.25" customHeight="1" s="4">
       <c r="A303" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13185,7 +13185,7 @@
         </is>
       </c>
     </row>
-    <row r="304" ht="55.2" customHeight="1" s="4">
+    <row r="304" ht="54.75" customHeight="1" s="4">
       <c r="A304" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13217,7 +13217,7 @@
         </is>
       </c>
     </row>
-    <row r="305" ht="41.75" customHeight="1" s="4">
+    <row r="305" ht="41.25" customHeight="1" s="4">
       <c r="A305" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13249,7 +13249,7 @@
         </is>
       </c>
     </row>
-    <row r="306" ht="41.75" customHeight="1" s="4">
+    <row r="306" ht="41.25" customHeight="1" s="4">
       <c r="A306" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13281,7 +13281,7 @@
         </is>
       </c>
     </row>
-    <row r="307" ht="41.75" customHeight="1" s="4">
+    <row r="307" ht="41.25" customHeight="1" s="4">
       <c r="A307" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13313,7 +13313,7 @@
         </is>
       </c>
     </row>
-    <row r="308" ht="41.75" customHeight="1" s="4">
+    <row r="308" ht="41.25" customHeight="1" s="4">
       <c r="A308" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13345,7 +13345,7 @@
         </is>
       </c>
     </row>
-    <row r="309" ht="41.75" customHeight="1" s="4">
+    <row r="309" ht="41.25" customHeight="1" s="4">
       <c r="A309" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13377,7 +13377,7 @@
         </is>
       </c>
     </row>
-    <row r="310" ht="41.75" customHeight="1" s="4">
+    <row r="310" ht="41.25" customHeight="1" s="4">
       <c r="A310" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13409,7 +13409,7 @@
         </is>
       </c>
     </row>
-    <row r="311" ht="41.75" customHeight="1" s="4">
+    <row r="311" ht="41.25" customHeight="1" s="4">
       <c r="A311" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13441,7 +13441,7 @@
         </is>
       </c>
     </row>
-    <row r="312" ht="28.35" customHeight="1" s="4">
+    <row r="312" ht="27.75" customHeight="1" s="4">
       <c r="A312" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13473,7 +13473,7 @@
         </is>
       </c>
     </row>
-    <row r="313" ht="28.35" customHeight="1" s="4">
+    <row r="313" ht="27.75" customHeight="1" s="4">
       <c r="A313" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13505,7 +13505,7 @@
         </is>
       </c>
     </row>
-    <row r="314" ht="41.75" customHeight="1" s="4">
+    <row r="314" ht="41.25" customHeight="1" s="4">
       <c r="A314" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13537,7 +13537,7 @@
         </is>
       </c>
     </row>
-    <row r="315" ht="28.35" customHeight="1" s="4">
+    <row r="315" ht="27.75" customHeight="1" s="4">
       <c r="A315" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13569,7 +13569,7 @@
         </is>
       </c>
     </row>
-    <row r="316" ht="28.35" customHeight="1" s="4">
+    <row r="316" ht="27.75" customHeight="1" s="4">
       <c r="A316" s="3" t="inlineStr">
         <is>
           <t>S29</t>
@@ -13601,577 +13601,661 @@
         </is>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
+    <row r="317" ht="41.75" customHeight="1" s="4">
+      <c r="A317" s="3" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
+      <c r="B317" s="3" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
+      <c r="C317" s="3" t="inlineStr">
         <is>
           <t>Strategy deployment (internal signals) — data model &amp; API</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr">
+      <c r="D317" s="3" t="inlineStr">
         <is>
           <t>S30_G01_TB001</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
+      <c r="E317" s="3" t="inlineStr">
         <is>
           <t>Backend: Add StrategyDeployment tables/models (config + runtime_state) with Alembic migration; enforce per-user ownership.</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr">
+      <c r="G317" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318" ht="41.75" customHeight="1" s="4">
+      <c r="A318" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B318" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C318" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment (internal signals) — data model &amp; API</t>
+        </is>
+      </c>
+      <c r="D318" s="3" t="inlineStr">
+        <is>
+          <t>S30_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E318" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add Pydantic schemas for deployment config (symbol/group target, TF, daily-via-intraday settings, entry/exit DSL, sizing, risk, broker/product, paper/live).</t>
+        </is>
+      </c>
+      <c r="G318" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319" ht="55.2" customHeight="1" s="4">
+      <c r="A319" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B319" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C319" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment (internal signals) — data model &amp; API</t>
+        </is>
+      </c>
+      <c r="D319" s="3" t="inlineStr">
+        <is>
+          <t>S30_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E319" s="3" t="inlineStr">
+        <is>
+          <t>Backend: CRUD API for deployments (list/get/create/update/delete) + start/stop toggle; include last/next eval timestamps and current state summary.</t>
+        </is>
+      </c>
+      <c r="G319" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320" ht="28.35" customHeight="1" s="4">
+      <c r="A320" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B320" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C320" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment (internal signals) — data model &amp; API</t>
+        </is>
+      </c>
+      <c r="D320" s="3" t="inlineStr">
+        <is>
+          <t>S30_G01_TT001</t>
+        </is>
+      </c>
+      <c r="E320" s="3" t="inlineStr">
+        <is>
+          <t>Tests: Deployment CRUD + ownership checks + basic config validation.</t>
+        </is>
+      </c>
+      <c r="G320" s="3" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321" ht="55.2" customHeight="1" s="4">
+      <c r="A321" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B321" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C321" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — scheduler &amp; job queue</t>
+        </is>
+      </c>
+      <c r="D321" s="3" t="inlineStr">
+        <is>
+          <t>S30_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E321" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add DB-backed deployment job queue with UNIQUE dedupe_key, due_ts, job_type, payload, status, claim_token/claimed_at, attempt_count, error; SQLite-safe atomic claim + idempotency support.</t>
+        </is>
+      </c>
+      <c r="G321" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
+    <row r="322" ht="95.5" customHeight="1" s="4">
+      <c r="A322" s="3" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>Strategy deployment (internal signals) — data model &amp; API</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>S30_G01_TB002</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>Backend: Add Pydantic schemas for deployment config (symbol/group target, TF, daily-via-intraday settings, entry/exit DSL, sizing, risk, broker/product, paper/live).</t>
-        </is>
-      </c>
-      <c r="G318" t="inlineStr">
+      <c r="B322" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C322" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — scheduler &amp; job queue</t>
+        </is>
+      </c>
+      <c r="D322" s="3" t="inlineStr">
+        <is>
+          <t>S30_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E322" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Implement deployment BarCloseEngine (separate from 6h sync): 1m/5m bar-boundary alignment + lateness tolerance (3–7s), Candle DB-first fetch (broker fallback persists to DB), per (user,deployment,symbol,tf) backfill using last_emitted_bar_end_ts; enqueue BAR_CLOSED + DAILY_PROXY_CLOSED (15:25) + window jobs (09:15 sell, 15:25–15:30 buy, MIS flatten).</t>
+        </is>
+      </c>
+      <c r="G322" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
+    <row r="323" ht="55.2" customHeight="1" s="4">
+      <c r="A323" s="3" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Strategy deployment (internal signals) — data model &amp; API</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>S30_G01_TB003</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>Backend: CRUD API for deployments (list/get/create/update/delete) + start/stop toggle; include last/next eval timestamps and current state summary.</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr">
+      <c r="B323" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C323" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — scheduler &amp; job queue</t>
+        </is>
+      </c>
+      <c r="D323" s="3" t="inlineStr">
+        <is>
+          <t>S30_G02_TB003</t>
+        </is>
+      </c>
+      <c r="E323" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Worker to claim/execute jobs with per-deployment lock; generate idempotent Action Plan; persist state + action/audit trail; bounded retries/backoff; record last/next evaluation.</t>
+        </is>
+      </c>
+      <c r="G323" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
+    <row r="324" ht="55.2" customHeight="1" s="4">
+      <c r="A324" s="3" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Strategy deployment (internal signals) — data model &amp; API</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>S30_G01_TT001</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>Tests: Deployment CRUD + ownership checks + basic config validation.</t>
-        </is>
-      </c>
-      <c r="G320" t="inlineStr">
+      <c r="B324" s="3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C324" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — scheduler &amp; job queue</t>
+        </is>
+      </c>
+      <c r="D324" s="3" t="inlineStr">
+        <is>
+          <t>S30_G02_TT001</t>
+        </is>
+      </c>
+      <c r="E324" s="3" t="inlineStr">
+        <is>
+          <t>Tests: Job dedupe (UNIQUE key), SQLite claim semantics, TTL requeue, lock correctness, bar boundary/window calculations (incl. daily-via-intraday proxy close) and backfill behavior.</t>
+        </is>
+      </c>
+      <c r="G324" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
+    <row r="325" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A325" s="3" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B325" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C325" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — runner engine &amp; paper execution</t>
+        </is>
+      </c>
+      <c r="D325" s="3" t="inlineStr">
+        <is>
+          <t>S30_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E325" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Implement runner state machine (FLAT/LONG/SHORT) using same DSL semantics as backtests; exit-first then entry; warm-up gating (no entries until warm) with indicator_lookback_max from DSL AST; support daily-via-intraday proxy close.</t>
+        </is>
+      </c>
+      <c r="G325" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="326" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A326" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B326" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C326" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — runner engine &amp; paper execution</t>
+        </is>
+      </c>
+      <c r="D326" s="3" t="inlineStr">
+        <is>
+          <t>S30_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E326" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Implement risk controls + trailing engine (Mode A 5m / Mode B 1m bar-close only in MVP; no ticks), SL/TP/trailing, equity DD caps, cooldown/min-hold, max open positions; enforce MIS auto-flatten (15:25–15:30).</t>
+        </is>
+      </c>
+      <c r="G326" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="327" ht="41.75" customHeight="1" s="4">
+      <c r="A327" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B327" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C327" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — runner engine &amp; paper execution</t>
+        </is>
+      </c>
+      <c r="D327" s="3" t="inlineStr">
+        <is>
+          <t>S30_G03_TB003</t>
+        </is>
+      </c>
+      <c r="E327" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Paper execution path that creates SigmaTrader orders (with idempotent client order ids); link orders back to deployment actions.</t>
+        </is>
+      </c>
+      <c r="G327" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="328" ht="82.05" customHeight="1" s="4">
+      <c r="A328" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B328" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C328" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — runner engine &amp; paper execution</t>
+        </is>
+      </c>
+      <c r="D328" s="3" t="inlineStr">
+        <is>
+          <t>S30_G03_TB004</t>
+        </is>
+      </c>
+      <c r="E328" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Reconciliation loop (paper-first): broker/order/position sync → update runner state; handle partial fills/rejections; enforce disaster stop lifecycle (create if missing, cancel if flat), detect manual intervention and PAUSED_MANUAL; record anomalies in system events.</t>
+        </is>
+      </c>
+      <c r="G328" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="329" ht="55.2" customHeight="1" s="4">
+      <c r="A329" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B329" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C329" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — runner engine &amp; paper execution</t>
+        </is>
+      </c>
+      <c r="D329" s="3" t="inlineStr">
+        <is>
+          <t>S30_G03_TT001</t>
+        </is>
+      </c>
+      <c r="E329" s="3" t="inlineStr">
+        <is>
+          <t>Tests: Deterministic runner on synthetic candles (signals + SL/TP/trailing + MIS EOD) with warm-up; idempotent order creation; no double-fires on restart; disaster stop lifecycle/orphan cleanup.</t>
+        </is>
+      </c>
+      <c r="G329" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="330" ht="41.75" customHeight="1" s="4">
+      <c r="A330" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B330" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C330" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — UI, observability &amp; docs</t>
+        </is>
+      </c>
+      <c r="D330" s="3" t="inlineStr">
+        <is>
+          <t>S30_G04_TF001</t>
+        </is>
+      </c>
+      <c r="E330" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Add Deployments page (list + create/edit form) with start/stop, status, last evaluated, and quick filters (paper/live, broker).</t>
+        </is>
+      </c>
+      <c r="G330" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="331" ht="41.75" customHeight="1" s="4">
+      <c r="A331" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B331" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C331" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — UI, observability &amp; docs</t>
+        </is>
+      </c>
+      <c r="D331" s="3" t="inlineStr">
+        <is>
+          <t>S30_G04_TF002</t>
+        </is>
+      </c>
+      <c r="E331" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Deployment details view (positions, recent actions, job lag/errors) + “Run now” button; show DSL snapshot for last evaluation.</t>
+        </is>
+      </c>
+      <c r="G331" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="332" ht="41.75" customHeight="1" s="4">
+      <c r="A332" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B332" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C332" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — UI, observability &amp; docs</t>
+        </is>
+      </c>
+      <c r="D332" s="3" t="inlineStr">
+        <is>
+          <t>S30_G04_TF003</t>
+        </is>
+      </c>
+      <c r="E332" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Add “Deploy” entry point from Strategy backtest (prefill deployment config from backtest inputs).</t>
+        </is>
+      </c>
+      <c r="G332" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="333" ht="41.75" customHeight="1" s="4">
+      <c r="A333" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B333" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C333" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — UI, observability &amp; docs</t>
+        </is>
+      </c>
+      <c r="D333" s="3" t="inlineStr">
+        <is>
+          <t>S30_G04_TD001</t>
+        </is>
+      </c>
+      <c r="E333" s="3" t="inlineStr">
+        <is>
+          <t>Docs: Update strategy_deployment.md with final UX/API pointers and operational runbook (how to start/stop, troubleshooting, safety notes).</t>
+        </is>
+      </c>
+      <c r="G333" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="334" ht="41.75" customHeight="1" s="4">
+      <c r="A334" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B334" s="3" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C334" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment — UI, observability &amp; docs</t>
+        </is>
+      </c>
+      <c r="D334" s="3" t="inlineStr">
+        <is>
+          <t>S30_G04_TT001</t>
+        </is>
+      </c>
+      <c r="E334" s="3" t="inlineStr">
+        <is>
+          <t>Tests: Minimal API integration tests for deployments endpoints + smoke test for scheduler/worker startup in app lifespan.</t>
+        </is>
+      </c>
+      <c r="G334" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="335" ht="41.75" customHeight="1" s="4">
+      <c r="A335" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B335" s="3" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C335" s="3" t="inlineStr">
         <is>
           <t>Strategy deployment — scheduler &amp; job queue</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>S30_G02_TB001</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>Backend: Add deployment_job queue table (deployment_id, job_key, due_ts, kind, payload, status) with idempotency/deduping keys.</t>
-        </is>
-      </c>
-      <c r="G321" t="inlineStr">
+      <c r="D335" s="3" t="inlineStr">
+        <is>
+          <t>S30_G02_TB004</t>
+        </is>
+      </c>
+      <c r="E335" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add TTL sweeper to re-queue stale RUNNING jobs and clean up stale locks; expose basic scheduler/worker health metrics (job lag, errors).</t>
+        </is>
+      </c>
+      <c r="G335" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
+    <row r="336" ht="55.2" customHeight="1" s="4">
+      <c r="A336" s="3" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Strategy deployment — scheduler &amp; job queue</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>S30_G02_TB002</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>Backend: Scheduler service to enqueue jobs on bar-close (TF&lt;1d) and fixed windows (09:15, 15:25 for daily-via-intraday); bounded wakeups (no busy loops).</t>
-        </is>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Strategy deployment — scheduler &amp; job queue</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>S30_G02_TB003</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>Backend: Worker to claim/execute jobs with per-deployment lock; retries/backoff; record job audit trail and last/next evaluation.</t>
-        </is>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>Strategy deployment — scheduler &amp; job queue</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>S30_G02_TT001</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>Tests: Job dedupe + lock correctness + scheduler window calculations (incl. daily-via-intraday).</t>
-        </is>
-      </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
+      <c r="B336" s="3" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C336" s="3" t="inlineStr">
         <is>
           <t>Strategy deployment — runner engine &amp; paper execution</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>S30_G03_TB001</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>Backend: Implement runner state machine (FLAT/LONG/SHORT) using same DSL evaluator semantics as backtests; exit-first then entry; optional same-day re-entry for TF&lt;1d.</t>
-        </is>
-      </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>Strategy deployment — runner engine &amp; paper execution</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>S30_G03_TB002</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>Backend: Implement risk controls (SL/TP/trailing, max equity DD global/trade, cooldown/min-hold, max open positions for group mode) and action logging.</t>
-        </is>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>Strategy deployment — runner engine &amp; paper execution</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>S30_G03_TB003</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>Backend: Paper execution path that creates SigmaTrader orders (with idempotent client order ids); link orders back to deployment actions.</t>
-        </is>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>Strategy deployment — runner engine &amp; paper execution</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>S30_G03_TB004</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>Backend: Reconciliation loop (paper-first): sync fills/orders → update runner state; handle partial fills/rejections; mark anomalies in system events.</t>
-        </is>
-      </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Strategy deployment — runner engine &amp; paper execution</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>S30_G03_TT001</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>Tests: Deterministic runner on synthetic candles (signal entry/exit + stops) and idempotent order creation; no double-fires on restart.</t>
-        </is>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>Strategy deployment — UI, observability &amp; docs</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>S30_G04_TF001</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>Frontend: Add Deployments page (list + create/edit form) with start/stop, status, last evaluated, and quick filters (paper/live, broker).</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Strategy deployment — UI, observability &amp; docs</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>S30_G04_TF002</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>Frontend: Deployment details view (positions, recent actions, job lag/errors) + “Run now” button; show DSL snapshot for last evaluation.</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Strategy deployment — UI, observability &amp; docs</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>S30_G04_TF003</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>Frontend: Add “Deploy” entry point from Strategy backtest (prefill deployment config from backtest inputs).</t>
-        </is>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Strategy deployment — UI, observability &amp; docs</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>S30_G04_TD001</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>Docs: Update strategy_deployment.md with final UX/API pointers and operational runbook (how to start/stop, troubleshooting, safety notes).</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Strategy deployment — UI, observability &amp; docs</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>S30_G04_TT001</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>Tests: Minimal API integration tests for deployments endpoints + smoke test for scheduler/worker startup in app lifespan.</t>
-        </is>
-      </c>
-      <c r="G334" t="inlineStr">
+      <c r="D336" s="3" t="inlineStr">
+        <is>
+          <t>S30_G03_TB005</t>
+        </is>
+      </c>
+      <c r="E336" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Implement Zerodha disaster SL primitives: CNC uses GTT SL (create after fill, cancel on exit), MIS uses SL/SL-M; store refs in state; orphan prevention; UI-safe pause behavior (PAUSED_MANUAL).</t>
+        </is>
+      </c>
+      <c r="G336" s="3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -13632,7 +13632,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
+      <c r="H317" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
         </is>
@@ -13669,7 +13669,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
+      <c r="H318" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
         </is>
@@ -13706,7 +13706,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
+      <c r="H319" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
         </is>
@@ -13743,7 +13743,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
+      <c r="H320" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
         </is>
@@ -13777,7 +13777,12 @@
       </c>
       <c r="G321" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
@@ -13809,7 +13814,12 @@
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
@@ -13841,7 +13851,12 @@
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13888,12 @@
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
@@ -14225,7 +14245,12 @@
       </c>
       <c r="G335" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -13780,7 +13780,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
+      <c r="H321" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
@@ -13817,7 +13817,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
+      <c r="H322" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
@@ -13854,7 +13854,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
+      <c r="H323" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
@@ -13891,7 +13891,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
+      <c r="H324" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
@@ -13925,7 +13925,12 @@
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
@@ -13957,7 +13962,12 @@
       </c>
       <c r="G326" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
@@ -13989,7 +13999,12 @@
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
@@ -14021,7 +14036,12 @@
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14073,12 @@
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
@@ -14248,7 +14273,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
+      <c r="H335" s="0" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
@@ -14282,7 +14307,12 @@
       </c>
       <c r="G336" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -13928,7 +13928,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
+      <c r="H325" s="0" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
@@ -13965,7 +13965,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
+      <c r="H326" s="0" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
@@ -14002,7 +14002,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
+      <c r="H327" s="0" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
@@ -14039,7 +14039,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
+      <c r="H328" s="0" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
@@ -14076,7 +14076,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
+      <c r="H329" s="0" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -14142,7 +14142,7 @@
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="G333" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="G334" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -14310,7 +14310,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
+      <c r="H336" s="0" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,10 +359,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A326" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C300" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A329" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C337" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -13601,7 +13601,7 @@
         </is>
       </c>
     </row>
-    <row r="317" ht="41.75" customHeight="1" s="4">
+    <row r="317" ht="41.25" customHeight="1" s="4">
       <c r="A317" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13632,13 +13632,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H317" s="0" t="inlineStr">
+      <c r="H317" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
         </is>
       </c>
     </row>
-    <row r="318" ht="41.75" customHeight="1" s="4">
+    <row r="318" ht="41.25" customHeight="1" s="4">
       <c r="A318" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13669,13 +13669,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H318" s="0" t="inlineStr">
+      <c r="H318" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
         </is>
       </c>
     </row>
-    <row r="319" ht="55.2" customHeight="1" s="4">
+    <row r="319" ht="54.75" customHeight="1" s="4">
       <c r="A319" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13706,13 +13706,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H319" s="0" t="inlineStr">
+      <c r="H319" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
         </is>
       </c>
     </row>
-    <row r="320" ht="28.35" customHeight="1" s="4">
+    <row r="320" ht="27.75" customHeight="1" s="4">
       <c r="A320" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13743,13 +13743,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H320" s="0" t="inlineStr">
+      <c r="H320" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments data model + CRUD/start-stop API + tests.</t>
         </is>
       </c>
     </row>
-    <row r="321" ht="55.2" customHeight="1" s="4">
+    <row r="321" ht="54.75" customHeight="1" s="4">
       <c r="A321" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13780,13 +13780,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H321" s="0" t="inlineStr">
+      <c r="H321" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
-    <row r="322" ht="95.5" customHeight="1" s="4">
+    <row r="322" ht="95.25" customHeight="1" s="4">
       <c r="A322" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13817,13 +13817,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H322" s="0" t="inlineStr">
+      <c r="H322" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
-    <row r="323" ht="55.2" customHeight="1" s="4">
+    <row r="323" ht="54.75" customHeight="1" s="4">
       <c r="A323" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13854,13 +13854,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H323" s="0" t="inlineStr">
+      <c r="H323" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
-    <row r="324" ht="55.2" customHeight="1" s="4">
+    <row r="324" ht="54.75" customHeight="1" s="4">
       <c r="A324" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13891,13 +13891,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H324" s="0" t="inlineStr">
+      <c r="H324" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
-    <row r="325" ht="68.65000000000001" customHeight="1" s="4">
+    <row r="325" ht="68.25" customHeight="1" s="4">
       <c r="A325" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13928,13 +13928,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H325" s="0" t="inlineStr">
+      <c r="H325" s="3" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
-    <row r="326" ht="68.65000000000001" customHeight="1" s="4">
+    <row r="326" ht="68.25" customHeight="1" s="4">
       <c r="A326" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -13965,13 +13965,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H326" s="0" t="inlineStr">
+      <c r="H326" s="3" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
-    <row r="327" ht="41.75" customHeight="1" s="4">
+    <row r="327" ht="41.25" customHeight="1" s="4">
       <c r="A327" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14002,13 +14002,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H327" s="0" t="inlineStr">
+      <c r="H327" s="3" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
-    <row r="328" ht="82.05" customHeight="1" s="4">
+    <row r="328" ht="81.75" customHeight="1" s="4">
       <c r="A328" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14039,13 +14039,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H328" s="0" t="inlineStr">
+      <c r="H328" s="3" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
-    <row r="329" ht="55.2" customHeight="1" s="4">
+    <row r="329" ht="54.75" customHeight="1" s="4">
       <c r="A329" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14076,13 +14076,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H329" s="0" t="inlineStr">
+      <c r="H329" s="3" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
         </is>
       </c>
     </row>
-    <row r="330" ht="41.75" customHeight="1" s="4">
+    <row r="330" ht="41.25" customHeight="1" s="4">
       <c r="A330" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14114,7 +14114,7 @@
         </is>
       </c>
     </row>
-    <row r="331" ht="41.75" customHeight="1" s="4">
+    <row r="331" ht="41.25" customHeight="1" s="4">
       <c r="A331" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
     </row>
-    <row r="332" ht="41.75" customHeight="1" s="4">
+    <row r="332" ht="41.25" customHeight="1" s="4">
       <c r="A332" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14178,7 +14178,7 @@
         </is>
       </c>
     </row>
-    <row r="333" ht="41.75" customHeight="1" s="4">
+    <row r="333" ht="41.25" customHeight="1" s="4">
       <c r="A333" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14210,7 +14210,7 @@
         </is>
       </c>
     </row>
-    <row r="334" ht="41.75" customHeight="1" s="4">
+    <row r="334" ht="41.25" customHeight="1" s="4">
       <c r="A334" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14242,7 +14242,7 @@
         </is>
       </c>
     </row>
-    <row r="335" ht="41.75" customHeight="1" s="4">
+    <row r="335" ht="41.25" customHeight="1" s="4">
       <c r="A335" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14273,13 +14273,13 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H335" s="0" t="inlineStr">
+      <c r="H335" s="3" t="inlineStr">
         <is>
           <t>Implemented deployments job queue, bar-close scheduler, worker + sweeper, metrics + tests.</t>
         </is>
       </c>
     </row>
-    <row r="336" ht="55.2" customHeight="1" s="4">
+    <row r="336" ht="54.75" customHeight="1" s="4">
       <c r="A336" s="3" t="inlineStr">
         <is>
           <t>S30</t>
@@ -14310,9 +14310,521 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H336" s="0" t="inlineStr">
+      <c r="H336" s="3" t="inlineStr">
         <is>
           <t>Implemented deployment runner + risk/trailing + paper orders + reconciliation + tests (incl idempotency and disaster-stop scaffolding).</t>
+        </is>
+      </c>
+    </row>
+    <row r="337" ht="55.2" customHeight="1" s="4">
+      <c r="A337" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B337" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C337" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — runtime safety</t>
+        </is>
+      </c>
+      <c r="D337" s="3" t="inlineStr">
+        <is>
+          <t>S30_G05_TB001</t>
+        </is>
+      </c>
+      <c r="E337" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Gate BAR_CLOSED job creation to market hours using market_hours resolver (session open/close, weekends, holidays); derive proxy_close and buy/sell/MIS windows from resolved session (not hardcoded 09:15/15:25/15:30); keep sweeper/reconciler outside hours; ensure run-now respects gating.</t>
+        </is>
+      </c>
+      <c r="G337" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="338" ht="28.35" customHeight="1" s="4">
+      <c r="A338" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B338" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C338" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — runtime safety</t>
+        </is>
+      </c>
+      <c r="D338" s="3" t="inlineStr">
+        <is>
+          <t>S30_G05_TT001</t>
+        </is>
+      </c>
+      <c r="E338" s="3" t="inlineStr">
+        <is>
+          <t>Tests: Market-hours gating + holiday/weekend semantics + session override cases (CLOSED/SETTLEMENT_ONLY/HALF_DAY/SPECIAL when present) + run-now gating (incl. daily proxy close and windows derived from session close).</t>
+        </is>
+      </c>
+      <c r="G338" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="339" ht="55.2" customHeight="1" s="4">
+      <c r="A339" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B339" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C339" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — runtime safety</t>
+        </is>
+      </c>
+      <c r="D339" s="3" t="inlineStr">
+        <is>
+          <t>S30_G05_TB002</t>
+        </is>
+      </c>
+      <c r="E339" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Enforce direction/product rules (SHORT allowed only for MIS; reject CNC+SHORT); add acknowledge_short_risk flag and require explicit acknowledgement for SHORT deployments.</t>
+        </is>
+      </c>
+      <c r="G339" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="340" ht="55.2" customHeight="1" s="4">
+      <c r="A340" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B340" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C340" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — runtime safety</t>
+        </is>
+      </c>
+      <c r="D340" s="3" t="inlineStr">
+        <is>
+          <t>S30_G05_TB003</t>
+        </is>
+      </c>
+      <c r="E340" s="3" t="inlineStr">
+        <is>
+          <t>Backend: On start, detect existing broker net position for symbol/group; compute combined exposure across deployments; persist exposure summary for UI (non-blocking warning).</t>
+        </is>
+      </c>
+      <c r="G340" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="341" ht="55.2" customHeight="1" s="4">
+      <c r="A341" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B341" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C341" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — runtime safety</t>
+        </is>
+      </c>
+      <c r="D341" s="3" t="inlineStr">
+        <is>
+          <t>S30_G05_TB004</t>
+        </is>
+      </c>
+      <c r="E341" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add deployment state PAUSED_DIRECTION_MISMATCH; auto-pause when config direction conflicts with existing net position; require explicit user resolution.</t>
+        </is>
+      </c>
+      <c r="G341" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="342" ht="55.2" customHeight="1" s="4">
+      <c r="A342" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B342" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C342" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — runtime safety</t>
+        </is>
+      </c>
+      <c r="D342" s="3" t="inlineStr">
+        <is>
+          <t>S30_G05_TB005</t>
+        </is>
+      </c>
+      <c r="E342" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add mismatch-resolution actions/endpoints: adopt existing position (exit-only), flatten existing position then continue, or ignore and stay paused; record audit trail.</t>
+        </is>
+      </c>
+      <c r="G342" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="343" ht="41.75" customHeight="1" s="4">
+      <c r="A343" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B343" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C343" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — runtime safety</t>
+        </is>
+      </c>
+      <c r="D343" s="3" t="inlineStr">
+        <is>
+          <t>S30_G05_TB006</t>
+        </is>
+      </c>
+      <c r="E343" s="3" t="inlineStr">
+        <is>
+          <t>Backend: Add optional “Enter immediately on start” mode (advanced) requiring explicit confirmation; default remains signal-only entry on BAR_CLOSED.</t>
+        </is>
+      </c>
+      <c r="G343" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="344" ht="55.2" customHeight="1" s="4">
+      <c r="A344" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B344" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C344" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — UI safety UX</t>
+        </is>
+      </c>
+      <c r="D344" s="3" t="inlineStr">
+        <is>
+          <t>S30_G06_TF001</t>
+        </is>
+      </c>
+      <c r="E344" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Show persistent exposure warning banner on deployment details (existing broker position + combined exposure); show PAUSED_DIRECTION_MISMATCH with clear actions.</t>
+        </is>
+      </c>
+      <c r="G344" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="345" ht="41.75" customHeight="1" s="4">
+      <c r="A345" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B345" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C345" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — UI safety UX</t>
+        </is>
+      </c>
+      <c r="D345" s="3" t="inlineStr">
+        <is>
+          <t>S30_G06_TF002</t>
+        </is>
+      </c>
+      <c r="E345" s="3" t="inlineStr">
+        <is>
+          <t>Frontend: Add explicit acknowledgements when starting SHORT deployments and when existing positions are detected; warn about duplicate trades/loss potential.</t>
+        </is>
+      </c>
+      <c r="G345" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="346" ht="41.75" customHeight="1" s="4">
+      <c r="A346" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B346" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C346" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — UI safety UX</t>
+        </is>
+      </c>
+      <c r="D346" s="3" t="inlineStr">
+        <is>
+          <t>S30_G06_TD001</t>
+        </is>
+      </c>
+      <c r="E346" s="3" t="inlineStr">
+        <is>
+          <t>Docs: Update strategy_deployment.md with v3 rules (market-hours gating, exposure warnings, direction mismatch handling, short-specific safety).</t>
+        </is>
+      </c>
+      <c r="G346" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="347" ht="41.75" customHeight="1" s="4">
+      <c r="A347" s="3" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B347" s="3" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="C347" s="3" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — UI safety UX</t>
+        </is>
+      </c>
+      <c r="D347" s="3" t="inlineStr">
+        <is>
+          <t>S30_G06_TT001</t>
+        </is>
+      </c>
+      <c r="E347" s="3" t="inlineStr">
+        <is>
+          <t>Tests: API/UI integration coverage for start gating, exposure detection payload, direction mismatch pause + resolution actions.</t>
+        </is>
+      </c>
+      <c r="G347" s="3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — market calendar (sec 11)</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>S30_G07_TB001</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Backend: Add MarketCalendar table + Alembic migration (date, exchange, session_type, open_time, close_time, notes) + indexes; treat DB as authoritative source for sessions.</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — market calendar (sec 11)</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>S30_G07_TB002</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Backend: Implement market-hours resolver API in market_hours.py (Asia/Kolkata): resolve session per (date, exchange) with defaults; derive proxy_close and preferred buy/sell windows; expose is_trading_time/is_market_open functions.</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — market calendar (sec 11)</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>S30_G07_TB003</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Backend: Add Settings API for market calendar CSV upload/download/list (validate schema + session_type values; weekend implicit close; support CLOSED and SETTLEMENT_ONLY in MVP; honor HALF_DAY/SPECIAL only when present).</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — market calendar (sec 11)</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>S30_G07_TF001</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Frontend: Settings → Market Configuration UI: upload CSV per exchange, show current default session times (open/close) and resolved proxy_close/windows preview; show last upload status/errors.</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — market calendar (sec 11)</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>S30_G07_TT001</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Tests: CSV validation + resolver correctness across weekends/holidays/special sessions; scheduler window derivations use session close; regression tests for existing simple holiday JSON fallback.</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>pending</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A329" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C337" activeCellId="0" sqref="1:1048576"/>
@@ -14669,160 +14669,768 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
+      <c r="A348" s="0" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr">
+      <c r="B348" s="0" t="inlineStr">
         <is>
           <t>G07</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
+      <c r="C348" s="0" t="inlineStr">
         <is>
           <t>Strategy deployment v3 — market calendar (sec 11)</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
+      <c r="D348" s="0" t="inlineStr">
         <is>
           <t>S30_G07_TB001</t>
         </is>
       </c>
-      <c r="E348" t="inlineStr">
+      <c r="E348" s="0" t="inlineStr">
         <is>
           <t>Backend: Add MarketCalendar table + Alembic migration (date, exchange, session_type, open_time, close_time, notes) + indexes; treat DB as authoritative source for sessions.</t>
         </is>
       </c>
-      <c r="G348" t="inlineStr">
+      <c r="G348" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
+      <c r="A349" s="0" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr">
+      <c r="B349" s="0" t="inlineStr">
         <is>
           <t>G07</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
+      <c r="C349" s="0" t="inlineStr">
         <is>
           <t>Strategy deployment v3 — market calendar (sec 11)</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
+      <c r="D349" s="0" t="inlineStr">
         <is>
           <t>S30_G07_TB002</t>
         </is>
       </c>
-      <c r="E349" t="inlineStr">
+      <c r="E349" s="0" t="inlineStr">
         <is>
           <t>Backend: Implement market-hours resolver API in market_hours.py (Asia/Kolkata): resolve session per (date, exchange) with defaults; derive proxy_close and preferred buy/sell windows; expose is_trading_time/is_market_open functions.</t>
         </is>
       </c>
-      <c r="G349" t="inlineStr">
+      <c r="G349" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
+      <c r="A350" s="0" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B350" t="inlineStr">
+      <c r="B350" s="0" t="inlineStr">
         <is>
           <t>G07</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
+      <c r="C350" s="0" t="inlineStr">
         <is>
           <t>Strategy deployment v3 — market calendar (sec 11)</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr">
+      <c r="D350" s="0" t="inlineStr">
         <is>
           <t>S30_G07_TB003</t>
         </is>
       </c>
-      <c r="E350" t="inlineStr">
+      <c r="E350" s="0" t="inlineStr">
         <is>
           <t>Backend: Add Settings API for market calendar CSV upload/download/list (validate schema + session_type values; weekend implicit close; support CLOSED and SETTLEMENT_ONLY in MVP; honor HALF_DAY/SPECIAL only when present).</t>
         </is>
       </c>
-      <c r="G350" t="inlineStr">
+      <c r="G350" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
+      <c r="A351" s="0" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr">
+      <c r="B351" s="0" t="inlineStr">
         <is>
           <t>G07</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
+      <c r="C351" s="0" t="inlineStr">
         <is>
           <t>Strategy deployment v3 — market calendar (sec 11)</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr">
+      <c r="D351" s="0" t="inlineStr">
         <is>
           <t>S30_G07_TF001</t>
         </is>
       </c>
-      <c r="E351" t="inlineStr">
+      <c r="E351" s="0" t="inlineStr">
         <is>
           <t>Frontend: Settings → Market Configuration UI: upload CSV per exchange, show current default session times (open/close) and resolved proxy_close/windows preview; show last upload status/errors.</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr">
+      <c r="G351" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
+      <c r="A352" s="0" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B352" t="inlineStr">
+      <c r="B352" s="0" t="inlineStr">
         <is>
           <t>G07</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
+      <c r="C352" s="0" t="inlineStr">
         <is>
           <t>Strategy deployment v3 — market calendar (sec 11)</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr">
+      <c r="D352" s="0" t="inlineStr">
         <is>
           <t>S30_G07_TT001</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr">
+      <c r="E352" s="0" t="inlineStr">
         <is>
           <t>Tests: CSV validation + resolver correctness across weekends/holidays/special sessions; scheduler window derivations use session close; regression tests for existing simple holiday JSON fallback.</t>
         </is>
       </c>
-      <c r="G352" t="inlineStr">
+      <c r="G352" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>S30_G08_TB001</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Backend: Add deployment heartbeat fields in DB (last_eval_at, last_eval_bar_end_ts, runtime_state enum FLAT/IN_POSITION/WARMING_UP/PAUSED_*/ERROR, last_decision enum, last_decision_reason, next_eval_at) + expose in API schemas; index last_eval_at/next_eval_at for table views.</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>S30_G08_TB002</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Backend: Add per-deployment append-only event journal table (deployment_event_log) + writer helpers; emit events for BAR_CLOSED received, eval start/finish, entry/exit signal booleans, order intent + submit/fill states, risk exits, reconciliation actions.</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>S30_G08_TB003</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Backend: Ensure order intent → order → fills/trades are linked by deployment_id + intent_id + dedupe_key (paper and live); add missing columns/migrations and propagate through execution paths.</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>S30_G08_TB004</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Backend: Implement live per-deployment performance summary service + API (realized/unrealized P&amp;L, current position, trade count, last trade time; optional drawdown) computed from fills/positions and cached safely.</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>S30_G08_TB005</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Backend: Add deployment equity curve points table + API; write points on each exit and on EOD/proxy close (mark-to-market) for RUNNING deployments.</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>S30_G08_TF001</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Frontend: Deployments table shows State, Last Eval, Last Decision (chips) + tooltips/help icons explaining state/decision; refresh cadence and “evidence of life” UX.</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>S30_G08_TF002</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Frontend: Add deployment details right-side drawer (recommended) with tabs Summary/Equity/Journal/Orders/Trades/Diagnostics; ensure selection from list opens drawer and deep-linking still works.</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>S30_G08_TD001</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Docs: Update strategy deployment help to explain heartbeat fields, event journal, P&amp;L attribution, and equity curve semantics (paper vs live caveats).</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>S30_G08_TT001</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Tests: Heartbeat updates per eval (including NO_BAR/MARKET_CLOSED decisions), event journal insertion, order/fill linkage, and performance/equity API correctness (paper path).</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>S30_G09_TB001</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Backend: Implement reconciliation-on-start routine: on BE startup load RUNNING deployments, fetch broker/paper positions+open orders, compare expected vs actual, repair safe mismatches and PAUSE deployment when unsafe; record journal events.</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>S30_G09_TB002</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Backend: Audit and harden idempotency/dedupe across all trading actions (evaluation, order intent create, submission, trailing updates, MIS auto-flatten); unify deterministic dedupe keys and add guardrails to prevent duplicates on restart.</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>S30_G09_TB003</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Backend: Add operational controls/telemetry for restarts (e.g., reconcile-only startup mode flag, last_reconcile_at/result on health endpoint, and rate-limited reconciliation sweeps outside market hours).</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>S30_G09_TD001</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Docs: Operator runbook for restart safety (off-hours guarantees, recommended pause→restart→resume workflow, and how reconciliation resolves/pauses deployments).</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>S30_G09_TT001</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Tests: Restart simulation (persist jobs/actions/orders then re-init workers) verifies no duplicate orders, reconciliation runs for RUNNING deployments, and unsafe mismatches lead to PAUSED + journal entry.</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>S30_G10_TB001</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Backend: Add explicit Pause/Resume endpoints and persist paused_at/resumed_at + reason; ensure status transitions are audited and reflected in heartbeat fields.</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>S30_G10_TB002</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Backend: Enforce scheduler/worker double-gate: scheduler must not enqueue BAR_CLOSED/DAILY_PROXY jobs for PAUSED deployments; worker must re-check status before execute; run-now is blocked (or returns “paused”).</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>S30_G10_TB003</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Backend: Ensure PAUSE does not cancel broker-side protections (disaster SL/GTT) and does not disable MIS auto-flatten schedule; document and test invariants.</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>S30_G10_TF001</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Frontend: Add Pause/Resume/Stop actions in deployments list and details; show paused-at timestamp and “protections remain active” notice; add help icon clarifying pause semantics.</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>S30_G10_TT001</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Tests: Paused deployments do not generate/execute BAR_CLOSED; run-now respects pause; protections are not removed; UI/API permission checks.</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -89,7 +89,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -105,6 +105,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -361,8 +364,8 @@
   </sheetPr>
   <dimension ref="A1:I371"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A329" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C337" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A344" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C346" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -14316,1123 +14319,1298 @@
         </is>
       </c>
     </row>
-    <row r="337" ht="55.2" customHeight="1" s="4">
-      <c r="A337" s="3" t="inlineStr">
+    <row r="337" ht="54.75" customHeight="1" s="4">
+      <c r="A337" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B337" s="3" t="inlineStr">
+      <c r="B337" s="6" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C337" s="6" t="inlineStr">
+        <is>
+          <t>Phase 1 — Strategy deployment v3: observability foundation (sec 12)</t>
+        </is>
+      </c>
+      <c r="D337" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TB001</t>
+        </is>
+      </c>
+      <c r="E337" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Add deployment heartbeat fields in DB (last_eval_at, last_eval_bar_end_ts, runtime_state enum FLAT/IN_POSITION/WARMING_UP/PAUSED_*/ERROR, last_decision enum, last_decision_reason, next_eval_at) + expose in API schemas; index last_eval_at/next_eval_at for table views.</t>
+        </is>
+      </c>
+      <c r="G337" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="338" ht="27.75" customHeight="1" s="4">
+      <c r="A338" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B338" s="6" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C338" s="6" t="inlineStr">
+        <is>
+          <t>Phase 1 — Strategy deployment v3: observability foundation (sec 12)</t>
+        </is>
+      </c>
+      <c r="D338" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TB002</t>
+        </is>
+      </c>
+      <c r="E338" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Add per-deployment append-only event journal table (deployment_event_log) + writer helpers; emit events for BAR_CLOSED received, eval start/finish, entry/exit signal booleans, order intent + submit/fill states, risk exits, reconciliation actions.</t>
+        </is>
+      </c>
+      <c r="G338" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="339" ht="54.75" customHeight="1" s="4">
+      <c r="A339" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B339" s="6" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C339" s="6" t="inlineStr">
+        <is>
+          <t>Phase 2 — Strategy deployment v3: market calendar &amp; sessions (sec 11)</t>
+        </is>
+      </c>
+      <c r="D339" s="6" t="inlineStr">
+        <is>
+          <t>S30_G07_TB001</t>
+        </is>
+      </c>
+      <c r="E339" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Add MarketCalendar table + Alembic migration (date, exchange, session_type, open_time, close_time, notes) + indexes; treat DB as authoritative source for sessions.</t>
+        </is>
+      </c>
+      <c r="G339" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="340" ht="54.75" customHeight="1" s="4">
+      <c r="A340" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B340" s="6" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C340" s="6" t="inlineStr">
+        <is>
+          <t>Phase 2 — Strategy deployment v3: market calendar &amp; sessions (sec 11)</t>
+        </is>
+      </c>
+      <c r="D340" s="6" t="inlineStr">
+        <is>
+          <t>S30_G07_TB002</t>
+        </is>
+      </c>
+      <c r="E340" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Implement market-hours resolver API in market_hours.py (Asia/Kolkata): resolve session per (date, exchange) with defaults; derive proxy_close and preferred buy/sell windows; expose is_trading_time/is_market_open functions.</t>
+        </is>
+      </c>
+      <c r="G340" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="341" ht="54.75" customHeight="1" s="4">
+      <c r="A341" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B341" s="6" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C341" s="6" t="inlineStr">
+        <is>
+          <t>Phase 2 — Strategy deployment v3: market calendar &amp; sessions (sec 11)</t>
+        </is>
+      </c>
+      <c r="D341" s="6" t="inlineStr">
+        <is>
+          <t>S30_G07_TB003</t>
+        </is>
+      </c>
+      <c r="E341" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Add Settings API for market calendar CSV upload/download/list (validate schema + session_type values; weekend implicit close; support CLOSED and SETTLEMENT_ONLY in MVP; honor HALF_DAY/SPECIAL only when present).</t>
+        </is>
+      </c>
+      <c r="G341" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="342" ht="54.75" customHeight="1" s="4">
+      <c r="A342" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B342" s="6" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C342" s="6" t="inlineStr">
+        <is>
+          <t>Phase 2 — Strategy deployment v3: market calendar &amp; sessions (sec 11)</t>
+        </is>
+      </c>
+      <c r="D342" s="6" t="inlineStr">
+        <is>
+          <t>S30_G07_TF001</t>
+        </is>
+      </c>
+      <c r="E342" s="6" t="inlineStr">
+        <is>
+          <t>Frontend: Settings → Market Configuration UI: upload CSV per exchange, show current default session times (open/close) and resolved proxy_close/windows preview; show last upload status/errors.</t>
+        </is>
+      </c>
+      <c r="G342" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="343" ht="41.25" customHeight="1" s="4">
+      <c r="A343" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B343" s="6" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="C343" s="6" t="inlineStr">
+        <is>
+          <t>Phase 2 — Strategy deployment v3: market calendar &amp; sessions (sec 11)</t>
+        </is>
+      </c>
+      <c r="D343" s="6" t="inlineStr">
+        <is>
+          <t>S30_G07_TT001</t>
+        </is>
+      </c>
+      <c r="E343" s="6" t="inlineStr">
+        <is>
+          <t>Tests: CSV validation + resolver correctness across weekends/holidays/special sessions; scheduler window derivations use session close; regression tests for existing simple holiday JSON fallback.</t>
+        </is>
+      </c>
+      <c r="G343" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="344" ht="54.75" customHeight="1" s="4">
+      <c r="A344" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B344" s="6" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C337" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — runtime safety</t>
-        </is>
-      </c>
-      <c r="D337" s="3" t="inlineStr">
+      <c r="C344" s="6" t="inlineStr">
+        <is>
+          <t>Phase 3 — Strategy deployment v3: market-hours gating (sec 11)</t>
+        </is>
+      </c>
+      <c r="D344" s="6" t="inlineStr">
         <is>
           <t>S30_G05_TB001</t>
         </is>
       </c>
-      <c r="E337" s="3" t="inlineStr">
+      <c r="E344" s="6" t="inlineStr">
         <is>
           <t>Backend: Gate BAR_CLOSED job creation to market hours using market_hours resolver (session open/close, weekends, holidays); derive proxy_close and buy/sell/MIS windows from resolved session (not hardcoded 09:15/15:25/15:30); keep sweeper/reconciler outside hours; ensure run-now respects gating.</t>
         </is>
       </c>
-      <c r="G337" s="3" t="inlineStr">
+      <c r="G344" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="338" ht="28.35" customHeight="1" s="4">
-      <c r="A338" s="3" t="inlineStr">
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="345" ht="41.25" customHeight="1" s="4">
+      <c r="A345" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B338" s="3" t="inlineStr">
+      <c r="B345" s="6" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C338" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — runtime safety</t>
-        </is>
-      </c>
-      <c r="D338" s="3" t="inlineStr">
+      <c r="C345" s="6" t="inlineStr">
+        <is>
+          <t>Phase 3 — Strategy deployment v3: market-hours gating (sec 11)</t>
+        </is>
+      </c>
+      <c r="D345" s="6" t="inlineStr">
         <is>
           <t>S30_G05_TT001</t>
         </is>
       </c>
-      <c r="E338" s="3" t="inlineStr">
+      <c r="E345" s="6" t="inlineStr">
         <is>
           <t>Tests: Market-hours gating + holiday/weekend semantics + session override cases (CLOSED/SETTLEMENT_ONLY/HALF_DAY/SPECIAL when present) + run-now gating (incl. daily proxy close and windows derived from session close).</t>
         </is>
       </c>
-      <c r="G338" s="3" t="inlineStr">
+      <c r="G345" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="339" ht="55.2" customHeight="1" s="4">
-      <c r="A339" s="3" t="inlineStr">
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="346" ht="41.25" customHeight="1" s="4">
+      <c r="A346" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B339" s="3" t="inlineStr">
+      <c r="B346" s="6" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C346" s="6" t="inlineStr">
+        <is>
+          <t>Phase 4 — Strategy deployment v3: pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D346" s="6" t="inlineStr">
+        <is>
+          <t>S30_G10_TB001</t>
+        </is>
+      </c>
+      <c r="E346" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Add explicit Pause/Resume endpoints and persist paused_at/resumed_at + reason; ensure status transitions are audited and reflected in heartbeat fields.</t>
+        </is>
+      </c>
+      <c r="G346" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="347" ht="41.25" customHeight="1" s="4">
+      <c r="A347" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B347" s="6" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C347" s="6" t="inlineStr">
+        <is>
+          <t>Phase 4 — Strategy deployment v3: pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D347" s="6" t="inlineStr">
+        <is>
+          <t>S30_G10_TB002</t>
+        </is>
+      </c>
+      <c r="E347" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Enforce scheduler/worker double-gate: scheduler must not enqueue BAR_CLOSED/DAILY_PROXY jobs for PAUSED deployments; worker must re-check status before execute; run-now is blocked (or returns “paused”).</t>
+        </is>
+      </c>
+      <c r="G347" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="348" ht="55.2" customHeight="1" s="4">
+      <c r="A348" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B348" s="6" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C348" s="6" t="inlineStr">
+        <is>
+          <t>Phase 4 — Strategy deployment v3: pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D348" s="6" t="inlineStr">
+        <is>
+          <t>S30_G10_TB003</t>
+        </is>
+      </c>
+      <c r="E348" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Ensure PAUSE does not cancel broker-side protections (disaster SL/GTT) and does not disable MIS auto-flatten schedule; document and test invariants.</t>
+        </is>
+      </c>
+      <c r="G348" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="349" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A349" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B349" s="6" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C349" s="6" t="inlineStr">
+        <is>
+          <t>Phase 4 — Strategy deployment v3: pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D349" s="6" t="inlineStr">
+        <is>
+          <t>S30_G10_TF001</t>
+        </is>
+      </c>
+      <c r="E349" s="6" t="inlineStr">
+        <is>
+          <t>Frontend: Add Pause/Resume/Stop actions in deployments list and details; show paused-at timestamp and “protections remain active” notice; add help icon clarifying pause semantics.</t>
+        </is>
+      </c>
+      <c r="G349" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="350" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A350" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B350" s="6" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="C350" s="6" t="inlineStr">
+        <is>
+          <t>Phase 4 — Strategy deployment v3: pause &amp; resume semantics (sec 14)</t>
+        </is>
+      </c>
+      <c r="D350" s="6" t="inlineStr">
+        <is>
+          <t>S30_G10_TT001</t>
+        </is>
+      </c>
+      <c r="E350" s="6" t="inlineStr">
+        <is>
+          <t>Tests: Paused deployments do not generate/execute BAR_CLOSED; run-now respects pause; protections are not removed; UI/API permission checks.</t>
+        </is>
+      </c>
+      <c r="G350" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="351" ht="55.2" customHeight="1" s="4">
+      <c r="A351" s="6" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="B351" s="6" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C339" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — runtime safety</t>
-        </is>
-      </c>
-      <c r="D339" s="3" t="inlineStr">
+      <c r="C351" s="6" t="inlineStr">
+        <is>
+          <t>Phase 5 — Strategy deployment v3: runtime safety (direction/exposure)</t>
+        </is>
+      </c>
+      <c r="D351" s="6" t="inlineStr">
         <is>
           <t>S30_G05_TB002</t>
         </is>
       </c>
-      <c r="E339" s="3" t="inlineStr">
+      <c r="E351" s="6" t="inlineStr">
         <is>
           <t>Backend: Enforce direction/product rules (SHORT allowed only for MIS; reject CNC+SHORT); add acknowledge_short_risk flag and require explicit acknowledgement for SHORT deployments.</t>
         </is>
       </c>
-      <c r="G339" s="3" t="inlineStr">
+      <c r="G351" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="340" ht="55.2" customHeight="1" s="4">
-      <c r="A340" s="3" t="inlineStr">
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="352" ht="55.2" customHeight="1" s="4">
+      <c r="A352" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B340" s="3" t="inlineStr">
+      <c r="B352" s="6" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C340" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — runtime safety</t>
-        </is>
-      </c>
-      <c r="D340" s="3" t="inlineStr">
+      <c r="C352" s="6" t="inlineStr">
+        <is>
+          <t>Phase 5 — Strategy deployment v3: runtime safety (direction/exposure)</t>
+        </is>
+      </c>
+      <c r="D352" s="6" t="inlineStr">
         <is>
           <t>S30_G05_TB003</t>
         </is>
       </c>
-      <c r="E340" s="3" t="inlineStr">
+      <c r="E352" s="6" t="inlineStr">
         <is>
           <t>Backend: On start, detect existing broker net position for symbol/group; compute combined exposure across deployments; persist exposure summary for UI (non-blocking warning).</t>
         </is>
       </c>
-      <c r="G340" s="3" t="inlineStr">
+      <c r="G352" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="341" ht="55.2" customHeight="1" s="4">
-      <c r="A341" s="3" t="inlineStr">
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="353" ht="82.05" customHeight="1" s="4">
+      <c r="A353" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B341" s="3" t="inlineStr">
+      <c r="B353" s="6" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C341" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — runtime safety</t>
-        </is>
-      </c>
-      <c r="D341" s="3" t="inlineStr">
+      <c r="C353" s="6" t="inlineStr">
+        <is>
+          <t>Phase 5 — Strategy deployment v3: runtime safety (direction/exposure)</t>
+        </is>
+      </c>
+      <c r="D353" s="6" t="inlineStr">
         <is>
           <t>S30_G05_TB004</t>
         </is>
       </c>
-      <c r="E341" s="3" t="inlineStr">
+      <c r="E353" s="6" t="inlineStr">
         <is>
           <t>Backend: Add deployment state PAUSED_DIRECTION_MISMATCH; auto-pause when config direction conflicts with existing net position; require explicit user resolution.</t>
         </is>
       </c>
-      <c r="G341" s="3" t="inlineStr">
+      <c r="G353" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="342" ht="55.2" customHeight="1" s="4">
-      <c r="A342" s="3" t="inlineStr">
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="354" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A354" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B342" s="3" t="inlineStr">
+      <c r="B354" s="6" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C342" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — runtime safety</t>
-        </is>
-      </c>
-      <c r="D342" s="3" t="inlineStr">
+      <c r="C354" s="6" t="inlineStr">
+        <is>
+          <t>Phase 5 — Strategy deployment v3: runtime safety (direction/exposure)</t>
+        </is>
+      </c>
+      <c r="D354" s="6" t="inlineStr">
         <is>
           <t>S30_G05_TB005</t>
         </is>
       </c>
-      <c r="E342" s="3" t="inlineStr">
+      <c r="E354" s="6" t="inlineStr">
         <is>
           <t>Backend: Add mismatch-resolution actions/endpoints: adopt existing position (exit-only), flatten existing position then continue, or ignore and stay paused; record audit trail.</t>
         </is>
       </c>
-      <c r="G342" s="3" t="inlineStr">
+      <c r="G354" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="343" ht="41.75" customHeight="1" s="4">
-      <c r="A343" s="3" t="inlineStr">
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="355" ht="55.2" customHeight="1" s="4">
+      <c r="A355" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B343" s="3" t="inlineStr">
+      <c r="B355" s="6" t="inlineStr">
         <is>
           <t>G05</t>
         </is>
       </c>
-      <c r="C343" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — runtime safety</t>
-        </is>
-      </c>
-      <c r="D343" s="3" t="inlineStr">
+      <c r="C355" s="6" t="inlineStr">
+        <is>
+          <t>Phase 5 — Strategy deployment v3: runtime safety (direction/exposure)</t>
+        </is>
+      </c>
+      <c r="D355" s="6" t="inlineStr">
         <is>
           <t>S30_G05_TB006</t>
         </is>
       </c>
-      <c r="E343" s="3" t="inlineStr">
+      <c r="E355" s="6" t="inlineStr">
         <is>
           <t>Backend: Add optional “Enter immediately on start” mode (advanced) requiring explicit confirmation; default remains signal-only entry on BAR_CLOSED.</t>
         </is>
       </c>
-      <c r="G343" s="3" t="inlineStr">
+      <c r="G355" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="344" ht="55.2" customHeight="1" s="4">
-      <c r="A344" s="3" t="inlineStr">
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="356" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A356" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B344" s="3" t="inlineStr">
+      <c r="B356" s="6" t="inlineStr">
         <is>
           <t>G06</t>
         </is>
       </c>
-      <c r="C344" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — UI safety UX</t>
-        </is>
-      </c>
-      <c r="D344" s="3" t="inlineStr">
+      <c r="C356" s="6" t="inlineStr">
+        <is>
+          <t>Phase 6 — Strategy deployment v3: UI safety UX</t>
+        </is>
+      </c>
+      <c r="D356" s="6" t="inlineStr">
         <is>
           <t>S30_G06_TF001</t>
         </is>
       </c>
-      <c r="E344" s="3" t="inlineStr">
+      <c r="E356" s="6" t="inlineStr">
         <is>
           <t>Frontend: Show persistent exposure warning banner on deployment details (existing broker position + combined exposure); show PAUSED_DIRECTION_MISMATCH with clear actions.</t>
         </is>
       </c>
-      <c r="G344" s="3" t="inlineStr">
+      <c r="G356" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="345" ht="41.75" customHeight="1" s="4">
-      <c r="A345" s="3" t="inlineStr">
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="357" ht="41.75" customHeight="1" s="4">
+      <c r="A357" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B345" s="3" t="inlineStr">
+      <c r="B357" s="6" t="inlineStr">
         <is>
           <t>G06</t>
         </is>
       </c>
-      <c r="C345" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — UI safety UX</t>
-        </is>
-      </c>
-      <c r="D345" s="3" t="inlineStr">
+      <c r="C357" s="6" t="inlineStr">
+        <is>
+          <t>Phase 6 — Strategy deployment v3: UI safety UX</t>
+        </is>
+      </c>
+      <c r="D357" s="6" t="inlineStr">
         <is>
           <t>S30_G06_TF002</t>
         </is>
       </c>
-      <c r="E345" s="3" t="inlineStr">
+      <c r="E357" s="6" t="inlineStr">
         <is>
           <t>Frontend: Add explicit acknowledgements when starting SHORT deployments and when existing positions are detected; warn about duplicate trades/loss potential.</t>
         </is>
       </c>
-      <c r="G345" s="3" t="inlineStr">
+      <c r="G357" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="346" ht="41.75" customHeight="1" s="4">
-      <c r="A346" s="3" t="inlineStr">
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="358" ht="55.2" customHeight="1" s="4">
+      <c r="A358" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B346" s="3" t="inlineStr">
+      <c r="B358" s="6" t="inlineStr">
         <is>
           <t>G06</t>
         </is>
       </c>
-      <c r="C346" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — UI safety UX</t>
-        </is>
-      </c>
-      <c r="D346" s="3" t="inlineStr">
+      <c r="C358" s="6" t="inlineStr">
+        <is>
+          <t>Phase 6 — Strategy deployment v3: UI safety UX</t>
+        </is>
+      </c>
+      <c r="D358" s="6" t="inlineStr">
         <is>
           <t>S30_G06_TD001</t>
         </is>
       </c>
-      <c r="E346" s="3" t="inlineStr">
+      <c r="E358" s="6" t="inlineStr">
         <is>
           <t>Docs: Update strategy_deployment.md with v3 rules (market-hours gating, exposure warnings, direction mismatch handling, short-specific safety).</t>
         </is>
       </c>
-      <c r="G346" s="3" t="inlineStr">
+      <c r="G358" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="347" ht="41.75" customHeight="1" s="4">
-      <c r="A347" s="3" t="inlineStr">
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="359" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A359" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B347" s="3" t="inlineStr">
+      <c r="B359" s="6" t="inlineStr">
         <is>
           <t>G06</t>
         </is>
       </c>
-      <c r="C347" s="3" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — UI safety UX</t>
-        </is>
-      </c>
-      <c r="D347" s="3" t="inlineStr">
+      <c r="C359" s="6" t="inlineStr">
+        <is>
+          <t>Phase 6 — Strategy deployment v3: UI safety UX</t>
+        </is>
+      </c>
+      <c r="D359" s="6" t="inlineStr">
         <is>
           <t>S30_G06_TT001</t>
         </is>
       </c>
-      <c r="E347" s="3" t="inlineStr">
+      <c r="E359" s="6" t="inlineStr">
         <is>
           <t>Tests: API/UI integration coverage for start gating, exposure detection payload, direction mismatch pause + resolution actions.</t>
         </is>
       </c>
-      <c r="G347" s="3" t="inlineStr">
+      <c r="G359" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="0" t="inlineStr">
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="360" ht="41.75" customHeight="1" s="4">
+      <c r="A360" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B348" s="0" t="inlineStr">
-        <is>
-          <t>G07</t>
-        </is>
-      </c>
-      <c r="C348" s="0" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — market calendar (sec 11)</t>
-        </is>
-      </c>
-      <c r="D348" s="0" t="inlineStr">
-        <is>
-          <t>S30_G07_TB001</t>
-        </is>
-      </c>
-      <c r="E348" s="0" t="inlineStr">
-        <is>
-          <t>Backend: Add MarketCalendar table + Alembic migration (date, exchange, session_type, open_time, close_time, notes) + indexes; treat DB as authoritative source for sessions.</t>
-        </is>
-      </c>
-      <c r="G348" s="0" t="inlineStr">
+      <c r="B360" s="6" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C360" s="6" t="inlineStr">
+        <is>
+          <t>Phase 7 — Strategy deployment v3: observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D360" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TB003</t>
+        </is>
+      </c>
+      <c r="E360" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Ensure order intent → order → fills/trades are linked by deployment_id + intent_id + dedupe_key (paper and live); add missing columns/migrations and propagate through execution paths.</t>
+        </is>
+      </c>
+      <c r="G360" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="0" t="inlineStr">
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="361" ht="55.2" customHeight="1" s="4">
+      <c r="A361" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B349" s="0" t="inlineStr">
-        <is>
-          <t>G07</t>
-        </is>
-      </c>
-      <c r="C349" s="0" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — market calendar (sec 11)</t>
-        </is>
-      </c>
-      <c r="D349" s="0" t="inlineStr">
-        <is>
-          <t>S30_G07_TB002</t>
-        </is>
-      </c>
-      <c r="E349" s="0" t="inlineStr">
-        <is>
-          <t>Backend: Implement market-hours resolver API in market_hours.py (Asia/Kolkata): resolve session per (date, exchange) with defaults; derive proxy_close and preferred buy/sell windows; expose is_trading_time/is_market_open functions.</t>
-        </is>
-      </c>
-      <c r="G349" s="0" t="inlineStr">
+      <c r="B361" s="6" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C361" s="6" t="inlineStr">
+        <is>
+          <t>Phase 7 — Strategy deployment v3: observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D361" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TB004</t>
+        </is>
+      </c>
+      <c r="E361" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Implement live per-deployment performance summary service + API (realized/unrealized P&amp;L, current position, trade count, last trade time; optional drawdown) computed from fills/positions and cached safely.</t>
+        </is>
+      </c>
+      <c r="G361" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="0" t="inlineStr">
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="362" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A362" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B350" s="0" t="inlineStr">
-        <is>
-          <t>G07</t>
-        </is>
-      </c>
-      <c r="C350" s="0" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — market calendar (sec 11)</t>
-        </is>
-      </c>
-      <c r="D350" s="0" t="inlineStr">
-        <is>
-          <t>S30_G07_TB003</t>
-        </is>
-      </c>
-      <c r="E350" s="0" t="inlineStr">
-        <is>
-          <t>Backend: Add Settings API for market calendar CSV upload/download/list (validate schema + session_type values; weekend implicit close; support CLOSED and SETTLEMENT_ONLY in MVP; honor HALF_DAY/SPECIAL only when present).</t>
-        </is>
-      </c>
-      <c r="G350" s="0" t="inlineStr">
+      <c r="B362" s="6" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C362" s="6" t="inlineStr">
+        <is>
+          <t>Phase 7 — Strategy deployment v3: observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D362" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TB005</t>
+        </is>
+      </c>
+      <c r="E362" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Add deployment equity curve points table + API; write points on each exit and on EOD/proxy close (mark-to-market) for RUNNING deployments.</t>
+        </is>
+      </c>
+      <c r="G362" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="0" t="inlineStr">
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="363" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A363" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B351" s="0" t="inlineStr">
-        <is>
-          <t>G07</t>
-        </is>
-      </c>
-      <c r="C351" s="0" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — market calendar (sec 11)</t>
-        </is>
-      </c>
-      <c r="D351" s="0" t="inlineStr">
-        <is>
-          <t>S30_G07_TF001</t>
-        </is>
-      </c>
-      <c r="E351" s="0" t="inlineStr">
-        <is>
-          <t>Frontend: Settings → Market Configuration UI: upload CSV per exchange, show current default session times (open/close) and resolved proxy_close/windows preview; show last upload status/errors.</t>
-        </is>
-      </c>
-      <c r="G351" s="0" t="inlineStr">
+      <c r="B363" s="6" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C363" s="6" t="inlineStr">
+        <is>
+          <t>Phase 7 — Strategy deployment v3: observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D363" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TF001</t>
+        </is>
+      </c>
+      <c r="E363" s="6" t="inlineStr">
+        <is>
+          <t>Frontend: Deployments table shows State, Last Eval, Last Decision (chips) + tooltips/help icons explaining state/decision; refresh cadence and “evidence of life” UX.</t>
+        </is>
+      </c>
+      <c r="G363" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="0" t="inlineStr">
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="364" ht="55.2" customHeight="1" s="4">
+      <c r="A364" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B352" s="0" t="inlineStr">
-        <is>
-          <t>G07</t>
-        </is>
-      </c>
-      <c r="C352" s="0" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — market calendar (sec 11)</t>
-        </is>
-      </c>
-      <c r="D352" s="0" t="inlineStr">
-        <is>
-          <t>S30_G07_TT001</t>
-        </is>
-      </c>
-      <c r="E352" s="0" t="inlineStr">
-        <is>
-          <t>Tests: CSV validation + resolver correctness across weekends/holidays/special sessions; scheduler window derivations use session close; regression tests for existing simple holiday JSON fallback.</t>
-        </is>
-      </c>
-      <c r="G352" s="0" t="inlineStr">
+      <c r="B364" s="6" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="C364" s="6" t="inlineStr">
+        <is>
+          <t>Phase 7 — Strategy deployment v3: observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D364" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TF002</t>
+        </is>
+      </c>
+      <c r="E364" s="6" t="inlineStr">
+        <is>
+          <t>Frontend: Add deployment details right-side drawer (recommended) with tabs Summary/Equity/Journal/Orders/Trades/Diagnostics; ensure selection from list opens drawer and deep-linking still works.</t>
+        </is>
+      </c>
+      <c r="G364" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="365" ht="55.2" customHeight="1" s="4">
+      <c r="A365" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr">
+      <c r="B365" s="6" t="inlineStr">
         <is>
           <t>G08</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>S30_G08_TB001</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>Backend: Add deployment heartbeat fields in DB (last_eval_at, last_eval_bar_end_ts, runtime_state enum FLAT/IN_POSITION/WARMING_UP/PAUSED_*/ERROR, last_decision enum, last_decision_reason, next_eval_at) + expose in API schemas; index last_eval_at/next_eval_at for table views.</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
+      <c r="C365" s="6" t="inlineStr">
+        <is>
+          <t>Phase 7 — Strategy deployment v3: observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D365" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TD001</t>
+        </is>
+      </c>
+      <c r="E365" s="6" t="inlineStr">
+        <is>
+          <t>Docs: Update strategy deployment help to explain heartbeat fields, event journal, P&amp;L attribution, and equity curve semantics (paper vs live caveats).</t>
+        </is>
+      </c>
+      <c r="G365" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="366" ht="55.2" customHeight="1" s="4">
+      <c r="A366" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr">
+      <c r="B366" s="6" t="inlineStr">
         <is>
           <t>G08</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>S30_G08_TB002</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>Backend: Add per-deployment append-only event journal table (deployment_event_log) + writer helpers; emit events for BAR_CLOSED received, eval start/finish, entry/exit signal booleans, order intent + submit/fill states, risk exits, reconciliation actions.</t>
-        </is>
-      </c>
-      <c r="G354" t="inlineStr">
+      <c r="C366" s="6" t="inlineStr">
+        <is>
+          <t>Phase 7 — Strategy deployment v3: observability &amp; performance (sec 12)</t>
+        </is>
+      </c>
+      <c r="D366" s="6" t="inlineStr">
+        <is>
+          <t>S30_G08_TT001</t>
+        </is>
+      </c>
+      <c r="E366" s="6" t="inlineStr">
+        <is>
+          <t>Tests: Heartbeat updates per eval (including NO_BAR/MARKET_CLOSED decisions), event journal insertion, order/fill linkage, and performance/equity API correctness (paper path).</t>
+        </is>
+      </c>
+      <c r="G366" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="367" ht="41.75" customHeight="1" s="4">
+      <c r="A367" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>G08</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>S30_G08_TB003</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>Backend: Ensure order intent → order → fills/trades are linked by deployment_id + intent_id + dedupe_key (paper and live); add missing columns/migrations and propagate through execution paths.</t>
-        </is>
-      </c>
-      <c r="G355" t="inlineStr">
+      <c r="B367" s="6" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C367" s="6" t="inlineStr">
+        <is>
+          <t>Phase 8 — Strategy deployment v3: restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D367" s="6" t="inlineStr">
+        <is>
+          <t>S30_G09_TB001</t>
+        </is>
+      </c>
+      <c r="E367" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Implement reconciliation-on-start routine: on BE startup load RUNNING deployments, fetch broker/paper positions+open orders, compare expected vs actual, repair safe mismatches and PAUSE deployment when unsafe; record journal events.</t>
+        </is>
+      </c>
+      <c r="G367" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="368" ht="68.65000000000001" customHeight="1" s="4">
+      <c r="A368" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>G08</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>S30_G08_TB004</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>Backend: Implement live per-deployment performance summary service + API (realized/unrealized P&amp;L, current position, trade count, last trade time; optional drawdown) computed from fills/positions and cached safely.</t>
-        </is>
-      </c>
-      <c r="G356" t="inlineStr">
+      <c r="B368" s="6" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C368" s="6" t="inlineStr">
+        <is>
+          <t>Phase 8 — Strategy deployment v3: restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D368" s="6" t="inlineStr">
+        <is>
+          <t>S30_G09_TB002</t>
+        </is>
+      </c>
+      <c r="E368" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Audit and harden idempotency/dedupe across all trading actions (evaluation, order intent create, submission, trailing updates, MIS auto-flatten); unify deterministic dedupe keys and add guardrails to prevent duplicates on restart.</t>
+        </is>
+      </c>
+      <c r="G368" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369" ht="41.75" customHeight="1" s="4">
+      <c r="A369" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>G08</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>S30_G08_TB005</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>Backend: Add deployment equity curve points table + API; write points on each exit and on EOD/proxy close (mark-to-market) for RUNNING deployments.</t>
-        </is>
-      </c>
-      <c r="G357" t="inlineStr">
+      <c r="B369" s="6" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C369" s="6" t="inlineStr">
+        <is>
+          <t>Phase 8 — Strategy deployment v3: restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D369" s="6" t="inlineStr">
+        <is>
+          <t>S30_G09_TB003</t>
+        </is>
+      </c>
+      <c r="E369" s="6" t="inlineStr">
+        <is>
+          <t>Backend: Add operational controls/telemetry for restarts (e.g., reconcile-only startup mode flag, last_reconcile_at/result on health endpoint, and rate-limited reconciliation sweeps outside market hours).</t>
+        </is>
+      </c>
+      <c r="G369" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370" ht="55.2" customHeight="1" s="4">
+      <c r="A370" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>G08</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>S30_G08_TF001</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>Frontend: Deployments table shows State, Last Eval, Last Decision (chips) + tooltips/help icons explaining state/decision; refresh cadence and “evidence of life” UX.</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
+      <c r="B370" s="6" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C370" s="6" t="inlineStr">
+        <is>
+          <t>Phase 8 — Strategy deployment v3: restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D370" s="6" t="inlineStr">
+        <is>
+          <t>S30_G09_TD001</t>
+        </is>
+      </c>
+      <c r="E370" s="6" t="inlineStr">
+        <is>
+          <t>Docs: Operator runbook for restart safety (off-hours guarantees, recommended pause→restart→resume workflow, and how reconciliation resolves/pauses deployments).</t>
+        </is>
+      </c>
+      <c r="G370" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="371" ht="41.75" customHeight="1" s="4">
+      <c r="A371" s="6" t="inlineStr">
         <is>
           <t>S30</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>G08</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>S30_G08_TF002</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>Frontend: Add deployment details right-side drawer (recommended) with tabs Summary/Equity/Journal/Orders/Trades/Diagnostics; ensure selection from list opens drawer and deep-linking still works.</t>
-        </is>
-      </c>
-      <c r="G359" t="inlineStr">
+      <c r="B371" s="6" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="C371" s="6" t="inlineStr">
+        <is>
+          <t>Phase 8 — Strategy deployment v3: restart &amp; operational resilience (sec 13)</t>
+        </is>
+      </c>
+      <c r="D371" s="6" t="inlineStr">
+        <is>
+          <t>S30_G09_TT001</t>
+        </is>
+      </c>
+      <c r="E371" s="6" t="inlineStr">
+        <is>
+          <t>Tests: Restart simulation (persist jobs/actions/orders then re-init workers) verifies no duplicate orders, reconciliation runs for RUNNING deployments, and unsafe mismatches lead to PAUSED + journal entry.</t>
+        </is>
+      </c>
+      <c r="G371" s="6" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>G08</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>S30_G08_TD001</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>Docs: Update strategy deployment help to explain heartbeat fields, event journal, P&amp;L attribution, and equity curve semantics (paper vs live caveats).</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>G08</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — observability &amp; performance (sec 12)</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>S30_G08_TT001</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>Tests: Heartbeat updates per eval (including NO_BAR/MARKET_CLOSED decisions), event journal insertion, order/fill linkage, and performance/equity API correctness (paper path).</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>G09</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>S30_G09_TB001</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>Backend: Implement reconciliation-on-start routine: on BE startup load RUNNING deployments, fetch broker/paper positions+open orders, compare expected vs actual, repair safe mismatches and PAUSE deployment when unsafe; record journal events.</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>G09</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>S30_G09_TB002</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>Backend: Audit and harden idempotency/dedupe across all trading actions (evaluation, order intent create, submission, trailing updates, MIS auto-flatten); unify deterministic dedupe keys and add guardrails to prevent duplicates on restart.</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>G09</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>S30_G09_TB003</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>Backend: Add operational controls/telemetry for restarts (e.g., reconcile-only startup mode flag, last_reconcile_at/result on health endpoint, and rate-limited reconciliation sweeps outside market hours).</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>G09</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>S30_G09_TD001</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>Docs: Operator runbook for restart safety (off-hours guarantees, recommended pause→restart→resume workflow, and how reconciliation resolves/pauses deployments).</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>G09</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — restart &amp; operational resilience (sec 13)</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>S30_G09_TT001</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>Tests: Restart simulation (persist jobs/actions/orders then re-init workers) verifies no duplicate orders, reconciliation runs for RUNNING deployments, and unsafe mismatches lead to PAUSED + journal entry.</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>G10</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>S30_G10_TB001</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>Backend: Add explicit Pause/Resume endpoints and persist paused_at/resumed_at + reason; ensure status transitions are audited and reflected in heartbeat fields.</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>G10</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>S30_G10_TB002</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>Backend: Enforce scheduler/worker double-gate: scheduler must not enqueue BAR_CLOSED/DAILY_PROXY jobs for PAUSED deployments; worker must re-check status before execute; run-now is blocked (or returns “paused”).</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>G10</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>S30_G10_TB003</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>Backend: Ensure PAUSE does not cancel broker-side protections (disaster SL/GTT) and does not disable MIS auto-flatten schedule; document and test invariants.</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>G10</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>S30_G10_TF001</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>Frontend: Add Pause/Resume/Stop actions in deployments list and details; show paused-at timestamp and “protections remain active” notice; add help icon clarifying pause semantics.</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>S30</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>G10</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>Strategy deployment v3 — pause &amp; resume semantics (sec 14)</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>S30_G10_TT001</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>Tests: Paused deployments do not generate/execute BAR_CLOSED; run-now respects pause; protections are not removed; UI/API permission checks.</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>pending</t>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Impl order: Phase 8</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -14421,12 +14421,12 @@
       </c>
       <c r="G339" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H339" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 2</t>
+          <t>Impl order: Phase 2; Implemented on 2026-01-05</t>
         </is>
       </c>
     </row>
@@ -14458,12 +14458,12 @@
       </c>
       <c r="G340" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H340" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 2</t>
+          <t>Impl order: Phase 2; Implemented on 2026-01-05</t>
         </is>
       </c>
     </row>
@@ -14495,12 +14495,12 @@
       </c>
       <c r="G341" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H341" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 2</t>
+          <t>Impl order: Phase 2; Implemented on 2026-01-05</t>
         </is>
       </c>
     </row>
@@ -14532,12 +14532,12 @@
       </c>
       <c r="G342" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H342" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 2</t>
+          <t>Impl order: Phase 2; Implemented on 2026-01-05</t>
         </is>
       </c>
     </row>
@@ -14569,12 +14569,12 @@
       </c>
       <c r="G343" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H343" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 2</t>
+          <t>Impl order: Phase 2; Implemented on 2026-01-05</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -14606,12 +14606,12 @@
       </c>
       <c r="G344" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H344" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 3</t>
+          <t>Impl order: Phase 3; Implemented on 2026-01-05</t>
         </is>
       </c>
     </row>
@@ -14643,12 +14643,12 @@
       </c>
       <c r="G345" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H345" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 3</t>
+          <t>Impl order: Phase 3; Implemented on 2026-01-05</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -14680,12 +14680,12 @@
       </c>
       <c r="G346" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H346" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 4</t>
+          <t>Impl order: Phase 4; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -14717,12 +14717,12 @@
       </c>
       <c r="G347" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H347" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 4</t>
+          <t>Impl order: Phase 4; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -14754,12 +14754,12 @@
       </c>
       <c r="G348" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H348" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 4</t>
+          <t>Impl order: Phase 4; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -14791,12 +14791,12 @@
       </c>
       <c r="G349" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H349" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 4</t>
+          <t>Impl order: Phase 4; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -14828,12 +14828,12 @@
       </c>
       <c r="G350" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H350" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 4</t>
+          <t>Impl order: Phase 4; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -14865,12 +14865,12 @@
       </c>
       <c r="G351" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H351" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 5</t>
+          <t>Impl order: Phase 5; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -14902,12 +14902,12 @@
       </c>
       <c r="G352" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H352" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 5</t>
+          <t>Impl order: Phase 5; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -14939,12 +14939,12 @@
       </c>
       <c r="G353" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H353" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 5</t>
+          <t>Impl order: Phase 5; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -14976,12 +14976,12 @@
       </c>
       <c r="G354" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H354" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 5</t>
+          <t>Impl order: Phase 5; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -15013,12 +15013,12 @@
       </c>
       <c r="G355" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H355" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 5</t>
+          <t>Impl order: Phase 5; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -15050,12 +15050,12 @@
       </c>
       <c r="G356" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H356" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 6</t>
+          <t>Impl order: Phase 6; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -15087,12 +15087,12 @@
       </c>
       <c r="G357" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H357" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 6</t>
+          <t>Impl order: Phase 6; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -15124,12 +15124,12 @@
       </c>
       <c r="G358" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H358" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 6</t>
+          <t>Impl order: Phase 6; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>
@@ -15161,12 +15161,12 @@
       </c>
       <c r="G359" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H359" s="0" t="inlineStr">
         <is>
-          <t>Impl order: Phase 6</t>
+          <t>Impl order: Phase 6; Implemented on 2026-01-06</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -16423,7 +16423,7 @@
       </c>
       <c r="G392" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H392" s="1" t="inlineStr">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="G393" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H393" s="1" t="inlineStr">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="G394" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H394" s="1" t="inlineStr">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="G395" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H395" s="1" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="G396" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H396" s="1" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="G397" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H397" s="1" t="inlineStr">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="G398" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H398" s="1" t="inlineStr">
@@ -16682,7 +16682,7 @@
       </c>
       <c r="G399" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H399" s="1" t="inlineStr">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="G400" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H400" s="1" t="inlineStr">
@@ -16756,7 +16756,7 @@
       </c>
       <c r="G401" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H401" s="1" t="inlineStr">
@@ -16793,7 +16793,7 @@
       </c>
       <c r="G402" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H402" s="1" t="inlineStr">
@@ -16830,7 +16830,7 @@
       </c>
       <c r="G403" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H403" s="1" t="inlineStr">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="G404" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H404" s="1" t="inlineStr">
@@ -16904,7 +16904,7 @@
       </c>
       <c r="G405" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H405" s="1" t="inlineStr">
@@ -16941,7 +16941,7 @@
       </c>
       <c r="G406" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H406" s="1" t="inlineStr">
@@ -16978,7 +16978,7 @@
       </c>
       <c r="G407" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H407" s="1" t="inlineStr">

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -350,7 +350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C383" sqref="C383"/>
@@ -16987,6 +16987,487 @@
         </is>
       </c>
     </row>
+    <row r="408" ht="58.3" customHeight="1">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B408" s="1" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C408" s="1" t="inlineStr">
+        <is>
+          <t>Holdings with intent (Goal View) MVP</t>
+        </is>
+      </c>
+      <c r="D408" s="1" t="inlineStr">
+        <is>
+          <t>S33_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E408" s="1" t="inlineStr">
+        <is>
+          <t>Backend (MIGRATION): Add holding_goals persistence (label, review_date, target_type, target_value, note, created_at, updated_at) keyed by user+broker+symbol+exchange.</t>
+        </is>
+      </c>
+      <c r="G408" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H408" s="1" t="inlineStr">
+        <is>
+          <t>Holding goals table + model added (label, review date, target, note, timestamps).</t>
+        </is>
+      </c>
+    </row>
+    <row r="409" ht="58.3" customHeight="1">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B409" s="1" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C409" s="1" t="inlineStr">
+        <is>
+          <t>Holdings with intent (Goal View) MVP</t>
+        </is>
+      </c>
+      <c r="D409" s="1" t="inlineStr">
+        <is>
+          <t>S33_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E409" s="1" t="inlineStr">
+        <is>
+          <t>Backend: Add goals CRUD (list by broker, upsert by symbol/exchange, delete) with label-based default review date and single target type.</t>
+        </is>
+      </c>
+      <c r="G409" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H409" s="1" t="inlineStr">
+        <is>
+          <t>Goals CRUD endpoints added with defaults + validation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410" ht="58.3" customHeight="1">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B410" s="1" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C410" s="1" t="inlineStr">
+        <is>
+          <t>Holdings with intent (Goal View) MVP</t>
+        </is>
+      </c>
+      <c r="D410" s="1" t="inlineStr">
+        <is>
+          <t>S33_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E410" s="1" t="inlineStr">
+        <is>
+          <t>Frontend: Add Goal View toggle in Holdings, new columns (label, review date, days, status, target, away %, note) and filters (All/Overdue/Due Soon/Near Target/Missing).</t>
+        </is>
+      </c>
+      <c r="G410" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H410" s="1" t="inlineStr">
+        <is>
+          <t>Goal View toggle + columns + filters wired in Holdings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411" ht="58.3" customHeight="1">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B411" s="1" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C411" s="1" t="inlineStr">
+        <is>
+          <t>Holdings with intent (Goal View) MVP</t>
+        </is>
+      </c>
+      <c r="D411" s="1" t="inlineStr">
+        <is>
+          <t>S33_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E411" s="1" t="inlineStr">
+        <is>
+          <t>Frontend: Implement Edit Goal drawer (fixed labels, visible defaults, single target type, note) with save/update to goals API.</t>
+        </is>
+      </c>
+      <c r="G411" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H411" s="1" t="inlineStr">
+        <is>
+          <t>Goal edit dialog implemented with label defaults + target preview.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412" ht="58.3" customHeight="1">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B412" s="1" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C412" s="1" t="inlineStr">
+        <is>
+          <t>Holdings with intent (Goal View) MVP</t>
+        </is>
+      </c>
+      <c r="D412" s="1" t="inlineStr">
+        <is>
+          <t>S33_G01_TF003</t>
+        </is>
+      </c>
+      <c r="E412" s="1" t="inlineStr">
+        <is>
+          <t>Frontend: Add soft prompts for missing goals (badge, CTA "Set missing goals", Missing filter; no hard block).</t>
+        </is>
+      </c>
+      <c r="G412" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H412" s="1" t="inlineStr">
+        <is>
+          <t>Soft prompts for missing goals + filter/CTA added.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413" ht="58.3" customHeight="1">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B413" s="1" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C413" s="1" t="inlineStr">
+        <is>
+          <t>Holdings with intent (Goal View) MVP</t>
+        </is>
+      </c>
+      <c r="D413" s="1" t="inlineStr">
+        <is>
+          <t>S33_G01_TD001</t>
+        </is>
+      </c>
+      <c r="E413" s="1" t="inlineStr">
+        <is>
+          <t>Docs/QA: Add manual QA checklist for Goal View MVP (missing goals, due soon, overdue, near target, edit save).</t>
+        </is>
+      </c>
+      <c r="G413" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H413" s="1" t="inlineStr">
+        <is>
+          <t>QA checklist added in docs/qa/holdings_goal_view.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="414" ht="58.3" customHeight="1">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B414" s="1" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C414" s="1" t="inlineStr">
+        <is>
+          <t>Goal View v1: CSV import + presets</t>
+        </is>
+      </c>
+      <c r="D414" s="1" t="inlineStr">
+        <is>
+          <t>S33_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E414" s="1" t="inlineStr">
+        <is>
+          <t>Backend: Add bulk import endpoint for holding goals with symbol normalization (NSE:/BSE:), match summary, and per-row errors.</t>
+        </is>
+      </c>
+      <c r="G414" s="1" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H414" s="1" t="inlineStr">
+        <is>
+          <t>Est: 3h | Area: BE | Paths: backend/app/api/holdings_goals.py, backend/app/services/holdings_goals.py | Deps: S33_G01_TB002</t>
+        </is>
+      </c>
+    </row>
+    <row r="415" ht="58.3" customHeight="1">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B415" s="1" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C415" s="1" t="inlineStr">
+        <is>
+          <t>Goal View v1: CSV import + presets</t>
+        </is>
+      </c>
+      <c r="D415" s="1" t="inlineStr">
+        <is>
+          <t>S33_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E415" s="1" t="inlineStr">
+        <is>
+          <t>Backend: Add CSV mapping preset CRUD (save, list, delete) scoped to user.</t>
+        </is>
+      </c>
+      <c r="G415" s="1" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H415" s="1" t="inlineStr">
+        <is>
+          <t>Est: 2h | Area: BE | Paths: backend/app/api/holdings_goals.py, backend/app/models/holdings.py | Deps: S33_G01_TB001</t>
+        </is>
+      </c>
+    </row>
+    <row r="416" ht="58.3" customHeight="1">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B416" s="1" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C416" s="1" t="inlineStr">
+        <is>
+          <t>Goal View v1: CSV import + presets</t>
+        </is>
+      </c>
+      <c r="D416" s="1" t="inlineStr">
+        <is>
+          <t>S33_G02_TF001</t>
+        </is>
+      </c>
+      <c r="E416" s="1" t="inlineStr">
+        <is>
+          <t>Frontend: Build CSV import wizard (upload, preview, column mapping, preset save, import summary) for Goal View.</t>
+        </is>
+      </c>
+      <c r="G416" s="1" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H416" s="1" t="inlineStr">
+        <is>
+          <t>Est: 4h | Area: FE | Paths: frontend/src/views/HoldingsPage.tsx, frontend/src/components/GoalImportDialog.tsx (new), frontend/src/services/holdingsGoals.ts | Deps: S33_G02_TB001, S33_G02_TB002</t>
+        </is>
+      </c>
+    </row>
+    <row r="417" ht="58.3" customHeight="1">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B417" s="1" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C417" s="1" t="inlineStr">
+        <is>
+          <t>Goal View v1: CSV import + presets</t>
+        </is>
+      </c>
+      <c r="D417" s="1" t="inlineStr">
+        <is>
+          <t>S33_G02_TD001</t>
+        </is>
+      </c>
+      <c r="E417" s="1" t="inlineStr">
+        <is>
+          <t>Docs/QA: CSV import checklist (mapping, presets, unmatched symbols, update counts).</t>
+        </is>
+      </c>
+      <c r="G417" s="1" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H417" s="1" t="inlineStr">
+        <is>
+          <t>Est: 1h | Area: DOCS | Paths: docs/qa/holdings_goal_import.md (new) | Deps: S33_G02_TF001</t>
+        </is>
+      </c>
+    </row>
+    <row r="418" ht="58.3" customHeight="1">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B418" s="1" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C418" s="1" t="inlineStr">
+        <is>
+          <t>Goal View v2: alerts + review workflow</t>
+        </is>
+      </c>
+      <c r="D418" s="1" t="inlineStr">
+        <is>
+          <t>S33_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E418" s="1" t="inlineStr">
+        <is>
+          <t>Backend: Add review workflow support (last_reviewed_at/history) and stop target alerts after review date unless extended.</t>
+        </is>
+      </c>
+      <c r="G418" s="1" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H418" s="1" t="inlineStr">
+        <is>
+          <t>Est: 3h | Area: BE | Paths: backend/app/models/holdings.py, backend/app/services/alerts_v3.py | Deps: S33_G01_TB001</t>
+        </is>
+      </c>
+    </row>
+    <row r="419" ht="58.3" customHeight="1">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B419" s="1" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C419" s="1" t="inlineStr">
+        <is>
+          <t>Goal View v2: alerts + review workflow</t>
+        </is>
+      </c>
+      <c r="D419" s="1" t="inlineStr">
+        <is>
+          <t>S33_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E419" s="1" t="inlineStr">
+        <is>
+          <t>Frontend: Add review actions (extend, snooze) and review history panel in Goal View.</t>
+        </is>
+      </c>
+      <c r="G419" s="1" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H419" s="1" t="inlineStr">
+        <is>
+          <t>Est: 3h | Area: FE | Paths: frontend/src/views/HoldingsPage.tsx, frontend/src/components/GoalReviewPanel.tsx (new) | Deps: S33_G03_TB001</t>
+        </is>
+      </c>
+    </row>
+    <row r="420" ht="58.3" customHeight="1">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="B420" s="1" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C420" s="1" t="inlineStr">
+        <is>
+          <t>Goal View v2: alerts + review workflow</t>
+        </is>
+      </c>
+      <c r="D420" s="1" t="inlineStr">
+        <is>
+          <t>S33_G03_TD001</t>
+        </is>
+      </c>
+      <c r="E420" s="1" t="inlineStr">
+        <is>
+          <t>Docs: Goal View rollout notes + guardrails (no auto-sell, intent-first behavior).</t>
+        </is>
+      </c>
+      <c r="G420" s="1" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="H420" s="1" t="inlineStr">
+        <is>
+          <t>Est: 1h | Area: DOCS | Paths: docs/holdings_goal_view.md (new) | Deps: S33_G03_TF001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -17237,12 +17237,12 @@
       </c>
       <c r="G414" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H414" s="1" t="inlineStr">
         <is>
-          <t>Est: 3h | Area: BE | Paths: backend/app/api/holdings_goals.py, backend/app/services/holdings_goals.py | Deps: S33_G01_TB002</t>
+          <t>Bulk import endpoint added with symbol normalization + row errors.</t>
         </is>
       </c>
     </row>
@@ -17274,12 +17274,12 @@
       </c>
       <c r="G415" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H415" s="1" t="inlineStr">
         <is>
-          <t>Est: 2h | Area: BE | Paths: backend/app/api/holdings_goals.py, backend/app/models/holdings.py | Deps: S33_G01_TB001</t>
+          <t>Import preset CRUD added with stored mappings.</t>
         </is>
       </c>
     </row>
@@ -17311,12 +17311,12 @@
       </c>
       <c r="G416" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H416" s="1" t="inlineStr">
         <is>
-          <t>Est: 4h | Area: FE | Paths: frontend/src/views/HoldingsPage.tsx, frontend/src/components/GoalImportDialog.tsx (new), frontend/src/services/holdingsGoals.ts | Deps: S33_G02_TB001, S33_G02_TB002</t>
+          <t>CSV import dialog with mapping/presets/summary wired into Goal View.</t>
         </is>
       </c>
     </row>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="G417" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="H417" s="1" t="inlineStr">
         <is>
-          <t>Est: 1h | Area: DOCS | Paths: docs/qa/holdings_goal_import.md (new) | Deps: S33_G02_TF001</t>
+          <t>QA checklist added in docs/qa/holdings_goal_import.md</t>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -17385,12 +17385,17 @@
       </c>
       <c r="G418" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>done</t>
         </is>
       </c>
       <c r="H418" s="1" t="inlineStr">
         <is>
-          <t>Est: 3h | Area: BE | Paths: backend/app/models/holdings.py, backend/app/services/alerts_v3.py | Deps: S33_G01_TB001</t>
+          <t>Added holding goal review history table + review action endpoints.</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17422,12 +17427,17 @@
       </c>
       <c r="G419" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>done</t>
         </is>
       </c>
       <c r="H419" s="1" t="inlineStr">
         <is>
-          <t>Est: 3h | Area: FE | Paths: frontend/src/views/HoldingsPage.tsx, frontend/src/components/GoalReviewPanel.tsx (new) | Deps: S33_G03_TB001</t>
+          <t>Added review actions menu, history dialog, and goal reminder banners in Goal View.</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17459,12 +17469,17 @@
       </c>
       <c r="G420" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>done</t>
         </is>
       </c>
       <c r="H420" s="1" t="inlineStr">
         <is>
-          <t>Est: 1h | Area: DOCS | Paths: docs/holdings_goal_view.md (new) | Deps: S33_G03_TF001</t>
+          <t>Added docs/holdings_goal_view.md and docs/qa/holdings_goal_v2.md.</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/docs/sprint_tasks_codex.xlsx
+++ b/docs/sprint_tasks_codex.xlsx
@@ -350,7 +350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C383" sqref="C383"/>
@@ -17393,11 +17393,7 @@
           <t>Added holding goal review history table + review action endpoints.</t>
         </is>
       </c>
-      <c r="I418" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="I418" t="inlineStr"/>
     </row>
     <row r="419" ht="58.3" customHeight="1">
       <c r="A419" s="1" t="inlineStr">
@@ -17435,11 +17431,7 @@
           <t>Added review actions menu, history dialog, and goal reminder banners in Goal View.</t>
         </is>
       </c>
-      <c r="I419" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="I419" t="inlineStr"/>
     </row>
     <row r="420" ht="58.3" customHeight="1">
       <c r="A420" s="1" t="inlineStr">
@@ -17477,9 +17469,933 @@
           <t>Added docs/holdings_goal_view.md and docs/qa/holdings_goal_v2.md.</t>
         </is>
       </c>
-      <c r="I420" t="inlineStr">
-        <is>
-          <t/>
+      <c r="I420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: DB schema + models</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>S34_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Backend/DB: Add SQLAlchemy models for holding exit subscriptions + events (states, triggers, sizing, audit).</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: DB schema + models</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>S34_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Backend/DB: Add Alembic migration to create holding_exit_subscriptions and holding_exit_events with indexes + CHECK constraints (cross-dialect safe).</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: DB schema + models</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>S34_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Backend/DB: Add symbol identity normalization helper for holdings scope (exchange+symbol canonical form) and reuse it in all related features.</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: DB schema + models</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>S34_G01_TB004</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Backend/DB: Define constants/enums for trigger kinds, size modes, statuses; ensure consistent values across Pydantic, DB checks, and UI.</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: API + audit + safety posture</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>S34_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Backend/API: Implement CRUD endpoints for holding exit subscriptions (list/create/patch/pause/resume/delete).</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: API + audit + safety posture</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>S34_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Backend/API: Implement events endpoint (list events by subscription) and event writer helper (append-only).</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: API + audit + safety posture</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>S34_G02_TB003</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Backend/API: Validation rules for MVP (CNC-only, SELL-only, percent bounds, qty bounds, trigger kind/value validation, dispatch_mode=MANUAL by default).</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: API + audit + safety posture</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>S34_G02_TB004</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Backend/API: Pause/Resume semantics (resume clears pending_order_id + recomputes next_eval_at; pause records reason).</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: API + audit + safety posture</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>S34_G02_TB005</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Backend/API: Add feature-flag gating (ST_HOLDINGS_EXIT_ENABLED) + optional per-user/per-symbol allowlist hook (safe rollout).</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Engine + order creation + reconciliation</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>S34_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Backend/Engine: Add holdings exit engine scheduler (startup hook + periodic loop) with per-subscription next_eval_at scheduling (adaptive zones).</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Engine + order creation + reconciliation</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>S34_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Backend/Engine: Batch fetch broker holdings by (user, broker) and batch fetch quotes for candidate symbols; handle outages by skipping cycle + emitting EVAL_SKIPPED events.</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Engine + order creation + reconciliation</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>S34_G03_TB003</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Backend/Engine: Implement trigger evaluator for TARGET_ABS_PRICE + TARGET_PCT_FROM_AVG_BUY; compute next_eval_at (Far/Near/VeryNear) deterministically.</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Engine + order creation + reconciliation</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>S34_G03_TB004</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Backend/Engine: Implement quantity resolver (ABS_QTY, PCT_OF_POSITION) with integer clamping to broker holdings qty (CNC) + min_qty handling.</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Engine + order creation + reconciliation</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>S34_G03_TB005</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Backend/Engine: Create WAITING MANUAL SELL order on trigger (is_exit=true, client_order_id prefix HEX:, clear error_message context) and transition subscription to ORDER_CREATED with pending_order_id.</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Engine + order creation + reconciliation</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>S34_G03_TB006</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Backend/Engine: Exit arbiter integration (in-flight exit detection via order status set); when conflict, still create WAITING order with annotation + EXIT_QUEUED event (subscription priority via labeling).</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Engine + order creation + reconciliation</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>S34_G03_TB007</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Backend/Engine: Idempotency + restart safety (trigger_key, pending_order_id, unique client_order_id) and DB locking strategy (single worker on SQLite; SKIP LOCKED on Postgres).</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Engine + order creation + reconciliation</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>S34_G03_TB008</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Backend/Engine: Reconciliation job for ORDER_CREATED subscriptions: if pending order becomes EXECUTED -&gt; COMPLETED; if CANCELLED/FAILED/REJECTED_* -&gt; PAUSED with last_error.</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Frontend UX (Holdings + Managed Exits)</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>S34_G04_TF001</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Frontend: Add holdings exit subscriptions service client (CRUD + events) with typed schemas.</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Frontend UX (Holdings + Managed Exits)</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>S34_G04_TF002</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Frontend/Holdings: Add "Exit Plan" action per holding row and show subscription badge (ACTIVE/PAUSED/ORDER_CREATED/ERROR).</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Frontend UX (Holdings + Managed Exits)</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>S34_G04_TF003</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Frontend/Holdings: Build Exit Plan dialog (single-leg) with size selector (% of position vs qty), trigger type selector, computed preview, and validation; default execution=MANUAL.</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Frontend UX (Holdings + Managed Exits)</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>S34_G04_TF004</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Frontend/Managed Exits: Add a "Holdings exits" tab/panel (reuse ManagedRiskPage pattern) listing subscriptions + actions (pause/resume/delete) + view events.</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Frontend UX (Holdings + Managed Exits)</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>S34_G04_TF005</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Frontend/Queue: Improve labeling/sorting for subscription-created orders (client_order_id starts with HEX:) so subscription exits are easy to spot (and can be shown first when needed).</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Tests + QA + docs</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>S34_G05_TB001</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Backend tests: Unit tests for trigger evaluation + qty resolution + next_eval_at adaptive schedule (edge cases: small qty, rounding, percent).</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Tests + QA + docs</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>S34_G05_TB002</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Backend tests: Integration tests for engine trigger-&gt;order creation and idempotency across reruns; monkeypatch broker holdings + quote fetch.</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Tests + QA + docs</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>S34_G05_TB003</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Backend tests: Conflict test - subscription trigger + TradingView SELL on same symbol produce independent intents (both WAITING), with subscription one clearly labeled and no auto-dispatch.</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Tests + QA + docs</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>S34_G05_TF001</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Frontend tests: Exit Plan dialog validation + create flow; Managed Exits list actions (pause/resume/delete).</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Tests + QA + docs</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>S34_G05_TD001</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Docs/QA: Add QA checklist + scenario matrix for holdings exit automation (trigger, cancel, reject, conflict with TV, broker outage).</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Tests + QA + docs</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>S34_G05_TD002</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Docs/Ops: Add rollout + config notes (feature flags, recommended poll interval, safe defaults, Postgres concurrency notes).</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Holdings Exit Automation MVP: Tests + QA + docs</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>S34_G05_TD003</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Repo hygiene: Add .gitignore rule for `*.db-journal` and other SQLite transient files to prevent accidental commits.</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>planned</t>
         </is>
       </c>
     </row>
